--- a/Översikt ÄLMHULT.xlsx
+++ b/Översikt ÄLMHULT.xlsx
@@ -572,7 +572,7 @@
         <v>44067</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44830</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43424</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>43977</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>44049</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         <v>44663</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>43317</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>43318</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>43325</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1257,7 +1257,7 @@
         <v>43335</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>43339</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
         <v>43341</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1428,7 +1428,7 @@
         <v>43341</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>43343</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>43343</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         <v>43356</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>43357</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>43361</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>43368</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>43369</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>43369</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>43374</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43375</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43376</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>43385</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>43396</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>43399</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43411</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>43419</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>43419</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2454,7 +2454,7 @@
         <v>43419</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2511,7 +2511,7 @@
         <v>43423</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>43424</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>43425</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2682,7 +2682,7 @@
         <v>43430</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2739,7 +2739,7 @@
         <v>43430</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>43430</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>43432</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>43446</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>43447</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3024,7 +3024,7 @@
         <v>43451</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>43453</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>43453</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>43453</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>43453</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>43453</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>43454</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>43454</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>43455</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>43467</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3594,7 +3594,7 @@
         <v>43467</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3651,7 +3651,7 @@
         <v>43468</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3708,7 +3708,7 @@
         <v>43473</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         <v>43473</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
         <v>43473</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         <v>43473</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3936,7 +3936,7 @@
         <v>43475</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         <v>43479</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         <v>43481</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>43481</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>43483</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>43483</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>43483</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>43486</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>43488</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>43489</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>43501</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>43504</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>43504</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4677,7 +4677,7 @@
         <v>43504</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>43510</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4791,7 +4791,7 @@
         <v>43510</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4848,7 +4848,7 @@
         <v>43510</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>43510</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43514</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43514</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43514</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43517</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43522</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43524</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>43524</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5371,7 +5371,7 @@
         <v>43528</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5428,7 +5428,7 @@
         <v>43528</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5485,7 +5485,7 @@
         <v>43530</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5542,7 +5542,7 @@
         <v>43531</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5599,7 +5599,7 @@
         <v>43535</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5656,7 +5656,7 @@
         <v>43544</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5718,7 +5718,7 @@
         <v>43545</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5775,7 +5775,7 @@
         <v>43545</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5832,7 +5832,7 @@
         <v>43550</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5889,7 +5889,7 @@
         <v>43550</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43556</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
         <v>43563</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6060,7 +6060,7 @@
         <v>43569</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         <v>43569</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6174,7 +6174,7 @@
         <v>43571</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6231,7 +6231,7 @@
         <v>43579</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6288,7 +6288,7 @@
         <v>43579</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6345,7 +6345,7 @@
         <v>43579</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6402,7 +6402,7 @@
         <v>43585</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
         <v>43585</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6516,7 +6516,7 @@
         <v>43591</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6573,7 +6573,7 @@
         <v>43593</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6630,7 +6630,7 @@
         <v>43593</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         <v>43593</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6744,7 +6744,7 @@
         <v>43593</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6801,7 +6801,7 @@
         <v>43593</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6858,7 +6858,7 @@
         <v>43593</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6915,7 +6915,7 @@
         <v>43605</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6972,7 +6972,7 @@
         <v>43607</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         <v>43608</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7086,7 +7086,7 @@
         <v>43628</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7143,7 +7143,7 @@
         <v>43635</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>43642</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7257,7 +7257,7 @@
         <v>43649</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7314,7 +7314,7 @@
         <v>43649</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7371,7 +7371,7 @@
         <v>43649</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7428,7 +7428,7 @@
         <v>43649</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7485,7 +7485,7 @@
         <v>43650</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7542,7 +7542,7 @@
         <v>43665</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7599,7 +7599,7 @@
         <v>43681</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7656,7 +7656,7 @@
         <v>43682</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7713,7 +7713,7 @@
         <v>43683</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7770,7 +7770,7 @@
         <v>43690</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7827,7 +7827,7 @@
         <v>43690</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7884,7 +7884,7 @@
         <v>43693</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7941,7 +7941,7 @@
         <v>43697</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7998,7 +7998,7 @@
         <v>43697</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8055,7 +8055,7 @@
         <v>43700</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8112,7 +8112,7 @@
         <v>43703</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8169,7 +8169,7 @@
         <v>43704</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         <v>43711</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>43711</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>43711</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>43713</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>43714</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8511,7 +8511,7 @@
         <v>43724</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>43725</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>43728</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43731</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43731</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>43732</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>43732</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>43733</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>43739</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>43739</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>43740</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>43747</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9200,7 +9200,7 @@
         <v>43749</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9257,7 +9257,7 @@
         <v>43761</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9314,7 +9314,7 @@
         <v>43761</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>43763</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9428,7 +9428,7 @@
         <v>43773</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9485,7 +9485,7 @@
         <v>43773</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9542,7 +9542,7 @@
         <v>43773</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9599,7 +9599,7 @@
         <v>43775</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9656,7 +9656,7 @@
         <v>43775</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9713,7 +9713,7 @@
         <v>43788</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9770,7 +9770,7 @@
         <v>43791</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9827,7 +9827,7 @@
         <v>43795</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>43796</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>43796</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9998,7 +9998,7 @@
         <v>43798</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10055,7 +10055,7 @@
         <v>43798</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10112,7 +10112,7 @@
         <v>43801</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10169,7 +10169,7 @@
         <v>43804</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>43809</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10283,7 +10283,7 @@
         <v>43835</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10340,7 +10340,7 @@
         <v>43835</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10397,7 +10397,7 @@
         <v>43835</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10454,7 +10454,7 @@
         <v>43840</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10511,7 +10511,7 @@
         <v>43852</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>43853</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10625,7 +10625,7 @@
         <v>43853</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10682,7 +10682,7 @@
         <v>43860</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         <v>43873</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         <v>43878</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>43878</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>43879</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>43882</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>43882</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11081,7 +11081,7 @@
         <v>43887</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11138,7 +11138,7 @@
         <v>43892</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>43892</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11252,7 +11252,7 @@
         <v>43892</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
         <v>43892</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>43895</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11423,7 +11423,7 @@
         <v>43895</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11480,7 +11480,7 @@
         <v>43896</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11537,7 +11537,7 @@
         <v>43896</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         <v>43897</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         <v>43907</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>43908</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         <v>43908</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11822,7 +11822,7 @@
         <v>43909</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11879,7 +11879,7 @@
         <v>43913</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11941,7 +11941,7 @@
         <v>43915</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11998,7 +11998,7 @@
         <v>43915</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12055,7 +12055,7 @@
         <v>43917</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12112,7 +12112,7 @@
         <v>43920</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12169,7 +12169,7 @@
         <v>43921</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12226,7 +12226,7 @@
         <v>43926</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12283,7 +12283,7 @@
         <v>43936</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12340,7 +12340,7 @@
         <v>43965</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12397,7 +12397,7 @@
         <v>43965</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12454,7 +12454,7 @@
         <v>43965</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12511,7 +12511,7 @@
         <v>43965</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12568,7 +12568,7 @@
         <v>43966</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12625,7 +12625,7 @@
         <v>43967</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12682,7 +12682,7 @@
         <v>43977</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12739,7 +12739,7 @@
         <v>43980</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12796,7 +12796,7 @@
         <v>43994</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12853,7 +12853,7 @@
         <v>43999</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12910,7 +12910,7 @@
         <v>44008</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12967,7 +12967,7 @@
         <v>44026</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13024,7 +13024,7 @@
         <v>44035</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
         <v>44039</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>44039</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>44039</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13252,7 +13252,7 @@
         <v>44041</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13309,7 +13309,7 @@
         <v>44046</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13366,7 +13366,7 @@
         <v>44046</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13423,7 +13423,7 @@
         <v>44054</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13480,7 +13480,7 @@
         <v>44054</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13537,7 +13537,7 @@
         <v>44054</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13594,7 +13594,7 @@
         <v>44054</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13651,7 +13651,7 @@
         <v>44057</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13708,7 +13708,7 @@
         <v>44057</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13765,7 +13765,7 @@
         <v>44061</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13822,7 +13822,7 @@
         <v>44063</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13879,7 +13879,7 @@
         <v>44070</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13936,7 +13936,7 @@
         <v>44070</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -13993,7 +13993,7 @@
         <v>44075</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14050,7 +14050,7 @@
         <v>44078</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14107,7 +14107,7 @@
         <v>44090</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14164,7 +14164,7 @@
         <v>44090</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14221,7 +14221,7 @@
         <v>44096</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14278,7 +14278,7 @@
         <v>44096</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14335,7 +14335,7 @@
         <v>44098</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14392,7 +14392,7 @@
         <v>44104</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14449,7 +14449,7 @@
         <v>44106</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14506,7 +14506,7 @@
         <v>44106</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         <v>44108</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14620,7 +14620,7 @@
         <v>44109</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14677,7 +14677,7 @@
         <v>44110</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14734,7 +14734,7 @@
         <v>44111</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14791,7 +14791,7 @@
         <v>44111</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14848,7 +14848,7 @@
         <v>44112</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -14905,7 +14905,7 @@
         <v>44113</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -14962,7 +14962,7 @@
         <v>44116</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15019,7 +15019,7 @@
         <v>44117</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15076,7 +15076,7 @@
         <v>44117</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15133,7 +15133,7 @@
         <v>44148</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15190,7 +15190,7 @@
         <v>44152</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15247,7 +15247,7 @@
         <v>44153</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15304,7 +15304,7 @@
         <v>44153</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15361,7 +15361,7 @@
         <v>44153</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15418,7 +15418,7 @@
         <v>44153</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15475,7 +15475,7 @@
         <v>44153</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15532,7 +15532,7 @@
         <v>44154</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15589,7 +15589,7 @@
         <v>44154</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15651,7 +15651,7 @@
         <v>44154</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15713,7 +15713,7 @@
         <v>44158</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15770,7 +15770,7 @@
         <v>44158</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15827,7 +15827,7 @@
         <v>44159</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15884,7 +15884,7 @@
         <v>44160</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -15941,7 +15941,7 @@
         <v>44161</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -15998,7 +15998,7 @@
         <v>44161</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16055,7 +16055,7 @@
         <v>44162</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16112,7 +16112,7 @@
         <v>44174</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16169,7 +16169,7 @@
         <v>44175</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16226,7 +16226,7 @@
         <v>44182</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16283,7 +16283,7 @@
         <v>44183</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16340,7 +16340,7 @@
         <v>44187</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16402,7 +16402,7 @@
         <v>44192</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16459,7 +16459,7 @@
         <v>44209</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16516,7 +16516,7 @@
         <v>44211</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16573,7 +16573,7 @@
         <v>44221</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16630,7 +16630,7 @@
         <v>44221</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16687,7 +16687,7 @@
         <v>44221</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16744,7 +16744,7 @@
         <v>44221</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16801,7 +16801,7 @@
         <v>44221</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -16858,7 +16858,7 @@
         <v>44225</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -16915,7 +16915,7 @@
         <v>44228</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -16972,7 +16972,7 @@
         <v>44229</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17029,7 +17029,7 @@
         <v>44229</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17086,7 +17086,7 @@
         <v>44231</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17143,7 +17143,7 @@
         <v>44231</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17200,7 +17200,7 @@
         <v>44231</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17257,7 +17257,7 @@
         <v>44234</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17314,7 +17314,7 @@
         <v>44237</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         <v>44243</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17428,7 +17428,7 @@
         <v>44245</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17485,7 +17485,7 @@
         <v>44245</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17542,7 +17542,7 @@
         <v>44245</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17599,7 +17599,7 @@
         <v>44245</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17656,7 +17656,7 @@
         <v>44245</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17713,7 +17713,7 @@
         <v>44251</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17770,7 +17770,7 @@
         <v>44253</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -17827,7 +17827,7 @@
         <v>44277</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -17884,7 +17884,7 @@
         <v>44278</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -17941,7 +17941,7 @@
         <v>44280</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -17998,7 +17998,7 @@
         <v>44284</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18055,7 +18055,7 @@
         <v>44286</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18112,7 +18112,7 @@
         <v>44292</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18169,7 +18169,7 @@
         <v>44293</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18226,7 +18226,7 @@
         <v>44294</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18283,7 +18283,7 @@
         <v>44309</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18340,7 +18340,7 @@
         <v>44315</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18397,7 +18397,7 @@
         <v>44315</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18454,7 +18454,7 @@
         <v>44315</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18511,7 +18511,7 @@
         <v>44315</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>44316</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18625,7 +18625,7 @@
         <v>44320</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18682,7 +18682,7 @@
         <v>44321</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         <v>44335</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18801,7 +18801,7 @@
         <v>44344</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -18858,7 +18858,7 @@
         <v>44349</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -18915,7 +18915,7 @@
         <v>44384</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -18972,7 +18972,7 @@
         <v>44386</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19029,7 +19029,7 @@
         <v>44397</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19086,7 +19086,7 @@
         <v>44397</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19143,7 +19143,7 @@
         <v>44403</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19200,7 +19200,7 @@
         <v>44413</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19257,7 +19257,7 @@
         <v>44414</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19314,7 +19314,7 @@
         <v>44427</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19371,7 +19371,7 @@
         <v>44427</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19428,7 +19428,7 @@
         <v>44431</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19485,7 +19485,7 @@
         <v>44433</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19542,7 +19542,7 @@
         <v>44434</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19599,7 +19599,7 @@
         <v>44434</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19656,7 +19656,7 @@
         <v>44438</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19713,7 +19713,7 @@
         <v>44438</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -19770,7 +19770,7 @@
         <v>44438</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -19827,7 +19827,7 @@
         <v>44445</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -19884,7 +19884,7 @@
         <v>44446</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -19941,7 +19941,7 @@
         <v>44447</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -19998,7 +19998,7 @@
         <v>44447</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20055,7 +20055,7 @@
         <v>44448</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20112,7 +20112,7 @@
         <v>44448</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20169,7 +20169,7 @@
         <v>44449</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         <v>44459</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20283,7 +20283,7 @@
         <v>44460</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20340,7 +20340,7 @@
         <v>44477</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20397,7 +20397,7 @@
         <v>44477</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20454,7 +20454,7 @@
         <v>44477</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20511,7 +20511,7 @@
         <v>44482</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20568,7 +20568,7 @@
         <v>44487</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20625,7 +20625,7 @@
         <v>44496</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20682,7 +20682,7 @@
         <v>44496</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -20739,7 +20739,7 @@
         <v>44503</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -20796,7 +20796,7 @@
         <v>44503</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -20853,7 +20853,7 @@
         <v>44503</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -20910,7 +20910,7 @@
         <v>44504</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -20967,7 +20967,7 @@
         <v>44508</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21024,7 +21024,7 @@
         <v>44510</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21081,7 +21081,7 @@
         <v>44512</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21138,7 +21138,7 @@
         <v>44515</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21195,7 +21195,7 @@
         <v>44522</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21252,7 +21252,7 @@
         <v>44523</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21309,7 +21309,7 @@
         <v>44523</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21366,7 +21366,7 @@
         <v>44524</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21423,7 +21423,7 @@
         <v>44525</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21480,7 +21480,7 @@
         <v>44526</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21537,7 +21537,7 @@
         <v>44531</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21594,7 +21594,7 @@
         <v>44543</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21651,7 +21651,7 @@
         <v>44551</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21708,7 +21708,7 @@
         <v>44560</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -21765,7 +21765,7 @@
         <v>44587</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -21827,7 +21827,7 @@
         <v>44587</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -21884,7 +21884,7 @@
         <v>44596</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -21941,7 +21941,7 @@
         <v>44599</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -21998,7 +21998,7 @@
         <v>44623</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22055,7 +22055,7 @@
         <v>44634</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22112,7 +22112,7 @@
         <v>44636</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22169,7 +22169,7 @@
         <v>44641</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22226,7 +22226,7 @@
         <v>44648</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22283,7 +22283,7 @@
         <v>44657</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22340,7 +22340,7 @@
         <v>44663</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22397,7 +22397,7 @@
         <v>44663</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22454,7 +22454,7 @@
         <v>44665</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22516,7 +22516,7 @@
         <v>44698</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22573,7 +22573,7 @@
         <v>44739</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22630,7 +22630,7 @@
         <v>44749</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22687,7 +22687,7 @@
         <v>44757</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -22744,7 +22744,7 @@
         <v>44784</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -22806,7 +22806,7 @@
         <v>44784</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -22868,7 +22868,7 @@
         <v>44785</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -22925,7 +22925,7 @@
         <v>44785</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -22982,7 +22982,7 @@
         <v>44785</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23039,7 +23039,7 @@
         <v>44785</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23096,7 +23096,7 @@
         <v>44785</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23153,7 +23153,7 @@
         <v>44785</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23210,7 +23210,7 @@
         <v>44785</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23267,7 +23267,7 @@
         <v>44785</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23324,7 +23324,7 @@
         <v>44802</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23381,7 +23381,7 @@
         <v>44812</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23438,7 +23438,7 @@
         <v>44812</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23495,7 +23495,7 @@
         <v>44817</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23552,7 +23552,7 @@
         <v>44830</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23609,7 +23609,7 @@
         <v>44831</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23666,7 +23666,7 @@
         <v>44831</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -23723,7 +23723,7 @@
         <v>44832</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -23780,7 +23780,7 @@
         <v>44852</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -23837,7 +23837,7 @@
         <v>44854</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -23894,7 +23894,7 @@
         <v>44855</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -23951,7 +23951,7 @@
         <v>44855</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24008,7 +24008,7 @@
         <v>44858</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24065,7 +24065,7 @@
         <v>44858</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24122,7 +24122,7 @@
         <v>44859</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24179,7 +24179,7 @@
         <v>44861</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24236,7 +24236,7 @@
         <v>44862</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24293,7 +24293,7 @@
         <v>44864</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24350,7 +24350,7 @@
         <v>44865</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24407,7 +24407,7 @@
         <v>44865</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24464,7 +24464,7 @@
         <v>44865</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24521,7 +24521,7 @@
         <v>44883</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24578,7 +24578,7 @@
         <v>44897</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24635,7 +24635,7 @@
         <v>44897</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -24692,7 +24692,7 @@
         <v>44897</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -24749,7 +24749,7 @@
         <v>44897</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -24806,7 +24806,7 @@
         <v>44911</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -24863,7 +24863,7 @@
         <v>44921</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -24920,7 +24920,7 @@
         <v>44922</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -24977,7 +24977,7 @@
         <v>44942</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25034,7 +25034,7 @@
         <v>44942</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25091,7 +25091,7 @@
         <v>44942</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25148,7 +25148,7 @@
         <v>44942</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25205,7 +25205,7 @@
         <v>44942</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25262,7 +25262,7 @@
         <v>44942</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25319,7 +25319,7 @@
         <v>44956</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25381,7 +25381,7 @@
         <v>44962</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25438,7 +25438,7 @@
         <v>44973</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25495,7 +25495,7 @@
         <v>44977</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25557,7 +25557,7 @@
         <v>44986</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25619,7 +25619,7 @@
         <v>44986</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -25676,7 +25676,7 @@
         <v>44992</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -25733,7 +25733,7 @@
         <v>44994</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -25790,7 +25790,7 @@
         <v>44994</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -25847,7 +25847,7 @@
         <v>44994</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -25904,7 +25904,7 @@
         <v>44994</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -25961,7 +25961,7 @@
         <v>44998</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26023,7 +26023,7 @@
         <v>45001</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26080,7 +26080,7 @@
         <v>45002</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26137,7 +26137,7 @@
         <v>45006</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26199,7 +26199,7 @@
         <v>45009</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26256,7 +26256,7 @@
         <v>45009</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26313,7 +26313,7 @@
         <v>45012</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26370,7 +26370,7 @@
         <v>45019</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26427,7 +26427,7 @@
         <v>45028</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26489,7 +26489,7 @@
         <v>45044</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26546,7 +26546,7 @@
         <v>45049</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26603,7 +26603,7 @@
         <v>45051</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26660,7 +26660,7 @@
         <v>45054</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -26717,7 +26717,7 @@
         <v>45056</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -26774,7 +26774,7 @@
         <v>45056</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -26831,7 +26831,7 @@
         <v>45061</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -26888,7 +26888,7 @@
         <v>45062</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -26945,7 +26945,7 @@
         <v>45062</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27002,7 +27002,7 @@
         <v>45076</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27059,7 +27059,7 @@
         <v>45076</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27116,7 +27116,7 @@
         <v>45078</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27173,7 +27173,7 @@
         <v>45078</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27230,7 +27230,7 @@
         <v>45078</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27287,7 +27287,7 @@
         <v>45078</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27344,7 +27344,7 @@
         <v>45078</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27401,7 +27401,7 @@
         <v>45081</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27458,7 +27458,7 @@
         <v>45084</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27515,7 +27515,7 @@
         <v>45085</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27572,7 +27572,7 @@
         <v>45090</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27629,7 +27629,7 @@
         <v>45092</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -27686,7 +27686,7 @@
         <v>45098</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -27763,7 +27763,7 @@
         <v>45104</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -27820,7 +27820,7 @@
         <v>45111</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -27877,7 +27877,7 @@
         <v>45118</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -27934,7 +27934,7 @@
         <v>45132</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -27991,7 +27991,7 @@
         <v>45139</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28048,7 +28048,7 @@
         <v>45140</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28105,7 +28105,7 @@
         <v>45140</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>

--- a/Översikt ÄLMHULT.xlsx
+++ b/Översikt ÄLMHULT.xlsx
@@ -572,7 +572,7 @@
         <v>44067</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44830</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43424</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>43977</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>44049</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         <v>44663</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>43317</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>43318</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>43325</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1257,7 +1257,7 @@
         <v>43335</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>43339</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
         <v>43341</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1428,7 +1428,7 @@
         <v>43341</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>43343</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>43343</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         <v>43356</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>43357</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>43361</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>43368</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>43369</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>43369</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>43374</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43375</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43376</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>43385</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>43396</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>43399</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43411</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>43419</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>43419</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2454,7 +2454,7 @@
         <v>43419</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2511,7 +2511,7 @@
         <v>43423</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>43424</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>43425</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2682,7 +2682,7 @@
         <v>43430</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2739,7 +2739,7 @@
         <v>43430</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>43430</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>43432</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>43446</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>43447</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3024,7 +3024,7 @@
         <v>43451</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>43453</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>43453</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>43453</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>43453</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>43453</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>43454</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>43454</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>43455</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>43467</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3594,7 +3594,7 @@
         <v>43467</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3651,7 +3651,7 @@
         <v>43468</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3708,7 +3708,7 @@
         <v>43473</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         <v>43473</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
         <v>43473</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         <v>43473</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3936,7 +3936,7 @@
         <v>43475</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         <v>43479</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         <v>43481</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>43481</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>43483</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>43483</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>43483</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>43486</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>43488</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>43489</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>43501</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>43504</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>43504</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4677,7 +4677,7 @@
         <v>43504</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>43510</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4791,7 +4791,7 @@
         <v>43510</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4848,7 +4848,7 @@
         <v>43510</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>43510</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43514</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43514</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43514</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43517</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43522</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43524</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>43524</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5371,7 +5371,7 @@
         <v>43528</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5428,7 +5428,7 @@
         <v>43528</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5485,7 +5485,7 @@
         <v>43530</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5542,7 +5542,7 @@
         <v>43531</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5599,7 +5599,7 @@
         <v>43535</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5656,7 +5656,7 @@
         <v>43544</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5718,7 +5718,7 @@
         <v>43545</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5775,7 +5775,7 @@
         <v>43545</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5832,7 +5832,7 @@
         <v>43550</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5889,7 +5889,7 @@
         <v>43550</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43556</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
         <v>43563</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6060,7 +6060,7 @@
         <v>43569</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         <v>43569</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6174,7 +6174,7 @@
         <v>43571</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6231,7 +6231,7 @@
         <v>43579</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6288,7 +6288,7 @@
         <v>43579</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6345,7 +6345,7 @@
         <v>43579</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6402,7 +6402,7 @@
         <v>43585</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
         <v>43585</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6516,7 +6516,7 @@
         <v>43591</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6573,7 +6573,7 @@
         <v>43593</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6630,7 +6630,7 @@
         <v>43593</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         <v>43593</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6744,7 +6744,7 @@
         <v>43593</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6801,7 +6801,7 @@
         <v>43593</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6858,7 +6858,7 @@
         <v>43593</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6915,7 +6915,7 @@
         <v>43605</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6972,7 +6972,7 @@
         <v>43607</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         <v>43608</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7086,7 +7086,7 @@
         <v>43628</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7143,7 +7143,7 @@
         <v>43635</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>43642</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7257,7 +7257,7 @@
         <v>43649</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7314,7 +7314,7 @@
         <v>43649</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7371,7 +7371,7 @@
         <v>43649</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7428,7 +7428,7 @@
         <v>43649</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7485,7 +7485,7 @@
         <v>43650</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7542,7 +7542,7 @@
         <v>43665</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7599,7 +7599,7 @@
         <v>43681</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7656,7 +7656,7 @@
         <v>43682</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7713,7 +7713,7 @@
         <v>43683</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7770,7 +7770,7 @@
         <v>43690</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7827,7 +7827,7 @@
         <v>43690</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7884,7 +7884,7 @@
         <v>43693</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7941,7 +7941,7 @@
         <v>43697</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7998,7 +7998,7 @@
         <v>43697</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8055,7 +8055,7 @@
         <v>43700</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8112,7 +8112,7 @@
         <v>43703</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8169,7 +8169,7 @@
         <v>43704</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         <v>43711</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>43711</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>43711</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>43713</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>43714</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8511,7 +8511,7 @@
         <v>43724</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>43725</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>43728</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43731</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43731</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>43732</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>43732</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>43733</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>43739</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>43739</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>43740</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>43747</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9200,7 +9200,7 @@
         <v>43749</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9257,7 +9257,7 @@
         <v>43761</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9314,7 +9314,7 @@
         <v>43761</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>43763</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9428,7 +9428,7 @@
         <v>43773</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9485,7 +9485,7 @@
         <v>43773</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9542,7 +9542,7 @@
         <v>43773</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9599,7 +9599,7 @@
         <v>43775</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9656,7 +9656,7 @@
         <v>43775</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9713,7 +9713,7 @@
         <v>43788</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9770,7 +9770,7 @@
         <v>43791</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9827,7 +9827,7 @@
         <v>43795</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>43796</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>43796</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9998,7 +9998,7 @@
         <v>43798</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10055,7 +10055,7 @@
         <v>43798</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10112,7 +10112,7 @@
         <v>43801</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10169,7 +10169,7 @@
         <v>43804</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>43809</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10283,7 +10283,7 @@
         <v>43835</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10340,7 +10340,7 @@
         <v>43835</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10397,7 +10397,7 @@
         <v>43835</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10454,7 +10454,7 @@
         <v>43840</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10511,7 +10511,7 @@
         <v>43852</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>43853</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10625,7 +10625,7 @@
         <v>43853</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10682,7 +10682,7 @@
         <v>43860</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         <v>43873</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         <v>43878</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>43878</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>43879</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>43882</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>43882</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11081,7 +11081,7 @@
         <v>43887</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11138,7 +11138,7 @@
         <v>43892</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>43892</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11252,7 +11252,7 @@
         <v>43892</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
         <v>43892</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>43895</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11423,7 +11423,7 @@
         <v>43895</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11480,7 +11480,7 @@
         <v>43896</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11537,7 +11537,7 @@
         <v>43896</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         <v>43897</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         <v>43907</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>43908</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         <v>43908</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11822,7 +11822,7 @@
         <v>43909</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11879,7 +11879,7 @@
         <v>43913</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11941,7 +11941,7 @@
         <v>43915</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11998,7 +11998,7 @@
         <v>43915</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12055,7 +12055,7 @@
         <v>43917</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12112,7 +12112,7 @@
         <v>43920</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12169,7 +12169,7 @@
         <v>43921</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12226,7 +12226,7 @@
         <v>43926</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12283,7 +12283,7 @@
         <v>43936</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12340,7 +12340,7 @@
         <v>43965</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12397,7 +12397,7 @@
         <v>43965</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12454,7 +12454,7 @@
         <v>43965</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12511,7 +12511,7 @@
         <v>43965</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12568,7 +12568,7 @@
         <v>43966</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12625,7 +12625,7 @@
         <v>43967</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12682,7 +12682,7 @@
         <v>43977</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12739,7 +12739,7 @@
         <v>43980</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12796,7 +12796,7 @@
         <v>43994</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12853,7 +12853,7 @@
         <v>43999</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12910,7 +12910,7 @@
         <v>44008</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12967,7 +12967,7 @@
         <v>44026</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13024,7 +13024,7 @@
         <v>44035</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
         <v>44039</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>44039</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>44039</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13252,7 +13252,7 @@
         <v>44041</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13309,7 +13309,7 @@
         <v>44046</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13366,7 +13366,7 @@
         <v>44046</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13423,7 +13423,7 @@
         <v>44054</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13480,7 +13480,7 @@
         <v>44054</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13537,7 +13537,7 @@
         <v>44054</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13594,7 +13594,7 @@
         <v>44054</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13651,7 +13651,7 @@
         <v>44057</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13708,7 +13708,7 @@
         <v>44057</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13765,7 +13765,7 @@
         <v>44061</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13822,7 +13822,7 @@
         <v>44063</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13879,7 +13879,7 @@
         <v>44070</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13936,7 +13936,7 @@
         <v>44070</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -13993,7 +13993,7 @@
         <v>44075</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14050,7 +14050,7 @@
         <v>44078</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14107,7 +14107,7 @@
         <v>44090</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14164,7 +14164,7 @@
         <v>44090</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14221,7 +14221,7 @@
         <v>44096</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14278,7 +14278,7 @@
         <v>44096</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14335,7 +14335,7 @@
         <v>44098</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14392,7 +14392,7 @@
         <v>44104</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14449,7 +14449,7 @@
         <v>44106</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14506,7 +14506,7 @@
         <v>44106</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         <v>44108</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14620,7 +14620,7 @@
         <v>44109</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14677,7 +14677,7 @@
         <v>44110</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14734,7 +14734,7 @@
         <v>44111</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14791,7 +14791,7 @@
         <v>44111</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14848,7 +14848,7 @@
         <v>44112</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -14905,7 +14905,7 @@
         <v>44113</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -14962,7 +14962,7 @@
         <v>44116</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15019,7 +15019,7 @@
         <v>44117</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15076,7 +15076,7 @@
         <v>44117</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15133,7 +15133,7 @@
         <v>44148</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15190,7 +15190,7 @@
         <v>44152</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15247,7 +15247,7 @@
         <v>44153</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15304,7 +15304,7 @@
         <v>44153</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15361,7 +15361,7 @@
         <v>44153</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15418,7 +15418,7 @@
         <v>44153</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15475,7 +15475,7 @@
         <v>44153</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15532,7 +15532,7 @@
         <v>44154</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15589,7 +15589,7 @@
         <v>44154</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15651,7 +15651,7 @@
         <v>44154</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15713,7 +15713,7 @@
         <v>44158</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15770,7 +15770,7 @@
         <v>44158</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15827,7 +15827,7 @@
         <v>44159</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15884,7 +15884,7 @@
         <v>44160</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -15941,7 +15941,7 @@
         <v>44161</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -15998,7 +15998,7 @@
         <v>44161</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16055,7 +16055,7 @@
         <v>44162</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16112,7 +16112,7 @@
         <v>44174</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16169,7 +16169,7 @@
         <v>44175</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16226,7 +16226,7 @@
         <v>44182</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16283,7 +16283,7 @@
         <v>44183</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16340,7 +16340,7 @@
         <v>44187</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16402,7 +16402,7 @@
         <v>44192</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16459,7 +16459,7 @@
         <v>44209</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16516,7 +16516,7 @@
         <v>44211</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16573,7 +16573,7 @@
         <v>44221</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16630,7 +16630,7 @@
         <v>44221</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16687,7 +16687,7 @@
         <v>44221</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16744,7 +16744,7 @@
         <v>44221</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16801,7 +16801,7 @@
         <v>44221</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -16858,7 +16858,7 @@
         <v>44225</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -16915,7 +16915,7 @@
         <v>44228</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -16972,7 +16972,7 @@
         <v>44229</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17029,7 +17029,7 @@
         <v>44229</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17086,7 +17086,7 @@
         <v>44231</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17143,7 +17143,7 @@
         <v>44231</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17200,7 +17200,7 @@
         <v>44231</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17257,7 +17257,7 @@
         <v>44234</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17314,7 +17314,7 @@
         <v>44237</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         <v>44243</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17428,7 +17428,7 @@
         <v>44245</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17485,7 +17485,7 @@
         <v>44245</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17542,7 +17542,7 @@
         <v>44245</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17599,7 +17599,7 @@
         <v>44245</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17656,7 +17656,7 @@
         <v>44245</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17713,7 +17713,7 @@
         <v>44251</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17770,7 +17770,7 @@
         <v>44253</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -17827,7 +17827,7 @@
         <v>44277</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -17884,7 +17884,7 @@
         <v>44278</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -17941,7 +17941,7 @@
         <v>44280</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -17998,7 +17998,7 @@
         <v>44284</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18055,7 +18055,7 @@
         <v>44286</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18112,7 +18112,7 @@
         <v>44292</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18169,7 +18169,7 @@
         <v>44293</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18226,7 +18226,7 @@
         <v>44294</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18283,7 +18283,7 @@
         <v>44309</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18340,7 +18340,7 @@
         <v>44315</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18397,7 +18397,7 @@
         <v>44315</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18454,7 +18454,7 @@
         <v>44315</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18511,7 +18511,7 @@
         <v>44315</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>44316</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18625,7 +18625,7 @@
         <v>44320</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18682,7 +18682,7 @@
         <v>44321</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         <v>44335</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18801,7 +18801,7 @@
         <v>44344</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -18858,7 +18858,7 @@
         <v>44349</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -18915,7 +18915,7 @@
         <v>44384</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -18972,7 +18972,7 @@
         <v>44386</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19029,7 +19029,7 @@
         <v>44397</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19086,7 +19086,7 @@
         <v>44397</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19143,7 +19143,7 @@
         <v>44403</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19200,7 +19200,7 @@
         <v>44413</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19257,7 +19257,7 @@
         <v>44414</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19314,7 +19314,7 @@
         <v>44427</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19371,7 +19371,7 @@
         <v>44427</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19428,7 +19428,7 @@
         <v>44431</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19485,7 +19485,7 @@
         <v>44433</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19542,7 +19542,7 @@
         <v>44434</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19599,7 +19599,7 @@
         <v>44434</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19656,7 +19656,7 @@
         <v>44438</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19713,7 +19713,7 @@
         <v>44438</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -19770,7 +19770,7 @@
         <v>44438</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -19827,7 +19827,7 @@
         <v>44445</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -19884,7 +19884,7 @@
         <v>44446</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -19941,7 +19941,7 @@
         <v>44447</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -19998,7 +19998,7 @@
         <v>44447</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20055,7 +20055,7 @@
         <v>44448</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20112,7 +20112,7 @@
         <v>44448</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20169,7 +20169,7 @@
         <v>44449</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         <v>44459</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20283,7 +20283,7 @@
         <v>44460</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20340,7 +20340,7 @@
         <v>44477</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20397,7 +20397,7 @@
         <v>44477</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20454,7 +20454,7 @@
         <v>44477</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20511,7 +20511,7 @@
         <v>44482</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20568,7 +20568,7 @@
         <v>44487</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20625,7 +20625,7 @@
         <v>44496</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20682,7 +20682,7 @@
         <v>44496</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -20739,7 +20739,7 @@
         <v>44503</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -20796,7 +20796,7 @@
         <v>44503</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -20853,7 +20853,7 @@
         <v>44503</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -20910,7 +20910,7 @@
         <v>44504</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -20967,7 +20967,7 @@
         <v>44508</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21024,7 +21024,7 @@
         <v>44510</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21081,7 +21081,7 @@
         <v>44512</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21138,7 +21138,7 @@
         <v>44515</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21195,7 +21195,7 @@
         <v>44522</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21252,7 +21252,7 @@
         <v>44523</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21309,7 +21309,7 @@
         <v>44523</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21366,7 +21366,7 @@
         <v>44524</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21423,7 +21423,7 @@
         <v>44525</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21480,7 +21480,7 @@
         <v>44526</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21537,7 +21537,7 @@
         <v>44531</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21594,7 +21594,7 @@
         <v>44543</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21651,7 +21651,7 @@
         <v>44551</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21708,7 +21708,7 @@
         <v>44560</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -21765,7 +21765,7 @@
         <v>44587</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -21827,7 +21827,7 @@
         <v>44587</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -21884,7 +21884,7 @@
         <v>44596</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -21941,7 +21941,7 @@
         <v>44599</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -21998,7 +21998,7 @@
         <v>44623</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22055,7 +22055,7 @@
         <v>44634</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22112,7 +22112,7 @@
         <v>44636</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22169,7 +22169,7 @@
         <v>44641</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22226,7 +22226,7 @@
         <v>44648</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22283,7 +22283,7 @@
         <v>44657</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22340,7 +22340,7 @@
         <v>44663</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22397,7 +22397,7 @@
         <v>44663</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22454,7 +22454,7 @@
         <v>44665</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22516,7 +22516,7 @@
         <v>44698</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22573,7 +22573,7 @@
         <v>44739</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22630,7 +22630,7 @@
         <v>44749</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22687,7 +22687,7 @@
         <v>44757</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -22744,7 +22744,7 @@
         <v>44784</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -22806,7 +22806,7 @@
         <v>44784</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -22868,7 +22868,7 @@
         <v>44785</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -22925,7 +22925,7 @@
         <v>44785</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -22982,7 +22982,7 @@
         <v>44785</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23039,7 +23039,7 @@
         <v>44785</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23096,7 +23096,7 @@
         <v>44785</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23153,7 +23153,7 @@
         <v>44785</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23210,7 +23210,7 @@
         <v>44785</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23267,7 +23267,7 @@
         <v>44785</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23324,7 +23324,7 @@
         <v>44802</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23381,7 +23381,7 @@
         <v>44812</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23438,7 +23438,7 @@
         <v>44812</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23495,7 +23495,7 @@
         <v>44817</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23552,7 +23552,7 @@
         <v>44830</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23609,7 +23609,7 @@
         <v>44831</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23666,7 +23666,7 @@
         <v>44831</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -23723,7 +23723,7 @@
         <v>44832</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -23780,7 +23780,7 @@
         <v>44852</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -23837,7 +23837,7 @@
         <v>44854</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -23894,7 +23894,7 @@
         <v>44855</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -23951,7 +23951,7 @@
         <v>44855</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24008,7 +24008,7 @@
         <v>44858</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24065,7 +24065,7 @@
         <v>44858</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24122,7 +24122,7 @@
         <v>44859</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24179,7 +24179,7 @@
         <v>44861</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24236,7 +24236,7 @@
         <v>44862</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24293,7 +24293,7 @@
         <v>44864</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24350,7 +24350,7 @@
         <v>44865</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24407,7 +24407,7 @@
         <v>44865</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24464,7 +24464,7 @@
         <v>44865</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24521,7 +24521,7 @@
         <v>44883</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24578,7 +24578,7 @@
         <v>44897</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24635,7 +24635,7 @@
         <v>44897</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -24692,7 +24692,7 @@
         <v>44897</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -24749,7 +24749,7 @@
         <v>44897</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -24806,7 +24806,7 @@
         <v>44911</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -24863,7 +24863,7 @@
         <v>44921</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -24920,7 +24920,7 @@
         <v>44922</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -24977,7 +24977,7 @@
         <v>44942</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25034,7 +25034,7 @@
         <v>44942</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25091,7 +25091,7 @@
         <v>44942</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25148,7 +25148,7 @@
         <v>44942</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25205,7 +25205,7 @@
         <v>44942</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25262,7 +25262,7 @@
         <v>44942</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25319,7 +25319,7 @@
         <v>44956</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25381,7 +25381,7 @@
         <v>44962</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25438,7 +25438,7 @@
         <v>44973</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25495,7 +25495,7 @@
         <v>44977</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25557,7 +25557,7 @@
         <v>44986</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25619,7 +25619,7 @@
         <v>44986</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -25676,7 +25676,7 @@
         <v>44992</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -25733,7 +25733,7 @@
         <v>44994</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -25790,7 +25790,7 @@
         <v>44994</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -25847,7 +25847,7 @@
         <v>44994</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -25904,7 +25904,7 @@
         <v>44994</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -25961,7 +25961,7 @@
         <v>44998</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26023,7 +26023,7 @@
         <v>45001</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26080,7 +26080,7 @@
         <v>45002</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26137,7 +26137,7 @@
         <v>45006</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26199,7 +26199,7 @@
         <v>45009</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26256,7 +26256,7 @@
         <v>45009</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26313,7 +26313,7 @@
         <v>45012</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26370,7 +26370,7 @@
         <v>45019</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26427,7 +26427,7 @@
         <v>45028</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26489,7 +26489,7 @@
         <v>45044</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26546,7 +26546,7 @@
         <v>45049</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26603,7 +26603,7 @@
         <v>45051</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26660,7 +26660,7 @@
         <v>45054</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -26717,7 +26717,7 @@
         <v>45056</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -26774,7 +26774,7 @@
         <v>45056</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -26831,7 +26831,7 @@
         <v>45061</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -26888,7 +26888,7 @@
         <v>45062</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -26945,7 +26945,7 @@
         <v>45062</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27002,7 +27002,7 @@
         <v>45076</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27059,7 +27059,7 @@
         <v>45076</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27116,7 +27116,7 @@
         <v>45078</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27173,7 +27173,7 @@
         <v>45078</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27230,7 +27230,7 @@
         <v>45078</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27287,7 +27287,7 @@
         <v>45078</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27344,7 +27344,7 @@
         <v>45078</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27401,7 +27401,7 @@
         <v>45081</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27458,7 +27458,7 @@
         <v>45084</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27515,7 +27515,7 @@
         <v>45085</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27572,7 +27572,7 @@
         <v>45090</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27629,7 +27629,7 @@
         <v>45092</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -27686,7 +27686,7 @@
         <v>45098</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -27763,7 +27763,7 @@
         <v>45104</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -27820,7 +27820,7 @@
         <v>45111</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -27877,7 +27877,7 @@
         <v>45118</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -27934,7 +27934,7 @@
         <v>45132</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -27991,7 +27991,7 @@
         <v>45139</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28048,7 +28048,7 @@
         <v>45140</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28105,7 +28105,7 @@
         <v>45140</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>

--- a/Översikt ÄLMHULT.xlsx
+++ b/Översikt ÄLMHULT.xlsx
@@ -572,7 +572,7 @@
         <v>44067</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44830</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43424</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>43977</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>44049</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         <v>44663</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>43317</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>43318</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>43325</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1257,7 +1257,7 @@
         <v>43335</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>43339</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
         <v>43341</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1428,7 +1428,7 @@
         <v>43341</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>43343</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>43343</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         <v>43356</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>43357</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>43361</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>43368</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>43369</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>43369</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>43374</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43375</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43376</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>43385</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>43396</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>43399</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43411</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>43419</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>43419</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2454,7 +2454,7 @@
         <v>43419</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2511,7 +2511,7 @@
         <v>43423</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>43424</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>43425</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2682,7 +2682,7 @@
         <v>43430</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2739,7 +2739,7 @@
         <v>43430</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>43430</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>43432</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>43446</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>43447</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3024,7 +3024,7 @@
         <v>43451</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>43453</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>43453</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>43453</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>43453</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>43453</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>43454</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>43454</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>43455</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>43467</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3594,7 +3594,7 @@
         <v>43467</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3651,7 +3651,7 @@
         <v>43468</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3708,7 +3708,7 @@
         <v>43473</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         <v>43473</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
         <v>43473</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         <v>43473</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3936,7 +3936,7 @@
         <v>43475</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         <v>43479</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         <v>43481</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>43481</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>43483</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>43483</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>43483</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>43486</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>43488</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>43489</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>43501</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>43504</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>43504</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4677,7 +4677,7 @@
         <v>43504</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>43510</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4791,7 +4791,7 @@
         <v>43510</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4848,7 +4848,7 @@
         <v>43510</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>43510</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43514</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43514</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43514</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43517</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43522</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43524</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>43524</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5371,7 +5371,7 @@
         <v>43528</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5428,7 +5428,7 @@
         <v>43528</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5485,7 +5485,7 @@
         <v>43530</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5542,7 +5542,7 @@
         <v>43531</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5599,7 +5599,7 @@
         <v>43535</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5656,7 +5656,7 @@
         <v>43544</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5718,7 +5718,7 @@
         <v>43545</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5775,7 +5775,7 @@
         <v>43545</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5832,7 +5832,7 @@
         <v>43550</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5889,7 +5889,7 @@
         <v>43550</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43556</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
         <v>43563</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6060,7 +6060,7 @@
         <v>43569</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         <v>43569</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6174,7 +6174,7 @@
         <v>43571</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6231,7 +6231,7 @@
         <v>43579</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6288,7 +6288,7 @@
         <v>43579</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6345,7 +6345,7 @@
         <v>43579</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6402,7 +6402,7 @@
         <v>43585</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
         <v>43585</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6516,7 +6516,7 @@
         <v>43591</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6573,7 +6573,7 @@
         <v>43593</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6630,7 +6630,7 @@
         <v>43593</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         <v>43593</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6744,7 +6744,7 @@
         <v>43593</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6801,7 +6801,7 @@
         <v>43593</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6858,7 +6858,7 @@
         <v>43593</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6915,7 +6915,7 @@
         <v>43605</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6972,7 +6972,7 @@
         <v>43607</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         <v>43608</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7086,7 +7086,7 @@
         <v>43628</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7143,7 +7143,7 @@
         <v>43635</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>43642</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7257,7 +7257,7 @@
         <v>43649</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7314,7 +7314,7 @@
         <v>43649</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7371,7 +7371,7 @@
         <v>43649</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7428,7 +7428,7 @@
         <v>43649</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7485,7 +7485,7 @@
         <v>43650</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7542,7 +7542,7 @@
         <v>43665</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7599,7 +7599,7 @@
         <v>43681</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7656,7 +7656,7 @@
         <v>43682</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7713,7 +7713,7 @@
         <v>43683</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7770,7 +7770,7 @@
         <v>43690</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7827,7 +7827,7 @@
         <v>43690</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7884,7 +7884,7 @@
         <v>43693</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7941,7 +7941,7 @@
         <v>43697</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7998,7 +7998,7 @@
         <v>43697</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8055,7 +8055,7 @@
         <v>43700</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8112,7 +8112,7 @@
         <v>43703</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8169,7 +8169,7 @@
         <v>43704</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         <v>43711</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>43711</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>43711</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>43713</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>43714</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8511,7 +8511,7 @@
         <v>43724</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>43725</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>43728</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43731</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43731</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>43732</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>43732</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>43733</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>43739</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>43739</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>43740</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>43747</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9200,7 +9200,7 @@
         <v>43749</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9257,7 +9257,7 @@
         <v>43761</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9314,7 +9314,7 @@
         <v>43761</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>43763</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9428,7 +9428,7 @@
         <v>43773</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9485,7 +9485,7 @@
         <v>43773</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9542,7 +9542,7 @@
         <v>43773</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9599,7 +9599,7 @@
         <v>43775</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9656,7 +9656,7 @@
         <v>43775</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9713,7 +9713,7 @@
         <v>43788</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9770,7 +9770,7 @@
         <v>43791</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9827,7 +9827,7 @@
         <v>43795</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>43796</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>43796</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9998,7 +9998,7 @@
         <v>43798</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10055,7 +10055,7 @@
         <v>43798</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10112,7 +10112,7 @@
         <v>43801</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10169,7 +10169,7 @@
         <v>43804</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>43809</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10283,7 +10283,7 @@
         <v>43835</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10340,7 +10340,7 @@
         <v>43835</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10397,7 +10397,7 @@
         <v>43835</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10454,7 +10454,7 @@
         <v>43840</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10511,7 +10511,7 @@
         <v>43852</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>43853</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10625,7 +10625,7 @@
         <v>43853</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10682,7 +10682,7 @@
         <v>43860</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         <v>43873</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         <v>43878</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>43878</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>43879</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>43882</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>43882</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11081,7 +11081,7 @@
         <v>43887</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11138,7 +11138,7 @@
         <v>43892</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>43892</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11252,7 +11252,7 @@
         <v>43892</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
         <v>43892</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>43895</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11423,7 +11423,7 @@
         <v>43895</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11480,7 +11480,7 @@
         <v>43896</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11537,7 +11537,7 @@
         <v>43896</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         <v>43897</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         <v>43907</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>43908</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         <v>43908</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11822,7 +11822,7 @@
         <v>43909</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11879,7 +11879,7 @@
         <v>43913</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11941,7 +11941,7 @@
         <v>43915</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11998,7 +11998,7 @@
         <v>43915</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12055,7 +12055,7 @@
         <v>43917</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12112,7 +12112,7 @@
         <v>43920</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12169,7 +12169,7 @@
         <v>43921</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12226,7 +12226,7 @@
         <v>43926</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12283,7 +12283,7 @@
         <v>43936</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12340,7 +12340,7 @@
         <v>43965</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12397,7 +12397,7 @@
         <v>43965</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12454,7 +12454,7 @@
         <v>43965</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12511,7 +12511,7 @@
         <v>43965</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12568,7 +12568,7 @@
         <v>43966</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12625,7 +12625,7 @@
         <v>43967</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12682,7 +12682,7 @@
         <v>43977</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12739,7 +12739,7 @@
         <v>43980</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12796,7 +12796,7 @@
         <v>43994</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12853,7 +12853,7 @@
         <v>43999</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12910,7 +12910,7 @@
         <v>44008</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12967,7 +12967,7 @@
         <v>44026</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13024,7 +13024,7 @@
         <v>44035</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
         <v>44039</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>44039</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>44039</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13252,7 +13252,7 @@
         <v>44041</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13309,7 +13309,7 @@
         <v>44046</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13366,7 +13366,7 @@
         <v>44046</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13423,7 +13423,7 @@
         <v>44054</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13480,7 +13480,7 @@
         <v>44054</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13537,7 +13537,7 @@
         <v>44054</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13594,7 +13594,7 @@
         <v>44054</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13651,7 +13651,7 @@
         <v>44057</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13708,7 +13708,7 @@
         <v>44057</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13765,7 +13765,7 @@
         <v>44061</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13822,7 +13822,7 @@
         <v>44063</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13879,7 +13879,7 @@
         <v>44070</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13936,7 +13936,7 @@
         <v>44070</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -13993,7 +13993,7 @@
         <v>44075</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14050,7 +14050,7 @@
         <v>44078</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14107,7 +14107,7 @@
         <v>44090</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14164,7 +14164,7 @@
         <v>44090</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14221,7 +14221,7 @@
         <v>44096</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14278,7 +14278,7 @@
         <v>44096</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14335,7 +14335,7 @@
         <v>44098</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14392,7 +14392,7 @@
         <v>44104</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14449,7 +14449,7 @@
         <v>44106</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14506,7 +14506,7 @@
         <v>44106</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         <v>44108</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14620,7 +14620,7 @@
         <v>44109</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14677,7 +14677,7 @@
         <v>44110</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14734,7 +14734,7 @@
         <v>44111</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14791,7 +14791,7 @@
         <v>44111</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14848,7 +14848,7 @@
         <v>44112</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -14905,7 +14905,7 @@
         <v>44113</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -14962,7 +14962,7 @@
         <v>44116</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15019,7 +15019,7 @@
         <v>44117</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15076,7 +15076,7 @@
         <v>44117</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15133,7 +15133,7 @@
         <v>44148</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15190,7 +15190,7 @@
         <v>44152</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15247,7 +15247,7 @@
         <v>44153</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15304,7 +15304,7 @@
         <v>44153</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15361,7 +15361,7 @@
         <v>44153</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15418,7 +15418,7 @@
         <v>44153</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15475,7 +15475,7 @@
         <v>44153</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15532,7 +15532,7 @@
         <v>44154</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15589,7 +15589,7 @@
         <v>44154</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15651,7 +15651,7 @@
         <v>44154</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15713,7 +15713,7 @@
         <v>44158</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15770,7 +15770,7 @@
         <v>44158</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15827,7 +15827,7 @@
         <v>44159</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15884,7 +15884,7 @@
         <v>44160</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -15941,7 +15941,7 @@
         <v>44161</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -15998,7 +15998,7 @@
         <v>44161</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16055,7 +16055,7 @@
         <v>44162</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16112,7 +16112,7 @@
         <v>44174</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16169,7 +16169,7 @@
         <v>44175</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16226,7 +16226,7 @@
         <v>44182</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16283,7 +16283,7 @@
         <v>44183</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16340,7 +16340,7 @@
         <v>44187</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16402,7 +16402,7 @@
         <v>44192</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16459,7 +16459,7 @@
         <v>44209</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16516,7 +16516,7 @@
         <v>44211</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16573,7 +16573,7 @@
         <v>44221</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16630,7 +16630,7 @@
         <v>44221</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16687,7 +16687,7 @@
         <v>44221</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16744,7 +16744,7 @@
         <v>44221</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16801,7 +16801,7 @@
         <v>44221</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -16858,7 +16858,7 @@
         <v>44225</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -16915,7 +16915,7 @@
         <v>44228</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -16972,7 +16972,7 @@
         <v>44229</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17029,7 +17029,7 @@
         <v>44229</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17086,7 +17086,7 @@
         <v>44231</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17143,7 +17143,7 @@
         <v>44231</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17200,7 +17200,7 @@
         <v>44231</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17257,7 +17257,7 @@
         <v>44234</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17314,7 +17314,7 @@
         <v>44237</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         <v>44243</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17428,7 +17428,7 @@
         <v>44245</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17485,7 +17485,7 @@
         <v>44245</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17542,7 +17542,7 @@
         <v>44245</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17599,7 +17599,7 @@
         <v>44245</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17656,7 +17656,7 @@
         <v>44245</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17713,7 +17713,7 @@
         <v>44251</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17770,7 +17770,7 @@
         <v>44253</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -17827,7 +17827,7 @@
         <v>44277</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -17884,7 +17884,7 @@
         <v>44278</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -17941,7 +17941,7 @@
         <v>44280</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -17998,7 +17998,7 @@
         <v>44284</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18055,7 +18055,7 @@
         <v>44286</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18112,7 +18112,7 @@
         <v>44292</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18169,7 +18169,7 @@
         <v>44293</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18226,7 +18226,7 @@
         <v>44294</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18283,7 +18283,7 @@
         <v>44309</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18340,7 +18340,7 @@
         <v>44315</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18397,7 +18397,7 @@
         <v>44315</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18454,7 +18454,7 @@
         <v>44315</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18511,7 +18511,7 @@
         <v>44315</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>44316</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18625,7 +18625,7 @@
         <v>44320</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18682,7 +18682,7 @@
         <v>44321</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         <v>44335</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18801,7 +18801,7 @@
         <v>44344</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -18858,7 +18858,7 @@
         <v>44349</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -18915,7 +18915,7 @@
         <v>44384</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -18972,7 +18972,7 @@
         <v>44386</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19029,7 +19029,7 @@
         <v>44397</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19086,7 +19086,7 @@
         <v>44397</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19143,7 +19143,7 @@
         <v>44403</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19200,7 +19200,7 @@
         <v>44413</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19257,7 +19257,7 @@
         <v>44414</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19314,7 +19314,7 @@
         <v>44427</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19371,7 +19371,7 @@
         <v>44427</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19428,7 +19428,7 @@
         <v>44431</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19485,7 +19485,7 @@
         <v>44433</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19542,7 +19542,7 @@
         <v>44434</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19599,7 +19599,7 @@
         <v>44434</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19656,7 +19656,7 @@
         <v>44438</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19713,7 +19713,7 @@
         <v>44438</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -19770,7 +19770,7 @@
         <v>44438</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -19827,7 +19827,7 @@
         <v>44445</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -19884,7 +19884,7 @@
         <v>44446</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -19941,7 +19941,7 @@
         <v>44447</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -19998,7 +19998,7 @@
         <v>44447</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20055,7 +20055,7 @@
         <v>44448</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20112,7 +20112,7 @@
         <v>44448</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20169,7 +20169,7 @@
         <v>44449</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         <v>44459</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20283,7 +20283,7 @@
         <v>44460</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20340,7 +20340,7 @@
         <v>44477</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20397,7 +20397,7 @@
         <v>44477</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20454,7 +20454,7 @@
         <v>44477</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20511,7 +20511,7 @@
         <v>44482</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20568,7 +20568,7 @@
         <v>44487</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20625,7 +20625,7 @@
         <v>44496</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20682,7 +20682,7 @@
         <v>44496</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -20739,7 +20739,7 @@
         <v>44503</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -20796,7 +20796,7 @@
         <v>44503</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -20853,7 +20853,7 @@
         <v>44503</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -20910,7 +20910,7 @@
         <v>44504</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -20967,7 +20967,7 @@
         <v>44508</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21024,7 +21024,7 @@
         <v>44510</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21081,7 +21081,7 @@
         <v>44512</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21138,7 +21138,7 @@
         <v>44515</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21195,7 +21195,7 @@
         <v>44522</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21252,7 +21252,7 @@
         <v>44523</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21309,7 +21309,7 @@
         <v>44523</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21366,7 +21366,7 @@
         <v>44524</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21423,7 +21423,7 @@
         <v>44525</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21480,7 +21480,7 @@
         <v>44526</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21537,7 +21537,7 @@
         <v>44531</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21594,7 +21594,7 @@
         <v>44543</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21651,7 +21651,7 @@
         <v>44551</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21708,7 +21708,7 @@
         <v>44560</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -21765,7 +21765,7 @@
         <v>44587</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -21827,7 +21827,7 @@
         <v>44587</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -21884,7 +21884,7 @@
         <v>44596</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -21941,7 +21941,7 @@
         <v>44599</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -21998,7 +21998,7 @@
         <v>44623</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22055,7 +22055,7 @@
         <v>44634</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22112,7 +22112,7 @@
         <v>44636</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22169,7 +22169,7 @@
         <v>44641</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22226,7 +22226,7 @@
         <v>44648</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22283,7 +22283,7 @@
         <v>44657</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22340,7 +22340,7 @@
         <v>44663</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22397,7 +22397,7 @@
         <v>44663</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22454,7 +22454,7 @@
         <v>44665</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22516,7 +22516,7 @@
         <v>44698</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22573,7 +22573,7 @@
         <v>44739</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22630,7 +22630,7 @@
         <v>44749</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22687,7 +22687,7 @@
         <v>44757</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -22744,7 +22744,7 @@
         <v>44784</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -22806,7 +22806,7 @@
         <v>44784</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -22868,7 +22868,7 @@
         <v>44785</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -22925,7 +22925,7 @@
         <v>44785</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -22982,7 +22982,7 @@
         <v>44785</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23039,7 +23039,7 @@
         <v>44785</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23096,7 +23096,7 @@
         <v>44785</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23153,7 +23153,7 @@
         <v>44785</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23210,7 +23210,7 @@
         <v>44785</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23267,7 +23267,7 @@
         <v>44785</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23324,7 +23324,7 @@
         <v>44802</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23381,7 +23381,7 @@
         <v>44812</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23438,7 +23438,7 @@
         <v>44812</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23495,7 +23495,7 @@
         <v>44817</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23552,7 +23552,7 @@
         <v>44830</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23609,7 +23609,7 @@
         <v>44831</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23666,7 +23666,7 @@
         <v>44831</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -23723,7 +23723,7 @@
         <v>44832</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -23780,7 +23780,7 @@
         <v>44852</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -23837,7 +23837,7 @@
         <v>44854</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -23894,7 +23894,7 @@
         <v>44855</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -23951,7 +23951,7 @@
         <v>44855</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24008,7 +24008,7 @@
         <v>44858</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24065,7 +24065,7 @@
         <v>44858</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24122,7 +24122,7 @@
         <v>44859</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24179,7 +24179,7 @@
         <v>44861</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24236,7 +24236,7 @@
         <v>44862</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24293,7 +24293,7 @@
         <v>44864</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24350,7 +24350,7 @@
         <v>44865</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24407,7 +24407,7 @@
         <v>44865</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24464,7 +24464,7 @@
         <v>44865</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24521,7 +24521,7 @@
         <v>44883</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24578,7 +24578,7 @@
         <v>44897</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24635,7 +24635,7 @@
         <v>44897</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -24692,7 +24692,7 @@
         <v>44897</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -24749,7 +24749,7 @@
         <v>44897</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -24806,7 +24806,7 @@
         <v>44911</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -24863,7 +24863,7 @@
         <v>44921</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -24920,7 +24920,7 @@
         <v>44922</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -24977,7 +24977,7 @@
         <v>44942</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25034,7 +25034,7 @@
         <v>44942</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25091,7 +25091,7 @@
         <v>44942</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25148,7 +25148,7 @@
         <v>44942</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25205,7 +25205,7 @@
         <v>44942</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25262,7 +25262,7 @@
         <v>44942</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25319,7 +25319,7 @@
         <v>44956</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25381,7 +25381,7 @@
         <v>44962</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25438,7 +25438,7 @@
         <v>44973</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25495,7 +25495,7 @@
         <v>44977</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25557,7 +25557,7 @@
         <v>44986</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25619,7 +25619,7 @@
         <v>44986</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -25676,7 +25676,7 @@
         <v>44992</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -25733,7 +25733,7 @@
         <v>44994</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -25790,7 +25790,7 @@
         <v>44994</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -25847,7 +25847,7 @@
         <v>44994</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -25904,7 +25904,7 @@
         <v>44994</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -25961,7 +25961,7 @@
         <v>44998</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26023,7 +26023,7 @@
         <v>45001</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26080,7 +26080,7 @@
         <v>45002</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26137,7 +26137,7 @@
         <v>45006</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26199,7 +26199,7 @@
         <v>45009</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26256,7 +26256,7 @@
         <v>45009</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26313,7 +26313,7 @@
         <v>45012</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26370,7 +26370,7 @@
         <v>45019</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26427,7 +26427,7 @@
         <v>45028</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26489,7 +26489,7 @@
         <v>45044</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26546,7 +26546,7 @@
         <v>45049</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26603,7 +26603,7 @@
         <v>45051</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26660,7 +26660,7 @@
         <v>45054</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -26717,7 +26717,7 @@
         <v>45056</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -26774,7 +26774,7 @@
         <v>45056</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -26831,7 +26831,7 @@
         <v>45061</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -26888,7 +26888,7 @@
         <v>45062</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -26945,7 +26945,7 @@
         <v>45062</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27002,7 +27002,7 @@
         <v>45076</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27059,7 +27059,7 @@
         <v>45076</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27116,7 +27116,7 @@
         <v>45078</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27173,7 +27173,7 @@
         <v>45078</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27230,7 +27230,7 @@
         <v>45078</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27287,7 +27287,7 @@
         <v>45078</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27344,7 +27344,7 @@
         <v>45078</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27401,7 +27401,7 @@
         <v>45081</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27458,7 +27458,7 @@
         <v>45084</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27515,7 +27515,7 @@
         <v>45085</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27572,7 +27572,7 @@
         <v>45090</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27629,7 +27629,7 @@
         <v>45092</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -27686,7 +27686,7 @@
         <v>45098</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -27763,7 +27763,7 @@
         <v>45104</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -27820,7 +27820,7 @@
         <v>45111</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -27877,7 +27877,7 @@
         <v>45118</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -27934,7 +27934,7 @@
         <v>45132</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -27991,7 +27991,7 @@
         <v>45139</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28048,7 +28048,7 @@
         <v>45140</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28105,7 +28105,7 @@
         <v>45140</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>

--- a/Översikt ÄLMHULT.xlsx
+++ b/Översikt ÄLMHULT.xlsx
@@ -572,7 +572,7 @@
         <v>44067</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44830</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43424</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>43977</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>44049</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         <v>44663</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>43317</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>43318</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>43325</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1257,7 +1257,7 @@
         <v>43335</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>43339</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
         <v>43341</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1428,7 +1428,7 @@
         <v>43341</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>43343</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>43343</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         <v>43356</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>43357</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>43361</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>43368</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>43369</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>43369</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>43374</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43375</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43376</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>43385</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>43396</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>43399</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43411</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>43419</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>43419</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2454,7 +2454,7 @@
         <v>43419</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2511,7 +2511,7 @@
         <v>43423</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>43424</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>43425</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2682,7 +2682,7 @@
         <v>43430</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2739,7 +2739,7 @@
         <v>43430</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>43430</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>43432</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>43446</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>43447</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3024,7 +3024,7 @@
         <v>43451</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>43453</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>43453</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>43453</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>43453</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>43453</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>43454</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>43454</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>43455</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>43467</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3594,7 +3594,7 @@
         <v>43467</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3651,7 +3651,7 @@
         <v>43468</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3708,7 +3708,7 @@
         <v>43473</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         <v>43473</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
         <v>43473</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         <v>43473</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3936,7 +3936,7 @@
         <v>43475</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         <v>43479</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         <v>43481</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>43481</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>43483</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>43483</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>43483</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>43486</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>43488</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>43489</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>43501</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>43504</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>43504</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4677,7 +4677,7 @@
         <v>43504</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>43510</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4791,7 +4791,7 @@
         <v>43510</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4848,7 +4848,7 @@
         <v>43510</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>43510</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43514</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43514</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43514</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43517</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43522</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43524</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>43524</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5371,7 +5371,7 @@
         <v>43528</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5428,7 +5428,7 @@
         <v>43528</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5485,7 +5485,7 @@
         <v>43530</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5542,7 +5542,7 @@
         <v>43531</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5599,7 +5599,7 @@
         <v>43535</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5656,7 +5656,7 @@
         <v>43544</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5718,7 +5718,7 @@
         <v>43545</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5775,7 +5775,7 @@
         <v>43545</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5832,7 +5832,7 @@
         <v>43550</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5889,7 +5889,7 @@
         <v>43550</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43556</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
         <v>43563</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6060,7 +6060,7 @@
         <v>43569</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         <v>43569</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6174,7 +6174,7 @@
         <v>43571</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6231,7 +6231,7 @@
         <v>43579</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6288,7 +6288,7 @@
         <v>43579</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6345,7 +6345,7 @@
         <v>43579</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6402,7 +6402,7 @@
         <v>43585</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
         <v>43585</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6516,7 +6516,7 @@
         <v>43591</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6573,7 +6573,7 @@
         <v>43593</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6630,7 +6630,7 @@
         <v>43593</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         <v>43593</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6744,7 +6744,7 @@
         <v>43593</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6801,7 +6801,7 @@
         <v>43593</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6858,7 +6858,7 @@
         <v>43593</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6915,7 +6915,7 @@
         <v>43605</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6972,7 +6972,7 @@
         <v>43607</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         <v>43608</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7086,7 +7086,7 @@
         <v>43628</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7143,7 +7143,7 @@
         <v>43635</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>43642</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7257,7 +7257,7 @@
         <v>43649</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7314,7 +7314,7 @@
         <v>43649</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7371,7 +7371,7 @@
         <v>43649</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7428,7 +7428,7 @@
         <v>43649</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7485,7 +7485,7 @@
         <v>43650</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7542,7 +7542,7 @@
         <v>43665</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7599,7 +7599,7 @@
         <v>43681</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7656,7 +7656,7 @@
         <v>43682</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7713,7 +7713,7 @@
         <v>43683</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7770,7 +7770,7 @@
         <v>43690</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7827,7 +7827,7 @@
         <v>43690</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7884,7 +7884,7 @@
         <v>43693</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7941,7 +7941,7 @@
         <v>43697</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7998,7 +7998,7 @@
         <v>43697</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8055,7 +8055,7 @@
         <v>43700</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8112,7 +8112,7 @@
         <v>43703</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8169,7 +8169,7 @@
         <v>43704</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         <v>43711</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>43711</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>43711</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>43713</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>43714</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8511,7 +8511,7 @@
         <v>43724</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>43725</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>43728</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43731</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43731</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>43732</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>43732</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>43733</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>43739</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>43739</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>43740</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>43747</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9200,7 +9200,7 @@
         <v>43749</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9257,7 +9257,7 @@
         <v>43761</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9314,7 +9314,7 @@
         <v>43761</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>43763</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9428,7 +9428,7 @@
         <v>43773</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9485,7 +9485,7 @@
         <v>43773</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9542,7 +9542,7 @@
         <v>43773</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9599,7 +9599,7 @@
         <v>43775</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9656,7 +9656,7 @@
         <v>43775</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9713,7 +9713,7 @@
         <v>43788</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9770,7 +9770,7 @@
         <v>43791</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9827,7 +9827,7 @@
         <v>43795</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>43796</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>43796</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9998,7 +9998,7 @@
         <v>43798</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10055,7 +10055,7 @@
         <v>43798</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10112,7 +10112,7 @@
         <v>43801</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10169,7 +10169,7 @@
         <v>43804</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>43809</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10283,7 +10283,7 @@
         <v>43835</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10340,7 +10340,7 @@
         <v>43835</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10397,7 +10397,7 @@
         <v>43835</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10454,7 +10454,7 @@
         <v>43840</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10511,7 +10511,7 @@
         <v>43852</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>43853</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10625,7 +10625,7 @@
         <v>43853</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10682,7 +10682,7 @@
         <v>43860</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         <v>43873</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         <v>43878</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>43878</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>43879</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>43882</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>43882</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11081,7 +11081,7 @@
         <v>43887</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11138,7 +11138,7 @@
         <v>43892</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>43892</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11252,7 +11252,7 @@
         <v>43892</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
         <v>43892</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>43895</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11423,7 +11423,7 @@
         <v>43895</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11480,7 +11480,7 @@
         <v>43896</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11537,7 +11537,7 @@
         <v>43896</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         <v>43897</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         <v>43907</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>43908</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         <v>43908</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11822,7 +11822,7 @@
         <v>43909</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11879,7 +11879,7 @@
         <v>43913</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11941,7 +11941,7 @@
         <v>43915</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11998,7 +11998,7 @@
         <v>43915</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12055,7 +12055,7 @@
         <v>43917</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12112,7 +12112,7 @@
         <v>43920</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12169,7 +12169,7 @@
         <v>43921</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12226,7 +12226,7 @@
         <v>43926</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12283,7 +12283,7 @@
         <v>43936</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12340,7 +12340,7 @@
         <v>43965</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12397,7 +12397,7 @@
         <v>43965</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12454,7 +12454,7 @@
         <v>43965</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12511,7 +12511,7 @@
         <v>43965</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12568,7 +12568,7 @@
         <v>43966</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12625,7 +12625,7 @@
         <v>43967</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12682,7 +12682,7 @@
         <v>43977</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12739,7 +12739,7 @@
         <v>43980</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12796,7 +12796,7 @@
         <v>43994</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12853,7 +12853,7 @@
         <v>43999</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12910,7 +12910,7 @@
         <v>44008</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12967,7 +12967,7 @@
         <v>44026</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13024,7 +13024,7 @@
         <v>44035</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
         <v>44039</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>44039</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>44039</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13252,7 +13252,7 @@
         <v>44041</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13309,7 +13309,7 @@
         <v>44046</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13366,7 +13366,7 @@
         <v>44046</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13423,7 +13423,7 @@
         <v>44054</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13480,7 +13480,7 @@
         <v>44054</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13537,7 +13537,7 @@
         <v>44054</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13594,7 +13594,7 @@
         <v>44054</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13651,7 +13651,7 @@
         <v>44057</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13708,7 +13708,7 @@
         <v>44057</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13765,7 +13765,7 @@
         <v>44061</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13822,7 +13822,7 @@
         <v>44063</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13879,7 +13879,7 @@
         <v>44070</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13936,7 +13936,7 @@
         <v>44070</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -13993,7 +13993,7 @@
         <v>44075</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14050,7 +14050,7 @@
         <v>44078</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14107,7 +14107,7 @@
         <v>44090</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14164,7 +14164,7 @@
         <v>44090</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14221,7 +14221,7 @@
         <v>44096</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14278,7 +14278,7 @@
         <v>44096</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14335,7 +14335,7 @@
         <v>44098</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14392,7 +14392,7 @@
         <v>44104</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14449,7 +14449,7 @@
         <v>44106</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14506,7 +14506,7 @@
         <v>44106</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         <v>44108</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14620,7 +14620,7 @@
         <v>44109</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14677,7 +14677,7 @@
         <v>44110</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14734,7 +14734,7 @@
         <v>44111</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14791,7 +14791,7 @@
         <v>44111</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14848,7 +14848,7 @@
         <v>44112</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -14905,7 +14905,7 @@
         <v>44113</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -14962,7 +14962,7 @@
         <v>44116</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15019,7 +15019,7 @@
         <v>44117</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15076,7 +15076,7 @@
         <v>44117</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15133,7 +15133,7 @@
         <v>44148</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15190,7 +15190,7 @@
         <v>44152</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15247,7 +15247,7 @@
         <v>44153</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15304,7 +15304,7 @@
         <v>44153</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15361,7 +15361,7 @@
         <v>44153</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15418,7 +15418,7 @@
         <v>44153</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15475,7 +15475,7 @@
         <v>44153</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15532,7 +15532,7 @@
         <v>44154</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15589,7 +15589,7 @@
         <v>44154</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15651,7 +15651,7 @@
         <v>44154</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15713,7 +15713,7 @@
         <v>44158</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15770,7 +15770,7 @@
         <v>44158</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15827,7 +15827,7 @@
         <v>44159</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15884,7 +15884,7 @@
         <v>44160</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -15941,7 +15941,7 @@
         <v>44161</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -15998,7 +15998,7 @@
         <v>44161</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16055,7 +16055,7 @@
         <v>44162</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16112,7 +16112,7 @@
         <v>44174</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16169,7 +16169,7 @@
         <v>44175</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16226,7 +16226,7 @@
         <v>44182</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16283,7 +16283,7 @@
         <v>44183</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16340,7 +16340,7 @@
         <v>44187</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16402,7 +16402,7 @@
         <v>44192</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16459,7 +16459,7 @@
         <v>44209</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16516,7 +16516,7 @@
         <v>44211</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16573,7 +16573,7 @@
         <v>44221</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16630,7 +16630,7 @@
         <v>44221</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16687,7 +16687,7 @@
         <v>44221</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16744,7 +16744,7 @@
         <v>44221</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16801,7 +16801,7 @@
         <v>44221</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -16858,7 +16858,7 @@
         <v>44225</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -16915,7 +16915,7 @@
         <v>44228</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -16972,7 +16972,7 @@
         <v>44229</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17029,7 +17029,7 @@
         <v>44229</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17086,7 +17086,7 @@
         <v>44231</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17143,7 +17143,7 @@
         <v>44231</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17200,7 +17200,7 @@
         <v>44231</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17257,7 +17257,7 @@
         <v>44234</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17314,7 +17314,7 @@
         <v>44237</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         <v>44243</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17428,7 +17428,7 @@
         <v>44245</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17485,7 +17485,7 @@
         <v>44245</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17542,7 +17542,7 @@
         <v>44245</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17599,7 +17599,7 @@
         <v>44245</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17656,7 +17656,7 @@
         <v>44245</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17713,7 +17713,7 @@
         <v>44251</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17770,7 +17770,7 @@
         <v>44253</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -17827,7 +17827,7 @@
         <v>44277</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -17884,7 +17884,7 @@
         <v>44278</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -17941,7 +17941,7 @@
         <v>44280</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -17998,7 +17998,7 @@
         <v>44284</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18055,7 +18055,7 @@
         <v>44286</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18112,7 +18112,7 @@
         <v>44292</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18169,7 +18169,7 @@
         <v>44293</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18226,7 +18226,7 @@
         <v>44294</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18283,7 +18283,7 @@
         <v>44309</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18340,7 +18340,7 @@
         <v>44315</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18397,7 +18397,7 @@
         <v>44315</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18454,7 +18454,7 @@
         <v>44315</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18511,7 +18511,7 @@
         <v>44315</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>44316</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18625,7 +18625,7 @@
         <v>44320</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18682,7 +18682,7 @@
         <v>44321</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         <v>44335</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18801,7 +18801,7 @@
         <v>44344</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -18858,7 +18858,7 @@
         <v>44349</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -18915,7 +18915,7 @@
         <v>44384</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -18972,7 +18972,7 @@
         <v>44386</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19029,7 +19029,7 @@
         <v>44397</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19086,7 +19086,7 @@
         <v>44397</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19143,7 +19143,7 @@
         <v>44403</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19200,7 +19200,7 @@
         <v>44413</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19257,7 +19257,7 @@
         <v>44414</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19314,7 +19314,7 @@
         <v>44427</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19371,7 +19371,7 @@
         <v>44427</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19428,7 +19428,7 @@
         <v>44431</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19485,7 +19485,7 @@
         <v>44433</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19542,7 +19542,7 @@
         <v>44434</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19599,7 +19599,7 @@
         <v>44434</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19656,7 +19656,7 @@
         <v>44438</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19713,7 +19713,7 @@
         <v>44438</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -19770,7 +19770,7 @@
         <v>44438</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -19827,7 +19827,7 @@
         <v>44445</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -19884,7 +19884,7 @@
         <v>44446</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -19941,7 +19941,7 @@
         <v>44447</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -19998,7 +19998,7 @@
         <v>44447</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20055,7 +20055,7 @@
         <v>44448</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20112,7 +20112,7 @@
         <v>44448</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20169,7 +20169,7 @@
         <v>44449</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         <v>44459</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20283,7 +20283,7 @@
         <v>44460</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20340,7 +20340,7 @@
         <v>44477</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20397,7 +20397,7 @@
         <v>44477</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20454,7 +20454,7 @@
         <v>44477</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20511,7 +20511,7 @@
         <v>44482</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20568,7 +20568,7 @@
         <v>44487</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20625,7 +20625,7 @@
         <v>44496</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20682,7 +20682,7 @@
         <v>44496</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -20739,7 +20739,7 @@
         <v>44503</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -20796,7 +20796,7 @@
         <v>44503</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -20853,7 +20853,7 @@
         <v>44503</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -20910,7 +20910,7 @@
         <v>44504</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -20967,7 +20967,7 @@
         <v>44508</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21024,7 +21024,7 @@
         <v>44510</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21081,7 +21081,7 @@
         <v>44512</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21138,7 +21138,7 @@
         <v>44515</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21195,7 +21195,7 @@
         <v>44522</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21252,7 +21252,7 @@
         <v>44523</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21309,7 +21309,7 @@
         <v>44523</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21366,7 +21366,7 @@
         <v>44524</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21423,7 +21423,7 @@
         <v>44525</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21480,7 +21480,7 @@
         <v>44526</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21537,7 +21537,7 @@
         <v>44531</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21594,7 +21594,7 @@
         <v>44543</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21651,7 +21651,7 @@
         <v>44551</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21708,7 +21708,7 @@
         <v>44560</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -21765,7 +21765,7 @@
         <v>44587</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -21827,7 +21827,7 @@
         <v>44587</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -21884,7 +21884,7 @@
         <v>44596</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -21941,7 +21941,7 @@
         <v>44599</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -21998,7 +21998,7 @@
         <v>44623</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22055,7 +22055,7 @@
         <v>44634</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22112,7 +22112,7 @@
         <v>44636</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22169,7 +22169,7 @@
         <v>44641</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22226,7 +22226,7 @@
         <v>44648</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22283,7 +22283,7 @@
         <v>44657</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22340,7 +22340,7 @@
         <v>44663</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22397,7 +22397,7 @@
         <v>44663</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22454,7 +22454,7 @@
         <v>44665</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22516,7 +22516,7 @@
         <v>44698</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22573,7 +22573,7 @@
         <v>44739</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22630,7 +22630,7 @@
         <v>44749</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22687,7 +22687,7 @@
         <v>44757</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -22744,7 +22744,7 @@
         <v>44784</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -22806,7 +22806,7 @@
         <v>44784</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -22868,7 +22868,7 @@
         <v>44785</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -22925,7 +22925,7 @@
         <v>44785</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -22982,7 +22982,7 @@
         <v>44785</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23039,7 +23039,7 @@
         <v>44785</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23096,7 +23096,7 @@
         <v>44785</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23153,7 +23153,7 @@
         <v>44785</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23210,7 +23210,7 @@
         <v>44785</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23267,7 +23267,7 @@
         <v>44785</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23324,7 +23324,7 @@
         <v>44802</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23381,7 +23381,7 @@
         <v>44812</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23438,7 +23438,7 @@
         <v>44812</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23495,7 +23495,7 @@
         <v>44817</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23552,7 +23552,7 @@
         <v>44830</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23609,7 +23609,7 @@
         <v>44831</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23666,7 +23666,7 @@
         <v>44831</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -23723,7 +23723,7 @@
         <v>44832</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -23780,7 +23780,7 @@
         <v>44852</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -23837,7 +23837,7 @@
         <v>44854</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -23894,7 +23894,7 @@
         <v>44855</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -23951,7 +23951,7 @@
         <v>44855</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24008,7 +24008,7 @@
         <v>44858</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24065,7 +24065,7 @@
         <v>44858</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24122,7 +24122,7 @@
         <v>44859</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24179,7 +24179,7 @@
         <v>44861</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24236,7 +24236,7 @@
         <v>44862</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24293,7 +24293,7 @@
         <v>44864</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24350,7 +24350,7 @@
         <v>44865</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24407,7 +24407,7 @@
         <v>44865</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24464,7 +24464,7 @@
         <v>44865</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24521,7 +24521,7 @@
         <v>44883</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24578,7 +24578,7 @@
         <v>44897</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24635,7 +24635,7 @@
         <v>44897</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -24692,7 +24692,7 @@
         <v>44897</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -24749,7 +24749,7 @@
         <v>44897</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -24806,7 +24806,7 @@
         <v>44911</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -24863,7 +24863,7 @@
         <v>44921</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -24920,7 +24920,7 @@
         <v>44922</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -24977,7 +24977,7 @@
         <v>44942</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25034,7 +25034,7 @@
         <v>44942</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25091,7 +25091,7 @@
         <v>44942</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25148,7 +25148,7 @@
         <v>44942</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25205,7 +25205,7 @@
         <v>44942</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25262,7 +25262,7 @@
         <v>44942</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25319,7 +25319,7 @@
         <v>44956</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25381,7 +25381,7 @@
         <v>44962</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25438,7 +25438,7 @@
         <v>44973</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25495,7 +25495,7 @@
         <v>44977</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25557,7 +25557,7 @@
         <v>44986</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25619,7 +25619,7 @@
         <v>44986</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -25676,7 +25676,7 @@
         <v>44992</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -25733,7 +25733,7 @@
         <v>44994</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -25790,7 +25790,7 @@
         <v>44994</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -25847,7 +25847,7 @@
         <v>44994</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -25904,7 +25904,7 @@
         <v>44994</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -25961,7 +25961,7 @@
         <v>44998</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26023,7 +26023,7 @@
         <v>45001</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26080,7 +26080,7 @@
         <v>45002</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26137,7 +26137,7 @@
         <v>45006</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26199,7 +26199,7 @@
         <v>45009</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26256,7 +26256,7 @@
         <v>45009</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26313,7 +26313,7 @@
         <v>45012</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26370,7 +26370,7 @@
         <v>45019</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26427,7 +26427,7 @@
         <v>45028</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26489,7 +26489,7 @@
         <v>45044</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26546,7 +26546,7 @@
         <v>45049</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26603,7 +26603,7 @@
         <v>45051</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26660,7 +26660,7 @@
         <v>45054</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -26717,7 +26717,7 @@
         <v>45056</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -26774,7 +26774,7 @@
         <v>45056</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -26831,7 +26831,7 @@
         <v>45061</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -26888,7 +26888,7 @@
         <v>45062</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -26945,7 +26945,7 @@
         <v>45062</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27002,7 +27002,7 @@
         <v>45076</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27059,7 +27059,7 @@
         <v>45076</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27116,7 +27116,7 @@
         <v>45078</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27173,7 +27173,7 @@
         <v>45078</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27230,7 +27230,7 @@
         <v>45078</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27287,7 +27287,7 @@
         <v>45078</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27344,7 +27344,7 @@
         <v>45078</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27401,7 +27401,7 @@
         <v>45081</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27458,7 +27458,7 @@
         <v>45084</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27515,7 +27515,7 @@
         <v>45085</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27572,7 +27572,7 @@
         <v>45090</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27629,7 +27629,7 @@
         <v>45092</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -27686,7 +27686,7 @@
         <v>45098</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -27763,7 +27763,7 @@
         <v>45104</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -27820,7 +27820,7 @@
         <v>45111</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -27877,7 +27877,7 @@
         <v>45118</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -27934,7 +27934,7 @@
         <v>45132</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -27991,7 +27991,7 @@
         <v>45139</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28048,7 +28048,7 @@
         <v>45140</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28105,7 +28105,7 @@
         <v>45140</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>

--- a/Översikt ÄLMHULT.xlsx
+++ b/Översikt ÄLMHULT.xlsx
@@ -572,7 +572,7 @@
         <v>44067</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44830</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43424</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>43977</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>44049</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         <v>44663</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>43317</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>43318</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>43325</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1257,7 +1257,7 @@
         <v>43335</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>43339</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
         <v>43341</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1428,7 +1428,7 @@
         <v>43341</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>43343</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>43343</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         <v>43356</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>43357</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>43361</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>43368</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>43369</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>43369</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>43374</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43375</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43376</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>43385</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>43396</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>43399</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43411</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>43419</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>43419</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2454,7 +2454,7 @@
         <v>43419</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2511,7 +2511,7 @@
         <v>43423</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>43424</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>43425</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2682,7 +2682,7 @@
         <v>43430</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2739,7 +2739,7 @@
         <v>43430</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>43430</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>43432</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>43446</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>43447</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3024,7 +3024,7 @@
         <v>43451</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>43453</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>43453</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>43453</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>43453</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>43453</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>43454</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>43454</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>43455</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>43467</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3594,7 +3594,7 @@
         <v>43467</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3651,7 +3651,7 @@
         <v>43468</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3708,7 +3708,7 @@
         <v>43473</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         <v>43473</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
         <v>43473</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         <v>43473</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3936,7 +3936,7 @@
         <v>43475</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         <v>43479</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         <v>43481</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>43481</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>43483</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>43483</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>43483</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>43486</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>43488</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>43489</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>43501</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>43504</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>43504</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4677,7 +4677,7 @@
         <v>43504</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>43510</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4791,7 +4791,7 @@
         <v>43510</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4848,7 +4848,7 @@
         <v>43510</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>43510</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43514</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43514</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43514</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43517</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43522</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43524</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>43524</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5371,7 +5371,7 @@
         <v>43528</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5428,7 +5428,7 @@
         <v>43528</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5485,7 +5485,7 @@
         <v>43530</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5542,7 +5542,7 @@
         <v>43531</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5599,7 +5599,7 @@
         <v>43535</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5656,7 +5656,7 @@
         <v>43544</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5718,7 +5718,7 @@
         <v>43545</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5775,7 +5775,7 @@
         <v>43545</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5832,7 +5832,7 @@
         <v>43550</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5889,7 +5889,7 @@
         <v>43550</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43556</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
         <v>43563</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6060,7 +6060,7 @@
         <v>43569</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         <v>43569</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6174,7 +6174,7 @@
         <v>43571</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6231,7 +6231,7 @@
         <v>43579</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6288,7 +6288,7 @@
         <v>43579</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6345,7 +6345,7 @@
         <v>43579</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6402,7 +6402,7 @@
         <v>43585</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
         <v>43585</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6516,7 +6516,7 @@
         <v>43591</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6573,7 +6573,7 @@
         <v>43593</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6630,7 +6630,7 @@
         <v>43593</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         <v>43593</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6744,7 +6744,7 @@
         <v>43593</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6801,7 +6801,7 @@
         <v>43593</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6858,7 +6858,7 @@
         <v>43593</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6915,7 +6915,7 @@
         <v>43605</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6972,7 +6972,7 @@
         <v>43607</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         <v>43608</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7086,7 +7086,7 @@
         <v>43628</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7143,7 +7143,7 @@
         <v>43635</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>43642</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7257,7 +7257,7 @@
         <v>43649</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7314,7 +7314,7 @@
         <v>43649</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7371,7 +7371,7 @@
         <v>43649</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7428,7 +7428,7 @@
         <v>43649</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7485,7 +7485,7 @@
         <v>43650</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7542,7 +7542,7 @@
         <v>43665</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7599,7 +7599,7 @@
         <v>43681</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7656,7 +7656,7 @@
         <v>43682</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7713,7 +7713,7 @@
         <v>43683</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7770,7 +7770,7 @@
         <v>43690</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7827,7 +7827,7 @@
         <v>43690</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7884,7 +7884,7 @@
         <v>43693</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7941,7 +7941,7 @@
         <v>43697</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7998,7 +7998,7 @@
         <v>43697</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8055,7 +8055,7 @@
         <v>43700</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8112,7 +8112,7 @@
         <v>43703</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8169,7 +8169,7 @@
         <v>43704</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         <v>43711</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>43711</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>43711</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>43713</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>43714</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8511,7 +8511,7 @@
         <v>43724</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>43725</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>43728</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43731</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43731</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>43732</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>43732</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>43733</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>43739</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>43739</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>43740</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>43747</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9200,7 +9200,7 @@
         <v>43749</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9257,7 +9257,7 @@
         <v>43761</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9314,7 +9314,7 @@
         <v>43761</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>43763</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9428,7 +9428,7 @@
         <v>43773</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9485,7 +9485,7 @@
         <v>43773</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9542,7 +9542,7 @@
         <v>43773</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9599,7 +9599,7 @@
         <v>43775</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9656,7 +9656,7 @@
         <v>43775</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9713,7 +9713,7 @@
         <v>43788</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9770,7 +9770,7 @@
         <v>43791</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9827,7 +9827,7 @@
         <v>43795</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>43796</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>43796</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9998,7 +9998,7 @@
         <v>43798</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10055,7 +10055,7 @@
         <v>43798</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10112,7 +10112,7 @@
         <v>43801</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10169,7 +10169,7 @@
         <v>43804</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>43809</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10283,7 +10283,7 @@
         <v>43835</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10340,7 +10340,7 @@
         <v>43835</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10397,7 +10397,7 @@
         <v>43835</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10454,7 +10454,7 @@
         <v>43840</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10511,7 +10511,7 @@
         <v>43852</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>43853</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10625,7 +10625,7 @@
         <v>43853</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10682,7 +10682,7 @@
         <v>43860</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         <v>43873</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         <v>43878</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>43878</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>43879</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>43882</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>43882</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11081,7 +11081,7 @@
         <v>43887</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11138,7 +11138,7 @@
         <v>43892</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>43892</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11252,7 +11252,7 @@
         <v>43892</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
         <v>43892</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>43895</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11423,7 +11423,7 @@
         <v>43895</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11480,7 +11480,7 @@
         <v>43896</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11537,7 +11537,7 @@
         <v>43896</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         <v>43897</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         <v>43907</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>43908</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         <v>43908</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11822,7 +11822,7 @@
         <v>43909</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11879,7 +11879,7 @@
         <v>43913</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11941,7 +11941,7 @@
         <v>43915</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11998,7 +11998,7 @@
         <v>43915</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12055,7 +12055,7 @@
         <v>43917</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12112,7 +12112,7 @@
         <v>43920</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12169,7 +12169,7 @@
         <v>43921</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12226,7 +12226,7 @@
         <v>43926</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12283,7 +12283,7 @@
         <v>43936</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12340,7 +12340,7 @@
         <v>43965</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12397,7 +12397,7 @@
         <v>43965</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12454,7 +12454,7 @@
         <v>43965</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12511,7 +12511,7 @@
         <v>43965</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12568,7 +12568,7 @@
         <v>43966</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12625,7 +12625,7 @@
         <v>43967</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12682,7 +12682,7 @@
         <v>43977</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12739,7 +12739,7 @@
         <v>43980</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12796,7 +12796,7 @@
         <v>43994</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12853,7 +12853,7 @@
         <v>43999</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12910,7 +12910,7 @@
         <v>44008</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12967,7 +12967,7 @@
         <v>44026</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13024,7 +13024,7 @@
         <v>44035</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
         <v>44039</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>44039</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>44039</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13252,7 +13252,7 @@
         <v>44041</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13309,7 +13309,7 @@
         <v>44046</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13366,7 +13366,7 @@
         <v>44046</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13423,7 +13423,7 @@
         <v>44054</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13480,7 +13480,7 @@
         <v>44054</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13537,7 +13537,7 @@
         <v>44054</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13594,7 +13594,7 @@
         <v>44054</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13651,7 +13651,7 @@
         <v>44057</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13708,7 +13708,7 @@
         <v>44057</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13765,7 +13765,7 @@
         <v>44061</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13822,7 +13822,7 @@
         <v>44063</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13879,7 +13879,7 @@
         <v>44070</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13936,7 +13936,7 @@
         <v>44070</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -13993,7 +13993,7 @@
         <v>44075</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14050,7 +14050,7 @@
         <v>44078</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14107,7 +14107,7 @@
         <v>44090</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14164,7 +14164,7 @@
         <v>44090</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14221,7 +14221,7 @@
         <v>44096</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14278,7 +14278,7 @@
         <v>44096</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14335,7 +14335,7 @@
         <v>44098</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14392,7 +14392,7 @@
         <v>44104</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14449,7 +14449,7 @@
         <v>44106</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14506,7 +14506,7 @@
         <v>44106</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         <v>44108</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14620,7 +14620,7 @@
         <v>44109</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14677,7 +14677,7 @@
         <v>44110</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14734,7 +14734,7 @@
         <v>44111</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14791,7 +14791,7 @@
         <v>44111</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14848,7 +14848,7 @@
         <v>44112</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -14905,7 +14905,7 @@
         <v>44113</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -14962,7 +14962,7 @@
         <v>44116</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15019,7 +15019,7 @@
         <v>44117</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15076,7 +15076,7 @@
         <v>44117</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15133,7 +15133,7 @@
         <v>44148</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15190,7 +15190,7 @@
         <v>44152</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15247,7 +15247,7 @@
         <v>44153</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15304,7 +15304,7 @@
         <v>44153</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15361,7 +15361,7 @@
         <v>44153</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15418,7 +15418,7 @@
         <v>44153</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15475,7 +15475,7 @@
         <v>44153</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15532,7 +15532,7 @@
         <v>44154</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15589,7 +15589,7 @@
         <v>44154</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15651,7 +15651,7 @@
         <v>44154</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15713,7 +15713,7 @@
         <v>44158</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15770,7 +15770,7 @@
         <v>44158</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15827,7 +15827,7 @@
         <v>44159</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15884,7 +15884,7 @@
         <v>44160</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -15941,7 +15941,7 @@
         <v>44161</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -15998,7 +15998,7 @@
         <v>44161</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16055,7 +16055,7 @@
         <v>44162</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16112,7 +16112,7 @@
         <v>44174</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16169,7 +16169,7 @@
         <v>44175</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16226,7 +16226,7 @@
         <v>44182</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16283,7 +16283,7 @@
         <v>44183</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16340,7 +16340,7 @@
         <v>44187</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16402,7 +16402,7 @@
         <v>44192</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16459,7 +16459,7 @@
         <v>44209</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16516,7 +16516,7 @@
         <v>44211</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16573,7 +16573,7 @@
         <v>44221</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16630,7 +16630,7 @@
         <v>44221</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16687,7 +16687,7 @@
         <v>44221</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16744,7 +16744,7 @@
         <v>44221</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16801,7 +16801,7 @@
         <v>44221</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -16858,7 +16858,7 @@
         <v>44225</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -16915,7 +16915,7 @@
         <v>44228</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -16972,7 +16972,7 @@
         <v>44229</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17029,7 +17029,7 @@
         <v>44229</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17086,7 +17086,7 @@
         <v>44231</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17143,7 +17143,7 @@
         <v>44231</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17200,7 +17200,7 @@
         <v>44231</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17257,7 +17257,7 @@
         <v>44234</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17314,7 +17314,7 @@
         <v>44237</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         <v>44243</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17428,7 +17428,7 @@
         <v>44245</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17485,7 +17485,7 @@
         <v>44245</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17542,7 +17542,7 @@
         <v>44245</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17599,7 +17599,7 @@
         <v>44245</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17656,7 +17656,7 @@
         <v>44245</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17713,7 +17713,7 @@
         <v>44251</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17770,7 +17770,7 @@
         <v>44253</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -17827,7 +17827,7 @@
         <v>44277</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -17884,7 +17884,7 @@
         <v>44278</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -17941,7 +17941,7 @@
         <v>44280</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -17998,7 +17998,7 @@
         <v>44284</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18055,7 +18055,7 @@
         <v>44286</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18112,7 +18112,7 @@
         <v>44292</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18169,7 +18169,7 @@
         <v>44293</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18226,7 +18226,7 @@
         <v>44294</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18283,7 +18283,7 @@
         <v>44309</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18340,7 +18340,7 @@
         <v>44315</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18397,7 +18397,7 @@
         <v>44315</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18454,7 +18454,7 @@
         <v>44315</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18511,7 +18511,7 @@
         <v>44315</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>44316</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18625,7 +18625,7 @@
         <v>44320</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18682,7 +18682,7 @@
         <v>44321</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         <v>44335</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18801,7 +18801,7 @@
         <v>44344</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -18858,7 +18858,7 @@
         <v>44349</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -18915,7 +18915,7 @@
         <v>44384</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -18972,7 +18972,7 @@
         <v>44386</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19029,7 +19029,7 @@
         <v>44397</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19086,7 +19086,7 @@
         <v>44397</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19143,7 +19143,7 @@
         <v>44403</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19200,7 +19200,7 @@
         <v>44413</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19257,7 +19257,7 @@
         <v>44414</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19314,7 +19314,7 @@
         <v>44427</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19371,7 +19371,7 @@
         <v>44427</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19428,7 +19428,7 @@
         <v>44431</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19485,7 +19485,7 @@
         <v>44433</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19542,7 +19542,7 @@
         <v>44434</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19599,7 +19599,7 @@
         <v>44434</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19656,7 +19656,7 @@
         <v>44438</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19713,7 +19713,7 @@
         <v>44438</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -19770,7 +19770,7 @@
         <v>44438</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -19827,7 +19827,7 @@
         <v>44445</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -19884,7 +19884,7 @@
         <v>44446</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -19941,7 +19941,7 @@
         <v>44447</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -19998,7 +19998,7 @@
         <v>44447</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20055,7 +20055,7 @@
         <v>44448</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20112,7 +20112,7 @@
         <v>44448</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20169,7 +20169,7 @@
         <v>44449</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         <v>44459</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20283,7 +20283,7 @@
         <v>44460</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20340,7 +20340,7 @@
         <v>44477</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20397,7 +20397,7 @@
         <v>44477</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20454,7 +20454,7 @@
         <v>44477</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20511,7 +20511,7 @@
         <v>44482</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20568,7 +20568,7 @@
         <v>44487</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20625,7 +20625,7 @@
         <v>44496</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20682,7 +20682,7 @@
         <v>44496</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -20739,7 +20739,7 @@
         <v>44503</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -20796,7 +20796,7 @@
         <v>44503</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -20853,7 +20853,7 @@
         <v>44503</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -20910,7 +20910,7 @@
         <v>44504</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -20967,7 +20967,7 @@
         <v>44508</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21024,7 +21024,7 @@
         <v>44510</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21081,7 +21081,7 @@
         <v>44512</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21138,7 +21138,7 @@
         <v>44515</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21195,7 +21195,7 @@
         <v>44522</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21252,7 +21252,7 @@
         <v>44523</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21309,7 +21309,7 @@
         <v>44523</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21366,7 +21366,7 @@
         <v>44524</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21423,7 +21423,7 @@
         <v>44525</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21480,7 +21480,7 @@
         <v>44526</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21537,7 +21537,7 @@
         <v>44531</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21594,7 +21594,7 @@
         <v>44543</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21651,7 +21651,7 @@
         <v>44551</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21708,7 +21708,7 @@
         <v>44560</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -21765,7 +21765,7 @@
         <v>44587</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -21827,7 +21827,7 @@
         <v>44587</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -21884,7 +21884,7 @@
         <v>44596</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -21941,7 +21941,7 @@
         <v>44599</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -21998,7 +21998,7 @@
         <v>44623</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22055,7 +22055,7 @@
         <v>44634</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22112,7 +22112,7 @@
         <v>44636</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22169,7 +22169,7 @@
         <v>44641</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22226,7 +22226,7 @@
         <v>44648</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22283,7 +22283,7 @@
         <v>44657</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22340,7 +22340,7 @@
         <v>44663</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22397,7 +22397,7 @@
         <v>44663</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22454,7 +22454,7 @@
         <v>44665</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22516,7 +22516,7 @@
         <v>44698</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22573,7 +22573,7 @@
         <v>44739</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22630,7 +22630,7 @@
         <v>44749</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22687,7 +22687,7 @@
         <v>44757</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -22744,7 +22744,7 @@
         <v>44784</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -22806,7 +22806,7 @@
         <v>44784</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -22868,7 +22868,7 @@
         <v>44785</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -22925,7 +22925,7 @@
         <v>44785</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -22982,7 +22982,7 @@
         <v>44785</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23039,7 +23039,7 @@
         <v>44785</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23096,7 +23096,7 @@
         <v>44785</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23153,7 +23153,7 @@
         <v>44785</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23210,7 +23210,7 @@
         <v>44785</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23267,7 +23267,7 @@
         <v>44785</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23324,7 +23324,7 @@
         <v>44802</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23381,7 +23381,7 @@
         <v>44812</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23438,7 +23438,7 @@
         <v>44812</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23495,7 +23495,7 @@
         <v>44817</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23552,7 +23552,7 @@
         <v>44830</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23609,7 +23609,7 @@
         <v>44831</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23666,7 +23666,7 @@
         <v>44831</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -23723,7 +23723,7 @@
         <v>44832</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -23780,7 +23780,7 @@
         <v>44852</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -23837,7 +23837,7 @@
         <v>44854</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -23894,7 +23894,7 @@
         <v>44855</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -23951,7 +23951,7 @@
         <v>44855</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24008,7 +24008,7 @@
         <v>44858</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24065,7 +24065,7 @@
         <v>44858</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24122,7 +24122,7 @@
         <v>44859</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24179,7 +24179,7 @@
         <v>44861</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24236,7 +24236,7 @@
         <v>44862</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24293,7 +24293,7 @@
         <v>44864</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24350,7 +24350,7 @@
         <v>44865</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24407,7 +24407,7 @@
         <v>44865</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24464,7 +24464,7 @@
         <v>44865</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24521,7 +24521,7 @@
         <v>44883</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24578,7 +24578,7 @@
         <v>44897</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24635,7 +24635,7 @@
         <v>44897</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -24692,7 +24692,7 @@
         <v>44897</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -24749,7 +24749,7 @@
         <v>44897</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -24806,7 +24806,7 @@
         <v>44911</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -24863,7 +24863,7 @@
         <v>44921</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -24920,7 +24920,7 @@
         <v>44922</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -24977,7 +24977,7 @@
         <v>44942</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25034,7 +25034,7 @@
         <v>44942</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25091,7 +25091,7 @@
         <v>44942</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25148,7 +25148,7 @@
         <v>44942</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25205,7 +25205,7 @@
         <v>44942</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25262,7 +25262,7 @@
         <v>44942</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25319,7 +25319,7 @@
         <v>44956</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25381,7 +25381,7 @@
         <v>44962</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25438,7 +25438,7 @@
         <v>44973</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25495,7 +25495,7 @@
         <v>44977</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25557,7 +25557,7 @@
         <v>44986</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25619,7 +25619,7 @@
         <v>44986</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -25676,7 +25676,7 @@
         <v>44992</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -25733,7 +25733,7 @@
         <v>44994</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -25790,7 +25790,7 @@
         <v>44994</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -25847,7 +25847,7 @@
         <v>44994</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -25904,7 +25904,7 @@
         <v>44994</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -25961,7 +25961,7 @@
         <v>44998</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26023,7 +26023,7 @@
         <v>45001</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26080,7 +26080,7 @@
         <v>45002</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26137,7 +26137,7 @@
         <v>45006</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26199,7 +26199,7 @@
         <v>45009</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26256,7 +26256,7 @@
         <v>45009</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26313,7 +26313,7 @@
         <v>45012</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26370,7 +26370,7 @@
         <v>45019</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26427,7 +26427,7 @@
         <v>45028</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26489,7 +26489,7 @@
         <v>45044</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26546,7 +26546,7 @@
         <v>45049</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26603,7 +26603,7 @@
         <v>45051</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26660,7 +26660,7 @@
         <v>45054</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -26717,7 +26717,7 @@
         <v>45056</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -26774,7 +26774,7 @@
         <v>45056</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -26831,7 +26831,7 @@
         <v>45061</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -26888,7 +26888,7 @@
         <v>45062</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -26945,7 +26945,7 @@
         <v>45062</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27002,7 +27002,7 @@
         <v>45076</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27059,7 +27059,7 @@
         <v>45076</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27116,7 +27116,7 @@
         <v>45078</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27173,7 +27173,7 @@
         <v>45078</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27230,7 +27230,7 @@
         <v>45078</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27287,7 +27287,7 @@
         <v>45078</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27344,7 +27344,7 @@
         <v>45078</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27401,7 +27401,7 @@
         <v>45081</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27458,7 +27458,7 @@
         <v>45084</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27515,7 +27515,7 @@
         <v>45085</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27572,7 +27572,7 @@
         <v>45090</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27629,7 +27629,7 @@
         <v>45092</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -27686,7 +27686,7 @@
         <v>45098</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -27763,7 +27763,7 @@
         <v>45104</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -27820,7 +27820,7 @@
         <v>45111</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -27877,7 +27877,7 @@
         <v>45118</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -27934,7 +27934,7 @@
         <v>45132</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -27991,7 +27991,7 @@
         <v>45139</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28048,7 +28048,7 @@
         <v>45140</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28105,7 +28105,7 @@
         <v>45140</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>

--- a/Översikt ÄLMHULT.xlsx
+++ b/Översikt ÄLMHULT.xlsx
@@ -572,7 +572,7 @@
         <v>44067</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44830</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43424</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>43977</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>44049</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         <v>44663</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>43317</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>43318</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>43325</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1257,7 +1257,7 @@
         <v>43335</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>43339</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
         <v>43341</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1428,7 +1428,7 @@
         <v>43341</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>43343</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>43343</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         <v>43356</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>43357</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>43361</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>43368</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>43369</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>43369</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>43374</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43375</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43376</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>43385</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>43396</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>43399</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43411</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>43419</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>43419</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2454,7 +2454,7 @@
         <v>43419</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2511,7 +2511,7 @@
         <v>43423</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>43424</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>43425</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2682,7 +2682,7 @@
         <v>43430</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2739,7 +2739,7 @@
         <v>43430</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>43430</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>43432</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>43446</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>43447</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3024,7 +3024,7 @@
         <v>43451</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>43453</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>43453</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>43453</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>43453</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>43453</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>43454</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>43454</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>43455</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>43467</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3594,7 +3594,7 @@
         <v>43467</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3651,7 +3651,7 @@
         <v>43468</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3708,7 +3708,7 @@
         <v>43473</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         <v>43473</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
         <v>43473</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         <v>43473</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3936,7 +3936,7 @@
         <v>43475</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         <v>43479</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         <v>43481</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>43481</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>43483</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>43483</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>43483</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>43486</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>43488</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>43489</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>43501</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>43504</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>43504</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4677,7 +4677,7 @@
         <v>43504</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>43510</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4791,7 +4791,7 @@
         <v>43510</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4848,7 +4848,7 @@
         <v>43510</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>43510</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43514</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43514</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43514</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43517</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43522</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43524</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>43524</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5371,7 +5371,7 @@
         <v>43528</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5428,7 +5428,7 @@
         <v>43528</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5485,7 +5485,7 @@
         <v>43530</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5542,7 +5542,7 @@
         <v>43531</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5599,7 +5599,7 @@
         <v>43535</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5656,7 +5656,7 @@
         <v>43544</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5718,7 +5718,7 @@
         <v>43545</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5775,7 +5775,7 @@
         <v>43545</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5832,7 +5832,7 @@
         <v>43550</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5889,7 +5889,7 @@
         <v>43550</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43556</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
         <v>43563</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6060,7 +6060,7 @@
         <v>43569</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         <v>43569</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6174,7 +6174,7 @@
         <v>43571</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6231,7 +6231,7 @@
         <v>43579</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6288,7 +6288,7 @@
         <v>43579</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6345,7 +6345,7 @@
         <v>43579</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6402,7 +6402,7 @@
         <v>43585</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
         <v>43585</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6516,7 +6516,7 @@
         <v>43591</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6573,7 +6573,7 @@
         <v>43593</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6630,7 +6630,7 @@
         <v>43593</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         <v>43593</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6744,7 +6744,7 @@
         <v>43593</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6801,7 +6801,7 @@
         <v>43593</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6858,7 +6858,7 @@
         <v>43593</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6915,7 +6915,7 @@
         <v>43605</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6972,7 +6972,7 @@
         <v>43607</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         <v>43608</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7086,7 +7086,7 @@
         <v>43628</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7143,7 +7143,7 @@
         <v>43635</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>43642</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7257,7 +7257,7 @@
         <v>43649</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7314,7 +7314,7 @@
         <v>43649</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7371,7 +7371,7 @@
         <v>43649</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7428,7 +7428,7 @@
         <v>43649</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7485,7 +7485,7 @@
         <v>43650</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7542,7 +7542,7 @@
         <v>43665</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7599,7 +7599,7 @@
         <v>43681</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7656,7 +7656,7 @@
         <v>43682</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7713,7 +7713,7 @@
         <v>43683</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7770,7 +7770,7 @@
         <v>43690</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7827,7 +7827,7 @@
         <v>43690</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7884,7 +7884,7 @@
         <v>43693</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7941,7 +7941,7 @@
         <v>43697</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7998,7 +7998,7 @@
         <v>43697</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8055,7 +8055,7 @@
         <v>43700</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8112,7 +8112,7 @@
         <v>43703</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8169,7 +8169,7 @@
         <v>43704</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         <v>43711</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>43711</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>43711</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>43713</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>43714</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8511,7 +8511,7 @@
         <v>43724</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>43725</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>43728</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43731</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43731</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>43732</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>43732</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>43733</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>43739</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>43739</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>43740</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>43747</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9200,7 +9200,7 @@
         <v>43749</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9257,7 +9257,7 @@
         <v>43761</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9314,7 +9314,7 @@
         <v>43761</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>43763</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9428,7 +9428,7 @@
         <v>43773</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9485,7 +9485,7 @@
         <v>43773</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9542,7 +9542,7 @@
         <v>43773</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9599,7 +9599,7 @@
         <v>43775</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9656,7 +9656,7 @@
         <v>43775</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9713,7 +9713,7 @@
         <v>43788</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9770,7 +9770,7 @@
         <v>43791</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9827,7 +9827,7 @@
         <v>43795</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>43796</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>43796</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9998,7 +9998,7 @@
         <v>43798</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10055,7 +10055,7 @@
         <v>43798</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10112,7 +10112,7 @@
         <v>43801</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10169,7 +10169,7 @@
         <v>43804</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>43809</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10283,7 +10283,7 @@
         <v>43835</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10340,7 +10340,7 @@
         <v>43835</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10397,7 +10397,7 @@
         <v>43835</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10454,7 +10454,7 @@
         <v>43840</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10511,7 +10511,7 @@
         <v>43852</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>43853</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10625,7 +10625,7 @@
         <v>43853</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10682,7 +10682,7 @@
         <v>43860</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         <v>43873</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         <v>43878</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>43878</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>43879</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>43882</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>43882</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11081,7 +11081,7 @@
         <v>43887</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11138,7 +11138,7 @@
         <v>43892</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>43892</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11252,7 +11252,7 @@
         <v>43892</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
         <v>43892</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>43895</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11423,7 +11423,7 @@
         <v>43895</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11480,7 +11480,7 @@
         <v>43896</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11537,7 +11537,7 @@
         <v>43896</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         <v>43897</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         <v>43907</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>43908</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         <v>43908</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11822,7 +11822,7 @@
         <v>43909</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11879,7 +11879,7 @@
         <v>43913</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11941,7 +11941,7 @@
         <v>43915</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11998,7 +11998,7 @@
         <v>43915</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12055,7 +12055,7 @@
         <v>43917</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12112,7 +12112,7 @@
         <v>43920</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12169,7 +12169,7 @@
         <v>43921</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12226,7 +12226,7 @@
         <v>43926</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12283,7 +12283,7 @@
         <v>43936</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12340,7 +12340,7 @@
         <v>43965</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12397,7 +12397,7 @@
         <v>43965</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12454,7 +12454,7 @@
         <v>43965</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12511,7 +12511,7 @@
         <v>43965</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12568,7 +12568,7 @@
         <v>43966</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12625,7 +12625,7 @@
         <v>43967</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12682,7 +12682,7 @@
         <v>43977</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12739,7 +12739,7 @@
         <v>43980</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12796,7 +12796,7 @@
         <v>43994</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12853,7 +12853,7 @@
         <v>43999</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12910,7 +12910,7 @@
         <v>44008</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12967,7 +12967,7 @@
         <v>44026</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13024,7 +13024,7 @@
         <v>44035</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
         <v>44039</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>44039</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>44039</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13252,7 +13252,7 @@
         <v>44041</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13309,7 +13309,7 @@
         <v>44046</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13366,7 +13366,7 @@
         <v>44046</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13423,7 +13423,7 @@
         <v>44054</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13480,7 +13480,7 @@
         <v>44054</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13537,7 +13537,7 @@
         <v>44054</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13594,7 +13594,7 @@
         <v>44054</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13651,7 +13651,7 @@
         <v>44057</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13708,7 +13708,7 @@
         <v>44057</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13765,7 +13765,7 @@
         <v>44061</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13822,7 +13822,7 @@
         <v>44063</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13879,7 +13879,7 @@
         <v>44070</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13936,7 +13936,7 @@
         <v>44070</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -13993,7 +13993,7 @@
         <v>44075</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14050,7 +14050,7 @@
         <v>44078</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14107,7 +14107,7 @@
         <v>44090</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14164,7 +14164,7 @@
         <v>44090</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14221,7 +14221,7 @@
         <v>44096</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14278,7 +14278,7 @@
         <v>44096</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14335,7 +14335,7 @@
         <v>44098</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14392,7 +14392,7 @@
         <v>44104</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14449,7 +14449,7 @@
         <v>44106</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14506,7 +14506,7 @@
         <v>44106</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         <v>44108</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14620,7 +14620,7 @@
         <v>44109</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14677,7 +14677,7 @@
         <v>44110</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14734,7 +14734,7 @@
         <v>44111</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14791,7 +14791,7 @@
         <v>44111</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14848,7 +14848,7 @@
         <v>44112</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -14905,7 +14905,7 @@
         <v>44113</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -14962,7 +14962,7 @@
         <v>44116</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15019,7 +15019,7 @@
         <v>44117</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15076,7 +15076,7 @@
         <v>44117</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15133,7 +15133,7 @@
         <v>44148</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15190,7 +15190,7 @@
         <v>44152</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15247,7 +15247,7 @@
         <v>44153</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15304,7 +15304,7 @@
         <v>44153</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15361,7 +15361,7 @@
         <v>44153</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15418,7 +15418,7 @@
         <v>44153</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15475,7 +15475,7 @@
         <v>44153</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15532,7 +15532,7 @@
         <v>44154</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15589,7 +15589,7 @@
         <v>44154</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15651,7 +15651,7 @@
         <v>44154</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15713,7 +15713,7 @@
         <v>44158</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15770,7 +15770,7 @@
         <v>44158</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15827,7 +15827,7 @@
         <v>44159</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15884,7 +15884,7 @@
         <v>44160</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -15941,7 +15941,7 @@
         <v>44161</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -15998,7 +15998,7 @@
         <v>44161</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16055,7 +16055,7 @@
         <v>44162</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16112,7 +16112,7 @@
         <v>44174</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16169,7 +16169,7 @@
         <v>44175</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16226,7 +16226,7 @@
         <v>44182</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16283,7 +16283,7 @@
         <v>44183</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16340,7 +16340,7 @@
         <v>44187</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16402,7 +16402,7 @@
         <v>44192</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16459,7 +16459,7 @@
         <v>44209</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16516,7 +16516,7 @@
         <v>44211</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16573,7 +16573,7 @@
         <v>44221</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16630,7 +16630,7 @@
         <v>44221</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16687,7 +16687,7 @@
         <v>44221</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16744,7 +16744,7 @@
         <v>44221</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16801,7 +16801,7 @@
         <v>44221</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -16858,7 +16858,7 @@
         <v>44225</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -16915,7 +16915,7 @@
         <v>44228</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -16972,7 +16972,7 @@
         <v>44229</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17029,7 +17029,7 @@
         <v>44229</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17086,7 +17086,7 @@
         <v>44231</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17143,7 +17143,7 @@
         <v>44231</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17200,7 +17200,7 @@
         <v>44231</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17257,7 +17257,7 @@
         <v>44234</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17314,7 +17314,7 @@
         <v>44237</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         <v>44243</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17428,7 +17428,7 @@
         <v>44245</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17485,7 +17485,7 @@
         <v>44245</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17542,7 +17542,7 @@
         <v>44245</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17599,7 +17599,7 @@
         <v>44245</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17656,7 +17656,7 @@
         <v>44245</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17713,7 +17713,7 @@
         <v>44251</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17770,7 +17770,7 @@
         <v>44253</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -17827,7 +17827,7 @@
         <v>44277</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -17884,7 +17884,7 @@
         <v>44278</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -17941,7 +17941,7 @@
         <v>44280</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -17998,7 +17998,7 @@
         <v>44284</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18055,7 +18055,7 @@
         <v>44286</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18112,7 +18112,7 @@
         <v>44292</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18169,7 +18169,7 @@
         <v>44293</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18226,7 +18226,7 @@
         <v>44294</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18283,7 +18283,7 @@
         <v>44309</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18340,7 +18340,7 @@
         <v>44315</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18397,7 +18397,7 @@
         <v>44315</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18454,7 +18454,7 @@
         <v>44315</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18511,7 +18511,7 @@
         <v>44315</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>44316</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18625,7 +18625,7 @@
         <v>44320</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18682,7 +18682,7 @@
         <v>44321</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         <v>44335</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18801,7 +18801,7 @@
         <v>44344</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -18858,7 +18858,7 @@
         <v>44349</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -18915,7 +18915,7 @@
         <v>44384</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -18972,7 +18972,7 @@
         <v>44386</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19029,7 +19029,7 @@
         <v>44397</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19086,7 +19086,7 @@
         <v>44397</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19143,7 +19143,7 @@
         <v>44403</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19200,7 +19200,7 @@
         <v>44413</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19257,7 +19257,7 @@
         <v>44414</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19314,7 +19314,7 @@
         <v>44427</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19371,7 +19371,7 @@
         <v>44427</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19428,7 +19428,7 @@
         <v>44431</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19485,7 +19485,7 @@
         <v>44433</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19542,7 +19542,7 @@
         <v>44434</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19599,7 +19599,7 @@
         <v>44434</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19656,7 +19656,7 @@
         <v>44438</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19713,7 +19713,7 @@
         <v>44438</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -19770,7 +19770,7 @@
         <v>44438</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -19827,7 +19827,7 @@
         <v>44445</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -19884,7 +19884,7 @@
         <v>44446</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -19941,7 +19941,7 @@
         <v>44447</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -19998,7 +19998,7 @@
         <v>44447</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20055,7 +20055,7 @@
         <v>44448</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20112,7 +20112,7 @@
         <v>44448</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20169,7 +20169,7 @@
         <v>44449</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         <v>44459</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20283,7 +20283,7 @@
         <v>44460</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20340,7 +20340,7 @@
         <v>44477</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20397,7 +20397,7 @@
         <v>44477</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20454,7 +20454,7 @@
         <v>44477</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20511,7 +20511,7 @@
         <v>44482</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20568,7 +20568,7 @@
         <v>44487</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20625,7 +20625,7 @@
         <v>44496</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20682,7 +20682,7 @@
         <v>44496</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -20739,7 +20739,7 @@
         <v>44503</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -20796,7 +20796,7 @@
         <v>44503</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -20853,7 +20853,7 @@
         <v>44503</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -20910,7 +20910,7 @@
         <v>44504</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -20967,7 +20967,7 @@
         <v>44508</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21024,7 +21024,7 @@
         <v>44510</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21081,7 +21081,7 @@
         <v>44512</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21138,7 +21138,7 @@
         <v>44515</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21195,7 +21195,7 @@
         <v>44522</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21252,7 +21252,7 @@
         <v>44523</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21309,7 +21309,7 @@
         <v>44523</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21366,7 +21366,7 @@
         <v>44524</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21423,7 +21423,7 @@
         <v>44525</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21480,7 +21480,7 @@
         <v>44526</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21537,7 +21537,7 @@
         <v>44531</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21594,7 +21594,7 @@
         <v>44543</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21651,7 +21651,7 @@
         <v>44551</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21708,7 +21708,7 @@
         <v>44560</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -21765,7 +21765,7 @@
         <v>44587</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -21827,7 +21827,7 @@
         <v>44587</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -21884,7 +21884,7 @@
         <v>44596</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -21941,7 +21941,7 @@
         <v>44599</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -21998,7 +21998,7 @@
         <v>44623</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22055,7 +22055,7 @@
         <v>44634</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22112,7 +22112,7 @@
         <v>44636</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22169,7 +22169,7 @@
         <v>44641</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22226,7 +22226,7 @@
         <v>44648</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22283,7 +22283,7 @@
         <v>44657</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22340,7 +22340,7 @@
         <v>44663</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22397,7 +22397,7 @@
         <v>44663</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22454,7 +22454,7 @@
         <v>44665</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22516,7 +22516,7 @@
         <v>44698</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22573,7 +22573,7 @@
         <v>44739</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22630,7 +22630,7 @@
         <v>44749</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22687,7 +22687,7 @@
         <v>44757</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -22744,7 +22744,7 @@
         <v>44784</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -22806,7 +22806,7 @@
         <v>44784</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -22868,7 +22868,7 @@
         <v>44785</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -22925,7 +22925,7 @@
         <v>44785</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -22982,7 +22982,7 @@
         <v>44785</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23039,7 +23039,7 @@
         <v>44785</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23096,7 +23096,7 @@
         <v>44785</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23153,7 +23153,7 @@
         <v>44785</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23210,7 +23210,7 @@
         <v>44785</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23267,7 +23267,7 @@
         <v>44785</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23324,7 +23324,7 @@
         <v>44802</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23381,7 +23381,7 @@
         <v>44812</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23438,7 +23438,7 @@
         <v>44812</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23495,7 +23495,7 @@
         <v>44817</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23552,7 +23552,7 @@
         <v>44830</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23609,7 +23609,7 @@
         <v>44831</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23666,7 +23666,7 @@
         <v>44831</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -23723,7 +23723,7 @@
         <v>44832</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -23780,7 +23780,7 @@
         <v>44852</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -23837,7 +23837,7 @@
         <v>44854</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -23894,7 +23894,7 @@
         <v>44855</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -23951,7 +23951,7 @@
         <v>44855</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24008,7 +24008,7 @@
         <v>44858</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24065,7 +24065,7 @@
         <v>44858</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24122,7 +24122,7 @@
         <v>44859</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24179,7 +24179,7 @@
         <v>44861</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24236,7 +24236,7 @@
         <v>44862</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24293,7 +24293,7 @@
         <v>44864</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24350,7 +24350,7 @@
         <v>44865</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24407,7 +24407,7 @@
         <v>44865</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24464,7 +24464,7 @@
         <v>44865</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24521,7 +24521,7 @@
         <v>44883</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24578,7 +24578,7 @@
         <v>44897</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24635,7 +24635,7 @@
         <v>44897</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -24692,7 +24692,7 @@
         <v>44897</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -24749,7 +24749,7 @@
         <v>44897</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -24806,7 +24806,7 @@
         <v>44911</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -24863,7 +24863,7 @@
         <v>44921</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -24920,7 +24920,7 @@
         <v>44922</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -24977,7 +24977,7 @@
         <v>44942</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25034,7 +25034,7 @@
         <v>44942</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25091,7 +25091,7 @@
         <v>44942</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25148,7 +25148,7 @@
         <v>44942</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25205,7 +25205,7 @@
         <v>44942</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25262,7 +25262,7 @@
         <v>44942</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25319,7 +25319,7 @@
         <v>44956</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25381,7 +25381,7 @@
         <v>44962</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25438,7 +25438,7 @@
         <v>44973</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25495,7 +25495,7 @@
         <v>44977</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25557,7 +25557,7 @@
         <v>44986</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25619,7 +25619,7 @@
         <v>44986</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -25676,7 +25676,7 @@
         <v>44992</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -25733,7 +25733,7 @@
         <v>44994</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -25790,7 +25790,7 @@
         <v>44994</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -25847,7 +25847,7 @@
         <v>44994</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -25904,7 +25904,7 @@
         <v>44994</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -25961,7 +25961,7 @@
         <v>44998</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26023,7 +26023,7 @@
         <v>45001</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26080,7 +26080,7 @@
         <v>45002</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26137,7 +26137,7 @@
         <v>45006</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26199,7 +26199,7 @@
         <v>45009</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26256,7 +26256,7 @@
         <v>45009</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26313,7 +26313,7 @@
         <v>45012</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26370,7 +26370,7 @@
         <v>45019</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26427,7 +26427,7 @@
         <v>45028</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26489,7 +26489,7 @@
         <v>45044</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26546,7 +26546,7 @@
         <v>45049</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26603,7 +26603,7 @@
         <v>45051</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26660,7 +26660,7 @@
         <v>45054</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -26717,7 +26717,7 @@
         <v>45056</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -26774,7 +26774,7 @@
         <v>45056</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -26831,7 +26831,7 @@
         <v>45061</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -26888,7 +26888,7 @@
         <v>45062</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -26945,7 +26945,7 @@
         <v>45062</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27002,7 +27002,7 @@
         <v>45076</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27059,7 +27059,7 @@
         <v>45076</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27116,7 +27116,7 @@
         <v>45078</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27173,7 +27173,7 @@
         <v>45078</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27230,7 +27230,7 @@
         <v>45078</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27287,7 +27287,7 @@
         <v>45078</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27344,7 +27344,7 @@
         <v>45078</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27401,7 +27401,7 @@
         <v>45081</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27458,7 +27458,7 @@
         <v>45084</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27515,7 +27515,7 @@
         <v>45085</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27572,7 +27572,7 @@
         <v>45090</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27629,7 +27629,7 @@
         <v>45092</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -27686,7 +27686,7 @@
         <v>45098</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -27763,7 +27763,7 @@
         <v>45104</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -27820,7 +27820,7 @@
         <v>45111</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -27877,7 +27877,7 @@
         <v>45118</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -27934,7 +27934,7 @@
         <v>45132</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -27991,7 +27991,7 @@
         <v>45139</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28048,7 +28048,7 @@
         <v>45140</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28105,7 +28105,7 @@
         <v>45140</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>

--- a/Översikt ÄLMHULT.xlsx
+++ b/Översikt ÄLMHULT.xlsx
@@ -572,7 +572,7 @@
         <v>44067</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44830</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43424</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>43977</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>44049</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         <v>44663</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>43317</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>43318</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>43325</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1257,7 +1257,7 @@
         <v>43335</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>43339</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
         <v>43341</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1428,7 +1428,7 @@
         <v>43341</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>43343</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>43343</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         <v>43356</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>43357</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>43361</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>43368</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>43369</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>43369</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>43374</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43375</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43376</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>43385</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>43396</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>43399</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43411</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>43419</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>43419</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2454,7 +2454,7 @@
         <v>43419</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2511,7 +2511,7 @@
         <v>43423</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>43424</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>43425</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2682,7 +2682,7 @@
         <v>43430</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2739,7 +2739,7 @@
         <v>43430</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>43430</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>43432</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>43446</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>43447</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3024,7 +3024,7 @@
         <v>43451</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>43453</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>43453</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>43453</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>43453</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>43453</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>43454</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>43454</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>43455</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>43467</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3594,7 +3594,7 @@
         <v>43467</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3651,7 +3651,7 @@
         <v>43468</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3708,7 +3708,7 @@
         <v>43473</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         <v>43473</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
         <v>43473</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         <v>43473</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3936,7 +3936,7 @@
         <v>43475</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         <v>43479</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         <v>43481</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>43481</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>43483</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>43483</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>43483</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>43486</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>43488</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>43489</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>43501</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>43504</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>43504</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4677,7 +4677,7 @@
         <v>43504</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>43510</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4791,7 +4791,7 @@
         <v>43510</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4848,7 +4848,7 @@
         <v>43510</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>43510</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43514</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43514</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43514</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43517</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43522</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43524</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>43524</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5371,7 +5371,7 @@
         <v>43528</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5428,7 +5428,7 @@
         <v>43528</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5485,7 +5485,7 @@
         <v>43530</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5542,7 +5542,7 @@
         <v>43531</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5599,7 +5599,7 @@
         <v>43535</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5656,7 +5656,7 @@
         <v>43544</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5718,7 +5718,7 @@
         <v>43545</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5775,7 +5775,7 @@
         <v>43545</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5832,7 +5832,7 @@
         <v>43550</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5889,7 +5889,7 @@
         <v>43550</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43556</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
         <v>43563</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6060,7 +6060,7 @@
         <v>43569</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         <v>43569</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6174,7 +6174,7 @@
         <v>43571</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6231,7 +6231,7 @@
         <v>43579</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6288,7 +6288,7 @@
         <v>43579</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6345,7 +6345,7 @@
         <v>43579</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6402,7 +6402,7 @@
         <v>43585</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
         <v>43585</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6516,7 +6516,7 @@
         <v>43591</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6573,7 +6573,7 @@
         <v>43593</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6630,7 +6630,7 @@
         <v>43593</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         <v>43593</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6744,7 +6744,7 @@
         <v>43593</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6801,7 +6801,7 @@
         <v>43593</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6858,7 +6858,7 @@
         <v>43593</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6915,7 +6915,7 @@
         <v>43605</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6972,7 +6972,7 @@
         <v>43607</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         <v>43608</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7086,7 +7086,7 @@
         <v>43628</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7143,7 +7143,7 @@
         <v>43635</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>43642</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7257,7 +7257,7 @@
         <v>43649</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7314,7 +7314,7 @@
         <v>43649</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7371,7 +7371,7 @@
         <v>43649</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7428,7 +7428,7 @@
         <v>43649</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7485,7 +7485,7 @@
         <v>43650</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7542,7 +7542,7 @@
         <v>43665</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7599,7 +7599,7 @@
         <v>43681</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7656,7 +7656,7 @@
         <v>43682</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7713,7 +7713,7 @@
         <v>43683</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7770,7 +7770,7 @@
         <v>43690</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7827,7 +7827,7 @@
         <v>43690</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7884,7 +7884,7 @@
         <v>43693</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7941,7 +7941,7 @@
         <v>43697</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7998,7 +7998,7 @@
         <v>43697</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8055,7 +8055,7 @@
         <v>43700</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8112,7 +8112,7 @@
         <v>43703</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8169,7 +8169,7 @@
         <v>43704</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         <v>43711</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>43711</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>43711</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>43713</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>43714</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8511,7 +8511,7 @@
         <v>43724</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>43725</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>43728</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43731</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43731</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>43732</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>43732</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>43733</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>43739</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>43739</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>43740</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>43747</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9200,7 +9200,7 @@
         <v>43749</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9257,7 +9257,7 @@
         <v>43761</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9314,7 +9314,7 @@
         <v>43761</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>43763</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9428,7 +9428,7 @@
         <v>43773</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9485,7 +9485,7 @@
         <v>43773</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9542,7 +9542,7 @@
         <v>43773</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9599,7 +9599,7 @@
         <v>43775</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9656,7 +9656,7 @@
         <v>43775</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9713,7 +9713,7 @@
         <v>43788</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9770,7 +9770,7 @@
         <v>43791</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9827,7 +9827,7 @@
         <v>43795</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>43796</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>43796</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9998,7 +9998,7 @@
         <v>43798</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10055,7 +10055,7 @@
         <v>43798</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10112,7 +10112,7 @@
         <v>43801</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10169,7 +10169,7 @@
         <v>43804</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>43809</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10283,7 +10283,7 @@
         <v>43835</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10340,7 +10340,7 @@
         <v>43835</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10397,7 +10397,7 @@
         <v>43835</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10454,7 +10454,7 @@
         <v>43840</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10511,7 +10511,7 @@
         <v>43852</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>43853</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10625,7 +10625,7 @@
         <v>43853</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10682,7 +10682,7 @@
         <v>43860</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         <v>43873</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         <v>43878</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>43878</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>43879</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>43882</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>43882</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11081,7 +11081,7 @@
         <v>43887</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11138,7 +11138,7 @@
         <v>43892</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>43892</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11252,7 +11252,7 @@
         <v>43892</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
         <v>43892</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>43895</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11423,7 +11423,7 @@
         <v>43895</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11480,7 +11480,7 @@
         <v>43896</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11537,7 +11537,7 @@
         <v>43896</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         <v>43897</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         <v>43907</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>43908</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         <v>43908</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11822,7 +11822,7 @@
         <v>43909</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11879,7 +11879,7 @@
         <v>43913</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11941,7 +11941,7 @@
         <v>43915</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11998,7 +11998,7 @@
         <v>43915</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12055,7 +12055,7 @@
         <v>43917</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12112,7 +12112,7 @@
         <v>43920</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12169,7 +12169,7 @@
         <v>43921</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12226,7 +12226,7 @@
         <v>43926</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12283,7 +12283,7 @@
         <v>43936</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12340,7 +12340,7 @@
         <v>43965</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12397,7 +12397,7 @@
         <v>43965</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12454,7 +12454,7 @@
         <v>43965</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12511,7 +12511,7 @@
         <v>43965</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12568,7 +12568,7 @@
         <v>43966</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12625,7 +12625,7 @@
         <v>43967</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12682,7 +12682,7 @@
         <v>43977</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12739,7 +12739,7 @@
         <v>43980</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12796,7 +12796,7 @@
         <v>43994</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12853,7 +12853,7 @@
         <v>43999</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12910,7 +12910,7 @@
         <v>44008</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12967,7 +12967,7 @@
         <v>44026</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13024,7 +13024,7 @@
         <v>44035</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
         <v>44039</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>44039</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>44039</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13252,7 +13252,7 @@
         <v>44041</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13309,7 +13309,7 @@
         <v>44046</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13366,7 +13366,7 @@
         <v>44046</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13423,7 +13423,7 @@
         <v>44054</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13480,7 +13480,7 @@
         <v>44054</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13537,7 +13537,7 @@
         <v>44054</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13594,7 +13594,7 @@
         <v>44054</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13651,7 +13651,7 @@
         <v>44057</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13708,7 +13708,7 @@
         <v>44057</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13765,7 +13765,7 @@
         <v>44061</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13822,7 +13822,7 @@
         <v>44063</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13879,7 +13879,7 @@
         <v>44070</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13936,7 +13936,7 @@
         <v>44070</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -13993,7 +13993,7 @@
         <v>44075</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14050,7 +14050,7 @@
         <v>44078</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14107,7 +14107,7 @@
         <v>44090</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14164,7 +14164,7 @@
         <v>44090</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14221,7 +14221,7 @@
         <v>44096</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14278,7 +14278,7 @@
         <v>44096</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14335,7 +14335,7 @@
         <v>44098</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14392,7 +14392,7 @@
         <v>44104</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14449,7 +14449,7 @@
         <v>44106</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14506,7 +14506,7 @@
         <v>44106</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         <v>44108</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14620,7 +14620,7 @@
         <v>44109</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14677,7 +14677,7 @@
         <v>44110</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14734,7 +14734,7 @@
         <v>44111</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14791,7 +14791,7 @@
         <v>44111</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14848,7 +14848,7 @@
         <v>44112</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -14905,7 +14905,7 @@
         <v>44113</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -14962,7 +14962,7 @@
         <v>44116</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15019,7 +15019,7 @@
         <v>44117</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15076,7 +15076,7 @@
         <v>44117</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15133,7 +15133,7 @@
         <v>44148</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15190,7 +15190,7 @@
         <v>44152</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15247,7 +15247,7 @@
         <v>44153</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15304,7 +15304,7 @@
         <v>44153</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15361,7 +15361,7 @@
         <v>44153</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15418,7 +15418,7 @@
         <v>44153</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15475,7 +15475,7 @@
         <v>44153</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15532,7 +15532,7 @@
         <v>44154</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15589,7 +15589,7 @@
         <v>44154</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15651,7 +15651,7 @@
         <v>44154</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15713,7 +15713,7 @@
         <v>44158</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15770,7 +15770,7 @@
         <v>44158</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15827,7 +15827,7 @@
         <v>44159</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15884,7 +15884,7 @@
         <v>44160</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -15941,7 +15941,7 @@
         <v>44161</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -15998,7 +15998,7 @@
         <v>44161</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16055,7 +16055,7 @@
         <v>44162</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16112,7 +16112,7 @@
         <v>44174</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16169,7 +16169,7 @@
         <v>44175</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16226,7 +16226,7 @@
         <v>44182</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16283,7 +16283,7 @@
         <v>44183</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16340,7 +16340,7 @@
         <v>44187</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16402,7 +16402,7 @@
         <v>44192</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16459,7 +16459,7 @@
         <v>44209</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16516,7 +16516,7 @@
         <v>44211</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16573,7 +16573,7 @@
         <v>44221</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16630,7 +16630,7 @@
         <v>44221</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16687,7 +16687,7 @@
         <v>44221</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16744,7 +16744,7 @@
         <v>44221</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16801,7 +16801,7 @@
         <v>44221</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -16858,7 +16858,7 @@
         <v>44225</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -16915,7 +16915,7 @@
         <v>44228</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -16972,7 +16972,7 @@
         <v>44229</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17029,7 +17029,7 @@
         <v>44229</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17086,7 +17086,7 @@
         <v>44231</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17143,7 +17143,7 @@
         <v>44231</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17200,7 +17200,7 @@
         <v>44231</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17257,7 +17257,7 @@
         <v>44234</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17314,7 +17314,7 @@
         <v>44237</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         <v>44243</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17428,7 +17428,7 @@
         <v>44245</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17485,7 +17485,7 @@
         <v>44245</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17542,7 +17542,7 @@
         <v>44245</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17599,7 +17599,7 @@
         <v>44245</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17656,7 +17656,7 @@
         <v>44245</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17713,7 +17713,7 @@
         <v>44251</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17770,7 +17770,7 @@
         <v>44253</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -17827,7 +17827,7 @@
         <v>44277</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -17884,7 +17884,7 @@
         <v>44278</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -17941,7 +17941,7 @@
         <v>44280</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -17998,7 +17998,7 @@
         <v>44284</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18055,7 +18055,7 @@
         <v>44286</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18112,7 +18112,7 @@
         <v>44292</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18169,7 +18169,7 @@
         <v>44293</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18226,7 +18226,7 @@
         <v>44294</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18283,7 +18283,7 @@
         <v>44309</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18340,7 +18340,7 @@
         <v>44315</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18397,7 +18397,7 @@
         <v>44315</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18454,7 +18454,7 @@
         <v>44315</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18511,7 +18511,7 @@
         <v>44315</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>44316</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18625,7 +18625,7 @@
         <v>44320</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18682,7 +18682,7 @@
         <v>44321</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         <v>44335</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18801,7 +18801,7 @@
         <v>44344</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -18858,7 +18858,7 @@
         <v>44349</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -18915,7 +18915,7 @@
         <v>44384</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -18972,7 +18972,7 @@
         <v>44386</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19029,7 +19029,7 @@
         <v>44397</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19086,7 +19086,7 @@
         <v>44397</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19143,7 +19143,7 @@
         <v>44403</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19200,7 +19200,7 @@
         <v>44413</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19257,7 +19257,7 @@
         <v>44414</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19314,7 +19314,7 @@
         <v>44427</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19371,7 +19371,7 @@
         <v>44427</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19428,7 +19428,7 @@
         <v>44431</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19485,7 +19485,7 @@
         <v>44433</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19542,7 +19542,7 @@
         <v>44434</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19599,7 +19599,7 @@
         <v>44434</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19656,7 +19656,7 @@
         <v>44438</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19713,7 +19713,7 @@
         <v>44438</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -19770,7 +19770,7 @@
         <v>44438</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -19827,7 +19827,7 @@
         <v>44445</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -19884,7 +19884,7 @@
         <v>44446</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -19941,7 +19941,7 @@
         <v>44447</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -19998,7 +19998,7 @@
         <v>44447</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20055,7 +20055,7 @@
         <v>44448</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20112,7 +20112,7 @@
         <v>44448</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20169,7 +20169,7 @@
         <v>44449</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         <v>44459</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20283,7 +20283,7 @@
         <v>44460</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20340,7 +20340,7 @@
         <v>44477</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20397,7 +20397,7 @@
         <v>44477</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20454,7 +20454,7 @@
         <v>44477</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20511,7 +20511,7 @@
         <v>44482</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20568,7 +20568,7 @@
         <v>44487</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20625,7 +20625,7 @@
         <v>44496</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20682,7 +20682,7 @@
         <v>44496</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -20739,7 +20739,7 @@
         <v>44503</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -20796,7 +20796,7 @@
         <v>44503</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -20853,7 +20853,7 @@
         <v>44503</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -20910,7 +20910,7 @@
         <v>44504</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -20967,7 +20967,7 @@
         <v>44508</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21024,7 +21024,7 @@
         <v>44510</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21081,7 +21081,7 @@
         <v>44512</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21138,7 +21138,7 @@
         <v>44515</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21195,7 +21195,7 @@
         <v>44522</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21252,7 +21252,7 @@
         <v>44523</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21309,7 +21309,7 @@
         <v>44523</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21366,7 +21366,7 @@
         <v>44524</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21423,7 +21423,7 @@
         <v>44525</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21480,7 +21480,7 @@
         <v>44526</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21537,7 +21537,7 @@
         <v>44531</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21594,7 +21594,7 @@
         <v>44543</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21651,7 +21651,7 @@
         <v>44551</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21708,7 +21708,7 @@
         <v>44560</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -21765,7 +21765,7 @@
         <v>44587</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -21827,7 +21827,7 @@
         <v>44587</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -21884,7 +21884,7 @@
         <v>44596</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -21941,7 +21941,7 @@
         <v>44599</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -21998,7 +21998,7 @@
         <v>44623</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22055,7 +22055,7 @@
         <v>44634</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22112,7 +22112,7 @@
         <v>44636</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22169,7 +22169,7 @@
         <v>44641</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22226,7 +22226,7 @@
         <v>44648</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22283,7 +22283,7 @@
         <v>44657</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22340,7 +22340,7 @@
         <v>44663</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22397,7 +22397,7 @@
         <v>44663</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22454,7 +22454,7 @@
         <v>44665</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22516,7 +22516,7 @@
         <v>44698</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22573,7 +22573,7 @@
         <v>44739</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22630,7 +22630,7 @@
         <v>44749</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22687,7 +22687,7 @@
         <v>44757</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -22744,7 +22744,7 @@
         <v>44784</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -22806,7 +22806,7 @@
         <v>44784</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -22868,7 +22868,7 @@
         <v>44785</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -22925,7 +22925,7 @@
         <v>44785</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -22982,7 +22982,7 @@
         <v>44785</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23039,7 +23039,7 @@
         <v>44785</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23096,7 +23096,7 @@
         <v>44785</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23153,7 +23153,7 @@
         <v>44785</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23210,7 +23210,7 @@
         <v>44785</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23267,7 +23267,7 @@
         <v>44785</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23324,7 +23324,7 @@
         <v>44802</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23381,7 +23381,7 @@
         <v>44812</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23438,7 +23438,7 @@
         <v>44812</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23495,7 +23495,7 @@
         <v>44817</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23552,7 +23552,7 @@
         <v>44830</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23609,7 +23609,7 @@
         <v>44831</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23666,7 +23666,7 @@
         <v>44831</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -23723,7 +23723,7 @@
         <v>44832</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -23780,7 +23780,7 @@
         <v>44852</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -23837,7 +23837,7 @@
         <v>44854</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -23894,7 +23894,7 @@
         <v>44855</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -23951,7 +23951,7 @@
         <v>44855</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24008,7 +24008,7 @@
         <v>44858</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24065,7 +24065,7 @@
         <v>44858</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24122,7 +24122,7 @@
         <v>44859</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24179,7 +24179,7 @@
         <v>44861</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24236,7 +24236,7 @@
         <v>44862</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24293,7 +24293,7 @@
         <v>44864</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24350,7 +24350,7 @@
         <v>44865</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24407,7 +24407,7 @@
         <v>44865</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24464,7 +24464,7 @@
         <v>44865</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24521,7 +24521,7 @@
         <v>44883</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24578,7 +24578,7 @@
         <v>44897</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24635,7 +24635,7 @@
         <v>44897</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -24692,7 +24692,7 @@
         <v>44897</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -24749,7 +24749,7 @@
         <v>44897</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -24806,7 +24806,7 @@
         <v>44911</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -24863,7 +24863,7 @@
         <v>44921</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -24920,7 +24920,7 @@
         <v>44922</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -24977,7 +24977,7 @@
         <v>44942</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25034,7 +25034,7 @@
         <v>44942</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25091,7 +25091,7 @@
         <v>44942</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25148,7 +25148,7 @@
         <v>44942</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25205,7 +25205,7 @@
         <v>44942</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25262,7 +25262,7 @@
         <v>44942</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25319,7 +25319,7 @@
         <v>44956</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25381,7 +25381,7 @@
         <v>44962</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25438,7 +25438,7 @@
         <v>44973</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25495,7 +25495,7 @@
         <v>44977</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25557,7 +25557,7 @@
         <v>44986</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25619,7 +25619,7 @@
         <v>44986</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -25676,7 +25676,7 @@
         <v>44992</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -25733,7 +25733,7 @@
         <v>44994</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -25790,7 +25790,7 @@
         <v>44994</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -25847,7 +25847,7 @@
         <v>44994</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -25904,7 +25904,7 @@
         <v>44994</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -25961,7 +25961,7 @@
         <v>44998</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26023,7 +26023,7 @@
         <v>45001</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26080,7 +26080,7 @@
         <v>45002</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26137,7 +26137,7 @@
         <v>45006</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26199,7 +26199,7 @@
         <v>45009</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26256,7 +26256,7 @@
         <v>45009</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26313,7 +26313,7 @@
         <v>45012</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26370,7 +26370,7 @@
         <v>45019</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26427,7 +26427,7 @@
         <v>45028</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26489,7 +26489,7 @@
         <v>45044</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26546,7 +26546,7 @@
         <v>45049</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26603,7 +26603,7 @@
         <v>45051</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26660,7 +26660,7 @@
         <v>45054</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -26717,7 +26717,7 @@
         <v>45056</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -26774,7 +26774,7 @@
         <v>45056</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -26831,7 +26831,7 @@
         <v>45061</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -26888,7 +26888,7 @@
         <v>45062</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -26945,7 +26945,7 @@
         <v>45062</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27002,7 +27002,7 @@
         <v>45076</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27059,7 +27059,7 @@
         <v>45076</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27116,7 +27116,7 @@
         <v>45078</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27173,7 +27173,7 @@
         <v>45078</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27230,7 +27230,7 @@
         <v>45078</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27287,7 +27287,7 @@
         <v>45078</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27344,7 +27344,7 @@
         <v>45078</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27401,7 +27401,7 @@
         <v>45081</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27458,7 +27458,7 @@
         <v>45084</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27515,7 +27515,7 @@
         <v>45085</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27572,7 +27572,7 @@
         <v>45090</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27629,7 +27629,7 @@
         <v>45092</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -27686,7 +27686,7 @@
         <v>45098</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -27763,7 +27763,7 @@
         <v>45104</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -27820,7 +27820,7 @@
         <v>45111</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -27877,7 +27877,7 @@
         <v>45118</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -27934,7 +27934,7 @@
         <v>45132</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -27991,7 +27991,7 @@
         <v>45139</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28048,7 +28048,7 @@
         <v>45140</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28105,7 +28105,7 @@
         <v>45140</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>

--- a/Översikt ÄLMHULT.xlsx
+++ b/Översikt ÄLMHULT.xlsx
@@ -572,7 +572,7 @@
         <v>44067</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44830</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43424</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>43977</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>44049</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         <v>44663</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>43317</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>43318</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>43325</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1257,7 +1257,7 @@
         <v>43335</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>43339</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
         <v>43341</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1428,7 +1428,7 @@
         <v>43341</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>43343</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>43343</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         <v>43356</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>43357</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>43361</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>43368</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>43369</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>43369</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>43374</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43375</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43376</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>43385</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>43396</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>43399</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43411</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>43419</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>43419</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2454,7 +2454,7 @@
         <v>43419</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2511,7 +2511,7 @@
         <v>43423</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>43424</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>43425</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2682,7 +2682,7 @@
         <v>43430</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2739,7 +2739,7 @@
         <v>43430</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>43430</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>43432</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>43446</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>43447</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3024,7 +3024,7 @@
         <v>43451</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>43453</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>43453</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>43453</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>43453</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>43453</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>43454</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>43454</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>43455</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>43467</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3594,7 +3594,7 @@
         <v>43467</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3651,7 +3651,7 @@
         <v>43468</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3708,7 +3708,7 @@
         <v>43473</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         <v>43473</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
         <v>43473</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         <v>43473</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3936,7 +3936,7 @@
         <v>43475</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         <v>43479</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         <v>43481</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>43481</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>43483</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>43483</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>43483</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>43486</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>43488</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>43489</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>43501</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>43504</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>43504</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4677,7 +4677,7 @@
         <v>43504</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>43510</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4791,7 +4791,7 @@
         <v>43510</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4848,7 +4848,7 @@
         <v>43510</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>43510</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43514</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43514</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43514</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43517</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43522</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43524</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>43524</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5371,7 +5371,7 @@
         <v>43528</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5428,7 +5428,7 @@
         <v>43528</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5485,7 +5485,7 @@
         <v>43530</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5542,7 +5542,7 @@
         <v>43531</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5599,7 +5599,7 @@
         <v>43535</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5656,7 +5656,7 @@
         <v>43544</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5718,7 +5718,7 @@
         <v>43545</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5775,7 +5775,7 @@
         <v>43545</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5832,7 +5832,7 @@
         <v>43550</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5889,7 +5889,7 @@
         <v>43550</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43556</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
         <v>43563</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6060,7 +6060,7 @@
         <v>43569</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         <v>43569</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6174,7 +6174,7 @@
         <v>43571</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6231,7 +6231,7 @@
         <v>43579</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6288,7 +6288,7 @@
         <v>43579</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6345,7 +6345,7 @@
         <v>43579</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6402,7 +6402,7 @@
         <v>43585</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
         <v>43585</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6516,7 +6516,7 @@
         <v>43591</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6573,7 +6573,7 @@
         <v>43593</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6630,7 +6630,7 @@
         <v>43593</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         <v>43593</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6744,7 +6744,7 @@
         <v>43593</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6801,7 +6801,7 @@
         <v>43593</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6858,7 +6858,7 @@
         <v>43593</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6915,7 +6915,7 @@
         <v>43605</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6972,7 +6972,7 @@
         <v>43607</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         <v>43608</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7086,7 +7086,7 @@
         <v>43628</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7143,7 +7143,7 @@
         <v>43635</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>43642</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7257,7 +7257,7 @@
         <v>43649</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7314,7 +7314,7 @@
         <v>43649</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7371,7 +7371,7 @@
         <v>43649</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7428,7 +7428,7 @@
         <v>43649</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7485,7 +7485,7 @@
         <v>43650</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7542,7 +7542,7 @@
         <v>43665</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7599,7 +7599,7 @@
         <v>43681</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7656,7 +7656,7 @@
         <v>43682</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7713,7 +7713,7 @@
         <v>43683</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7770,7 +7770,7 @@
         <v>43690</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7827,7 +7827,7 @@
         <v>43690</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7884,7 +7884,7 @@
         <v>43693</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7941,7 +7941,7 @@
         <v>43697</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7998,7 +7998,7 @@
         <v>43697</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8055,7 +8055,7 @@
         <v>43700</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8112,7 +8112,7 @@
         <v>43703</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8169,7 +8169,7 @@
         <v>43704</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         <v>43711</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>43711</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>43711</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>43713</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>43714</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8511,7 +8511,7 @@
         <v>43724</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>43725</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>43728</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43731</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43731</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>43732</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>43732</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>43733</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>43739</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>43739</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>43740</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>43747</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9200,7 +9200,7 @@
         <v>43749</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9257,7 +9257,7 @@
         <v>43761</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9314,7 +9314,7 @@
         <v>43761</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>43763</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9428,7 +9428,7 @@
         <v>43773</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9485,7 +9485,7 @@
         <v>43773</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9542,7 +9542,7 @@
         <v>43773</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9599,7 +9599,7 @@
         <v>43775</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9656,7 +9656,7 @@
         <v>43775</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9713,7 +9713,7 @@
         <v>43788</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9770,7 +9770,7 @@
         <v>43791</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9827,7 +9827,7 @@
         <v>43795</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>43796</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>43796</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9998,7 +9998,7 @@
         <v>43798</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10055,7 +10055,7 @@
         <v>43798</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10112,7 +10112,7 @@
         <v>43801</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10169,7 +10169,7 @@
         <v>43804</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>43809</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10283,7 +10283,7 @@
         <v>43835</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10340,7 +10340,7 @@
         <v>43835</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10397,7 +10397,7 @@
         <v>43835</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10454,7 +10454,7 @@
         <v>43840</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10511,7 +10511,7 @@
         <v>43852</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>43853</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10625,7 +10625,7 @@
         <v>43853</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10682,7 +10682,7 @@
         <v>43860</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         <v>43873</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         <v>43878</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>43878</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>43879</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>43882</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>43882</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11081,7 +11081,7 @@
         <v>43887</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11138,7 +11138,7 @@
         <v>43892</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>43892</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11252,7 +11252,7 @@
         <v>43892</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
         <v>43892</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>43895</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11423,7 +11423,7 @@
         <v>43895</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11480,7 +11480,7 @@
         <v>43896</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11537,7 +11537,7 @@
         <v>43896</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         <v>43897</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         <v>43907</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>43908</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         <v>43908</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11822,7 +11822,7 @@
         <v>43909</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11879,7 +11879,7 @@
         <v>43913</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11941,7 +11941,7 @@
         <v>43915</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11998,7 +11998,7 @@
         <v>43915</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12055,7 +12055,7 @@
         <v>43917</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12112,7 +12112,7 @@
         <v>43920</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12169,7 +12169,7 @@
         <v>43921</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12226,7 +12226,7 @@
         <v>43926</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12283,7 +12283,7 @@
         <v>43936</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12340,7 +12340,7 @@
         <v>43965</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12397,7 +12397,7 @@
         <v>43965</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12454,7 +12454,7 @@
         <v>43965</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12511,7 +12511,7 @@
         <v>43965</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12568,7 +12568,7 @@
         <v>43966</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12625,7 +12625,7 @@
         <v>43967</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12682,7 +12682,7 @@
         <v>43977</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12739,7 +12739,7 @@
         <v>43980</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12796,7 +12796,7 @@
         <v>43994</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12853,7 +12853,7 @@
         <v>43999</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12910,7 +12910,7 @@
         <v>44008</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12967,7 +12967,7 @@
         <v>44026</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13024,7 +13024,7 @@
         <v>44035</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
         <v>44039</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>44039</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>44039</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13252,7 +13252,7 @@
         <v>44041</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13309,7 +13309,7 @@
         <v>44046</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13366,7 +13366,7 @@
         <v>44046</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13423,7 +13423,7 @@
         <v>44054</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13480,7 +13480,7 @@
         <v>44054</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13537,7 +13537,7 @@
         <v>44054</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13594,7 +13594,7 @@
         <v>44054</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13651,7 +13651,7 @@
         <v>44057</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13708,7 +13708,7 @@
         <v>44057</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13765,7 +13765,7 @@
         <v>44061</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13822,7 +13822,7 @@
         <v>44063</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13879,7 +13879,7 @@
         <v>44070</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13936,7 +13936,7 @@
         <v>44070</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -13993,7 +13993,7 @@
         <v>44075</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14050,7 +14050,7 @@
         <v>44078</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14107,7 +14107,7 @@
         <v>44090</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14164,7 +14164,7 @@
         <v>44090</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14221,7 +14221,7 @@
         <v>44096</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14278,7 +14278,7 @@
         <v>44096</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14335,7 +14335,7 @@
         <v>44098</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14392,7 +14392,7 @@
         <v>44104</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14449,7 +14449,7 @@
         <v>44106</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14506,7 +14506,7 @@
         <v>44106</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         <v>44108</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14620,7 +14620,7 @@
         <v>44109</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14677,7 +14677,7 @@
         <v>44110</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14734,7 +14734,7 @@
         <v>44111</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14791,7 +14791,7 @@
         <v>44111</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14848,7 +14848,7 @@
         <v>44112</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -14905,7 +14905,7 @@
         <v>44113</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -14962,7 +14962,7 @@
         <v>44116</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15019,7 +15019,7 @@
         <v>44117</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15076,7 +15076,7 @@
         <v>44117</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15133,7 +15133,7 @@
         <v>44148</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15190,7 +15190,7 @@
         <v>44152</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15247,7 +15247,7 @@
         <v>44153</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15304,7 +15304,7 @@
         <v>44153</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15361,7 +15361,7 @@
         <v>44153</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15418,7 +15418,7 @@
         <v>44153</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15475,7 +15475,7 @@
         <v>44153</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15532,7 +15532,7 @@
         <v>44154</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15589,7 +15589,7 @@
         <v>44154</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15651,7 +15651,7 @@
         <v>44154</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15713,7 +15713,7 @@
         <v>44158</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15770,7 +15770,7 @@
         <v>44158</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15827,7 +15827,7 @@
         <v>44159</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15884,7 +15884,7 @@
         <v>44160</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -15941,7 +15941,7 @@
         <v>44161</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -15998,7 +15998,7 @@
         <v>44161</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16055,7 +16055,7 @@
         <v>44162</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16112,7 +16112,7 @@
         <v>44174</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16169,7 +16169,7 @@
         <v>44175</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16226,7 +16226,7 @@
         <v>44182</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16283,7 +16283,7 @@
         <v>44183</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16340,7 +16340,7 @@
         <v>44187</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16402,7 +16402,7 @@
         <v>44192</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16459,7 +16459,7 @@
         <v>44209</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16516,7 +16516,7 @@
         <v>44211</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16573,7 +16573,7 @@
         <v>44221</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16630,7 +16630,7 @@
         <v>44221</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16687,7 +16687,7 @@
         <v>44221</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16744,7 +16744,7 @@
         <v>44221</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16801,7 +16801,7 @@
         <v>44221</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -16858,7 +16858,7 @@
         <v>44225</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -16915,7 +16915,7 @@
         <v>44228</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -16972,7 +16972,7 @@
         <v>44229</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17029,7 +17029,7 @@
         <v>44229</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17086,7 +17086,7 @@
         <v>44231</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17143,7 +17143,7 @@
         <v>44231</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17200,7 +17200,7 @@
         <v>44231</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17257,7 +17257,7 @@
         <v>44234</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17314,7 +17314,7 @@
         <v>44237</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         <v>44243</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17428,7 +17428,7 @@
         <v>44245</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17485,7 +17485,7 @@
         <v>44245</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17542,7 +17542,7 @@
         <v>44245</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17599,7 +17599,7 @@
         <v>44245</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17656,7 +17656,7 @@
         <v>44245</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17713,7 +17713,7 @@
         <v>44251</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17770,7 +17770,7 @@
         <v>44253</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -17827,7 +17827,7 @@
         <v>44277</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -17884,7 +17884,7 @@
         <v>44278</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -17941,7 +17941,7 @@
         <v>44280</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -17998,7 +17998,7 @@
         <v>44284</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18055,7 +18055,7 @@
         <v>44286</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18112,7 +18112,7 @@
         <v>44292</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18169,7 +18169,7 @@
         <v>44293</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18226,7 +18226,7 @@
         <v>44294</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18283,7 +18283,7 @@
         <v>44309</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18340,7 +18340,7 @@
         <v>44315</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18397,7 +18397,7 @@
         <v>44315</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18454,7 +18454,7 @@
         <v>44315</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18511,7 +18511,7 @@
         <v>44315</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>44316</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18625,7 +18625,7 @@
         <v>44320</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18682,7 +18682,7 @@
         <v>44321</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         <v>44335</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18801,7 +18801,7 @@
         <v>44344</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -18858,7 +18858,7 @@
         <v>44349</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -18915,7 +18915,7 @@
         <v>44384</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -18972,7 +18972,7 @@
         <v>44386</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19029,7 +19029,7 @@
         <v>44397</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19086,7 +19086,7 @@
         <v>44397</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19143,7 +19143,7 @@
         <v>44403</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19200,7 +19200,7 @@
         <v>44413</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19257,7 +19257,7 @@
         <v>44414</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19314,7 +19314,7 @@
         <v>44427</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19371,7 +19371,7 @@
         <v>44427</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19428,7 +19428,7 @@
         <v>44431</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19485,7 +19485,7 @@
         <v>44433</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19542,7 +19542,7 @@
         <v>44434</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19599,7 +19599,7 @@
         <v>44434</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19656,7 +19656,7 @@
         <v>44438</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19713,7 +19713,7 @@
         <v>44438</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -19770,7 +19770,7 @@
         <v>44438</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -19827,7 +19827,7 @@
         <v>44445</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -19884,7 +19884,7 @@
         <v>44446</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -19941,7 +19941,7 @@
         <v>44447</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -19998,7 +19998,7 @@
         <v>44447</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20055,7 +20055,7 @@
         <v>44448</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20112,7 +20112,7 @@
         <v>44448</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20169,7 +20169,7 @@
         <v>44449</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         <v>44459</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20283,7 +20283,7 @@
         <v>44460</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20340,7 +20340,7 @@
         <v>44477</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20397,7 +20397,7 @@
         <v>44477</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20454,7 +20454,7 @@
         <v>44477</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20511,7 +20511,7 @@
         <v>44482</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20568,7 +20568,7 @@
         <v>44487</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20625,7 +20625,7 @@
         <v>44496</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20682,7 +20682,7 @@
         <v>44496</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -20739,7 +20739,7 @@
         <v>44503</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -20796,7 +20796,7 @@
         <v>44503</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -20853,7 +20853,7 @@
         <v>44503</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -20910,7 +20910,7 @@
         <v>44504</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -20967,7 +20967,7 @@
         <v>44508</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21024,7 +21024,7 @@
         <v>44510</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21081,7 +21081,7 @@
         <v>44512</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21138,7 +21138,7 @@
         <v>44515</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21195,7 +21195,7 @@
         <v>44522</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21252,7 +21252,7 @@
         <v>44523</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21309,7 +21309,7 @@
         <v>44523</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21366,7 +21366,7 @@
         <v>44524</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21423,7 +21423,7 @@
         <v>44525</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21480,7 +21480,7 @@
         <v>44526</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21537,7 +21537,7 @@
         <v>44531</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21594,7 +21594,7 @@
         <v>44543</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21651,7 +21651,7 @@
         <v>44551</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21708,7 +21708,7 @@
         <v>44560</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -21765,7 +21765,7 @@
         <v>44587</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -21827,7 +21827,7 @@
         <v>44587</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -21884,7 +21884,7 @@
         <v>44596</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -21941,7 +21941,7 @@
         <v>44599</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -21998,7 +21998,7 @@
         <v>44623</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22055,7 +22055,7 @@
         <v>44634</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22112,7 +22112,7 @@
         <v>44636</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22169,7 +22169,7 @@
         <v>44641</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22226,7 +22226,7 @@
         <v>44648</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22283,7 +22283,7 @@
         <v>44657</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22340,7 +22340,7 @@
         <v>44663</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22397,7 +22397,7 @@
         <v>44663</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22454,7 +22454,7 @@
         <v>44665</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22516,7 +22516,7 @@
         <v>44698</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22573,7 +22573,7 @@
         <v>44739</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22630,7 +22630,7 @@
         <v>44749</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22687,7 +22687,7 @@
         <v>44757</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -22744,7 +22744,7 @@
         <v>44784</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -22806,7 +22806,7 @@
         <v>44784</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -22868,7 +22868,7 @@
         <v>44785</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -22925,7 +22925,7 @@
         <v>44785</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -22982,7 +22982,7 @@
         <v>44785</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23039,7 +23039,7 @@
         <v>44785</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23096,7 +23096,7 @@
         <v>44785</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23153,7 +23153,7 @@
         <v>44785</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23210,7 +23210,7 @@
         <v>44785</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23267,7 +23267,7 @@
         <v>44785</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23324,7 +23324,7 @@
         <v>44802</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23381,7 +23381,7 @@
         <v>44812</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23438,7 +23438,7 @@
         <v>44812</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23495,7 +23495,7 @@
         <v>44817</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23552,7 +23552,7 @@
         <v>44830</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23609,7 +23609,7 @@
         <v>44831</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23666,7 +23666,7 @@
         <v>44831</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -23723,7 +23723,7 @@
         <v>44832</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -23780,7 +23780,7 @@
         <v>44852</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -23837,7 +23837,7 @@
         <v>44854</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -23894,7 +23894,7 @@
         <v>44855</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -23951,7 +23951,7 @@
         <v>44855</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24008,7 +24008,7 @@
         <v>44858</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24065,7 +24065,7 @@
         <v>44858</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24122,7 +24122,7 @@
         <v>44859</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24179,7 +24179,7 @@
         <v>44861</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24236,7 +24236,7 @@
         <v>44862</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24293,7 +24293,7 @@
         <v>44864</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24350,7 +24350,7 @@
         <v>44865</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24407,7 +24407,7 @@
         <v>44865</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24464,7 +24464,7 @@
         <v>44865</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24521,7 +24521,7 @@
         <v>44883</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24578,7 +24578,7 @@
         <v>44897</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24635,7 +24635,7 @@
         <v>44897</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -24692,7 +24692,7 @@
         <v>44897</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -24749,7 +24749,7 @@
         <v>44897</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -24806,7 +24806,7 @@
         <v>44911</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -24863,7 +24863,7 @@
         <v>44921</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -24920,7 +24920,7 @@
         <v>44922</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -24977,7 +24977,7 @@
         <v>44942</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25034,7 +25034,7 @@
         <v>44942</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25091,7 +25091,7 @@
         <v>44942</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25148,7 +25148,7 @@
         <v>44942</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25205,7 +25205,7 @@
         <v>44942</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25262,7 +25262,7 @@
         <v>44942</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25319,7 +25319,7 @@
         <v>44956</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25381,7 +25381,7 @@
         <v>44962</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25438,7 +25438,7 @@
         <v>44973</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25495,7 +25495,7 @@
         <v>44977</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25557,7 +25557,7 @@
         <v>44986</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25619,7 +25619,7 @@
         <v>44986</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -25676,7 +25676,7 @@
         <v>44992</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -25733,7 +25733,7 @@
         <v>44994</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -25790,7 +25790,7 @@
         <v>44994</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -25847,7 +25847,7 @@
         <v>44994</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -25904,7 +25904,7 @@
         <v>44994</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -25961,7 +25961,7 @@
         <v>44998</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26023,7 +26023,7 @@
         <v>45001</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26080,7 +26080,7 @@
         <v>45002</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26137,7 +26137,7 @@
         <v>45006</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26199,7 +26199,7 @@
         <v>45009</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26256,7 +26256,7 @@
         <v>45009</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26313,7 +26313,7 @@
         <v>45012</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26370,7 +26370,7 @@
         <v>45019</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26427,7 +26427,7 @@
         <v>45028</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26489,7 +26489,7 @@
         <v>45044</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26546,7 +26546,7 @@
         <v>45049</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26603,7 +26603,7 @@
         <v>45051</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26660,7 +26660,7 @@
         <v>45054</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -26717,7 +26717,7 @@
         <v>45056</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -26774,7 +26774,7 @@
         <v>45056</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -26831,7 +26831,7 @@
         <v>45061</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -26888,7 +26888,7 @@
         <v>45062</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -26945,7 +26945,7 @@
         <v>45062</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27002,7 +27002,7 @@
         <v>45076</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27059,7 +27059,7 @@
         <v>45076</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27116,7 +27116,7 @@
         <v>45078</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27173,7 +27173,7 @@
         <v>45078</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27230,7 +27230,7 @@
         <v>45078</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27287,7 +27287,7 @@
         <v>45078</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27344,7 +27344,7 @@
         <v>45078</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27401,7 +27401,7 @@
         <v>45081</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27458,7 +27458,7 @@
         <v>45084</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27515,7 +27515,7 @@
         <v>45085</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27572,7 +27572,7 @@
         <v>45090</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27629,7 +27629,7 @@
         <v>45092</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -27686,7 +27686,7 @@
         <v>45098</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -27763,7 +27763,7 @@
         <v>45104</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -27820,7 +27820,7 @@
         <v>45111</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -27877,7 +27877,7 @@
         <v>45118</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -27934,7 +27934,7 @@
         <v>45132</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -27991,7 +27991,7 @@
         <v>45139</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28048,7 +28048,7 @@
         <v>45140</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28105,7 +28105,7 @@
         <v>45140</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>

--- a/Översikt ÄLMHULT.xlsx
+++ b/Översikt ÄLMHULT.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y480"/>
+  <dimension ref="A1:Y481"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44067</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44830</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43424</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>43977</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>44049</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         <v>44663</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>43317</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>43318</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>43325</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1257,7 +1257,7 @@
         <v>43335</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>43339</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
         <v>43341</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1428,7 +1428,7 @@
         <v>43341</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>43343</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>43343</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         <v>43356</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>43357</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>43361</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>43368</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>43369</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>43369</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>43374</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43375</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43376</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>43385</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>43396</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>43399</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43411</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>43419</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>43419</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2454,7 +2454,7 @@
         <v>43419</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2511,7 +2511,7 @@
         <v>43423</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>43424</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>43425</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2682,7 +2682,7 @@
         <v>43430</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2739,7 +2739,7 @@
         <v>43430</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>43430</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>43432</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>43446</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>43447</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3024,7 +3024,7 @@
         <v>43451</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>43453</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>43453</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>43453</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>43453</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>43453</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>43454</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>43454</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>43455</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>43467</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3594,7 +3594,7 @@
         <v>43467</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3651,7 +3651,7 @@
         <v>43468</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3708,7 +3708,7 @@
         <v>43473</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         <v>43473</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
         <v>43473</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         <v>43473</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3936,7 +3936,7 @@
         <v>43475</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         <v>43479</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         <v>43481</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>43481</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>43483</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>43483</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>43483</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>43486</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>43488</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>43489</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>43501</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>43504</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>43504</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4677,7 +4677,7 @@
         <v>43504</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>43510</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4791,7 +4791,7 @@
         <v>43510</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4848,7 +4848,7 @@
         <v>43510</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>43510</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43514</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43514</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43514</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43517</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43522</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43524</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>43524</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5371,7 +5371,7 @@
         <v>43528</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5428,7 +5428,7 @@
         <v>43528</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5485,7 +5485,7 @@
         <v>43530</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5542,7 +5542,7 @@
         <v>43531</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5599,7 +5599,7 @@
         <v>43535</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5656,7 +5656,7 @@
         <v>43544</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5718,7 +5718,7 @@
         <v>43545</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5775,7 +5775,7 @@
         <v>43545</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5832,7 +5832,7 @@
         <v>43550</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5889,7 +5889,7 @@
         <v>43550</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43556</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
         <v>43563</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6060,7 +6060,7 @@
         <v>43569</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         <v>43569</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6174,7 +6174,7 @@
         <v>43571</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6231,7 +6231,7 @@
         <v>43579</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6288,7 +6288,7 @@
         <v>43579</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6345,7 +6345,7 @@
         <v>43579</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6402,7 +6402,7 @@
         <v>43585</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
         <v>43585</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6516,7 +6516,7 @@
         <v>43591</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6573,7 +6573,7 @@
         <v>43593</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6630,7 +6630,7 @@
         <v>43593</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         <v>43593</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6744,7 +6744,7 @@
         <v>43593</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6801,7 +6801,7 @@
         <v>43593</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6858,7 +6858,7 @@
         <v>43593</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6915,7 +6915,7 @@
         <v>43605</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6972,7 +6972,7 @@
         <v>43607</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         <v>43608</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7086,7 +7086,7 @@
         <v>43628</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7143,7 +7143,7 @@
         <v>43635</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>43642</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7257,7 +7257,7 @@
         <v>43649</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7314,7 +7314,7 @@
         <v>43649</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7371,7 +7371,7 @@
         <v>43649</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7428,7 +7428,7 @@
         <v>43649</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7485,7 +7485,7 @@
         <v>43650</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7542,7 +7542,7 @@
         <v>43665</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7599,7 +7599,7 @@
         <v>43681</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7656,7 +7656,7 @@
         <v>43682</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7713,7 +7713,7 @@
         <v>43683</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7770,7 +7770,7 @@
         <v>43690</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7827,7 +7827,7 @@
         <v>43690</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7884,7 +7884,7 @@
         <v>43693</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7941,7 +7941,7 @@
         <v>43697</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7998,7 +7998,7 @@
         <v>43697</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8055,7 +8055,7 @@
         <v>43700</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8112,7 +8112,7 @@
         <v>43703</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8169,7 +8169,7 @@
         <v>43704</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         <v>43711</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>43711</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>43711</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>43713</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>43714</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8511,7 +8511,7 @@
         <v>43724</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>43725</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>43728</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43731</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43731</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>43732</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>43732</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>43733</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>43739</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>43739</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>43740</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>43747</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9200,7 +9200,7 @@
         <v>43749</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9257,7 +9257,7 @@
         <v>43761</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9314,7 +9314,7 @@
         <v>43761</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>43763</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9428,7 +9428,7 @@
         <v>43773</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9485,7 +9485,7 @@
         <v>43773</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9542,7 +9542,7 @@
         <v>43773</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9599,7 +9599,7 @@
         <v>43775</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9656,7 +9656,7 @@
         <v>43775</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9713,7 +9713,7 @@
         <v>43788</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9770,7 +9770,7 @@
         <v>43791</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9827,7 +9827,7 @@
         <v>43795</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>43796</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>43796</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9998,7 +9998,7 @@
         <v>43798</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10055,7 +10055,7 @@
         <v>43798</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10112,7 +10112,7 @@
         <v>43801</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10169,7 +10169,7 @@
         <v>43804</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>43809</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10283,7 +10283,7 @@
         <v>43835</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10340,7 +10340,7 @@
         <v>43835</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10397,7 +10397,7 @@
         <v>43835</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10454,7 +10454,7 @@
         <v>43840</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10511,7 +10511,7 @@
         <v>43852</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>43853</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10625,7 +10625,7 @@
         <v>43853</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10682,7 +10682,7 @@
         <v>43860</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         <v>43873</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         <v>43878</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>43878</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>43879</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>43882</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>43882</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11081,7 +11081,7 @@
         <v>43887</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11138,7 +11138,7 @@
         <v>43892</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>43892</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11252,7 +11252,7 @@
         <v>43892</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
         <v>43892</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>43895</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11423,7 +11423,7 @@
         <v>43895</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11480,7 +11480,7 @@
         <v>43896</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11537,7 +11537,7 @@
         <v>43896</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         <v>43897</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         <v>43907</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>43908</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         <v>43908</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11822,7 +11822,7 @@
         <v>43909</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11879,7 +11879,7 @@
         <v>43913</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11941,7 +11941,7 @@
         <v>43915</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11998,7 +11998,7 @@
         <v>43915</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12055,7 +12055,7 @@
         <v>43917</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12112,7 +12112,7 @@
         <v>43920</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12169,7 +12169,7 @@
         <v>43921</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12226,7 +12226,7 @@
         <v>43926</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12283,7 +12283,7 @@
         <v>43936</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12340,7 +12340,7 @@
         <v>43965</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12397,7 +12397,7 @@
         <v>43965</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12454,7 +12454,7 @@
         <v>43965</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12511,7 +12511,7 @@
         <v>43965</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12568,7 +12568,7 @@
         <v>43966</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12625,7 +12625,7 @@
         <v>43967</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12682,7 +12682,7 @@
         <v>43977</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12739,7 +12739,7 @@
         <v>43980</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12796,7 +12796,7 @@
         <v>43994</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12853,7 +12853,7 @@
         <v>43999</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12910,7 +12910,7 @@
         <v>44008</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12967,7 +12967,7 @@
         <v>44026</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13024,7 +13024,7 @@
         <v>44035</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
         <v>44039</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>44039</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>44039</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13252,7 +13252,7 @@
         <v>44041</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13309,7 +13309,7 @@
         <v>44046</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13366,7 +13366,7 @@
         <v>44046</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13423,7 +13423,7 @@
         <v>44054</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13480,7 +13480,7 @@
         <v>44054</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13537,7 +13537,7 @@
         <v>44054</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13594,7 +13594,7 @@
         <v>44054</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13651,7 +13651,7 @@
         <v>44057</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13708,7 +13708,7 @@
         <v>44057</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13765,7 +13765,7 @@
         <v>44061</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13822,7 +13822,7 @@
         <v>44063</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13879,7 +13879,7 @@
         <v>44070</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13936,7 +13936,7 @@
         <v>44070</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -13993,7 +13993,7 @@
         <v>44075</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14050,7 +14050,7 @@
         <v>44078</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14107,7 +14107,7 @@
         <v>44090</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14164,7 +14164,7 @@
         <v>44090</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14221,7 +14221,7 @@
         <v>44096</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14278,7 +14278,7 @@
         <v>44096</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14335,7 +14335,7 @@
         <v>44098</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14392,7 +14392,7 @@
         <v>44104</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14449,7 +14449,7 @@
         <v>44106</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14506,7 +14506,7 @@
         <v>44106</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         <v>44108</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14620,7 +14620,7 @@
         <v>44109</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14677,7 +14677,7 @@
         <v>44110</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14734,7 +14734,7 @@
         <v>44111</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14791,7 +14791,7 @@
         <v>44111</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14848,7 +14848,7 @@
         <v>44112</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -14905,7 +14905,7 @@
         <v>44113</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -14962,7 +14962,7 @@
         <v>44116</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15019,7 +15019,7 @@
         <v>44117</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15076,7 +15076,7 @@
         <v>44117</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15133,7 +15133,7 @@
         <v>44148</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15190,7 +15190,7 @@
         <v>44152</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15247,7 +15247,7 @@
         <v>44153</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15304,7 +15304,7 @@
         <v>44153</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15361,7 +15361,7 @@
         <v>44153</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15418,7 +15418,7 @@
         <v>44153</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15475,7 +15475,7 @@
         <v>44153</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15532,7 +15532,7 @@
         <v>44154</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15589,7 +15589,7 @@
         <v>44154</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15651,7 +15651,7 @@
         <v>44154</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15713,7 +15713,7 @@
         <v>44158</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15770,7 +15770,7 @@
         <v>44158</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15827,7 +15827,7 @@
         <v>44159</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15884,7 +15884,7 @@
         <v>44160</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -15941,7 +15941,7 @@
         <v>44161</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -15998,7 +15998,7 @@
         <v>44161</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16055,7 +16055,7 @@
         <v>44162</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16112,7 +16112,7 @@
         <v>44174</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16169,7 +16169,7 @@
         <v>44175</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16226,7 +16226,7 @@
         <v>44182</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16283,7 +16283,7 @@
         <v>44183</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16340,7 +16340,7 @@
         <v>44187</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16402,7 +16402,7 @@
         <v>44192</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16459,7 +16459,7 @@
         <v>44209</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16516,7 +16516,7 @@
         <v>44211</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16573,7 +16573,7 @@
         <v>44221</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16630,7 +16630,7 @@
         <v>44221</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16687,7 +16687,7 @@
         <v>44221</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16744,7 +16744,7 @@
         <v>44221</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16801,7 +16801,7 @@
         <v>44221</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -16858,7 +16858,7 @@
         <v>44225</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -16915,7 +16915,7 @@
         <v>44228</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -16972,7 +16972,7 @@
         <v>44229</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17029,7 +17029,7 @@
         <v>44229</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17086,7 +17086,7 @@
         <v>44231</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17143,7 +17143,7 @@
         <v>44231</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17200,7 +17200,7 @@
         <v>44231</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17257,7 +17257,7 @@
         <v>44234</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17314,7 +17314,7 @@
         <v>44237</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         <v>44243</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17428,7 +17428,7 @@
         <v>44245</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17485,7 +17485,7 @@
         <v>44245</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17542,7 +17542,7 @@
         <v>44245</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17599,7 +17599,7 @@
         <v>44245</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17656,7 +17656,7 @@
         <v>44245</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17713,7 +17713,7 @@
         <v>44251</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17770,7 +17770,7 @@
         <v>44253</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -17827,7 +17827,7 @@
         <v>44277</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -17884,7 +17884,7 @@
         <v>44278</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -17941,7 +17941,7 @@
         <v>44280</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -17998,7 +17998,7 @@
         <v>44284</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18055,7 +18055,7 @@
         <v>44286</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18112,7 +18112,7 @@
         <v>44292</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18169,7 +18169,7 @@
         <v>44293</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18226,7 +18226,7 @@
         <v>44294</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18283,7 +18283,7 @@
         <v>44309</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18340,7 +18340,7 @@
         <v>44315</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18397,7 +18397,7 @@
         <v>44315</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18454,7 +18454,7 @@
         <v>44315</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18511,7 +18511,7 @@
         <v>44315</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>44316</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18625,7 +18625,7 @@
         <v>44320</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18682,7 +18682,7 @@
         <v>44321</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         <v>44335</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18801,7 +18801,7 @@
         <v>44344</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -18858,7 +18858,7 @@
         <v>44349</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -18915,7 +18915,7 @@
         <v>44384</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -18972,7 +18972,7 @@
         <v>44386</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19029,7 +19029,7 @@
         <v>44397</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19086,7 +19086,7 @@
         <v>44397</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19143,7 +19143,7 @@
         <v>44403</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19200,7 +19200,7 @@
         <v>44413</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19257,7 +19257,7 @@
         <v>44414</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19314,7 +19314,7 @@
         <v>44427</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19371,7 +19371,7 @@
         <v>44427</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19428,7 +19428,7 @@
         <v>44431</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19485,7 +19485,7 @@
         <v>44433</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19542,7 +19542,7 @@
         <v>44434</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19599,7 +19599,7 @@
         <v>44434</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19656,7 +19656,7 @@
         <v>44438</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19713,7 +19713,7 @@
         <v>44438</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -19770,7 +19770,7 @@
         <v>44438</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -19827,7 +19827,7 @@
         <v>44445</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -19884,7 +19884,7 @@
         <v>44446</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -19941,7 +19941,7 @@
         <v>44447</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -19998,7 +19998,7 @@
         <v>44447</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20055,7 +20055,7 @@
         <v>44448</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20112,7 +20112,7 @@
         <v>44448</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20169,7 +20169,7 @@
         <v>44449</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         <v>44459</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20283,7 +20283,7 @@
         <v>44460</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20340,7 +20340,7 @@
         <v>44477</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20397,7 +20397,7 @@
         <v>44477</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20454,7 +20454,7 @@
         <v>44477</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20511,7 +20511,7 @@
         <v>44482</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20568,7 +20568,7 @@
         <v>44487</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20625,7 +20625,7 @@
         <v>44496</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20682,7 +20682,7 @@
         <v>44496</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -20739,7 +20739,7 @@
         <v>44503</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -20796,7 +20796,7 @@
         <v>44503</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -20853,7 +20853,7 @@
         <v>44503</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -20910,7 +20910,7 @@
         <v>44504</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -20967,7 +20967,7 @@
         <v>44508</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21024,7 +21024,7 @@
         <v>44510</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21081,7 +21081,7 @@
         <v>44512</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21138,7 +21138,7 @@
         <v>44515</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21195,7 +21195,7 @@
         <v>44522</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21252,7 +21252,7 @@
         <v>44523</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21309,7 +21309,7 @@
         <v>44523</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21366,7 +21366,7 @@
         <v>44524</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21423,7 +21423,7 @@
         <v>44525</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21480,7 +21480,7 @@
         <v>44526</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21537,7 +21537,7 @@
         <v>44531</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21594,7 +21594,7 @@
         <v>44543</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21651,7 +21651,7 @@
         <v>44551</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21708,7 +21708,7 @@
         <v>44560</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -21765,7 +21765,7 @@
         <v>44587</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -21827,7 +21827,7 @@
         <v>44587</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -21884,7 +21884,7 @@
         <v>44596</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -21941,7 +21941,7 @@
         <v>44599</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -21998,7 +21998,7 @@
         <v>44623</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22055,7 +22055,7 @@
         <v>44634</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22112,7 +22112,7 @@
         <v>44636</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22169,7 +22169,7 @@
         <v>44641</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22226,7 +22226,7 @@
         <v>44648</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22283,7 +22283,7 @@
         <v>44657</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22340,7 +22340,7 @@
         <v>44663</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22397,7 +22397,7 @@
         <v>44663</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22454,7 +22454,7 @@
         <v>44665</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22516,7 +22516,7 @@
         <v>44698</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22573,7 +22573,7 @@
         <v>44739</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22630,7 +22630,7 @@
         <v>44749</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22687,7 +22687,7 @@
         <v>44757</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -22744,7 +22744,7 @@
         <v>44784</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -22806,7 +22806,7 @@
         <v>44784</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -22868,7 +22868,7 @@
         <v>44785</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -22925,7 +22925,7 @@
         <v>44785</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -22982,7 +22982,7 @@
         <v>44785</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23039,7 +23039,7 @@
         <v>44785</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23096,7 +23096,7 @@
         <v>44785</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23153,7 +23153,7 @@
         <v>44785</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23210,7 +23210,7 @@
         <v>44785</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23267,7 +23267,7 @@
         <v>44785</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23324,7 +23324,7 @@
         <v>44802</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23381,7 +23381,7 @@
         <v>44812</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23438,7 +23438,7 @@
         <v>44812</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23495,7 +23495,7 @@
         <v>44817</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23552,7 +23552,7 @@
         <v>44830</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23609,7 +23609,7 @@
         <v>44831</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23666,7 +23666,7 @@
         <v>44831</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -23723,7 +23723,7 @@
         <v>44832</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -23780,7 +23780,7 @@
         <v>44852</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -23837,7 +23837,7 @@
         <v>44854</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -23894,7 +23894,7 @@
         <v>44855</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -23951,7 +23951,7 @@
         <v>44855</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24008,7 +24008,7 @@
         <v>44858</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24065,7 +24065,7 @@
         <v>44858</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24122,7 +24122,7 @@
         <v>44859</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24179,7 +24179,7 @@
         <v>44861</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24236,7 +24236,7 @@
         <v>44862</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24293,7 +24293,7 @@
         <v>44864</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24350,7 +24350,7 @@
         <v>44865</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24407,7 +24407,7 @@
         <v>44865</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24464,7 +24464,7 @@
         <v>44865</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24521,7 +24521,7 @@
         <v>44883</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24578,7 +24578,7 @@
         <v>44897</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24635,7 +24635,7 @@
         <v>44897</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -24692,7 +24692,7 @@
         <v>44897</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -24749,7 +24749,7 @@
         <v>44897</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -24806,7 +24806,7 @@
         <v>44911</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -24863,7 +24863,7 @@
         <v>44921</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -24920,7 +24920,7 @@
         <v>44922</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -24977,7 +24977,7 @@
         <v>44942</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25034,7 +25034,7 @@
         <v>44942</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25091,7 +25091,7 @@
         <v>44942</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25148,7 +25148,7 @@
         <v>44942</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25205,7 +25205,7 @@
         <v>44942</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25262,7 +25262,7 @@
         <v>44942</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25319,7 +25319,7 @@
         <v>44956</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25381,7 +25381,7 @@
         <v>44962</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25438,7 +25438,7 @@
         <v>44973</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25495,7 +25495,7 @@
         <v>44977</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25557,7 +25557,7 @@
         <v>44986</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25619,7 +25619,7 @@
         <v>44986</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -25676,7 +25676,7 @@
         <v>44992</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -25733,7 +25733,7 @@
         <v>44994</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -25790,7 +25790,7 @@
         <v>44994</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -25847,7 +25847,7 @@
         <v>44994</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -25904,7 +25904,7 @@
         <v>44994</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -25961,7 +25961,7 @@
         <v>44998</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26023,7 +26023,7 @@
         <v>45001</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26080,7 +26080,7 @@
         <v>45002</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26137,7 +26137,7 @@
         <v>45006</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26199,7 +26199,7 @@
         <v>45009</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26256,7 +26256,7 @@
         <v>45009</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26313,7 +26313,7 @@
         <v>45012</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26370,7 +26370,7 @@
         <v>45019</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26427,7 +26427,7 @@
         <v>45028</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26489,7 +26489,7 @@
         <v>45044</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26546,7 +26546,7 @@
         <v>45049</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26603,7 +26603,7 @@
         <v>45051</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26660,7 +26660,7 @@
         <v>45054</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -26717,7 +26717,7 @@
         <v>45056</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -26774,7 +26774,7 @@
         <v>45056</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -26831,7 +26831,7 @@
         <v>45061</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -26888,7 +26888,7 @@
         <v>45062</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -26945,7 +26945,7 @@
         <v>45062</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27002,7 +27002,7 @@
         <v>45076</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27059,7 +27059,7 @@
         <v>45076</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27116,7 +27116,7 @@
         <v>45078</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27173,7 +27173,7 @@
         <v>45078</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27230,7 +27230,7 @@
         <v>45078</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27287,7 +27287,7 @@
         <v>45078</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27344,7 +27344,7 @@
         <v>45078</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27401,7 +27401,7 @@
         <v>45081</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27458,7 +27458,7 @@
         <v>45084</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27515,7 +27515,7 @@
         <v>45085</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27572,7 +27572,7 @@
         <v>45090</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27629,7 +27629,7 @@
         <v>45092</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -27686,7 +27686,7 @@
         <v>45098</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -27763,7 +27763,7 @@
         <v>45104</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -27820,7 +27820,7 @@
         <v>45111</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -27877,7 +27877,7 @@
         <v>45118</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -27934,7 +27934,7 @@
         <v>45132</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -27991,7 +27991,7 @@
         <v>45139</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28048,7 +28048,7 @@
         <v>45140</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28095,7 +28095,7 @@
       </c>
       <c r="R479" s="2" t="inlineStr"/>
     </row>
-    <row r="480">
+    <row r="480" ht="15" customHeight="1">
       <c r="A480" t="inlineStr">
         <is>
           <t>A 34798-2023</t>
@@ -28105,7 +28105,7 @@
         <v>45140</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28151,6 +28151,63 @@
         <v>0</v>
       </c>
       <c r="R480" s="2" t="inlineStr"/>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>A 43016-2023</t>
+        </is>
+      </c>
+      <c r="B481" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="C481" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>KRONOBERGS LÄN</t>
+        </is>
+      </c>
+      <c r="E481" t="inlineStr">
+        <is>
+          <t>ÄLMHULT</t>
+        </is>
+      </c>
+      <c r="G481" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H481" t="n">
+        <v>0</v>
+      </c>
+      <c r="I481" t="n">
+        <v>0</v>
+      </c>
+      <c r="J481" t="n">
+        <v>0</v>
+      </c>
+      <c r="K481" t="n">
+        <v>0</v>
+      </c>
+      <c r="L481" t="n">
+        <v>0</v>
+      </c>
+      <c r="M481" t="n">
+        <v>0</v>
+      </c>
+      <c r="N481" t="n">
+        <v>0</v>
+      </c>
+      <c r="O481" t="n">
+        <v>0</v>
+      </c>
+      <c r="P481" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q481" t="n">
+        <v>0</v>
+      </c>
+      <c r="R481" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt ÄLMHULT.xlsx
+++ b/Översikt ÄLMHULT.xlsx
@@ -572,7 +572,7 @@
         <v>44067</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -626,27 +626,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALMHULT/artfynd/A 39880-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALMHULT/artfynd/A 39880-2020.xlsx", "A 39880-2020")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALMHULT/kartor/A 39880-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALMHULT/kartor/A 39880-2020.png", "A 39880-2020")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALMHULT/klagomål/A 39880-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALMHULT/klagomål/A 39880-2020.docx", "A 39880-2020")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALMHULT/klagomålsmail/A 39880-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALMHULT/klagomålsmail/A 39880-2020.docx", "A 39880-2020")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALMHULT/tillsyn/A 39880-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALMHULT/tillsyn/A 39880-2020.docx", "A 39880-2020")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALMHULT/tillsynsmail/A 39880-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALMHULT/tillsynsmail/A 39880-2020.docx", "A 39880-2020")</f>
         <v/>
       </c>
     </row>
@@ -660,7 +660,7 @@
         <v>44830</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -712,27 +712,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALMHULT/artfynd/A 41957-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALMHULT/artfynd/A 41957-2022.xlsx", "A 41957-2022")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALMHULT/kartor/A 41957-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALMHULT/kartor/A 41957-2022.png", "A 41957-2022")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALMHULT/klagomål/A 41957-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALMHULT/klagomål/A 41957-2022.docx", "A 41957-2022")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALMHULT/klagomålsmail/A 41957-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALMHULT/klagomålsmail/A 41957-2022.docx", "A 41957-2022")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALMHULT/tillsyn/A 41957-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALMHULT/tillsyn/A 41957-2022.docx", "A 41957-2022")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALMHULT/tillsynsmail/A 41957-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALMHULT/tillsynsmail/A 41957-2022.docx", "A 41957-2022")</f>
         <v/>
       </c>
     </row>
@@ -746,7 +746,7 @@
         <v>43424</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -797,27 +797,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALMHULT/artfynd/A 61620-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALMHULT/artfynd/A 61620-2018.xlsx", "A 61620-2018")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALMHULT/kartor/A 61620-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALMHULT/kartor/A 61620-2018.png", "A 61620-2018")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALMHULT/klagomål/A 61620-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALMHULT/klagomål/A 61620-2018.docx", "A 61620-2018")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALMHULT/klagomålsmail/A 61620-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALMHULT/klagomålsmail/A 61620-2018.docx", "A 61620-2018")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALMHULT/tillsyn/A 61620-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALMHULT/tillsyn/A 61620-2018.docx", "A 61620-2018")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALMHULT/tillsynsmail/A 61620-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALMHULT/tillsynsmail/A 61620-2018.docx", "A 61620-2018")</f>
         <v/>
       </c>
     </row>
@@ -831,7 +831,7 @@
         <v>43977</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -882,27 +882,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALMHULT/artfynd/A 24609-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALMHULT/artfynd/A 24609-2020.xlsx", "A 24609-2020")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALMHULT/kartor/A 24609-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALMHULT/kartor/A 24609-2020.png", "A 24609-2020")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALMHULT/klagomål/A 24609-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALMHULT/klagomål/A 24609-2020.docx", "A 24609-2020")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALMHULT/klagomålsmail/A 24609-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALMHULT/klagomålsmail/A 24609-2020.docx", "A 24609-2020")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALMHULT/tillsyn/A 24609-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALMHULT/tillsyn/A 24609-2020.docx", "A 24609-2020")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALMHULT/tillsynsmail/A 24609-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALMHULT/tillsynsmail/A 24609-2020.docx", "A 24609-2020")</f>
         <v/>
       </c>
     </row>
@@ -916,7 +916,7 @@
         <v>44049</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -967,27 +967,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALMHULT/artfynd/A 36311-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALMHULT/artfynd/A 36311-2020.xlsx", "A 36311-2020")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALMHULT/kartor/A 36311-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALMHULT/kartor/A 36311-2020.png", "A 36311-2020")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALMHULT/klagomål/A 36311-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALMHULT/klagomål/A 36311-2020.docx", "A 36311-2020")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALMHULT/klagomålsmail/A 36311-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALMHULT/klagomålsmail/A 36311-2020.docx", "A 36311-2020")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALMHULT/tillsyn/A 36311-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALMHULT/tillsyn/A 36311-2020.docx", "A 36311-2020")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALMHULT/tillsynsmail/A 36311-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALMHULT/tillsynsmail/A 36311-2020.docx", "A 36311-2020")</f>
         <v/>
       </c>
     </row>
@@ -1001,7 +1001,7 @@
         <v>44663</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1052,27 +1052,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALMHULT/artfynd/A 15756-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALMHULT/artfynd/A 15756-2022.xlsx", "A 15756-2022")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALMHULT/kartor/A 15756-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALMHULT/kartor/A 15756-2022.png", "A 15756-2022")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALMHULT/klagomål/A 15756-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALMHULT/klagomål/A 15756-2022.docx", "A 15756-2022")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALMHULT/klagomålsmail/A 15756-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALMHULT/klagomålsmail/A 15756-2022.docx", "A 15756-2022")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALMHULT/tillsyn/A 15756-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALMHULT/tillsyn/A 15756-2022.docx", "A 15756-2022")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALMHULT/tillsynsmail/A 15756-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALMHULT/tillsynsmail/A 15756-2022.docx", "A 15756-2022")</f>
         <v/>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
         <v>43317</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>43318</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>43325</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1257,7 +1257,7 @@
         <v>43335</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>43339</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
         <v>43341</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1428,7 +1428,7 @@
         <v>43341</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>43343</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>43343</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         <v>43356</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>43357</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>43361</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>43368</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>43369</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>43369</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>43374</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43375</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43376</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>43385</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>43396</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>43399</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43411</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>43419</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>43419</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2454,7 +2454,7 @@
         <v>43419</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2511,7 +2511,7 @@
         <v>43423</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>43424</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>43425</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2682,7 +2682,7 @@
         <v>43430</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2739,7 +2739,7 @@
         <v>43430</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>43430</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>43432</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>43446</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>43447</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3024,7 +3024,7 @@
         <v>43451</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>43453</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>43453</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>43453</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>43453</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>43453</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>43454</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>43454</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>43455</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>43467</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3594,7 +3594,7 @@
         <v>43467</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3651,7 +3651,7 @@
         <v>43468</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3708,7 +3708,7 @@
         <v>43473</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         <v>43473</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
         <v>43473</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         <v>43473</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3936,7 +3936,7 @@
         <v>43475</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         <v>43479</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         <v>43481</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>43481</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>43483</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>43483</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>43483</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>43486</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>43488</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>43489</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>43501</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>43504</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>43504</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4677,7 +4677,7 @@
         <v>43504</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>43510</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4791,7 +4791,7 @@
         <v>43510</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4848,7 +4848,7 @@
         <v>43510</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>43510</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43514</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43514</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43514</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43517</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43522</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43524</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>43524</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5371,7 +5371,7 @@
         <v>43528</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5428,7 +5428,7 @@
         <v>43528</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5485,7 +5485,7 @@
         <v>43530</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5542,7 +5542,7 @@
         <v>43531</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5599,7 +5599,7 @@
         <v>43535</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5656,7 +5656,7 @@
         <v>43544</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5718,7 +5718,7 @@
         <v>43545</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5775,7 +5775,7 @@
         <v>43545</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5832,7 +5832,7 @@
         <v>43550</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5889,7 +5889,7 @@
         <v>43550</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43556</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
         <v>43563</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6060,7 +6060,7 @@
         <v>43569</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         <v>43569</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6174,7 +6174,7 @@
         <v>43571</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6231,7 +6231,7 @@
         <v>43579</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6288,7 +6288,7 @@
         <v>43579</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6345,7 +6345,7 @@
         <v>43579</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6402,7 +6402,7 @@
         <v>43585</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
         <v>43585</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6516,7 +6516,7 @@
         <v>43591</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6573,7 +6573,7 @@
         <v>43593</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6630,7 +6630,7 @@
         <v>43593</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         <v>43593</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6744,7 +6744,7 @@
         <v>43593</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6801,7 +6801,7 @@
         <v>43593</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6858,7 +6858,7 @@
         <v>43593</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6915,7 +6915,7 @@
         <v>43605</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6972,7 +6972,7 @@
         <v>43607</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         <v>43608</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7086,7 +7086,7 @@
         <v>43628</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7143,7 +7143,7 @@
         <v>43635</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>43642</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7257,7 +7257,7 @@
         <v>43649</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7314,7 +7314,7 @@
         <v>43649</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7371,7 +7371,7 @@
         <v>43649</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7428,7 +7428,7 @@
         <v>43649</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7485,7 +7485,7 @@
         <v>43650</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7542,7 +7542,7 @@
         <v>43665</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7599,7 +7599,7 @@
         <v>43681</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7656,7 +7656,7 @@
         <v>43682</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7713,7 +7713,7 @@
         <v>43683</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7770,7 +7770,7 @@
         <v>43690</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7827,7 +7827,7 @@
         <v>43690</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7884,7 +7884,7 @@
         <v>43693</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7941,7 +7941,7 @@
         <v>43697</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7998,7 +7998,7 @@
         <v>43697</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8055,7 +8055,7 @@
         <v>43700</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8112,7 +8112,7 @@
         <v>43703</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8169,7 +8169,7 @@
         <v>43704</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         <v>43711</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>43711</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>43711</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>43713</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>43714</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8511,7 +8511,7 @@
         <v>43724</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>43725</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>43728</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43731</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43731</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>43732</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>43732</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>43733</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>43739</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>43739</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>43740</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>43747</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9200,7 +9200,7 @@
         <v>43749</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9257,7 +9257,7 @@
         <v>43761</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9314,7 +9314,7 @@
         <v>43761</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>43763</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9428,7 +9428,7 @@
         <v>43773</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9485,7 +9485,7 @@
         <v>43773</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9542,7 +9542,7 @@
         <v>43773</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9599,7 +9599,7 @@
         <v>43775</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9656,7 +9656,7 @@
         <v>43775</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9713,7 +9713,7 @@
         <v>43788</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9770,7 +9770,7 @@
         <v>43791</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9827,7 +9827,7 @@
         <v>43795</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>43796</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>43796</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9998,7 +9998,7 @@
         <v>43798</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10055,7 +10055,7 @@
         <v>43798</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10112,7 +10112,7 @@
         <v>43801</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10169,7 +10169,7 @@
         <v>43804</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>43809</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10283,7 +10283,7 @@
         <v>43835</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10340,7 +10340,7 @@
         <v>43835</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10397,7 +10397,7 @@
         <v>43835</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10454,7 +10454,7 @@
         <v>43840</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10511,7 +10511,7 @@
         <v>43852</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>43853</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10625,7 +10625,7 @@
         <v>43853</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10682,7 +10682,7 @@
         <v>43860</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         <v>43873</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         <v>43878</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>43878</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>43879</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>43882</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>43882</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11081,7 +11081,7 @@
         <v>43887</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11138,7 +11138,7 @@
         <v>43892</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>43892</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11252,7 +11252,7 @@
         <v>43892</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
         <v>43892</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>43895</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11423,7 +11423,7 @@
         <v>43895</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11480,7 +11480,7 @@
         <v>43896</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11537,7 +11537,7 @@
         <v>43896</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         <v>43897</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         <v>43907</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>43908</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         <v>43908</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11822,7 +11822,7 @@
         <v>43909</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11879,7 +11879,7 @@
         <v>43913</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11941,7 +11941,7 @@
         <v>43915</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11998,7 +11998,7 @@
         <v>43915</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12055,7 +12055,7 @@
         <v>43917</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12112,7 +12112,7 @@
         <v>43920</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12169,7 +12169,7 @@
         <v>43921</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12226,7 +12226,7 @@
         <v>43926</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12283,7 +12283,7 @@
         <v>43936</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12340,7 +12340,7 @@
         <v>43965</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12397,7 +12397,7 @@
         <v>43965</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12454,7 +12454,7 @@
         <v>43965</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12511,7 +12511,7 @@
         <v>43965</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12568,7 +12568,7 @@
         <v>43966</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12625,7 +12625,7 @@
         <v>43967</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12682,7 +12682,7 @@
         <v>43977</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12739,7 +12739,7 @@
         <v>43980</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12796,7 +12796,7 @@
         <v>43994</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12853,7 +12853,7 @@
         <v>43999</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12910,7 +12910,7 @@
         <v>44008</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12967,7 +12967,7 @@
         <v>44026</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13024,7 +13024,7 @@
         <v>44035</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
         <v>44039</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>44039</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>44039</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13252,7 +13252,7 @@
         <v>44041</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13309,7 +13309,7 @@
         <v>44046</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13366,7 +13366,7 @@
         <v>44046</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13423,7 +13423,7 @@
         <v>44054</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13480,7 +13480,7 @@
         <v>44054</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13537,7 +13537,7 @@
         <v>44054</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13594,7 +13594,7 @@
         <v>44054</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13651,7 +13651,7 @@
         <v>44057</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13708,7 +13708,7 @@
         <v>44057</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13765,7 +13765,7 @@
         <v>44061</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13822,7 +13822,7 @@
         <v>44063</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13879,7 +13879,7 @@
         <v>44070</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13936,7 +13936,7 @@
         <v>44070</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -13993,7 +13993,7 @@
         <v>44075</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14050,7 +14050,7 @@
         <v>44078</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14107,7 +14107,7 @@
         <v>44090</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14164,7 +14164,7 @@
         <v>44090</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14221,7 +14221,7 @@
         <v>44096</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14278,7 +14278,7 @@
         <v>44096</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14335,7 +14335,7 @@
         <v>44098</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14392,7 +14392,7 @@
         <v>44104</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14449,7 +14449,7 @@
         <v>44106</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14506,7 +14506,7 @@
         <v>44106</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         <v>44108</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14620,7 +14620,7 @@
         <v>44109</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14677,7 +14677,7 @@
         <v>44110</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14734,7 +14734,7 @@
         <v>44111</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14791,7 +14791,7 @@
         <v>44111</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14848,7 +14848,7 @@
         <v>44112</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -14905,7 +14905,7 @@
         <v>44113</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -14962,7 +14962,7 @@
         <v>44116</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15019,7 +15019,7 @@
         <v>44117</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15076,7 +15076,7 @@
         <v>44117</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15133,7 +15133,7 @@
         <v>44148</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15190,7 +15190,7 @@
         <v>44152</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15247,7 +15247,7 @@
         <v>44153</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15304,7 +15304,7 @@
         <v>44153</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15361,7 +15361,7 @@
         <v>44153</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15418,7 +15418,7 @@
         <v>44153</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15475,7 +15475,7 @@
         <v>44153</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15532,7 +15532,7 @@
         <v>44154</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15589,7 +15589,7 @@
         <v>44154</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15651,7 +15651,7 @@
         <v>44154</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15713,7 +15713,7 @@
         <v>44158</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15770,7 +15770,7 @@
         <v>44158</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15827,7 +15827,7 @@
         <v>44159</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15884,7 +15884,7 @@
         <v>44160</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -15941,7 +15941,7 @@
         <v>44161</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -15998,7 +15998,7 @@
         <v>44161</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16055,7 +16055,7 @@
         <v>44162</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16112,7 +16112,7 @@
         <v>44174</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16169,7 +16169,7 @@
         <v>44175</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16226,7 +16226,7 @@
         <v>44182</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16283,7 +16283,7 @@
         <v>44183</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16340,7 +16340,7 @@
         <v>44187</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16402,7 +16402,7 @@
         <v>44192</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16459,7 +16459,7 @@
         <v>44209</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16516,7 +16516,7 @@
         <v>44211</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16573,7 +16573,7 @@
         <v>44221</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16630,7 +16630,7 @@
         <v>44221</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16687,7 +16687,7 @@
         <v>44221</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16744,7 +16744,7 @@
         <v>44221</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16801,7 +16801,7 @@
         <v>44221</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -16858,7 +16858,7 @@
         <v>44225</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -16915,7 +16915,7 @@
         <v>44228</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -16972,7 +16972,7 @@
         <v>44229</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17029,7 +17029,7 @@
         <v>44229</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17086,7 +17086,7 @@
         <v>44231</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17143,7 +17143,7 @@
         <v>44231</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17200,7 +17200,7 @@
         <v>44231</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17257,7 +17257,7 @@
         <v>44234</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17314,7 +17314,7 @@
         <v>44237</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         <v>44243</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17428,7 +17428,7 @@
         <v>44245</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17485,7 +17485,7 @@
         <v>44245</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17542,7 +17542,7 @@
         <v>44245</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17599,7 +17599,7 @@
         <v>44245</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17656,7 +17656,7 @@
         <v>44245</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17713,7 +17713,7 @@
         <v>44251</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17770,7 +17770,7 @@
         <v>44253</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -17827,7 +17827,7 @@
         <v>44277</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -17884,7 +17884,7 @@
         <v>44278</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -17941,7 +17941,7 @@
         <v>44280</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -17998,7 +17998,7 @@
         <v>44284</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18055,7 +18055,7 @@
         <v>44286</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18112,7 +18112,7 @@
         <v>44292</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18169,7 +18169,7 @@
         <v>44293</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18226,7 +18226,7 @@
         <v>44294</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18283,7 +18283,7 @@
         <v>44309</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18340,7 +18340,7 @@
         <v>44315</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18397,7 +18397,7 @@
         <v>44315</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18454,7 +18454,7 @@
         <v>44315</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18511,7 +18511,7 @@
         <v>44315</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>44316</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18625,7 +18625,7 @@
         <v>44320</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18682,7 +18682,7 @@
         <v>44321</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         <v>44335</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18801,7 +18801,7 @@
         <v>44344</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -18858,7 +18858,7 @@
         <v>44349</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -18915,7 +18915,7 @@
         <v>44384</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -18972,7 +18972,7 @@
         <v>44386</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19029,7 +19029,7 @@
         <v>44397</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19086,7 +19086,7 @@
         <v>44397</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19143,7 +19143,7 @@
         <v>44403</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19200,7 +19200,7 @@
         <v>44413</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19257,7 +19257,7 @@
         <v>44414</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19314,7 +19314,7 @@
         <v>44427</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19371,7 +19371,7 @@
         <v>44427</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19428,7 +19428,7 @@
         <v>44431</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19485,7 +19485,7 @@
         <v>44433</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19542,7 +19542,7 @@
         <v>44434</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19599,7 +19599,7 @@
         <v>44434</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19656,7 +19656,7 @@
         <v>44438</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19713,7 +19713,7 @@
         <v>44438</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -19770,7 +19770,7 @@
         <v>44438</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -19827,7 +19827,7 @@
         <v>44445</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -19884,7 +19884,7 @@
         <v>44446</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -19941,7 +19941,7 @@
         <v>44447</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -19998,7 +19998,7 @@
         <v>44447</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20055,7 +20055,7 @@
         <v>44448</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20112,7 +20112,7 @@
         <v>44448</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20169,7 +20169,7 @@
         <v>44449</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         <v>44459</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20283,7 +20283,7 @@
         <v>44460</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20340,7 +20340,7 @@
         <v>44477</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20397,7 +20397,7 @@
         <v>44477</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20454,7 +20454,7 @@
         <v>44477</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20511,7 +20511,7 @@
         <v>44482</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20568,7 +20568,7 @@
         <v>44487</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20625,7 +20625,7 @@
         <v>44496</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20682,7 +20682,7 @@
         <v>44496</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -20739,7 +20739,7 @@
         <v>44503</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -20796,7 +20796,7 @@
         <v>44503</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -20853,7 +20853,7 @@
         <v>44503</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -20910,7 +20910,7 @@
         <v>44504</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -20967,7 +20967,7 @@
         <v>44508</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21024,7 +21024,7 @@
         <v>44510</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21081,7 +21081,7 @@
         <v>44512</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21138,7 +21138,7 @@
         <v>44515</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21195,7 +21195,7 @@
         <v>44522</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21252,7 +21252,7 @@
         <v>44523</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21309,7 +21309,7 @@
         <v>44523</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21366,7 +21366,7 @@
         <v>44524</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21423,7 +21423,7 @@
         <v>44525</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21480,7 +21480,7 @@
         <v>44526</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21537,7 +21537,7 @@
         <v>44531</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21594,7 +21594,7 @@
         <v>44543</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21651,7 +21651,7 @@
         <v>44551</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21708,7 +21708,7 @@
         <v>44560</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -21765,7 +21765,7 @@
         <v>44587</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -21827,7 +21827,7 @@
         <v>44587</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -21884,7 +21884,7 @@
         <v>44596</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -21941,7 +21941,7 @@
         <v>44599</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -21998,7 +21998,7 @@
         <v>44623</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22055,7 +22055,7 @@
         <v>44634</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22112,7 +22112,7 @@
         <v>44636</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22169,7 +22169,7 @@
         <v>44641</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22226,7 +22226,7 @@
         <v>44648</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22283,7 +22283,7 @@
         <v>44657</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22340,7 +22340,7 @@
         <v>44663</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22397,7 +22397,7 @@
         <v>44663</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22454,7 +22454,7 @@
         <v>44665</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22516,7 +22516,7 @@
         <v>44698</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22573,7 +22573,7 @@
         <v>44739</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22630,7 +22630,7 @@
         <v>44749</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22687,7 +22687,7 @@
         <v>44757</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -22744,7 +22744,7 @@
         <v>44784</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -22806,7 +22806,7 @@
         <v>44784</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -22868,7 +22868,7 @@
         <v>44785</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -22925,7 +22925,7 @@
         <v>44785</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -22982,7 +22982,7 @@
         <v>44785</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23039,7 +23039,7 @@
         <v>44785</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23096,7 +23096,7 @@
         <v>44785</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23153,7 +23153,7 @@
         <v>44785</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23210,7 +23210,7 @@
         <v>44785</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23267,7 +23267,7 @@
         <v>44785</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23324,7 +23324,7 @@
         <v>44802</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23381,7 +23381,7 @@
         <v>44812</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23438,7 +23438,7 @@
         <v>44812</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23495,7 +23495,7 @@
         <v>44817</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23552,7 +23552,7 @@
         <v>44830</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23609,7 +23609,7 @@
         <v>44831</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23666,7 +23666,7 @@
         <v>44831</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -23723,7 +23723,7 @@
         <v>44832</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -23780,7 +23780,7 @@
         <v>44852</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -23837,7 +23837,7 @@
         <v>44854</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -23894,7 +23894,7 @@
         <v>44855</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -23951,7 +23951,7 @@
         <v>44855</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24008,7 +24008,7 @@
         <v>44858</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24065,7 +24065,7 @@
         <v>44858</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24122,7 +24122,7 @@
         <v>44859</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24179,7 +24179,7 @@
         <v>44861</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24236,7 +24236,7 @@
         <v>44862</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24293,7 +24293,7 @@
         <v>44864</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24350,7 +24350,7 @@
         <v>44865</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24407,7 +24407,7 @@
         <v>44865</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24464,7 +24464,7 @@
         <v>44865</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24521,7 +24521,7 @@
         <v>44883</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24578,7 +24578,7 @@
         <v>44897</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24635,7 +24635,7 @@
         <v>44897</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -24692,7 +24692,7 @@
         <v>44897</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -24749,7 +24749,7 @@
         <v>44897</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -24806,7 +24806,7 @@
         <v>44911</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -24863,7 +24863,7 @@
         <v>44921</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -24920,7 +24920,7 @@
         <v>44922</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -24977,7 +24977,7 @@
         <v>44942</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25034,7 +25034,7 @@
         <v>44942</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25091,7 +25091,7 @@
         <v>44942</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25148,7 +25148,7 @@
         <v>44942</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25205,7 +25205,7 @@
         <v>44942</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25262,7 +25262,7 @@
         <v>44942</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25319,7 +25319,7 @@
         <v>44956</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25381,7 +25381,7 @@
         <v>44962</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25438,7 +25438,7 @@
         <v>44973</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25495,7 +25495,7 @@
         <v>44977</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25557,7 +25557,7 @@
         <v>44986</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25619,7 +25619,7 @@
         <v>44986</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -25676,7 +25676,7 @@
         <v>44992</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -25733,7 +25733,7 @@
         <v>44994</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -25790,7 +25790,7 @@
         <v>44994</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -25847,7 +25847,7 @@
         <v>44994</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -25904,7 +25904,7 @@
         <v>44994</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -25961,7 +25961,7 @@
         <v>44998</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26023,7 +26023,7 @@
         <v>45001</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26080,7 +26080,7 @@
         <v>45002</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26137,7 +26137,7 @@
         <v>45006</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26199,7 +26199,7 @@
         <v>45009</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26256,7 +26256,7 @@
         <v>45009</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26313,7 +26313,7 @@
         <v>45012</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26370,7 +26370,7 @@
         <v>45019</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26427,7 +26427,7 @@
         <v>45028</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26489,7 +26489,7 @@
         <v>45044</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26546,7 +26546,7 @@
         <v>45049</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26603,7 +26603,7 @@
         <v>45051</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26660,7 +26660,7 @@
         <v>45054</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -26717,7 +26717,7 @@
         <v>45056</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -26774,7 +26774,7 @@
         <v>45056</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -26831,7 +26831,7 @@
         <v>45061</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -26888,7 +26888,7 @@
         <v>45062</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -26945,7 +26945,7 @@
         <v>45062</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27002,7 +27002,7 @@
         <v>45076</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27059,7 +27059,7 @@
         <v>45076</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27116,7 +27116,7 @@
         <v>45078</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27173,7 +27173,7 @@
         <v>45078</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27230,7 +27230,7 @@
         <v>45078</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27287,7 +27287,7 @@
         <v>45078</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27344,7 +27344,7 @@
         <v>45078</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27401,7 +27401,7 @@
         <v>45081</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27458,7 +27458,7 @@
         <v>45084</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27515,7 +27515,7 @@
         <v>45085</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27572,7 +27572,7 @@
         <v>45090</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27629,7 +27629,7 @@
         <v>45092</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -27686,7 +27686,7 @@
         <v>45098</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -27733,23 +27733,23 @@
       </c>
       <c r="R473" s="2" t="inlineStr"/>
       <c r="U473">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALMHULT/knärot/A 27756-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALMHULT/knärot/A 27756-2023.png", "A 27756-2023")</f>
         <v/>
       </c>
       <c r="V473">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALMHULT/klagomål/A 27756-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALMHULT/klagomål/A 27756-2023.docx", "A 27756-2023")</f>
         <v/>
       </c>
       <c r="W473">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALMHULT/klagomålsmail/A 27756-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALMHULT/klagomålsmail/A 27756-2023.docx", "A 27756-2023")</f>
         <v/>
       </c>
       <c r="X473">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALMHULT/tillsyn/A 27756-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALMHULT/tillsyn/A 27756-2023.docx", "A 27756-2023")</f>
         <v/>
       </c>
       <c r="Y473">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALMHULT/tillsynsmail/A 27756-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALMHULT/tillsynsmail/A 27756-2023.docx", "A 27756-2023")</f>
         <v/>
       </c>
     </row>
@@ -27763,7 +27763,7 @@
         <v>45104</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -27820,7 +27820,7 @@
         <v>45111</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -27877,7 +27877,7 @@
         <v>45118</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -27934,7 +27934,7 @@
         <v>45132</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -27991,7 +27991,7 @@
         <v>45139</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28048,7 +28048,7 @@
         <v>45140</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28105,7 +28105,7 @@
         <v>45140</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28162,7 +28162,7 @@
         <v>45182</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>

--- a/Översikt ÄLMHULT.xlsx
+++ b/Översikt ÄLMHULT.xlsx
@@ -572,7 +572,7 @@
         <v>44067</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44830</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43424</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>43977</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>44049</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         <v>44663</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>43317</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>43318</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>43325</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1257,7 +1257,7 @@
         <v>43335</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>43339</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
         <v>43341</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1428,7 +1428,7 @@
         <v>43341</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>43343</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>43343</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         <v>43356</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>43357</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>43361</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>43368</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>43369</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>43369</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>43374</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43375</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43376</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>43385</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>43396</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>43399</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43411</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>43419</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>43419</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2454,7 +2454,7 @@
         <v>43419</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2511,7 +2511,7 @@
         <v>43423</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>43424</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>43425</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2682,7 +2682,7 @@
         <v>43430</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2739,7 +2739,7 @@
         <v>43430</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>43430</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>43432</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>43446</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>43447</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3024,7 +3024,7 @@
         <v>43451</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>43453</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>43453</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>43453</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>43453</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>43453</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>43454</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>43454</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>43455</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>43467</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3594,7 +3594,7 @@
         <v>43467</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3651,7 +3651,7 @@
         <v>43468</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3708,7 +3708,7 @@
         <v>43473</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         <v>43473</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
         <v>43473</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         <v>43473</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3936,7 +3936,7 @@
         <v>43475</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         <v>43479</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         <v>43481</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>43481</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>43483</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>43483</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>43483</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>43486</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>43488</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>43489</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>43501</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>43504</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>43504</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4677,7 +4677,7 @@
         <v>43504</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>43510</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4791,7 +4791,7 @@
         <v>43510</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4848,7 +4848,7 @@
         <v>43510</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>43510</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43514</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43514</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43514</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43517</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43522</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43524</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>43524</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5371,7 +5371,7 @@
         <v>43528</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5428,7 +5428,7 @@
         <v>43528</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5485,7 +5485,7 @@
         <v>43530</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5542,7 +5542,7 @@
         <v>43531</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5599,7 +5599,7 @@
         <v>43535</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5656,7 +5656,7 @@
         <v>43544</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5718,7 +5718,7 @@
         <v>43545</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5775,7 +5775,7 @@
         <v>43545</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5832,7 +5832,7 @@
         <v>43550</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5889,7 +5889,7 @@
         <v>43550</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43556</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
         <v>43563</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6060,7 +6060,7 @@
         <v>43569</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         <v>43569</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6174,7 +6174,7 @@
         <v>43571</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6231,7 +6231,7 @@
         <v>43579</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6288,7 +6288,7 @@
         <v>43579</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6345,7 +6345,7 @@
         <v>43579</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6402,7 +6402,7 @@
         <v>43585</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
         <v>43585</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6516,7 +6516,7 @@
         <v>43591</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6573,7 +6573,7 @@
         <v>43593</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6630,7 +6630,7 @@
         <v>43593</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         <v>43593</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6744,7 +6744,7 @@
         <v>43593</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6801,7 +6801,7 @@
         <v>43593</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6858,7 +6858,7 @@
         <v>43593</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6915,7 +6915,7 @@
         <v>43605</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6972,7 +6972,7 @@
         <v>43607</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         <v>43608</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7086,7 +7086,7 @@
         <v>43628</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7143,7 +7143,7 @@
         <v>43635</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>43642</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7257,7 +7257,7 @@
         <v>43649</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7314,7 +7314,7 @@
         <v>43649</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7371,7 +7371,7 @@
         <v>43649</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7428,7 +7428,7 @@
         <v>43649</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7485,7 +7485,7 @@
         <v>43650</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7542,7 +7542,7 @@
         <v>43665</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7599,7 +7599,7 @@
         <v>43681</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7656,7 +7656,7 @@
         <v>43682</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7713,7 +7713,7 @@
         <v>43683</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7770,7 +7770,7 @@
         <v>43690</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7827,7 +7827,7 @@
         <v>43690</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7884,7 +7884,7 @@
         <v>43693</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7941,7 +7941,7 @@
         <v>43697</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7998,7 +7998,7 @@
         <v>43697</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8055,7 +8055,7 @@
         <v>43700</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8112,7 +8112,7 @@
         <v>43703</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8169,7 +8169,7 @@
         <v>43704</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         <v>43711</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>43711</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>43711</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>43713</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>43714</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8511,7 +8511,7 @@
         <v>43724</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>43725</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>43728</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43731</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43731</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>43732</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>43732</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>43733</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>43739</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>43739</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>43740</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>43747</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9200,7 +9200,7 @@
         <v>43749</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9257,7 +9257,7 @@
         <v>43761</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9314,7 +9314,7 @@
         <v>43761</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>43763</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9428,7 +9428,7 @@
         <v>43773</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9485,7 +9485,7 @@
         <v>43773</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9542,7 +9542,7 @@
         <v>43773</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9599,7 +9599,7 @@
         <v>43775</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9656,7 +9656,7 @@
         <v>43775</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9713,7 +9713,7 @@
         <v>43788</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9770,7 +9770,7 @@
         <v>43791</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9827,7 +9827,7 @@
         <v>43795</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>43796</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>43796</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9998,7 +9998,7 @@
         <v>43798</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10055,7 +10055,7 @@
         <v>43798</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10112,7 +10112,7 @@
         <v>43801</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10169,7 +10169,7 @@
         <v>43804</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>43809</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10283,7 +10283,7 @@
         <v>43835</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10340,7 +10340,7 @@
         <v>43835</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10397,7 +10397,7 @@
         <v>43835</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10454,7 +10454,7 @@
         <v>43840</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10511,7 +10511,7 @@
         <v>43852</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>43853</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10625,7 +10625,7 @@
         <v>43853</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10682,7 +10682,7 @@
         <v>43860</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         <v>43873</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         <v>43878</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>43878</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>43879</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>43882</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>43882</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11081,7 +11081,7 @@
         <v>43887</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11138,7 +11138,7 @@
         <v>43892</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>43892</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11252,7 +11252,7 @@
         <v>43892</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
         <v>43892</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>43895</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11423,7 +11423,7 @@
         <v>43895</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11480,7 +11480,7 @@
         <v>43896</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11537,7 +11537,7 @@
         <v>43896</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         <v>43897</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         <v>43907</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>43908</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         <v>43908</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11822,7 +11822,7 @@
         <v>43909</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11879,7 +11879,7 @@
         <v>43913</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11941,7 +11941,7 @@
         <v>43915</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11998,7 +11998,7 @@
         <v>43915</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12055,7 +12055,7 @@
         <v>43917</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12112,7 +12112,7 @@
         <v>43920</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12169,7 +12169,7 @@
         <v>43921</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12226,7 +12226,7 @@
         <v>43926</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12283,7 +12283,7 @@
         <v>43936</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12340,7 +12340,7 @@
         <v>43965</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12397,7 +12397,7 @@
         <v>43965</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12454,7 +12454,7 @@
         <v>43965</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12511,7 +12511,7 @@
         <v>43965</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12568,7 +12568,7 @@
         <v>43966</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12625,7 +12625,7 @@
         <v>43967</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12682,7 +12682,7 @@
         <v>43977</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12739,7 +12739,7 @@
         <v>43980</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12796,7 +12796,7 @@
         <v>43994</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12853,7 +12853,7 @@
         <v>43999</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12910,7 +12910,7 @@
         <v>44008</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12967,7 +12967,7 @@
         <v>44026</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13024,7 +13024,7 @@
         <v>44035</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
         <v>44039</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>44039</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>44039</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13252,7 +13252,7 @@
         <v>44041</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13309,7 +13309,7 @@
         <v>44046</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13366,7 +13366,7 @@
         <v>44046</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13423,7 +13423,7 @@
         <v>44054</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13480,7 +13480,7 @@
         <v>44054</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13537,7 +13537,7 @@
         <v>44054</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13594,7 +13594,7 @@
         <v>44054</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13651,7 +13651,7 @@
         <v>44057</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13708,7 +13708,7 @@
         <v>44057</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13765,7 +13765,7 @@
         <v>44061</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13822,7 +13822,7 @@
         <v>44063</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13879,7 +13879,7 @@
         <v>44070</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13936,7 +13936,7 @@
         <v>44070</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -13993,7 +13993,7 @@
         <v>44075</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14050,7 +14050,7 @@
         <v>44078</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14107,7 +14107,7 @@
         <v>44090</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14164,7 +14164,7 @@
         <v>44090</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14221,7 +14221,7 @@
         <v>44096</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14278,7 +14278,7 @@
         <v>44096</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14335,7 +14335,7 @@
         <v>44098</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14392,7 +14392,7 @@
         <v>44104</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14449,7 +14449,7 @@
         <v>44106</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14506,7 +14506,7 @@
         <v>44106</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         <v>44108</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14620,7 +14620,7 @@
         <v>44109</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14677,7 +14677,7 @@
         <v>44110</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14734,7 +14734,7 @@
         <v>44111</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14791,7 +14791,7 @@
         <v>44111</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14848,7 +14848,7 @@
         <v>44112</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -14905,7 +14905,7 @@
         <v>44113</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -14962,7 +14962,7 @@
         <v>44116</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15019,7 +15019,7 @@
         <v>44117</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15076,7 +15076,7 @@
         <v>44117</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15133,7 +15133,7 @@
         <v>44148</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15190,7 +15190,7 @@
         <v>44152</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15247,7 +15247,7 @@
         <v>44153</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15304,7 +15304,7 @@
         <v>44153</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15361,7 +15361,7 @@
         <v>44153</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15418,7 +15418,7 @@
         <v>44153</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15475,7 +15475,7 @@
         <v>44153</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15532,7 +15532,7 @@
         <v>44154</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15589,7 +15589,7 @@
         <v>44154</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15651,7 +15651,7 @@
         <v>44154</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15713,7 +15713,7 @@
         <v>44158</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15770,7 +15770,7 @@
         <v>44158</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15827,7 +15827,7 @@
         <v>44159</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15884,7 +15884,7 @@
         <v>44160</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -15941,7 +15941,7 @@
         <v>44161</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -15998,7 +15998,7 @@
         <v>44161</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16055,7 +16055,7 @@
         <v>44162</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16112,7 +16112,7 @@
         <v>44174</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16169,7 +16169,7 @@
         <v>44175</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16226,7 +16226,7 @@
         <v>44182</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16283,7 +16283,7 @@
         <v>44183</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16340,7 +16340,7 @@
         <v>44187</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16402,7 +16402,7 @@
         <v>44192</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16459,7 +16459,7 @@
         <v>44209</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16516,7 +16516,7 @@
         <v>44211</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16573,7 +16573,7 @@
         <v>44221</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16630,7 +16630,7 @@
         <v>44221</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16687,7 +16687,7 @@
         <v>44221</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16744,7 +16744,7 @@
         <v>44221</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16801,7 +16801,7 @@
         <v>44221</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -16858,7 +16858,7 @@
         <v>44225</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -16915,7 +16915,7 @@
         <v>44228</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -16972,7 +16972,7 @@
         <v>44229</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17029,7 +17029,7 @@
         <v>44229</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17086,7 +17086,7 @@
         <v>44231</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17143,7 +17143,7 @@
         <v>44231</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17200,7 +17200,7 @@
         <v>44231</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17257,7 +17257,7 @@
         <v>44234</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17314,7 +17314,7 @@
         <v>44237</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         <v>44243</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17428,7 +17428,7 @@
         <v>44245</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17485,7 +17485,7 @@
         <v>44245</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17542,7 +17542,7 @@
         <v>44245</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17599,7 +17599,7 @@
         <v>44245</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17656,7 +17656,7 @@
         <v>44245</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17713,7 +17713,7 @@
         <v>44251</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17770,7 +17770,7 @@
         <v>44253</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -17827,7 +17827,7 @@
         <v>44277</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -17884,7 +17884,7 @@
         <v>44278</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -17941,7 +17941,7 @@
         <v>44280</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -17998,7 +17998,7 @@
         <v>44284</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18055,7 +18055,7 @@
         <v>44286</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18112,7 +18112,7 @@
         <v>44292</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18169,7 +18169,7 @@
         <v>44293</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18226,7 +18226,7 @@
         <v>44294</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18283,7 +18283,7 @@
         <v>44309</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18340,7 +18340,7 @@
         <v>44315</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18397,7 +18397,7 @@
         <v>44315</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18454,7 +18454,7 @@
         <v>44315</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18511,7 +18511,7 @@
         <v>44315</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>44316</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18625,7 +18625,7 @@
         <v>44320</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18682,7 +18682,7 @@
         <v>44321</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         <v>44335</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18801,7 +18801,7 @@
         <v>44344</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -18858,7 +18858,7 @@
         <v>44349</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -18915,7 +18915,7 @@
         <v>44384</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -18972,7 +18972,7 @@
         <v>44386</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19029,7 +19029,7 @@
         <v>44397</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19086,7 +19086,7 @@
         <v>44397</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19143,7 +19143,7 @@
         <v>44403</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19200,7 +19200,7 @@
         <v>44413</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19257,7 +19257,7 @@
         <v>44414</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19314,7 +19314,7 @@
         <v>44427</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19371,7 +19371,7 @@
         <v>44427</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19428,7 +19428,7 @@
         <v>44431</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19485,7 +19485,7 @@
         <v>44433</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19542,7 +19542,7 @@
         <v>44434</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19599,7 +19599,7 @@
         <v>44434</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19656,7 +19656,7 @@
         <v>44438</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19713,7 +19713,7 @@
         <v>44438</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -19770,7 +19770,7 @@
         <v>44438</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -19827,7 +19827,7 @@
         <v>44445</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -19884,7 +19884,7 @@
         <v>44446</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -19941,7 +19941,7 @@
         <v>44447</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -19998,7 +19998,7 @@
         <v>44447</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20055,7 +20055,7 @@
         <v>44448</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20112,7 +20112,7 @@
         <v>44448</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20169,7 +20169,7 @@
         <v>44449</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         <v>44459</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20283,7 +20283,7 @@
         <v>44460</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20340,7 +20340,7 @@
         <v>44477</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20397,7 +20397,7 @@
         <v>44477</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20454,7 +20454,7 @@
         <v>44477</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20511,7 +20511,7 @@
         <v>44482</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20568,7 +20568,7 @@
         <v>44487</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20625,7 +20625,7 @@
         <v>44496</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20682,7 +20682,7 @@
         <v>44496</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -20739,7 +20739,7 @@
         <v>44503</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -20796,7 +20796,7 @@
         <v>44503</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -20853,7 +20853,7 @@
         <v>44503</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -20910,7 +20910,7 @@
         <v>44504</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -20967,7 +20967,7 @@
         <v>44508</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21024,7 +21024,7 @@
         <v>44510</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21081,7 +21081,7 @@
         <v>44512</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21138,7 +21138,7 @@
         <v>44515</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21195,7 +21195,7 @@
         <v>44522</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21252,7 +21252,7 @@
         <v>44523</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21309,7 +21309,7 @@
         <v>44523</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21366,7 +21366,7 @@
         <v>44524</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21423,7 +21423,7 @@
         <v>44525</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21480,7 +21480,7 @@
         <v>44526</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21537,7 +21537,7 @@
         <v>44531</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21594,7 +21594,7 @@
         <v>44543</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21651,7 +21651,7 @@
         <v>44551</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21708,7 +21708,7 @@
         <v>44560</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -21765,7 +21765,7 @@
         <v>44587</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -21827,7 +21827,7 @@
         <v>44587</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -21884,7 +21884,7 @@
         <v>44596</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -21941,7 +21941,7 @@
         <v>44599</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -21998,7 +21998,7 @@
         <v>44623</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22055,7 +22055,7 @@
         <v>44634</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22112,7 +22112,7 @@
         <v>44636</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22169,7 +22169,7 @@
         <v>44641</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22226,7 +22226,7 @@
         <v>44648</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22283,7 +22283,7 @@
         <v>44657</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22340,7 +22340,7 @@
         <v>44663</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22397,7 +22397,7 @@
         <v>44663</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22454,7 +22454,7 @@
         <v>44665</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22516,7 +22516,7 @@
         <v>44698</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22573,7 +22573,7 @@
         <v>44739</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22630,7 +22630,7 @@
         <v>44749</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22687,7 +22687,7 @@
         <v>44757</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -22744,7 +22744,7 @@
         <v>44784</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -22806,7 +22806,7 @@
         <v>44784</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -22868,7 +22868,7 @@
         <v>44785</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -22925,7 +22925,7 @@
         <v>44785</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -22982,7 +22982,7 @@
         <v>44785</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23039,7 +23039,7 @@
         <v>44785</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23096,7 +23096,7 @@
         <v>44785</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23153,7 +23153,7 @@
         <v>44785</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23210,7 +23210,7 @@
         <v>44785</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23267,7 +23267,7 @@
         <v>44785</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23324,7 +23324,7 @@
         <v>44802</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23381,7 +23381,7 @@
         <v>44812</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23438,7 +23438,7 @@
         <v>44812</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23495,7 +23495,7 @@
         <v>44817</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23552,7 +23552,7 @@
         <v>44830</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23609,7 +23609,7 @@
         <v>44831</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23666,7 +23666,7 @@
         <v>44831</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -23723,7 +23723,7 @@
         <v>44832</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -23780,7 +23780,7 @@
         <v>44852</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -23837,7 +23837,7 @@
         <v>44854</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -23894,7 +23894,7 @@
         <v>44855</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -23951,7 +23951,7 @@
         <v>44855</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24008,7 +24008,7 @@
         <v>44858</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24065,7 +24065,7 @@
         <v>44858</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24122,7 +24122,7 @@
         <v>44859</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24179,7 +24179,7 @@
         <v>44861</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24236,7 +24236,7 @@
         <v>44862</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24293,7 +24293,7 @@
         <v>44864</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24350,7 +24350,7 @@
         <v>44865</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24407,7 +24407,7 @@
         <v>44865</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24464,7 +24464,7 @@
         <v>44865</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24521,7 +24521,7 @@
         <v>44883</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24578,7 +24578,7 @@
         <v>44897</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24635,7 +24635,7 @@
         <v>44897</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -24692,7 +24692,7 @@
         <v>44897</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -24749,7 +24749,7 @@
         <v>44897</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -24806,7 +24806,7 @@
         <v>44911</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -24863,7 +24863,7 @@
         <v>44921</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -24920,7 +24920,7 @@
         <v>44922</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -24977,7 +24977,7 @@
         <v>44942</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25034,7 +25034,7 @@
         <v>44942</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25091,7 +25091,7 @@
         <v>44942</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25148,7 +25148,7 @@
         <v>44942</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25205,7 +25205,7 @@
         <v>44942</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25262,7 +25262,7 @@
         <v>44942</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25319,7 +25319,7 @@
         <v>44956</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25381,7 +25381,7 @@
         <v>44962</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25438,7 +25438,7 @@
         <v>44973</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25495,7 +25495,7 @@
         <v>44977</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25557,7 +25557,7 @@
         <v>44986</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25619,7 +25619,7 @@
         <v>44986</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -25676,7 +25676,7 @@
         <v>44992</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -25733,7 +25733,7 @@
         <v>44994</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -25790,7 +25790,7 @@
         <v>44994</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -25847,7 +25847,7 @@
         <v>44994</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -25904,7 +25904,7 @@
         <v>44994</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -25961,7 +25961,7 @@
         <v>44998</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26023,7 +26023,7 @@
         <v>45001</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26080,7 +26080,7 @@
         <v>45002</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26137,7 +26137,7 @@
         <v>45006</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26199,7 +26199,7 @@
         <v>45009</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26256,7 +26256,7 @@
         <v>45009</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26313,7 +26313,7 @@
         <v>45012</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26370,7 +26370,7 @@
         <v>45019</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26427,7 +26427,7 @@
         <v>45028</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26489,7 +26489,7 @@
         <v>45044</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26546,7 +26546,7 @@
         <v>45049</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26603,7 +26603,7 @@
         <v>45051</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26660,7 +26660,7 @@
         <v>45054</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -26717,7 +26717,7 @@
         <v>45056</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -26774,7 +26774,7 @@
         <v>45056</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -26831,7 +26831,7 @@
         <v>45061</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -26888,7 +26888,7 @@
         <v>45062</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -26945,7 +26945,7 @@
         <v>45062</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27002,7 +27002,7 @@
         <v>45076</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27059,7 +27059,7 @@
         <v>45076</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27116,7 +27116,7 @@
         <v>45078</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27173,7 +27173,7 @@
         <v>45078</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27230,7 +27230,7 @@
         <v>45078</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27287,7 +27287,7 @@
         <v>45078</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27344,7 +27344,7 @@
         <v>45078</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27401,7 +27401,7 @@
         <v>45081</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27458,7 +27458,7 @@
         <v>45084</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27515,7 +27515,7 @@
         <v>45085</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27572,7 +27572,7 @@
         <v>45090</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27629,7 +27629,7 @@
         <v>45092</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -27686,7 +27686,7 @@
         <v>45098</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -27763,7 +27763,7 @@
         <v>45104</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -27820,7 +27820,7 @@
         <v>45111</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -27877,7 +27877,7 @@
         <v>45118</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -27934,7 +27934,7 @@
         <v>45132</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -27991,7 +27991,7 @@
         <v>45139</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28048,7 +28048,7 @@
         <v>45140</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28105,7 +28105,7 @@
         <v>45140</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28162,7 +28162,7 @@
         <v>45182</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>

--- a/Översikt ÄLMHULT.xlsx
+++ b/Översikt ÄLMHULT.xlsx
@@ -572,7 +572,7 @@
         <v>44067</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44830</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43424</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>43977</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>44049</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         <v>44663</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>43317</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>43318</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>43325</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1257,7 +1257,7 @@
         <v>43335</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>43339</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
         <v>43341</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1428,7 +1428,7 @@
         <v>43341</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>43343</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>43343</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         <v>43356</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>43357</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>43361</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>43368</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>43369</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>43369</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>43374</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43375</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43376</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>43385</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>43396</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>43399</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43411</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>43419</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>43419</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2454,7 +2454,7 @@
         <v>43419</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2511,7 +2511,7 @@
         <v>43423</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>43424</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>43425</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2682,7 +2682,7 @@
         <v>43430</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2739,7 +2739,7 @@
         <v>43430</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>43430</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>43432</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>43446</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>43447</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3024,7 +3024,7 @@
         <v>43451</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>43453</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>43453</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>43453</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>43453</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>43453</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>43454</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>43454</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>43455</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>43467</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3594,7 +3594,7 @@
         <v>43467</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3651,7 +3651,7 @@
         <v>43468</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3708,7 +3708,7 @@
         <v>43473</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         <v>43473</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
         <v>43473</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         <v>43473</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3936,7 +3936,7 @@
         <v>43475</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         <v>43479</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         <v>43481</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>43481</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>43483</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>43483</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>43483</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>43486</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>43488</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>43489</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>43501</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>43504</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>43504</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4677,7 +4677,7 @@
         <v>43504</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>43510</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4791,7 +4791,7 @@
         <v>43510</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4848,7 +4848,7 @@
         <v>43510</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>43510</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43514</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43514</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43514</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43517</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43522</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43524</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>43524</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5371,7 +5371,7 @@
         <v>43528</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5428,7 +5428,7 @@
         <v>43528</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5485,7 +5485,7 @@
         <v>43530</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5542,7 +5542,7 @@
         <v>43531</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5599,7 +5599,7 @@
         <v>43535</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5656,7 +5656,7 @@
         <v>43544</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5718,7 +5718,7 @@
         <v>43545</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5775,7 +5775,7 @@
         <v>43545</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5832,7 +5832,7 @@
         <v>43550</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5889,7 +5889,7 @@
         <v>43550</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43556</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
         <v>43563</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6060,7 +6060,7 @@
         <v>43569</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         <v>43569</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6174,7 +6174,7 @@
         <v>43571</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6231,7 +6231,7 @@
         <v>43579</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6288,7 +6288,7 @@
         <v>43579</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6345,7 +6345,7 @@
         <v>43579</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6402,7 +6402,7 @@
         <v>43585</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
         <v>43585</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6516,7 +6516,7 @@
         <v>43591</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6573,7 +6573,7 @@
         <v>43593</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6630,7 +6630,7 @@
         <v>43593</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         <v>43593</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6744,7 +6744,7 @@
         <v>43593</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6801,7 +6801,7 @@
         <v>43593</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6858,7 +6858,7 @@
         <v>43593</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6915,7 +6915,7 @@
         <v>43605</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6972,7 +6972,7 @@
         <v>43607</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         <v>43608</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7086,7 +7086,7 @@
         <v>43628</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7143,7 +7143,7 @@
         <v>43635</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>43642</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7257,7 +7257,7 @@
         <v>43649</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7314,7 +7314,7 @@
         <v>43649</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7371,7 +7371,7 @@
         <v>43649</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7428,7 +7428,7 @@
         <v>43649</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7485,7 +7485,7 @@
         <v>43650</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7542,7 +7542,7 @@
         <v>43665</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7599,7 +7599,7 @@
         <v>43681</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7656,7 +7656,7 @@
         <v>43682</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7713,7 +7713,7 @@
         <v>43683</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7770,7 +7770,7 @@
         <v>43690</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7827,7 +7827,7 @@
         <v>43690</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7884,7 +7884,7 @@
         <v>43693</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7941,7 +7941,7 @@
         <v>43697</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7998,7 +7998,7 @@
         <v>43697</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8055,7 +8055,7 @@
         <v>43700</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8112,7 +8112,7 @@
         <v>43703</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8169,7 +8169,7 @@
         <v>43704</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         <v>43711</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>43711</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>43711</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>43713</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>43714</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8511,7 +8511,7 @@
         <v>43724</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>43725</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>43728</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43731</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43731</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>43732</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>43732</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>43733</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>43739</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>43739</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>43740</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>43747</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9200,7 +9200,7 @@
         <v>43749</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9257,7 +9257,7 @@
         <v>43761</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9314,7 +9314,7 @@
         <v>43761</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>43763</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9428,7 +9428,7 @@
         <v>43773</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9485,7 +9485,7 @@
         <v>43773</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9542,7 +9542,7 @@
         <v>43773</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9599,7 +9599,7 @@
         <v>43775</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9656,7 +9656,7 @@
         <v>43775</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9713,7 +9713,7 @@
         <v>43788</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9770,7 +9770,7 @@
         <v>43791</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9827,7 +9827,7 @@
         <v>43795</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>43796</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>43796</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9998,7 +9998,7 @@
         <v>43798</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10055,7 +10055,7 @@
         <v>43798</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10112,7 +10112,7 @@
         <v>43801</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10169,7 +10169,7 @@
         <v>43804</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>43809</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10283,7 +10283,7 @@
         <v>43835</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10340,7 +10340,7 @@
         <v>43835</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10397,7 +10397,7 @@
         <v>43835</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10454,7 +10454,7 @@
         <v>43840</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10511,7 +10511,7 @@
         <v>43852</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>43853</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10625,7 +10625,7 @@
         <v>43853</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10682,7 +10682,7 @@
         <v>43860</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         <v>43873</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         <v>43878</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>43878</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>43879</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>43882</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>43882</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11081,7 +11081,7 @@
         <v>43887</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11138,7 +11138,7 @@
         <v>43892</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>43892</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11252,7 +11252,7 @@
         <v>43892</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
         <v>43892</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>43895</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11423,7 +11423,7 @@
         <v>43895</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11480,7 +11480,7 @@
         <v>43896</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11537,7 +11537,7 @@
         <v>43896</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         <v>43897</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         <v>43907</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>43908</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         <v>43908</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11822,7 +11822,7 @@
         <v>43909</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11879,7 +11879,7 @@
         <v>43913</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11941,7 +11941,7 @@
         <v>43915</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11998,7 +11998,7 @@
         <v>43915</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12055,7 +12055,7 @@
         <v>43917</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12112,7 +12112,7 @@
         <v>43920</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12169,7 +12169,7 @@
         <v>43921</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12226,7 +12226,7 @@
         <v>43926</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12283,7 +12283,7 @@
         <v>43936</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12340,7 +12340,7 @@
         <v>43965</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12397,7 +12397,7 @@
         <v>43965</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12454,7 +12454,7 @@
         <v>43965</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12511,7 +12511,7 @@
         <v>43965</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12568,7 +12568,7 @@
         <v>43966</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12625,7 +12625,7 @@
         <v>43967</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12682,7 +12682,7 @@
         <v>43977</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12739,7 +12739,7 @@
         <v>43980</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12796,7 +12796,7 @@
         <v>43994</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12853,7 +12853,7 @@
         <v>43999</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12910,7 +12910,7 @@
         <v>44008</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12967,7 +12967,7 @@
         <v>44026</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13024,7 +13024,7 @@
         <v>44035</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
         <v>44039</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>44039</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>44039</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13252,7 +13252,7 @@
         <v>44041</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13309,7 +13309,7 @@
         <v>44046</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13366,7 +13366,7 @@
         <v>44046</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13423,7 +13423,7 @@
         <v>44054</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13480,7 +13480,7 @@
         <v>44054</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13537,7 +13537,7 @@
         <v>44054</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13594,7 +13594,7 @@
         <v>44054</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13651,7 +13651,7 @@
         <v>44057</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13708,7 +13708,7 @@
         <v>44057</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13765,7 +13765,7 @@
         <v>44061</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13822,7 +13822,7 @@
         <v>44063</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13879,7 +13879,7 @@
         <v>44070</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13936,7 +13936,7 @@
         <v>44070</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -13993,7 +13993,7 @@
         <v>44075</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14050,7 +14050,7 @@
         <v>44078</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14107,7 +14107,7 @@
         <v>44090</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14164,7 +14164,7 @@
         <v>44090</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14221,7 +14221,7 @@
         <v>44096</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14278,7 +14278,7 @@
         <v>44096</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14335,7 +14335,7 @@
         <v>44098</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14392,7 +14392,7 @@
         <v>44104</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14449,7 +14449,7 @@
         <v>44106</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14506,7 +14506,7 @@
         <v>44106</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         <v>44108</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14620,7 +14620,7 @@
         <v>44109</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14677,7 +14677,7 @@
         <v>44110</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14734,7 +14734,7 @@
         <v>44111</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14791,7 +14791,7 @@
         <v>44111</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14848,7 +14848,7 @@
         <v>44112</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -14905,7 +14905,7 @@
         <v>44113</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -14962,7 +14962,7 @@
         <v>44116</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15019,7 +15019,7 @@
         <v>44117</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15076,7 +15076,7 @@
         <v>44117</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15133,7 +15133,7 @@
         <v>44148</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15190,7 +15190,7 @@
         <v>44152</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15247,7 +15247,7 @@
         <v>44153</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15304,7 +15304,7 @@
         <v>44153</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15361,7 +15361,7 @@
         <v>44153</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15418,7 +15418,7 @@
         <v>44153</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15475,7 +15475,7 @@
         <v>44153</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15532,7 +15532,7 @@
         <v>44154</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15589,7 +15589,7 @@
         <v>44154</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15651,7 +15651,7 @@
         <v>44154</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15713,7 +15713,7 @@
         <v>44158</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15770,7 +15770,7 @@
         <v>44158</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15827,7 +15827,7 @@
         <v>44159</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15884,7 +15884,7 @@
         <v>44160</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -15941,7 +15941,7 @@
         <v>44161</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -15998,7 +15998,7 @@
         <v>44161</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16055,7 +16055,7 @@
         <v>44162</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16112,7 +16112,7 @@
         <v>44174</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16169,7 +16169,7 @@
         <v>44175</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16226,7 +16226,7 @@
         <v>44182</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16283,7 +16283,7 @@
         <v>44183</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16340,7 +16340,7 @@
         <v>44187</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16402,7 +16402,7 @@
         <v>44192</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16459,7 +16459,7 @@
         <v>44209</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16516,7 +16516,7 @@
         <v>44211</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16573,7 +16573,7 @@
         <v>44221</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16630,7 +16630,7 @@
         <v>44221</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16687,7 +16687,7 @@
         <v>44221</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16744,7 +16744,7 @@
         <v>44221</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16801,7 +16801,7 @@
         <v>44221</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -16858,7 +16858,7 @@
         <v>44225</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -16915,7 +16915,7 @@
         <v>44228</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -16972,7 +16972,7 @@
         <v>44229</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17029,7 +17029,7 @@
         <v>44229</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17086,7 +17086,7 @@
         <v>44231</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17143,7 +17143,7 @@
         <v>44231</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17200,7 +17200,7 @@
         <v>44231</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17257,7 +17257,7 @@
         <v>44234</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17314,7 +17314,7 @@
         <v>44237</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         <v>44243</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17428,7 +17428,7 @@
         <v>44245</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17485,7 +17485,7 @@
         <v>44245</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17542,7 +17542,7 @@
         <v>44245</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17599,7 +17599,7 @@
         <v>44245</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17656,7 +17656,7 @@
         <v>44245</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17713,7 +17713,7 @@
         <v>44251</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17770,7 +17770,7 @@
         <v>44253</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -17827,7 +17827,7 @@
         <v>44277</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -17884,7 +17884,7 @@
         <v>44278</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -17941,7 +17941,7 @@
         <v>44280</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -17998,7 +17998,7 @@
         <v>44284</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18055,7 +18055,7 @@
         <v>44286</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18112,7 +18112,7 @@
         <v>44292</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18169,7 +18169,7 @@
         <v>44293</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18226,7 +18226,7 @@
         <v>44294</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18283,7 +18283,7 @@
         <v>44309</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18340,7 +18340,7 @@
         <v>44315</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18397,7 +18397,7 @@
         <v>44315</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18454,7 +18454,7 @@
         <v>44315</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18511,7 +18511,7 @@
         <v>44315</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>44316</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18625,7 +18625,7 @@
         <v>44320</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18682,7 +18682,7 @@
         <v>44321</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         <v>44335</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18801,7 +18801,7 @@
         <v>44344</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -18858,7 +18858,7 @@
         <v>44349</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -18915,7 +18915,7 @@
         <v>44384</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -18972,7 +18972,7 @@
         <v>44386</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19029,7 +19029,7 @@
         <v>44397</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19086,7 +19086,7 @@
         <v>44397</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19143,7 +19143,7 @@
         <v>44403</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19200,7 +19200,7 @@
         <v>44413</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19257,7 +19257,7 @@
         <v>44414</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19314,7 +19314,7 @@
         <v>44427</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19371,7 +19371,7 @@
         <v>44427</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19428,7 +19428,7 @@
         <v>44431</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19485,7 +19485,7 @@
         <v>44433</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19542,7 +19542,7 @@
         <v>44434</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19599,7 +19599,7 @@
         <v>44434</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19656,7 +19656,7 @@
         <v>44438</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19713,7 +19713,7 @@
         <v>44438</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -19770,7 +19770,7 @@
         <v>44438</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -19827,7 +19827,7 @@
         <v>44445</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -19884,7 +19884,7 @@
         <v>44446</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -19941,7 +19941,7 @@
         <v>44447</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -19998,7 +19998,7 @@
         <v>44447</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20055,7 +20055,7 @@
         <v>44448</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20112,7 +20112,7 @@
         <v>44448</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20169,7 +20169,7 @@
         <v>44449</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         <v>44459</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20283,7 +20283,7 @@
         <v>44460</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20340,7 +20340,7 @@
         <v>44477</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20397,7 +20397,7 @@
         <v>44477</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20454,7 +20454,7 @@
         <v>44477</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20511,7 +20511,7 @@
         <v>44482</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20568,7 +20568,7 @@
         <v>44487</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20625,7 +20625,7 @@
         <v>44496</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20682,7 +20682,7 @@
         <v>44496</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -20739,7 +20739,7 @@
         <v>44503</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -20796,7 +20796,7 @@
         <v>44503</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -20853,7 +20853,7 @@
         <v>44503</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -20910,7 +20910,7 @@
         <v>44504</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -20967,7 +20967,7 @@
         <v>44508</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21024,7 +21024,7 @@
         <v>44510</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21081,7 +21081,7 @@
         <v>44512</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21138,7 +21138,7 @@
         <v>44515</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21195,7 +21195,7 @@
         <v>44522</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21252,7 +21252,7 @@
         <v>44523</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21309,7 +21309,7 @@
         <v>44523</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21366,7 +21366,7 @@
         <v>44524</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21423,7 +21423,7 @@
         <v>44525</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21480,7 +21480,7 @@
         <v>44526</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21537,7 +21537,7 @@
         <v>44531</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21594,7 +21594,7 @@
         <v>44543</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21651,7 +21651,7 @@
         <v>44551</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21708,7 +21708,7 @@
         <v>44560</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -21765,7 +21765,7 @@
         <v>44587</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -21827,7 +21827,7 @@
         <v>44587</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -21884,7 +21884,7 @@
         <v>44596</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -21941,7 +21941,7 @@
         <v>44599</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -21998,7 +21998,7 @@
         <v>44623</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22055,7 +22055,7 @@
         <v>44634</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22112,7 +22112,7 @@
         <v>44636</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22169,7 +22169,7 @@
         <v>44641</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22226,7 +22226,7 @@
         <v>44648</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22283,7 +22283,7 @@
         <v>44657</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22340,7 +22340,7 @@
         <v>44663</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22397,7 +22397,7 @@
         <v>44663</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22454,7 +22454,7 @@
         <v>44665</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22516,7 +22516,7 @@
         <v>44698</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22573,7 +22573,7 @@
         <v>44739</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22630,7 +22630,7 @@
         <v>44749</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22687,7 +22687,7 @@
         <v>44757</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -22744,7 +22744,7 @@
         <v>44784</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -22806,7 +22806,7 @@
         <v>44784</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -22868,7 +22868,7 @@
         <v>44785</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -22925,7 +22925,7 @@
         <v>44785</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -22982,7 +22982,7 @@
         <v>44785</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23039,7 +23039,7 @@
         <v>44785</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23096,7 +23096,7 @@
         <v>44785</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23153,7 +23153,7 @@
         <v>44785</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23210,7 +23210,7 @@
         <v>44785</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23267,7 +23267,7 @@
         <v>44785</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23324,7 +23324,7 @@
         <v>44802</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23381,7 +23381,7 @@
         <v>44812</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23438,7 +23438,7 @@
         <v>44812</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23495,7 +23495,7 @@
         <v>44817</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23552,7 +23552,7 @@
         <v>44830</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23609,7 +23609,7 @@
         <v>44831</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23666,7 +23666,7 @@
         <v>44831</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -23723,7 +23723,7 @@
         <v>44832</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -23780,7 +23780,7 @@
         <v>44852</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -23837,7 +23837,7 @@
         <v>44854</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -23894,7 +23894,7 @@
         <v>44855</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -23951,7 +23951,7 @@
         <v>44855</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24008,7 +24008,7 @@
         <v>44858</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24065,7 +24065,7 @@
         <v>44858</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24122,7 +24122,7 @@
         <v>44859</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24179,7 +24179,7 @@
         <v>44861</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24236,7 +24236,7 @@
         <v>44862</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24293,7 +24293,7 @@
         <v>44864</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24350,7 +24350,7 @@
         <v>44865</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24407,7 +24407,7 @@
         <v>44865</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24464,7 +24464,7 @@
         <v>44865</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24521,7 +24521,7 @@
         <v>44883</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24578,7 +24578,7 @@
         <v>44897</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24635,7 +24635,7 @@
         <v>44897</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -24692,7 +24692,7 @@
         <v>44897</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -24749,7 +24749,7 @@
         <v>44897</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -24806,7 +24806,7 @@
         <v>44911</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -24863,7 +24863,7 @@
         <v>44921</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -24920,7 +24920,7 @@
         <v>44922</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -24977,7 +24977,7 @@
         <v>44942</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25034,7 +25034,7 @@
         <v>44942</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25091,7 +25091,7 @@
         <v>44942</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25148,7 +25148,7 @@
         <v>44942</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25205,7 +25205,7 @@
         <v>44942</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25262,7 +25262,7 @@
         <v>44942</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25319,7 +25319,7 @@
         <v>44956</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25381,7 +25381,7 @@
         <v>44962</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25438,7 +25438,7 @@
         <v>44973</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25495,7 +25495,7 @@
         <v>44977</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25557,7 +25557,7 @@
         <v>44986</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25619,7 +25619,7 @@
         <v>44986</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -25676,7 +25676,7 @@
         <v>44992</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -25733,7 +25733,7 @@
         <v>44994</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -25790,7 +25790,7 @@
         <v>44994</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -25847,7 +25847,7 @@
         <v>44994</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -25904,7 +25904,7 @@
         <v>44994</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -25961,7 +25961,7 @@
         <v>44998</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26023,7 +26023,7 @@
         <v>45001</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26080,7 +26080,7 @@
         <v>45002</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26137,7 +26137,7 @@
         <v>45006</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26199,7 +26199,7 @@
         <v>45009</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26256,7 +26256,7 @@
         <v>45009</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26313,7 +26313,7 @@
         <v>45012</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26370,7 +26370,7 @@
         <v>45019</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26427,7 +26427,7 @@
         <v>45028</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26489,7 +26489,7 @@
         <v>45044</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26546,7 +26546,7 @@
         <v>45049</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26603,7 +26603,7 @@
         <v>45051</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26660,7 +26660,7 @@
         <v>45054</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -26717,7 +26717,7 @@
         <v>45056</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -26774,7 +26774,7 @@
         <v>45056</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -26831,7 +26831,7 @@
         <v>45061</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -26888,7 +26888,7 @@
         <v>45062</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -26945,7 +26945,7 @@
         <v>45062</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27002,7 +27002,7 @@
         <v>45076</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27059,7 +27059,7 @@
         <v>45076</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27116,7 +27116,7 @@
         <v>45078</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27173,7 +27173,7 @@
         <v>45078</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27230,7 +27230,7 @@
         <v>45078</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27287,7 +27287,7 @@
         <v>45078</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27344,7 +27344,7 @@
         <v>45078</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27401,7 +27401,7 @@
         <v>45081</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27458,7 +27458,7 @@
         <v>45084</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27515,7 +27515,7 @@
         <v>45085</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27572,7 +27572,7 @@
         <v>45090</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27629,7 +27629,7 @@
         <v>45092</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -27686,7 +27686,7 @@
         <v>45098</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -27763,7 +27763,7 @@
         <v>45104</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -27820,7 +27820,7 @@
         <v>45111</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -27877,7 +27877,7 @@
         <v>45118</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -27934,7 +27934,7 @@
         <v>45132</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -27991,7 +27991,7 @@
         <v>45139</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28048,7 +28048,7 @@
         <v>45140</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28105,7 +28105,7 @@
         <v>45140</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28162,7 +28162,7 @@
         <v>45182</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>

--- a/Översikt ÄLMHULT.xlsx
+++ b/Översikt ÄLMHULT.xlsx
@@ -572,7 +572,7 @@
         <v>44067</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44830</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43424</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>43977</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>44049</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         <v>44663</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>43317</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>43318</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>43325</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1257,7 +1257,7 @@
         <v>43335</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>43339</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
         <v>43341</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1428,7 +1428,7 @@
         <v>43341</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>43343</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>43343</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         <v>43356</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>43357</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>43361</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>43368</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>43369</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>43369</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>43374</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43375</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43376</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>43385</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>43396</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>43399</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43411</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>43419</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>43419</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2454,7 +2454,7 @@
         <v>43419</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2511,7 +2511,7 @@
         <v>43423</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>43424</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>43425</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2682,7 +2682,7 @@
         <v>43430</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2739,7 +2739,7 @@
         <v>43430</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>43430</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>43432</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>43446</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>43447</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3024,7 +3024,7 @@
         <v>43451</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>43453</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>43453</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>43453</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>43453</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>43453</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>43454</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>43454</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>43455</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>43467</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3594,7 +3594,7 @@
         <v>43467</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3651,7 +3651,7 @@
         <v>43468</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3708,7 +3708,7 @@
         <v>43473</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         <v>43473</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
         <v>43473</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         <v>43473</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3936,7 +3936,7 @@
         <v>43475</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         <v>43479</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         <v>43481</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>43481</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>43483</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>43483</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>43483</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>43486</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>43488</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>43489</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>43501</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>43504</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>43504</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4677,7 +4677,7 @@
         <v>43504</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>43510</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4791,7 +4791,7 @@
         <v>43510</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4848,7 +4848,7 @@
         <v>43510</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>43510</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43514</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43514</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43514</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43517</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43522</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43524</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>43524</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5371,7 +5371,7 @@
         <v>43528</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5428,7 +5428,7 @@
         <v>43528</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5485,7 +5485,7 @@
         <v>43530</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5542,7 +5542,7 @@
         <v>43531</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5599,7 +5599,7 @@
         <v>43535</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5656,7 +5656,7 @@
         <v>43544</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5718,7 +5718,7 @@
         <v>43545</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5775,7 +5775,7 @@
         <v>43545</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5832,7 +5832,7 @@
         <v>43550</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5889,7 +5889,7 @@
         <v>43550</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43556</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
         <v>43563</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6060,7 +6060,7 @@
         <v>43569</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         <v>43569</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6174,7 +6174,7 @@
         <v>43571</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6231,7 +6231,7 @@
         <v>43579</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6288,7 +6288,7 @@
         <v>43579</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6345,7 +6345,7 @@
         <v>43579</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6402,7 +6402,7 @@
         <v>43585</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
         <v>43585</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6516,7 +6516,7 @@
         <v>43591</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6573,7 +6573,7 @@
         <v>43593</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6630,7 +6630,7 @@
         <v>43593</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         <v>43593</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6744,7 +6744,7 @@
         <v>43593</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6801,7 +6801,7 @@
         <v>43593</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6858,7 +6858,7 @@
         <v>43593</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6915,7 +6915,7 @@
         <v>43605</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6972,7 +6972,7 @@
         <v>43607</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         <v>43608</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7086,7 +7086,7 @@
         <v>43628</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7143,7 +7143,7 @@
         <v>43635</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>43642</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7257,7 +7257,7 @@
         <v>43649</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7314,7 +7314,7 @@
         <v>43649</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7371,7 +7371,7 @@
         <v>43649</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7428,7 +7428,7 @@
         <v>43649</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7485,7 +7485,7 @@
         <v>43650</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7542,7 +7542,7 @@
         <v>43665</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7599,7 +7599,7 @@
         <v>43681</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7656,7 +7656,7 @@
         <v>43682</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7713,7 +7713,7 @@
         <v>43683</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7770,7 +7770,7 @@
         <v>43690</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7827,7 +7827,7 @@
         <v>43690</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7884,7 +7884,7 @@
         <v>43693</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7941,7 +7941,7 @@
         <v>43697</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7998,7 +7998,7 @@
         <v>43697</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8055,7 +8055,7 @@
         <v>43700</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8112,7 +8112,7 @@
         <v>43703</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8169,7 +8169,7 @@
         <v>43704</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         <v>43711</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>43711</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>43711</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>43713</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>43714</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8511,7 +8511,7 @@
         <v>43724</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>43725</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>43728</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43731</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43731</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>43732</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>43732</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>43733</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>43739</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>43739</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>43740</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>43747</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9200,7 +9200,7 @@
         <v>43749</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9257,7 +9257,7 @@
         <v>43761</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9314,7 +9314,7 @@
         <v>43761</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>43763</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9428,7 +9428,7 @@
         <v>43773</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9485,7 +9485,7 @@
         <v>43773</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9542,7 +9542,7 @@
         <v>43773</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9599,7 +9599,7 @@
         <v>43775</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9656,7 +9656,7 @@
         <v>43775</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9713,7 +9713,7 @@
         <v>43788</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9770,7 +9770,7 @@
         <v>43791</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9827,7 +9827,7 @@
         <v>43795</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>43796</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>43796</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9998,7 +9998,7 @@
         <v>43798</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10055,7 +10055,7 @@
         <v>43798</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10112,7 +10112,7 @@
         <v>43801</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10169,7 +10169,7 @@
         <v>43804</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>43809</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10283,7 +10283,7 @@
         <v>43835</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10340,7 +10340,7 @@
         <v>43835</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10397,7 +10397,7 @@
         <v>43835</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10454,7 +10454,7 @@
         <v>43840</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10511,7 +10511,7 @@
         <v>43852</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>43853</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10625,7 +10625,7 @@
         <v>43853</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10682,7 +10682,7 @@
         <v>43860</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         <v>43873</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         <v>43878</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>43878</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>43879</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>43882</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>43882</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11081,7 +11081,7 @@
         <v>43887</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11138,7 +11138,7 @@
         <v>43892</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>43892</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11252,7 +11252,7 @@
         <v>43892</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
         <v>43892</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>43895</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11423,7 +11423,7 @@
         <v>43895</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11480,7 +11480,7 @@
         <v>43896</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11537,7 +11537,7 @@
         <v>43896</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         <v>43897</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         <v>43907</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>43908</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         <v>43908</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11822,7 +11822,7 @@
         <v>43909</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11879,7 +11879,7 @@
         <v>43913</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11941,7 +11941,7 @@
         <v>43915</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11998,7 +11998,7 @@
         <v>43915</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12055,7 +12055,7 @@
         <v>43917</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12112,7 +12112,7 @@
         <v>43920</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12169,7 +12169,7 @@
         <v>43921</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12226,7 +12226,7 @@
         <v>43926</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12283,7 +12283,7 @@
         <v>43936</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12340,7 +12340,7 @@
         <v>43965</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12397,7 +12397,7 @@
         <v>43965</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12454,7 +12454,7 @@
         <v>43965</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12511,7 +12511,7 @@
         <v>43965</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12568,7 +12568,7 @@
         <v>43966</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12625,7 +12625,7 @@
         <v>43967</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12682,7 +12682,7 @@
         <v>43977</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12739,7 +12739,7 @@
         <v>43980</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12796,7 +12796,7 @@
         <v>43994</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12853,7 +12853,7 @@
         <v>43999</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12910,7 +12910,7 @@
         <v>44008</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12967,7 +12967,7 @@
         <v>44026</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13024,7 +13024,7 @@
         <v>44035</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
         <v>44039</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>44039</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>44039</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13252,7 +13252,7 @@
         <v>44041</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13309,7 +13309,7 @@
         <v>44046</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13366,7 +13366,7 @@
         <v>44046</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13423,7 +13423,7 @@
         <v>44054</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13480,7 +13480,7 @@
         <v>44054</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13537,7 +13537,7 @@
         <v>44054</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13594,7 +13594,7 @@
         <v>44054</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13651,7 +13651,7 @@
         <v>44057</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13708,7 +13708,7 @@
         <v>44057</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13765,7 +13765,7 @@
         <v>44061</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13822,7 +13822,7 @@
         <v>44063</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13879,7 +13879,7 @@
         <v>44070</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13936,7 +13936,7 @@
         <v>44070</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -13993,7 +13993,7 @@
         <v>44075</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14050,7 +14050,7 @@
         <v>44078</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14107,7 +14107,7 @@
         <v>44090</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14164,7 +14164,7 @@
         <v>44090</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14221,7 +14221,7 @@
         <v>44096</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14278,7 +14278,7 @@
         <v>44096</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14335,7 +14335,7 @@
         <v>44098</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14392,7 +14392,7 @@
         <v>44104</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14449,7 +14449,7 @@
         <v>44106</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14506,7 +14506,7 @@
         <v>44106</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         <v>44108</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14620,7 +14620,7 @@
         <v>44109</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14677,7 +14677,7 @@
         <v>44110</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14734,7 +14734,7 @@
         <v>44111</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14791,7 +14791,7 @@
         <v>44111</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14848,7 +14848,7 @@
         <v>44112</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -14905,7 +14905,7 @@
         <v>44113</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -14962,7 +14962,7 @@
         <v>44116</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15019,7 +15019,7 @@
         <v>44117</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15076,7 +15076,7 @@
         <v>44117</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15133,7 +15133,7 @@
         <v>44148</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15190,7 +15190,7 @@
         <v>44152</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15247,7 +15247,7 @@
         <v>44153</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15304,7 +15304,7 @@
         <v>44153</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15361,7 +15361,7 @@
         <v>44153</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15418,7 +15418,7 @@
         <v>44153</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15475,7 +15475,7 @@
         <v>44153</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15532,7 +15532,7 @@
         <v>44154</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15589,7 +15589,7 @@
         <v>44154</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15651,7 +15651,7 @@
         <v>44154</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15713,7 +15713,7 @@
         <v>44158</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15770,7 +15770,7 @@
         <v>44158</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15827,7 +15827,7 @@
         <v>44159</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15884,7 +15884,7 @@
         <v>44160</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -15941,7 +15941,7 @@
         <v>44161</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -15998,7 +15998,7 @@
         <v>44161</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16055,7 +16055,7 @@
         <v>44162</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16112,7 +16112,7 @@
         <v>44174</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16169,7 +16169,7 @@
         <v>44175</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16226,7 +16226,7 @@
         <v>44182</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16283,7 +16283,7 @@
         <v>44183</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16340,7 +16340,7 @@
         <v>44187</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16402,7 +16402,7 @@
         <v>44192</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16459,7 +16459,7 @@
         <v>44209</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16516,7 +16516,7 @@
         <v>44211</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16573,7 +16573,7 @@
         <v>44221</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16630,7 +16630,7 @@
         <v>44221</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16687,7 +16687,7 @@
         <v>44221</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16744,7 +16744,7 @@
         <v>44221</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16801,7 +16801,7 @@
         <v>44221</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -16858,7 +16858,7 @@
         <v>44225</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -16915,7 +16915,7 @@
         <v>44228</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -16972,7 +16972,7 @@
         <v>44229</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17029,7 +17029,7 @@
         <v>44229</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17086,7 +17086,7 @@
         <v>44231</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17143,7 +17143,7 @@
         <v>44231</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17200,7 +17200,7 @@
         <v>44231</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17257,7 +17257,7 @@
         <v>44234</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17314,7 +17314,7 @@
         <v>44237</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         <v>44243</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17428,7 +17428,7 @@
         <v>44245</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17485,7 +17485,7 @@
         <v>44245</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17542,7 +17542,7 @@
         <v>44245</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17599,7 +17599,7 @@
         <v>44245</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17656,7 +17656,7 @@
         <v>44245</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17713,7 +17713,7 @@
         <v>44251</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17770,7 +17770,7 @@
         <v>44253</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -17827,7 +17827,7 @@
         <v>44277</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -17884,7 +17884,7 @@
         <v>44278</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -17941,7 +17941,7 @@
         <v>44280</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -17998,7 +17998,7 @@
         <v>44284</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18055,7 +18055,7 @@
         <v>44286</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18112,7 +18112,7 @@
         <v>44292</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18169,7 +18169,7 @@
         <v>44293</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18226,7 +18226,7 @@
         <v>44294</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18283,7 +18283,7 @@
         <v>44309</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18340,7 +18340,7 @@
         <v>44315</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18397,7 +18397,7 @@
         <v>44315</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18454,7 +18454,7 @@
         <v>44315</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18511,7 +18511,7 @@
         <v>44315</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>44316</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18625,7 +18625,7 @@
         <v>44320</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18682,7 +18682,7 @@
         <v>44321</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         <v>44335</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18801,7 +18801,7 @@
         <v>44344</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -18858,7 +18858,7 @@
         <v>44349</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -18915,7 +18915,7 @@
         <v>44384</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -18972,7 +18972,7 @@
         <v>44386</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19029,7 +19029,7 @@
         <v>44397</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19086,7 +19086,7 @@
         <v>44397</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19143,7 +19143,7 @@
         <v>44403</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19200,7 +19200,7 @@
         <v>44413</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19257,7 +19257,7 @@
         <v>44414</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19314,7 +19314,7 @@
         <v>44427</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19371,7 +19371,7 @@
         <v>44427</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19428,7 +19428,7 @@
         <v>44431</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19485,7 +19485,7 @@
         <v>44433</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19542,7 +19542,7 @@
         <v>44434</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19599,7 +19599,7 @@
         <v>44434</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19656,7 +19656,7 @@
         <v>44438</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19713,7 +19713,7 @@
         <v>44438</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -19770,7 +19770,7 @@
         <v>44438</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -19827,7 +19827,7 @@
         <v>44445</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -19884,7 +19884,7 @@
         <v>44446</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -19941,7 +19941,7 @@
         <v>44447</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -19998,7 +19998,7 @@
         <v>44447</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20055,7 +20055,7 @@
         <v>44448</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20112,7 +20112,7 @@
         <v>44448</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20169,7 +20169,7 @@
         <v>44449</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         <v>44459</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20283,7 +20283,7 @@
         <v>44460</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20340,7 +20340,7 @@
         <v>44477</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20397,7 +20397,7 @@
         <v>44477</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20454,7 +20454,7 @@
         <v>44477</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20511,7 +20511,7 @@
         <v>44482</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20568,7 +20568,7 @@
         <v>44487</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20625,7 +20625,7 @@
         <v>44496</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20682,7 +20682,7 @@
         <v>44496</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -20739,7 +20739,7 @@
         <v>44503</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -20796,7 +20796,7 @@
         <v>44503</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -20853,7 +20853,7 @@
         <v>44503</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -20910,7 +20910,7 @@
         <v>44504</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -20967,7 +20967,7 @@
         <v>44508</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21024,7 +21024,7 @@
         <v>44510</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21081,7 +21081,7 @@
         <v>44512</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21138,7 +21138,7 @@
         <v>44515</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21195,7 +21195,7 @@
         <v>44522</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21252,7 +21252,7 @@
         <v>44523</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21309,7 +21309,7 @@
         <v>44523</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21366,7 +21366,7 @@
         <v>44524</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21423,7 +21423,7 @@
         <v>44525</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21480,7 +21480,7 @@
         <v>44526</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21537,7 +21537,7 @@
         <v>44531</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21594,7 +21594,7 @@
         <v>44543</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21651,7 +21651,7 @@
         <v>44551</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21708,7 +21708,7 @@
         <v>44560</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -21765,7 +21765,7 @@
         <v>44587</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -21827,7 +21827,7 @@
         <v>44587</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -21884,7 +21884,7 @@
         <v>44596</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -21941,7 +21941,7 @@
         <v>44599</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -21998,7 +21998,7 @@
         <v>44623</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22055,7 +22055,7 @@
         <v>44634</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22112,7 +22112,7 @@
         <v>44636</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22169,7 +22169,7 @@
         <v>44641</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22226,7 +22226,7 @@
         <v>44648</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22283,7 +22283,7 @@
         <v>44657</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22340,7 +22340,7 @@
         <v>44663</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22397,7 +22397,7 @@
         <v>44663</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22454,7 +22454,7 @@
         <v>44665</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22516,7 +22516,7 @@
         <v>44698</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22573,7 +22573,7 @@
         <v>44739</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22630,7 +22630,7 @@
         <v>44749</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22687,7 +22687,7 @@
         <v>44757</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -22744,7 +22744,7 @@
         <v>44784</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -22806,7 +22806,7 @@
         <v>44784</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -22868,7 +22868,7 @@
         <v>44785</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -22925,7 +22925,7 @@
         <v>44785</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -22982,7 +22982,7 @@
         <v>44785</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23039,7 +23039,7 @@
         <v>44785</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23096,7 +23096,7 @@
         <v>44785</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23153,7 +23153,7 @@
         <v>44785</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23210,7 +23210,7 @@
         <v>44785</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23267,7 +23267,7 @@
         <v>44785</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23324,7 +23324,7 @@
         <v>44802</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23381,7 +23381,7 @@
         <v>44812</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23438,7 +23438,7 @@
         <v>44812</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23495,7 +23495,7 @@
         <v>44817</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23552,7 +23552,7 @@
         <v>44830</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23609,7 +23609,7 @@
         <v>44831</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23666,7 +23666,7 @@
         <v>44831</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -23723,7 +23723,7 @@
         <v>44832</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -23780,7 +23780,7 @@
         <v>44852</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -23837,7 +23837,7 @@
         <v>44854</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -23894,7 +23894,7 @@
         <v>44855</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -23951,7 +23951,7 @@
         <v>44855</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24008,7 +24008,7 @@
         <v>44858</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24065,7 +24065,7 @@
         <v>44858</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24122,7 +24122,7 @@
         <v>44859</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24179,7 +24179,7 @@
         <v>44861</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24236,7 +24236,7 @@
         <v>44862</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24293,7 +24293,7 @@
         <v>44864</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24350,7 +24350,7 @@
         <v>44865</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24407,7 +24407,7 @@
         <v>44865</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24464,7 +24464,7 @@
         <v>44865</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24521,7 +24521,7 @@
         <v>44883</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24578,7 +24578,7 @@
         <v>44897</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24635,7 +24635,7 @@
         <v>44897</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -24692,7 +24692,7 @@
         <v>44897</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -24749,7 +24749,7 @@
         <v>44897</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -24806,7 +24806,7 @@
         <v>44911</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -24863,7 +24863,7 @@
         <v>44921</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -24920,7 +24920,7 @@
         <v>44922</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -24977,7 +24977,7 @@
         <v>44942</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25034,7 +25034,7 @@
         <v>44942</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25091,7 +25091,7 @@
         <v>44942</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25148,7 +25148,7 @@
         <v>44942</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25205,7 +25205,7 @@
         <v>44942</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25262,7 +25262,7 @@
         <v>44942</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25319,7 +25319,7 @@
         <v>44956</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25381,7 +25381,7 @@
         <v>44962</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25438,7 +25438,7 @@
         <v>44973</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25495,7 +25495,7 @@
         <v>44977</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25557,7 +25557,7 @@
         <v>44986</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25619,7 +25619,7 @@
         <v>44986</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -25676,7 +25676,7 @@
         <v>44992</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -25733,7 +25733,7 @@
         <v>44994</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -25790,7 +25790,7 @@
         <v>44994</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -25847,7 +25847,7 @@
         <v>44994</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -25904,7 +25904,7 @@
         <v>44994</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -25961,7 +25961,7 @@
         <v>44998</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26023,7 +26023,7 @@
         <v>45001</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26080,7 +26080,7 @@
         <v>45002</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26137,7 +26137,7 @@
         <v>45006</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26199,7 +26199,7 @@
         <v>45009</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26256,7 +26256,7 @@
         <v>45009</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26313,7 +26313,7 @@
         <v>45012</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26370,7 +26370,7 @@
         <v>45019</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26427,7 +26427,7 @@
         <v>45028</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26489,7 +26489,7 @@
         <v>45044</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26546,7 +26546,7 @@
         <v>45049</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26603,7 +26603,7 @@
         <v>45051</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26660,7 +26660,7 @@
         <v>45054</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -26717,7 +26717,7 @@
         <v>45056</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -26774,7 +26774,7 @@
         <v>45056</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -26831,7 +26831,7 @@
         <v>45061</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -26888,7 +26888,7 @@
         <v>45062</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -26945,7 +26945,7 @@
         <v>45062</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27002,7 +27002,7 @@
         <v>45076</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27059,7 +27059,7 @@
         <v>45076</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27116,7 +27116,7 @@
         <v>45078</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27173,7 +27173,7 @@
         <v>45078</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27230,7 +27230,7 @@
         <v>45078</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27287,7 +27287,7 @@
         <v>45078</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27344,7 +27344,7 @@
         <v>45078</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27401,7 +27401,7 @@
         <v>45081</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27458,7 +27458,7 @@
         <v>45084</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27515,7 +27515,7 @@
         <v>45085</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27572,7 +27572,7 @@
         <v>45090</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27629,7 +27629,7 @@
         <v>45092</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -27686,7 +27686,7 @@
         <v>45098</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -27763,7 +27763,7 @@
         <v>45104</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -27820,7 +27820,7 @@
         <v>45111</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -27877,7 +27877,7 @@
         <v>45118</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -27934,7 +27934,7 @@
         <v>45132</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -27991,7 +27991,7 @@
         <v>45139</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28048,7 +28048,7 @@
         <v>45140</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28105,7 +28105,7 @@
         <v>45140</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28162,7 +28162,7 @@
         <v>45182</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>

--- a/Översikt ÄLMHULT.xlsx
+++ b/Översikt ÄLMHULT.xlsx
@@ -572,7 +572,7 @@
         <v>44067</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44830</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43424</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>43977</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>44049</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         <v>44663</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>43317</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>43318</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>43325</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1257,7 +1257,7 @@
         <v>43335</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>43339</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
         <v>43341</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1428,7 +1428,7 @@
         <v>43341</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>43343</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>43343</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         <v>43356</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>43357</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>43361</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>43368</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>43369</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>43369</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>43374</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43375</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43376</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>43385</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>43396</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>43399</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43411</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>43419</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>43419</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2454,7 +2454,7 @@
         <v>43419</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2511,7 +2511,7 @@
         <v>43423</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>43424</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>43425</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2682,7 +2682,7 @@
         <v>43430</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2739,7 +2739,7 @@
         <v>43430</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>43430</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>43432</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>43446</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>43447</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3024,7 +3024,7 @@
         <v>43451</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>43453</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>43453</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>43453</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>43453</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>43453</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>43454</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>43454</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>43455</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>43467</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3594,7 +3594,7 @@
         <v>43467</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3651,7 +3651,7 @@
         <v>43468</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3708,7 +3708,7 @@
         <v>43473</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         <v>43473</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
         <v>43473</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         <v>43473</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3936,7 +3936,7 @@
         <v>43475</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         <v>43479</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         <v>43481</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>43481</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>43483</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>43483</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>43483</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>43486</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>43488</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>43489</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>43501</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>43504</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>43504</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4677,7 +4677,7 @@
         <v>43504</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>43510</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4791,7 +4791,7 @@
         <v>43510</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4848,7 +4848,7 @@
         <v>43510</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>43510</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43514</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43514</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43514</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43517</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43522</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43524</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>43524</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5371,7 +5371,7 @@
         <v>43528</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5428,7 +5428,7 @@
         <v>43528</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5485,7 +5485,7 @@
         <v>43530</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5542,7 +5542,7 @@
         <v>43531</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5599,7 +5599,7 @@
         <v>43535</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5656,7 +5656,7 @@
         <v>43544</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5718,7 +5718,7 @@
         <v>43545</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5775,7 +5775,7 @@
         <v>43545</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5832,7 +5832,7 @@
         <v>43550</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5889,7 +5889,7 @@
         <v>43550</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43556</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
         <v>43563</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6060,7 +6060,7 @@
         <v>43569</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         <v>43569</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6174,7 +6174,7 @@
         <v>43571</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6231,7 +6231,7 @@
         <v>43579</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6288,7 +6288,7 @@
         <v>43579</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6345,7 +6345,7 @@
         <v>43579</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6402,7 +6402,7 @@
         <v>43585</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
         <v>43585</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6516,7 +6516,7 @@
         <v>43591</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6573,7 +6573,7 @@
         <v>43593</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6630,7 +6630,7 @@
         <v>43593</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         <v>43593</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6744,7 +6744,7 @@
         <v>43593</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6801,7 +6801,7 @@
         <v>43593</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6858,7 +6858,7 @@
         <v>43593</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6915,7 +6915,7 @@
         <v>43605</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6972,7 +6972,7 @@
         <v>43607</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         <v>43608</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7086,7 +7086,7 @@
         <v>43628</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7143,7 +7143,7 @@
         <v>43635</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>43642</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7257,7 +7257,7 @@
         <v>43649</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7314,7 +7314,7 @@
         <v>43649</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7371,7 +7371,7 @@
         <v>43649</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7428,7 +7428,7 @@
         <v>43649</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7485,7 +7485,7 @@
         <v>43650</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7542,7 +7542,7 @@
         <v>43665</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7599,7 +7599,7 @@
         <v>43681</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7656,7 +7656,7 @@
         <v>43682</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7713,7 +7713,7 @@
         <v>43683</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7770,7 +7770,7 @@
         <v>43690</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7827,7 +7827,7 @@
         <v>43690</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7884,7 +7884,7 @@
         <v>43693</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7941,7 +7941,7 @@
         <v>43697</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7998,7 +7998,7 @@
         <v>43697</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8055,7 +8055,7 @@
         <v>43700</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8112,7 +8112,7 @@
         <v>43703</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8169,7 +8169,7 @@
         <v>43704</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         <v>43711</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>43711</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>43711</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>43713</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>43714</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8511,7 +8511,7 @@
         <v>43724</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>43725</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>43728</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43731</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43731</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>43732</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>43732</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>43733</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>43739</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>43739</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>43740</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>43747</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9200,7 +9200,7 @@
         <v>43749</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9257,7 +9257,7 @@
         <v>43761</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9314,7 +9314,7 @@
         <v>43761</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>43763</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9428,7 +9428,7 @@
         <v>43773</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9485,7 +9485,7 @@
         <v>43773</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9542,7 +9542,7 @@
         <v>43773</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9599,7 +9599,7 @@
         <v>43775</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9656,7 +9656,7 @@
         <v>43775</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9713,7 +9713,7 @@
         <v>43788</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9770,7 +9770,7 @@
         <v>43791</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9827,7 +9827,7 @@
         <v>43795</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>43796</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>43796</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9998,7 +9998,7 @@
         <v>43798</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10055,7 +10055,7 @@
         <v>43798</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10112,7 +10112,7 @@
         <v>43801</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10169,7 +10169,7 @@
         <v>43804</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>43809</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10283,7 +10283,7 @@
         <v>43835</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10340,7 +10340,7 @@
         <v>43835</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10397,7 +10397,7 @@
         <v>43835</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10454,7 +10454,7 @@
         <v>43840</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10511,7 +10511,7 @@
         <v>43852</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>43853</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10625,7 +10625,7 @@
         <v>43853</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10682,7 +10682,7 @@
         <v>43860</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         <v>43873</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         <v>43878</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>43878</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>43879</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>43882</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>43882</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11081,7 +11081,7 @@
         <v>43887</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11138,7 +11138,7 @@
         <v>43892</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>43892</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11252,7 +11252,7 @@
         <v>43892</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
         <v>43892</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>43895</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11423,7 +11423,7 @@
         <v>43895</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11480,7 +11480,7 @@
         <v>43896</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11537,7 +11537,7 @@
         <v>43896</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         <v>43897</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         <v>43907</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>43908</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         <v>43908</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11822,7 +11822,7 @@
         <v>43909</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11879,7 +11879,7 @@
         <v>43913</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11941,7 +11941,7 @@
         <v>43915</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11998,7 +11998,7 @@
         <v>43915</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12055,7 +12055,7 @@
         <v>43917</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12112,7 +12112,7 @@
         <v>43920</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12169,7 +12169,7 @@
         <v>43921</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12226,7 +12226,7 @@
         <v>43926</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12283,7 +12283,7 @@
         <v>43936</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12340,7 +12340,7 @@
         <v>43965</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12397,7 +12397,7 @@
         <v>43965</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12454,7 +12454,7 @@
         <v>43965</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12511,7 +12511,7 @@
         <v>43965</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12568,7 +12568,7 @@
         <v>43966</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12625,7 +12625,7 @@
         <v>43967</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12682,7 +12682,7 @@
         <v>43977</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12739,7 +12739,7 @@
         <v>43980</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12796,7 +12796,7 @@
         <v>43994</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12853,7 +12853,7 @@
         <v>43999</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12910,7 +12910,7 @@
         <v>44008</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12967,7 +12967,7 @@
         <v>44026</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13024,7 +13024,7 @@
         <v>44035</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
         <v>44039</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>44039</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>44039</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13252,7 +13252,7 @@
         <v>44041</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13309,7 +13309,7 @@
         <v>44046</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13366,7 +13366,7 @@
         <v>44046</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13423,7 +13423,7 @@
         <v>44054</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13480,7 +13480,7 @@
         <v>44054</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13537,7 +13537,7 @@
         <v>44054</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13594,7 +13594,7 @@
         <v>44054</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13651,7 +13651,7 @@
         <v>44057</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13708,7 +13708,7 @@
         <v>44057</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13765,7 +13765,7 @@
         <v>44061</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13822,7 +13822,7 @@
         <v>44063</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13879,7 +13879,7 @@
         <v>44070</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13936,7 +13936,7 @@
         <v>44070</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -13993,7 +13993,7 @@
         <v>44075</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14050,7 +14050,7 @@
         <v>44078</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14107,7 +14107,7 @@
         <v>44090</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14164,7 +14164,7 @@
         <v>44090</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14221,7 +14221,7 @@
         <v>44096</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14278,7 +14278,7 @@
         <v>44096</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14335,7 +14335,7 @@
         <v>44098</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14392,7 +14392,7 @@
         <v>44104</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14449,7 +14449,7 @@
         <v>44106</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14506,7 +14506,7 @@
         <v>44106</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         <v>44108</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14620,7 +14620,7 @@
         <v>44109</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14677,7 +14677,7 @@
         <v>44110</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14734,7 +14734,7 @@
         <v>44111</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14791,7 +14791,7 @@
         <v>44111</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14848,7 +14848,7 @@
         <v>44112</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -14905,7 +14905,7 @@
         <v>44113</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -14962,7 +14962,7 @@
         <v>44116</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15019,7 +15019,7 @@
         <v>44117</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15076,7 +15076,7 @@
         <v>44117</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15133,7 +15133,7 @@
         <v>44148</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15190,7 +15190,7 @@
         <v>44152</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15247,7 +15247,7 @@
         <v>44153</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15304,7 +15304,7 @@
         <v>44153</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15361,7 +15361,7 @@
         <v>44153</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15418,7 +15418,7 @@
         <v>44153</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15475,7 +15475,7 @@
         <v>44153</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15532,7 +15532,7 @@
         <v>44154</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15589,7 +15589,7 @@
         <v>44154</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15651,7 +15651,7 @@
         <v>44154</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15713,7 +15713,7 @@
         <v>44158</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15770,7 +15770,7 @@
         <v>44158</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15827,7 +15827,7 @@
         <v>44159</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15884,7 +15884,7 @@
         <v>44160</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -15941,7 +15941,7 @@
         <v>44161</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -15998,7 +15998,7 @@
         <v>44161</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16055,7 +16055,7 @@
         <v>44162</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16112,7 +16112,7 @@
         <v>44174</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16169,7 +16169,7 @@
         <v>44175</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16226,7 +16226,7 @@
         <v>44182</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16283,7 +16283,7 @@
         <v>44183</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16340,7 +16340,7 @@
         <v>44187</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16402,7 +16402,7 @@
         <v>44192</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16459,7 +16459,7 @@
         <v>44209</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16516,7 +16516,7 @@
         <v>44211</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16573,7 +16573,7 @@
         <v>44221</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16630,7 +16630,7 @@
         <v>44221</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16687,7 +16687,7 @@
         <v>44221</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16744,7 +16744,7 @@
         <v>44221</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16801,7 +16801,7 @@
         <v>44221</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -16858,7 +16858,7 @@
         <v>44225</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -16915,7 +16915,7 @@
         <v>44228</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -16972,7 +16972,7 @@
         <v>44229</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17029,7 +17029,7 @@
         <v>44229</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17086,7 +17086,7 @@
         <v>44231</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17143,7 +17143,7 @@
         <v>44231</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17200,7 +17200,7 @@
         <v>44231</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17257,7 +17257,7 @@
         <v>44234</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17314,7 +17314,7 @@
         <v>44237</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         <v>44243</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17428,7 +17428,7 @@
         <v>44245</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17485,7 +17485,7 @@
         <v>44245</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17542,7 +17542,7 @@
         <v>44245</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17599,7 +17599,7 @@
         <v>44245</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17656,7 +17656,7 @@
         <v>44245</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17713,7 +17713,7 @@
         <v>44251</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17770,7 +17770,7 @@
         <v>44253</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -17827,7 +17827,7 @@
         <v>44277</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -17884,7 +17884,7 @@
         <v>44278</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -17941,7 +17941,7 @@
         <v>44280</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -17998,7 +17998,7 @@
         <v>44284</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18055,7 +18055,7 @@
         <v>44286</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18112,7 +18112,7 @@
         <v>44292</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18169,7 +18169,7 @@
         <v>44293</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18226,7 +18226,7 @@
         <v>44294</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18283,7 +18283,7 @@
         <v>44309</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18340,7 +18340,7 @@
         <v>44315</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18397,7 +18397,7 @@
         <v>44315</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18454,7 +18454,7 @@
         <v>44315</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18511,7 +18511,7 @@
         <v>44315</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>44316</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18625,7 +18625,7 @@
         <v>44320</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18682,7 +18682,7 @@
         <v>44321</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         <v>44335</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18801,7 +18801,7 @@
         <v>44344</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -18858,7 +18858,7 @@
         <v>44349</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -18915,7 +18915,7 @@
         <v>44384</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -18972,7 +18972,7 @@
         <v>44386</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19029,7 +19029,7 @@
         <v>44397</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19086,7 +19086,7 @@
         <v>44397</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19143,7 +19143,7 @@
         <v>44403</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19200,7 +19200,7 @@
         <v>44413</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19257,7 +19257,7 @@
         <v>44414</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19314,7 +19314,7 @@
         <v>44427</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19371,7 +19371,7 @@
         <v>44427</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19428,7 +19428,7 @@
         <v>44431</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19485,7 +19485,7 @@
         <v>44433</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19542,7 +19542,7 @@
         <v>44434</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19599,7 +19599,7 @@
         <v>44434</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19656,7 +19656,7 @@
         <v>44438</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19713,7 +19713,7 @@
         <v>44438</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -19770,7 +19770,7 @@
         <v>44438</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -19827,7 +19827,7 @@
         <v>44445</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -19884,7 +19884,7 @@
         <v>44446</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -19941,7 +19941,7 @@
         <v>44447</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -19998,7 +19998,7 @@
         <v>44447</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20055,7 +20055,7 @@
         <v>44448</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20112,7 +20112,7 @@
         <v>44448</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20169,7 +20169,7 @@
         <v>44449</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         <v>44459</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20283,7 +20283,7 @@
         <v>44460</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20340,7 +20340,7 @@
         <v>44477</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20397,7 +20397,7 @@
         <v>44477</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20454,7 +20454,7 @@
         <v>44477</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20511,7 +20511,7 @@
         <v>44482</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20568,7 +20568,7 @@
         <v>44487</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20625,7 +20625,7 @@
         <v>44496</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20682,7 +20682,7 @@
         <v>44496</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -20739,7 +20739,7 @@
         <v>44503</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -20796,7 +20796,7 @@
         <v>44503</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -20853,7 +20853,7 @@
         <v>44503</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -20910,7 +20910,7 @@
         <v>44504</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -20967,7 +20967,7 @@
         <v>44508</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21024,7 +21024,7 @@
         <v>44510</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21081,7 +21081,7 @@
         <v>44512</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21138,7 +21138,7 @@
         <v>44515</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21195,7 +21195,7 @@
         <v>44522</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21252,7 +21252,7 @@
         <v>44523</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21309,7 +21309,7 @@
         <v>44523</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21366,7 +21366,7 @@
         <v>44524</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21423,7 +21423,7 @@
         <v>44525</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21480,7 +21480,7 @@
         <v>44526</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21537,7 +21537,7 @@
         <v>44531</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21594,7 +21594,7 @@
         <v>44543</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21651,7 +21651,7 @@
         <v>44551</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21708,7 +21708,7 @@
         <v>44560</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -21765,7 +21765,7 @@
         <v>44587</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -21827,7 +21827,7 @@
         <v>44587</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -21884,7 +21884,7 @@
         <v>44596</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -21941,7 +21941,7 @@
         <v>44599</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -21998,7 +21998,7 @@
         <v>44623</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22055,7 +22055,7 @@
         <v>44634</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22112,7 +22112,7 @@
         <v>44636</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22169,7 +22169,7 @@
         <v>44641</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22226,7 +22226,7 @@
         <v>44648</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22283,7 +22283,7 @@
         <v>44657</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22340,7 +22340,7 @@
         <v>44663</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22397,7 +22397,7 @@
         <v>44663</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22454,7 +22454,7 @@
         <v>44665</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22516,7 +22516,7 @@
         <v>44698</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22573,7 +22573,7 @@
         <v>44739</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22630,7 +22630,7 @@
         <v>44749</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22687,7 +22687,7 @@
         <v>44757</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -22744,7 +22744,7 @@
         <v>44784</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -22806,7 +22806,7 @@
         <v>44784</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -22868,7 +22868,7 @@
         <v>44785</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -22925,7 +22925,7 @@
         <v>44785</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -22982,7 +22982,7 @@
         <v>44785</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23039,7 +23039,7 @@
         <v>44785</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23096,7 +23096,7 @@
         <v>44785</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23153,7 +23153,7 @@
         <v>44785</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23210,7 +23210,7 @@
         <v>44785</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23267,7 +23267,7 @@
         <v>44785</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23324,7 +23324,7 @@
         <v>44802</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23381,7 +23381,7 @@
         <v>44812</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23438,7 +23438,7 @@
         <v>44812</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23495,7 +23495,7 @@
         <v>44817</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23552,7 +23552,7 @@
         <v>44830</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23609,7 +23609,7 @@
         <v>44831</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23666,7 +23666,7 @@
         <v>44831</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -23723,7 +23723,7 @@
         <v>44832</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -23780,7 +23780,7 @@
         <v>44852</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -23837,7 +23837,7 @@
         <v>44854</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -23894,7 +23894,7 @@
         <v>44855</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -23951,7 +23951,7 @@
         <v>44855</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24008,7 +24008,7 @@
         <v>44858</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24065,7 +24065,7 @@
         <v>44858</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24122,7 +24122,7 @@
         <v>44859</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24179,7 +24179,7 @@
         <v>44861</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24236,7 +24236,7 @@
         <v>44862</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24293,7 +24293,7 @@
         <v>44864</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24350,7 +24350,7 @@
         <v>44865</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24407,7 +24407,7 @@
         <v>44865</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24464,7 +24464,7 @@
         <v>44865</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24521,7 +24521,7 @@
         <v>44883</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24578,7 +24578,7 @@
         <v>44897</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24635,7 +24635,7 @@
         <v>44897</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -24692,7 +24692,7 @@
         <v>44897</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -24749,7 +24749,7 @@
         <v>44897</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -24806,7 +24806,7 @@
         <v>44911</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -24863,7 +24863,7 @@
         <v>44921</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -24920,7 +24920,7 @@
         <v>44922</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -24977,7 +24977,7 @@
         <v>44942</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25034,7 +25034,7 @@
         <v>44942</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25091,7 +25091,7 @@
         <v>44942</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25148,7 +25148,7 @@
         <v>44942</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25205,7 +25205,7 @@
         <v>44942</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25262,7 +25262,7 @@
         <v>44942</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25319,7 +25319,7 @@
         <v>44956</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25381,7 +25381,7 @@
         <v>44962</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25438,7 +25438,7 @@
         <v>44973</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25495,7 +25495,7 @@
         <v>44977</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25557,7 +25557,7 @@
         <v>44986</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25619,7 +25619,7 @@
         <v>44986</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -25676,7 +25676,7 @@
         <v>44992</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -25733,7 +25733,7 @@
         <v>44994</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -25790,7 +25790,7 @@
         <v>44994</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -25847,7 +25847,7 @@
         <v>44994</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -25904,7 +25904,7 @@
         <v>44994</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -25961,7 +25961,7 @@
         <v>44998</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26023,7 +26023,7 @@
         <v>45001</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26080,7 +26080,7 @@
         <v>45002</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26137,7 +26137,7 @@
         <v>45006</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26199,7 +26199,7 @@
         <v>45009</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26256,7 +26256,7 @@
         <v>45009</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26313,7 +26313,7 @@
         <v>45012</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26370,7 +26370,7 @@
         <v>45019</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26427,7 +26427,7 @@
         <v>45028</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26489,7 +26489,7 @@
         <v>45044</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26546,7 +26546,7 @@
         <v>45049</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26603,7 +26603,7 @@
         <v>45051</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26660,7 +26660,7 @@
         <v>45054</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -26717,7 +26717,7 @@
         <v>45056</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -26774,7 +26774,7 @@
         <v>45056</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -26831,7 +26831,7 @@
         <v>45061</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -26888,7 +26888,7 @@
         <v>45062</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -26945,7 +26945,7 @@
         <v>45062</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27002,7 +27002,7 @@
         <v>45076</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27059,7 +27059,7 @@
         <v>45076</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27116,7 +27116,7 @@
         <v>45078</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27173,7 +27173,7 @@
         <v>45078</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27230,7 +27230,7 @@
         <v>45078</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27287,7 +27287,7 @@
         <v>45078</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27344,7 +27344,7 @@
         <v>45078</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27401,7 +27401,7 @@
         <v>45081</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27458,7 +27458,7 @@
         <v>45084</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27515,7 +27515,7 @@
         <v>45085</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27572,7 +27572,7 @@
         <v>45090</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27629,7 +27629,7 @@
         <v>45092</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -27686,7 +27686,7 @@
         <v>45098</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -27763,7 +27763,7 @@
         <v>45104</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -27820,7 +27820,7 @@
         <v>45111</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -27877,7 +27877,7 @@
         <v>45118</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -27934,7 +27934,7 @@
         <v>45132</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -27991,7 +27991,7 @@
         <v>45139</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28048,7 +28048,7 @@
         <v>45140</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28105,7 +28105,7 @@
         <v>45140</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28162,7 +28162,7 @@
         <v>45182</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>

--- a/Översikt ÄLMHULT.xlsx
+++ b/Översikt ÄLMHULT.xlsx
@@ -572,7 +572,7 @@
         <v>44067</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44830</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43424</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>43977</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>44049</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         <v>44663</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>43317</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>43318</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>43325</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1257,7 +1257,7 @@
         <v>43335</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>43339</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
         <v>43341</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1428,7 +1428,7 @@
         <v>43341</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>43343</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>43343</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         <v>43356</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>43357</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>43361</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>43368</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>43369</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>43369</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>43374</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43375</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43376</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>43385</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>43396</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>43399</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43411</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>43419</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>43419</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2454,7 +2454,7 @@
         <v>43419</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2511,7 +2511,7 @@
         <v>43423</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>43424</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>43425</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2682,7 +2682,7 @@
         <v>43430</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2739,7 +2739,7 @@
         <v>43430</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>43430</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>43432</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>43446</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>43447</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3024,7 +3024,7 @@
         <v>43451</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>43453</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>43453</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>43453</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>43453</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>43453</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>43454</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>43454</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>43455</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>43467</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3594,7 +3594,7 @@
         <v>43467</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3651,7 +3651,7 @@
         <v>43468</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3708,7 +3708,7 @@
         <v>43473</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         <v>43473</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
         <v>43473</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         <v>43473</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3936,7 +3936,7 @@
         <v>43475</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         <v>43479</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         <v>43481</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>43481</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>43483</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>43483</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>43483</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>43486</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>43488</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>43489</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>43501</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>43504</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>43504</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4677,7 +4677,7 @@
         <v>43504</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>43510</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4791,7 +4791,7 @@
         <v>43510</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4848,7 +4848,7 @@
         <v>43510</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>43510</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43514</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43514</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43514</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43517</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43522</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43524</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>43524</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5371,7 +5371,7 @@
         <v>43528</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5428,7 +5428,7 @@
         <v>43528</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5485,7 +5485,7 @@
         <v>43530</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5542,7 +5542,7 @@
         <v>43531</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5599,7 +5599,7 @@
         <v>43535</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5656,7 +5656,7 @@
         <v>43544</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5718,7 +5718,7 @@
         <v>43545</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5775,7 +5775,7 @@
         <v>43545</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5832,7 +5832,7 @@
         <v>43550</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5889,7 +5889,7 @@
         <v>43550</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43556</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
         <v>43563</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6060,7 +6060,7 @@
         <v>43569</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         <v>43569</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6174,7 +6174,7 @@
         <v>43571</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6231,7 +6231,7 @@
         <v>43579</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6288,7 +6288,7 @@
         <v>43579</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6345,7 +6345,7 @@
         <v>43579</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6402,7 +6402,7 @@
         <v>43585</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
         <v>43585</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6516,7 +6516,7 @@
         <v>43591</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6573,7 +6573,7 @@
         <v>43593</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6630,7 +6630,7 @@
         <v>43593</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         <v>43593</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6744,7 +6744,7 @@
         <v>43593</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6801,7 +6801,7 @@
         <v>43593</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6858,7 +6858,7 @@
         <v>43593</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6915,7 +6915,7 @@
         <v>43605</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6972,7 +6972,7 @@
         <v>43607</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         <v>43608</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7086,7 +7086,7 @@
         <v>43628</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7143,7 +7143,7 @@
         <v>43635</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>43642</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7257,7 +7257,7 @@
         <v>43649</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7314,7 +7314,7 @@
         <v>43649</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7371,7 +7371,7 @@
         <v>43649</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7428,7 +7428,7 @@
         <v>43649</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7485,7 +7485,7 @@
         <v>43650</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7542,7 +7542,7 @@
         <v>43665</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7599,7 +7599,7 @@
         <v>43681</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7656,7 +7656,7 @@
         <v>43682</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7713,7 +7713,7 @@
         <v>43683</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7770,7 +7770,7 @@
         <v>43690</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7827,7 +7827,7 @@
         <v>43690</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7884,7 +7884,7 @@
         <v>43693</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7941,7 +7941,7 @@
         <v>43697</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7998,7 +7998,7 @@
         <v>43697</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8055,7 +8055,7 @@
         <v>43700</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8112,7 +8112,7 @@
         <v>43703</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8169,7 +8169,7 @@
         <v>43704</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         <v>43711</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>43711</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>43711</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>43713</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>43714</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8511,7 +8511,7 @@
         <v>43724</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>43725</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>43728</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43731</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43731</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>43732</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>43732</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>43733</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>43739</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>43739</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>43740</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>43747</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9200,7 +9200,7 @@
         <v>43749</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9257,7 +9257,7 @@
         <v>43761</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9314,7 +9314,7 @@
         <v>43761</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>43763</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9428,7 +9428,7 @@
         <v>43773</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9485,7 +9485,7 @@
         <v>43773</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9542,7 +9542,7 @@
         <v>43773</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9599,7 +9599,7 @@
         <v>43775</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9656,7 +9656,7 @@
         <v>43775</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9713,7 +9713,7 @@
         <v>43788</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9770,7 +9770,7 @@
         <v>43791</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9827,7 +9827,7 @@
         <v>43795</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>43796</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>43796</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9998,7 +9998,7 @@
         <v>43798</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10055,7 +10055,7 @@
         <v>43798</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10112,7 +10112,7 @@
         <v>43801</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10169,7 +10169,7 @@
         <v>43804</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>43809</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10283,7 +10283,7 @@
         <v>43835</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10340,7 +10340,7 @@
         <v>43835</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10397,7 +10397,7 @@
         <v>43835</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10454,7 +10454,7 @@
         <v>43840</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10511,7 +10511,7 @@
         <v>43852</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>43853</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10625,7 +10625,7 @@
         <v>43853</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10682,7 +10682,7 @@
         <v>43860</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         <v>43873</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         <v>43878</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>43878</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>43879</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>43882</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>43882</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11081,7 +11081,7 @@
         <v>43887</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11138,7 +11138,7 @@
         <v>43892</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>43892</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11252,7 +11252,7 @@
         <v>43892</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
         <v>43892</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>43895</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11423,7 +11423,7 @@
         <v>43895</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11480,7 +11480,7 @@
         <v>43896</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11537,7 +11537,7 @@
         <v>43896</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         <v>43897</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         <v>43907</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>43908</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         <v>43908</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11822,7 +11822,7 @@
         <v>43909</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11879,7 +11879,7 @@
         <v>43913</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11941,7 +11941,7 @@
         <v>43915</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11998,7 +11998,7 @@
         <v>43915</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12055,7 +12055,7 @@
         <v>43917</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12112,7 +12112,7 @@
         <v>43920</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12169,7 +12169,7 @@
         <v>43921</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12226,7 +12226,7 @@
         <v>43926</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12283,7 +12283,7 @@
         <v>43936</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12340,7 +12340,7 @@
         <v>43965</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12397,7 +12397,7 @@
         <v>43965</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12454,7 +12454,7 @@
         <v>43965</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12511,7 +12511,7 @@
         <v>43965</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12568,7 +12568,7 @@
         <v>43966</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12625,7 +12625,7 @@
         <v>43967</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12682,7 +12682,7 @@
         <v>43977</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12739,7 +12739,7 @@
         <v>43980</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12796,7 +12796,7 @@
         <v>43994</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12853,7 +12853,7 @@
         <v>43999</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12910,7 +12910,7 @@
         <v>44008</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12967,7 +12967,7 @@
         <v>44026</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13024,7 +13024,7 @@
         <v>44035</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
         <v>44039</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>44039</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>44039</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13252,7 +13252,7 @@
         <v>44041</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13309,7 +13309,7 @@
         <v>44046</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13366,7 +13366,7 @@
         <v>44046</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13423,7 +13423,7 @@
         <v>44054</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13480,7 +13480,7 @@
         <v>44054</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13537,7 +13537,7 @@
         <v>44054</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13594,7 +13594,7 @@
         <v>44054</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13651,7 +13651,7 @@
         <v>44057</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13708,7 +13708,7 @@
         <v>44057</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13765,7 +13765,7 @@
         <v>44061</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13822,7 +13822,7 @@
         <v>44063</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13879,7 +13879,7 @@
         <v>44070</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13936,7 +13936,7 @@
         <v>44070</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -13993,7 +13993,7 @@
         <v>44075</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14050,7 +14050,7 @@
         <v>44078</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14107,7 +14107,7 @@
         <v>44090</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14164,7 +14164,7 @@
         <v>44090</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14221,7 +14221,7 @@
         <v>44096</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14278,7 +14278,7 @@
         <v>44096</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14335,7 +14335,7 @@
         <v>44098</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14392,7 +14392,7 @@
         <v>44104</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14449,7 +14449,7 @@
         <v>44106</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14506,7 +14506,7 @@
         <v>44106</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         <v>44108</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14620,7 +14620,7 @@
         <v>44109</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14677,7 +14677,7 @@
         <v>44110</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14734,7 +14734,7 @@
         <v>44111</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14791,7 +14791,7 @@
         <v>44111</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14848,7 +14848,7 @@
         <v>44112</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -14905,7 +14905,7 @@
         <v>44113</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -14962,7 +14962,7 @@
         <v>44116</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15019,7 +15019,7 @@
         <v>44117</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15076,7 +15076,7 @@
         <v>44117</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15133,7 +15133,7 @@
         <v>44148</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15190,7 +15190,7 @@
         <v>44152</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15247,7 +15247,7 @@
         <v>44153</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15304,7 +15304,7 @@
         <v>44153</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15361,7 +15361,7 @@
         <v>44153</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15418,7 +15418,7 @@
         <v>44153</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15475,7 +15475,7 @@
         <v>44153</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15532,7 +15532,7 @@
         <v>44154</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15589,7 +15589,7 @@
         <v>44154</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15651,7 +15651,7 @@
         <v>44154</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15713,7 +15713,7 @@
         <v>44158</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15770,7 +15770,7 @@
         <v>44158</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15827,7 +15827,7 @@
         <v>44159</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15884,7 +15884,7 @@
         <v>44160</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -15941,7 +15941,7 @@
         <v>44161</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -15998,7 +15998,7 @@
         <v>44161</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16055,7 +16055,7 @@
         <v>44162</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16112,7 +16112,7 @@
         <v>44174</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16169,7 +16169,7 @@
         <v>44175</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16226,7 +16226,7 @@
         <v>44182</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16283,7 +16283,7 @@
         <v>44183</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16340,7 +16340,7 @@
         <v>44187</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16402,7 +16402,7 @@
         <v>44192</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16459,7 +16459,7 @@
         <v>44209</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16516,7 +16516,7 @@
         <v>44211</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16573,7 +16573,7 @@
         <v>44221</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16630,7 +16630,7 @@
         <v>44221</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16687,7 +16687,7 @@
         <v>44221</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16744,7 +16744,7 @@
         <v>44221</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16801,7 +16801,7 @@
         <v>44221</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -16858,7 +16858,7 @@
         <v>44225</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -16915,7 +16915,7 @@
         <v>44228</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -16972,7 +16972,7 @@
         <v>44229</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17029,7 +17029,7 @@
         <v>44229</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17086,7 +17086,7 @@
         <v>44231</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17143,7 +17143,7 @@
         <v>44231</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17200,7 +17200,7 @@
         <v>44231</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17257,7 +17257,7 @@
         <v>44234</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17314,7 +17314,7 @@
         <v>44237</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         <v>44243</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17428,7 +17428,7 @@
         <v>44245</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17485,7 +17485,7 @@
         <v>44245</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17542,7 +17542,7 @@
         <v>44245</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17599,7 +17599,7 @@
         <v>44245</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17656,7 +17656,7 @@
         <v>44245</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17713,7 +17713,7 @@
         <v>44251</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17770,7 +17770,7 @@
         <v>44253</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -17827,7 +17827,7 @@
         <v>44277</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -17884,7 +17884,7 @@
         <v>44278</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -17941,7 +17941,7 @@
         <v>44280</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -17998,7 +17998,7 @@
         <v>44284</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18055,7 +18055,7 @@
         <v>44286</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18112,7 +18112,7 @@
         <v>44292</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18169,7 +18169,7 @@
         <v>44293</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18226,7 +18226,7 @@
         <v>44294</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18283,7 +18283,7 @@
         <v>44309</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18340,7 +18340,7 @@
         <v>44315</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18397,7 +18397,7 @@
         <v>44315</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18454,7 +18454,7 @@
         <v>44315</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18511,7 +18511,7 @@
         <v>44315</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>44316</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18625,7 +18625,7 @@
         <v>44320</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18682,7 +18682,7 @@
         <v>44321</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         <v>44335</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18801,7 +18801,7 @@
         <v>44344</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -18858,7 +18858,7 @@
         <v>44349</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -18915,7 +18915,7 @@
         <v>44384</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -18972,7 +18972,7 @@
         <v>44386</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19029,7 +19029,7 @@
         <v>44397</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19086,7 +19086,7 @@
         <v>44397</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19143,7 +19143,7 @@
         <v>44403</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19200,7 +19200,7 @@
         <v>44413</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19257,7 +19257,7 @@
         <v>44414</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19314,7 +19314,7 @@
         <v>44427</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19371,7 +19371,7 @@
         <v>44427</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19428,7 +19428,7 @@
         <v>44431</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19485,7 +19485,7 @@
         <v>44433</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19542,7 +19542,7 @@
         <v>44434</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19599,7 +19599,7 @@
         <v>44434</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19656,7 +19656,7 @@
         <v>44438</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19713,7 +19713,7 @@
         <v>44438</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -19770,7 +19770,7 @@
         <v>44438</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -19827,7 +19827,7 @@
         <v>44445</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -19884,7 +19884,7 @@
         <v>44446</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -19941,7 +19941,7 @@
         <v>44447</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -19998,7 +19998,7 @@
         <v>44447</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20055,7 +20055,7 @@
         <v>44448</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20112,7 +20112,7 @@
         <v>44448</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20169,7 +20169,7 @@
         <v>44449</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         <v>44459</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20283,7 +20283,7 @@
         <v>44460</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20340,7 +20340,7 @@
         <v>44477</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20397,7 +20397,7 @@
         <v>44477</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20454,7 +20454,7 @@
         <v>44477</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20511,7 +20511,7 @@
         <v>44482</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20568,7 +20568,7 @@
         <v>44487</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20625,7 +20625,7 @@
         <v>44496</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20682,7 +20682,7 @@
         <v>44496</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -20739,7 +20739,7 @@
         <v>44503</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -20796,7 +20796,7 @@
         <v>44503</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -20853,7 +20853,7 @@
         <v>44503</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -20910,7 +20910,7 @@
         <v>44504</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -20967,7 +20967,7 @@
         <v>44508</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21024,7 +21024,7 @@
         <v>44510</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21081,7 +21081,7 @@
         <v>44512</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21138,7 +21138,7 @@
         <v>44515</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21195,7 +21195,7 @@
         <v>44522</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21252,7 +21252,7 @@
         <v>44523</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21309,7 +21309,7 @@
         <v>44523</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21366,7 +21366,7 @@
         <v>44524</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21423,7 +21423,7 @@
         <v>44525</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21480,7 +21480,7 @@
         <v>44526</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21537,7 +21537,7 @@
         <v>44531</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21594,7 +21594,7 @@
         <v>44543</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21651,7 +21651,7 @@
         <v>44551</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21708,7 +21708,7 @@
         <v>44560</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -21765,7 +21765,7 @@
         <v>44587</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -21827,7 +21827,7 @@
         <v>44587</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -21884,7 +21884,7 @@
         <v>44596</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -21941,7 +21941,7 @@
         <v>44599</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -21998,7 +21998,7 @@
         <v>44623</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22055,7 +22055,7 @@
         <v>44634</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22112,7 +22112,7 @@
         <v>44636</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22169,7 +22169,7 @@
         <v>44641</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22226,7 +22226,7 @@
         <v>44648</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22283,7 +22283,7 @@
         <v>44657</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22340,7 +22340,7 @@
         <v>44663</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22397,7 +22397,7 @@
         <v>44663</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22454,7 +22454,7 @@
         <v>44665</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22516,7 +22516,7 @@
         <v>44698</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22573,7 +22573,7 @@
         <v>44739</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22630,7 +22630,7 @@
         <v>44749</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22687,7 +22687,7 @@
         <v>44757</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -22744,7 +22744,7 @@
         <v>44784</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -22806,7 +22806,7 @@
         <v>44784</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -22868,7 +22868,7 @@
         <v>44785</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -22925,7 +22925,7 @@
         <v>44785</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -22982,7 +22982,7 @@
         <v>44785</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23039,7 +23039,7 @@
         <v>44785</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23096,7 +23096,7 @@
         <v>44785</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23153,7 +23153,7 @@
         <v>44785</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23210,7 +23210,7 @@
         <v>44785</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23267,7 +23267,7 @@
         <v>44785</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23324,7 +23324,7 @@
         <v>44802</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23381,7 +23381,7 @@
         <v>44812</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23438,7 +23438,7 @@
         <v>44812</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23495,7 +23495,7 @@
         <v>44817</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23552,7 +23552,7 @@
         <v>44830</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23609,7 +23609,7 @@
         <v>44831</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23666,7 +23666,7 @@
         <v>44831</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -23723,7 +23723,7 @@
         <v>44832</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -23780,7 +23780,7 @@
         <v>44852</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -23837,7 +23837,7 @@
         <v>44854</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -23894,7 +23894,7 @@
         <v>44855</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -23951,7 +23951,7 @@
         <v>44855</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24008,7 +24008,7 @@
         <v>44858</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24065,7 +24065,7 @@
         <v>44858</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24122,7 +24122,7 @@
         <v>44859</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24179,7 +24179,7 @@
         <v>44861</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24236,7 +24236,7 @@
         <v>44862</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24293,7 +24293,7 @@
         <v>44864</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24350,7 +24350,7 @@
         <v>44865</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24407,7 +24407,7 @@
         <v>44865</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24464,7 +24464,7 @@
         <v>44865</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24521,7 +24521,7 @@
         <v>44883</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24578,7 +24578,7 @@
         <v>44897</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24635,7 +24635,7 @@
         <v>44897</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -24692,7 +24692,7 @@
         <v>44897</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -24749,7 +24749,7 @@
         <v>44897</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -24806,7 +24806,7 @@
         <v>44911</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -24863,7 +24863,7 @@
         <v>44921</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -24920,7 +24920,7 @@
         <v>44922</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -24977,7 +24977,7 @@
         <v>44942</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25034,7 +25034,7 @@
         <v>44942</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25091,7 +25091,7 @@
         <v>44942</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25148,7 +25148,7 @@
         <v>44942</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25205,7 +25205,7 @@
         <v>44942</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25262,7 +25262,7 @@
         <v>44942</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25319,7 +25319,7 @@
         <v>44956</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25381,7 +25381,7 @@
         <v>44962</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25438,7 +25438,7 @@
         <v>44973</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25495,7 +25495,7 @@
         <v>44977</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25557,7 +25557,7 @@
         <v>44986</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25619,7 +25619,7 @@
         <v>44986</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -25676,7 +25676,7 @@
         <v>44992</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -25733,7 +25733,7 @@
         <v>44994</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -25790,7 +25790,7 @@
         <v>44994</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -25847,7 +25847,7 @@
         <v>44994</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -25904,7 +25904,7 @@
         <v>44994</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -25961,7 +25961,7 @@
         <v>44998</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26023,7 +26023,7 @@
         <v>45001</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26080,7 +26080,7 @@
         <v>45002</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26137,7 +26137,7 @@
         <v>45006</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26199,7 +26199,7 @@
         <v>45009</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26256,7 +26256,7 @@
         <v>45009</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26313,7 +26313,7 @@
         <v>45012</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26370,7 +26370,7 @@
         <v>45019</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26427,7 +26427,7 @@
         <v>45028</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26489,7 +26489,7 @@
         <v>45044</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26546,7 +26546,7 @@
         <v>45049</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26603,7 +26603,7 @@
         <v>45051</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26660,7 +26660,7 @@
         <v>45054</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -26717,7 +26717,7 @@
         <v>45056</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -26774,7 +26774,7 @@
         <v>45056</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -26831,7 +26831,7 @@
         <v>45061</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -26888,7 +26888,7 @@
         <v>45062</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -26945,7 +26945,7 @@
         <v>45062</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27002,7 +27002,7 @@
         <v>45076</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27059,7 +27059,7 @@
         <v>45076</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27116,7 +27116,7 @@
         <v>45078</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27173,7 +27173,7 @@
         <v>45078</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27230,7 +27230,7 @@
         <v>45078</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27287,7 +27287,7 @@
         <v>45078</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27344,7 +27344,7 @@
         <v>45078</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27401,7 +27401,7 @@
         <v>45081</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27458,7 +27458,7 @@
         <v>45084</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27515,7 +27515,7 @@
         <v>45085</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27572,7 +27572,7 @@
         <v>45090</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27629,7 +27629,7 @@
         <v>45092</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -27686,7 +27686,7 @@
         <v>45098</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -27763,7 +27763,7 @@
         <v>45104</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -27820,7 +27820,7 @@
         <v>45111</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -27877,7 +27877,7 @@
         <v>45118</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -27934,7 +27934,7 @@
         <v>45132</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -27991,7 +27991,7 @@
         <v>45139</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28048,7 +28048,7 @@
         <v>45140</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28105,7 +28105,7 @@
         <v>45140</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28162,7 +28162,7 @@
         <v>45182</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>

--- a/Översikt ÄLMHULT.xlsx
+++ b/Översikt ÄLMHULT.xlsx
@@ -572,7 +572,7 @@
         <v>44067</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44830</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43424</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>43977</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>44049</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         <v>44663</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>43317</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>43318</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>43325</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1257,7 +1257,7 @@
         <v>43335</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>43339</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
         <v>43341</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1428,7 +1428,7 @@
         <v>43341</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>43343</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>43343</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         <v>43356</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>43357</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>43361</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>43368</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>43369</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>43369</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>43374</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43375</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43376</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>43385</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>43396</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>43399</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43411</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>43419</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>43419</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2454,7 +2454,7 @@
         <v>43419</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2511,7 +2511,7 @@
         <v>43423</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>43424</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>43425</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2682,7 +2682,7 @@
         <v>43430</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2739,7 +2739,7 @@
         <v>43430</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>43430</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>43432</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>43446</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>43447</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3024,7 +3024,7 @@
         <v>43451</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>43453</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>43453</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>43453</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>43453</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>43453</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>43454</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>43454</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>43455</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>43467</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3594,7 +3594,7 @@
         <v>43467</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3651,7 +3651,7 @@
         <v>43468</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3708,7 +3708,7 @@
         <v>43473</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         <v>43473</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
         <v>43473</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         <v>43473</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3936,7 +3936,7 @@
         <v>43475</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         <v>43479</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         <v>43481</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>43481</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>43483</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>43483</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>43483</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>43486</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>43488</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>43489</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>43501</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>43504</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>43504</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4677,7 +4677,7 @@
         <v>43504</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>43510</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4791,7 +4791,7 @@
         <v>43510</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4848,7 +4848,7 @@
         <v>43510</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>43510</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43514</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43514</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43514</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43517</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43522</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43524</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>43524</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5371,7 +5371,7 @@
         <v>43528</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5428,7 +5428,7 @@
         <v>43528</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5485,7 +5485,7 @@
         <v>43530</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5542,7 +5542,7 @@
         <v>43531</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5599,7 +5599,7 @@
         <v>43535</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5656,7 +5656,7 @@
         <v>43544</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5718,7 +5718,7 @@
         <v>43545</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5775,7 +5775,7 @@
         <v>43545</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5832,7 +5832,7 @@
         <v>43550</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5889,7 +5889,7 @@
         <v>43550</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43556</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
         <v>43563</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6060,7 +6060,7 @@
         <v>43569</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         <v>43569</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6174,7 +6174,7 @@
         <v>43571</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6231,7 +6231,7 @@
         <v>43579</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6288,7 +6288,7 @@
         <v>43579</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6345,7 +6345,7 @@
         <v>43579</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6402,7 +6402,7 @@
         <v>43585</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
         <v>43585</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6516,7 +6516,7 @@
         <v>43591</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6573,7 +6573,7 @@
         <v>43593</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6630,7 +6630,7 @@
         <v>43593</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         <v>43593</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6744,7 +6744,7 @@
         <v>43593</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6801,7 +6801,7 @@
         <v>43593</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6858,7 +6858,7 @@
         <v>43593</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6915,7 +6915,7 @@
         <v>43605</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6972,7 +6972,7 @@
         <v>43607</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         <v>43608</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7086,7 +7086,7 @@
         <v>43628</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7143,7 +7143,7 @@
         <v>43635</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>43642</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7257,7 +7257,7 @@
         <v>43649</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7314,7 +7314,7 @@
         <v>43649</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7371,7 +7371,7 @@
         <v>43649</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7428,7 +7428,7 @@
         <v>43649</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7485,7 +7485,7 @@
         <v>43650</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7542,7 +7542,7 @@
         <v>43665</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7599,7 +7599,7 @@
         <v>43681</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7656,7 +7656,7 @@
         <v>43682</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7713,7 +7713,7 @@
         <v>43683</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7770,7 +7770,7 @@
         <v>43690</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7827,7 +7827,7 @@
         <v>43690</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7884,7 +7884,7 @@
         <v>43693</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7941,7 +7941,7 @@
         <v>43697</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7998,7 +7998,7 @@
         <v>43697</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8055,7 +8055,7 @@
         <v>43700</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8112,7 +8112,7 @@
         <v>43703</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8169,7 +8169,7 @@
         <v>43704</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         <v>43711</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>43711</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>43711</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>43713</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>43714</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8511,7 +8511,7 @@
         <v>43724</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>43725</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>43728</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43731</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43731</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>43732</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>43732</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>43733</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>43739</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>43739</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>43740</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>43747</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9200,7 +9200,7 @@
         <v>43749</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9257,7 +9257,7 @@
         <v>43761</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9314,7 +9314,7 @@
         <v>43761</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>43763</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9428,7 +9428,7 @@
         <v>43773</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9485,7 +9485,7 @@
         <v>43773</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9542,7 +9542,7 @@
         <v>43773</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9599,7 +9599,7 @@
         <v>43775</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9656,7 +9656,7 @@
         <v>43775</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9713,7 +9713,7 @@
         <v>43788</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9770,7 +9770,7 @@
         <v>43791</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9827,7 +9827,7 @@
         <v>43795</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>43796</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>43796</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9998,7 +9998,7 @@
         <v>43798</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10055,7 +10055,7 @@
         <v>43798</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10112,7 +10112,7 @@
         <v>43801</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10169,7 +10169,7 @@
         <v>43804</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>43809</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10283,7 +10283,7 @@
         <v>43835</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10340,7 +10340,7 @@
         <v>43835</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10397,7 +10397,7 @@
         <v>43835</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10454,7 +10454,7 @@
         <v>43840</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10511,7 +10511,7 @@
         <v>43852</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>43853</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10625,7 +10625,7 @@
         <v>43853</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10682,7 +10682,7 @@
         <v>43860</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         <v>43873</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         <v>43878</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>43878</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>43879</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>43882</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>43882</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11081,7 +11081,7 @@
         <v>43887</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11138,7 +11138,7 @@
         <v>43892</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>43892</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11252,7 +11252,7 @@
         <v>43892</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
         <v>43892</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>43895</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11423,7 +11423,7 @@
         <v>43895</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11480,7 +11480,7 @@
         <v>43896</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11537,7 +11537,7 @@
         <v>43896</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         <v>43897</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         <v>43907</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>43908</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         <v>43908</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11822,7 +11822,7 @@
         <v>43909</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11879,7 +11879,7 @@
         <v>43913</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11941,7 +11941,7 @@
         <v>43915</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11998,7 +11998,7 @@
         <v>43915</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12055,7 +12055,7 @@
         <v>43917</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12112,7 +12112,7 @@
         <v>43920</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12169,7 +12169,7 @@
         <v>43921</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12226,7 +12226,7 @@
         <v>43926</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12283,7 +12283,7 @@
         <v>43936</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12340,7 +12340,7 @@
         <v>43965</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12397,7 +12397,7 @@
         <v>43965</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12454,7 +12454,7 @@
         <v>43965</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12511,7 +12511,7 @@
         <v>43965</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12568,7 +12568,7 @@
         <v>43966</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12625,7 +12625,7 @@
         <v>43967</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12682,7 +12682,7 @@
         <v>43977</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12739,7 +12739,7 @@
         <v>43980</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12796,7 +12796,7 @@
         <v>43994</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12853,7 +12853,7 @@
         <v>43999</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12910,7 +12910,7 @@
         <v>44008</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12967,7 +12967,7 @@
         <v>44026</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13024,7 +13024,7 @@
         <v>44035</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
         <v>44039</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>44039</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>44039</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13252,7 +13252,7 @@
         <v>44041</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13309,7 +13309,7 @@
         <v>44046</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13366,7 +13366,7 @@
         <v>44046</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13423,7 +13423,7 @@
         <v>44054</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13480,7 +13480,7 @@
         <v>44054</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13537,7 +13537,7 @@
         <v>44054</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13594,7 +13594,7 @@
         <v>44054</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13651,7 +13651,7 @@
         <v>44057</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13708,7 +13708,7 @@
         <v>44057</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13765,7 +13765,7 @@
         <v>44061</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13822,7 +13822,7 @@
         <v>44063</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13879,7 +13879,7 @@
         <v>44070</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13936,7 +13936,7 @@
         <v>44070</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -13993,7 +13993,7 @@
         <v>44075</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14050,7 +14050,7 @@
         <v>44078</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14107,7 +14107,7 @@
         <v>44090</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14164,7 +14164,7 @@
         <v>44090</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14221,7 +14221,7 @@
         <v>44096</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14278,7 +14278,7 @@
         <v>44096</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14335,7 +14335,7 @@
         <v>44098</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14392,7 +14392,7 @@
         <v>44104</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14449,7 +14449,7 @@
         <v>44106</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14506,7 +14506,7 @@
         <v>44106</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         <v>44108</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14620,7 +14620,7 @@
         <v>44109</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14677,7 +14677,7 @@
         <v>44110</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14734,7 +14734,7 @@
         <v>44111</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14791,7 +14791,7 @@
         <v>44111</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14848,7 +14848,7 @@
         <v>44112</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -14905,7 +14905,7 @@
         <v>44113</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -14962,7 +14962,7 @@
         <v>44116</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15019,7 +15019,7 @@
         <v>44117</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15076,7 +15076,7 @@
         <v>44117</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15133,7 +15133,7 @@
         <v>44148</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15190,7 +15190,7 @@
         <v>44152</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15247,7 +15247,7 @@
         <v>44153</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15304,7 +15304,7 @@
         <v>44153</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15361,7 +15361,7 @@
         <v>44153</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15418,7 +15418,7 @@
         <v>44153</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15475,7 +15475,7 @@
         <v>44153</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15532,7 +15532,7 @@
         <v>44154</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15589,7 +15589,7 @@
         <v>44154</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15651,7 +15651,7 @@
         <v>44154</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15713,7 +15713,7 @@
         <v>44158</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15770,7 +15770,7 @@
         <v>44158</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15827,7 +15827,7 @@
         <v>44159</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15884,7 +15884,7 @@
         <v>44160</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -15941,7 +15941,7 @@
         <v>44161</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -15998,7 +15998,7 @@
         <v>44161</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16055,7 +16055,7 @@
         <v>44162</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16112,7 +16112,7 @@
         <v>44174</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16169,7 +16169,7 @@
         <v>44175</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16226,7 +16226,7 @@
         <v>44182</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16283,7 +16283,7 @@
         <v>44183</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16340,7 +16340,7 @@
         <v>44187</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16402,7 +16402,7 @@
         <v>44192</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16459,7 +16459,7 @@
         <v>44209</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16516,7 +16516,7 @@
         <v>44211</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16573,7 +16573,7 @@
         <v>44221</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16630,7 +16630,7 @@
         <v>44221</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16687,7 +16687,7 @@
         <v>44221</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16744,7 +16744,7 @@
         <v>44221</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16801,7 +16801,7 @@
         <v>44221</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -16858,7 +16858,7 @@
         <v>44225</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -16915,7 +16915,7 @@
         <v>44228</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -16972,7 +16972,7 @@
         <v>44229</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17029,7 +17029,7 @@
         <v>44229</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17086,7 +17086,7 @@
         <v>44231</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17143,7 +17143,7 @@
         <v>44231</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17200,7 +17200,7 @@
         <v>44231</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17257,7 +17257,7 @@
         <v>44234</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17314,7 +17314,7 @@
         <v>44237</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         <v>44243</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17428,7 +17428,7 @@
         <v>44245</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17485,7 +17485,7 @@
         <v>44245</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17542,7 +17542,7 @@
         <v>44245</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17599,7 +17599,7 @@
         <v>44245</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17656,7 +17656,7 @@
         <v>44245</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17713,7 +17713,7 @@
         <v>44251</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17770,7 +17770,7 @@
         <v>44253</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -17827,7 +17827,7 @@
         <v>44277</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -17884,7 +17884,7 @@
         <v>44278</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -17941,7 +17941,7 @@
         <v>44280</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -17998,7 +17998,7 @@
         <v>44284</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18055,7 +18055,7 @@
         <v>44286</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18112,7 +18112,7 @@
         <v>44292</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18169,7 +18169,7 @@
         <v>44293</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18226,7 +18226,7 @@
         <v>44294</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18283,7 +18283,7 @@
         <v>44309</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18340,7 +18340,7 @@
         <v>44315</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18397,7 +18397,7 @@
         <v>44315</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18454,7 +18454,7 @@
         <v>44315</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18511,7 +18511,7 @@
         <v>44315</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>44316</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18625,7 +18625,7 @@
         <v>44320</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18682,7 +18682,7 @@
         <v>44321</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         <v>44335</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18801,7 +18801,7 @@
         <v>44344</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -18858,7 +18858,7 @@
         <v>44349</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -18915,7 +18915,7 @@
         <v>44384</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -18972,7 +18972,7 @@
         <v>44386</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19029,7 +19029,7 @@
         <v>44397</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19086,7 +19086,7 @@
         <v>44397</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19143,7 +19143,7 @@
         <v>44403</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19200,7 +19200,7 @@
         <v>44413</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19257,7 +19257,7 @@
         <v>44414</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19314,7 +19314,7 @@
         <v>44427</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19371,7 +19371,7 @@
         <v>44427</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19428,7 +19428,7 @@
         <v>44431</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19485,7 +19485,7 @@
         <v>44433</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19542,7 +19542,7 @@
         <v>44434</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19599,7 +19599,7 @@
         <v>44434</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19656,7 +19656,7 @@
         <v>44438</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19713,7 +19713,7 @@
         <v>44438</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -19770,7 +19770,7 @@
         <v>44438</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -19827,7 +19827,7 @@
         <v>44445</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -19884,7 +19884,7 @@
         <v>44446</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -19941,7 +19941,7 @@
         <v>44447</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -19998,7 +19998,7 @@
         <v>44447</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20055,7 +20055,7 @@
         <v>44448</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20112,7 +20112,7 @@
         <v>44448</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20169,7 +20169,7 @@
         <v>44449</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         <v>44459</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20283,7 +20283,7 @@
         <v>44460</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20340,7 +20340,7 @@
         <v>44477</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20397,7 +20397,7 @@
         <v>44477</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20454,7 +20454,7 @@
         <v>44477</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20511,7 +20511,7 @@
         <v>44482</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20568,7 +20568,7 @@
         <v>44487</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20625,7 +20625,7 @@
         <v>44496</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20682,7 +20682,7 @@
         <v>44496</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -20739,7 +20739,7 @@
         <v>44503</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -20796,7 +20796,7 @@
         <v>44503</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -20853,7 +20853,7 @@
         <v>44503</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -20910,7 +20910,7 @@
         <v>44504</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -20967,7 +20967,7 @@
         <v>44508</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21024,7 +21024,7 @@
         <v>44510</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21081,7 +21081,7 @@
         <v>44512</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21138,7 +21138,7 @@
         <v>44515</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21195,7 +21195,7 @@
         <v>44522</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21252,7 +21252,7 @@
         <v>44523</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21309,7 +21309,7 @@
         <v>44523</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21366,7 +21366,7 @@
         <v>44524</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21423,7 +21423,7 @@
         <v>44525</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21480,7 +21480,7 @@
         <v>44526</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21537,7 +21537,7 @@
         <v>44531</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21594,7 +21594,7 @@
         <v>44543</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21651,7 +21651,7 @@
         <v>44551</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21708,7 +21708,7 @@
         <v>44560</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -21765,7 +21765,7 @@
         <v>44587</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -21827,7 +21827,7 @@
         <v>44587</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -21884,7 +21884,7 @@
         <v>44596</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -21941,7 +21941,7 @@
         <v>44599</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -21998,7 +21998,7 @@
         <v>44623</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22055,7 +22055,7 @@
         <v>44634</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22112,7 +22112,7 @@
         <v>44636</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22169,7 +22169,7 @@
         <v>44641</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22226,7 +22226,7 @@
         <v>44648</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22283,7 +22283,7 @@
         <v>44657</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22340,7 +22340,7 @@
         <v>44663</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22397,7 +22397,7 @@
         <v>44663</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22454,7 +22454,7 @@
         <v>44665</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22516,7 +22516,7 @@
         <v>44698</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22573,7 +22573,7 @@
         <v>44739</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22630,7 +22630,7 @@
         <v>44749</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22687,7 +22687,7 @@
         <v>44757</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -22744,7 +22744,7 @@
         <v>44784</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -22806,7 +22806,7 @@
         <v>44784</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -22868,7 +22868,7 @@
         <v>44785</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -22925,7 +22925,7 @@
         <v>44785</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -22982,7 +22982,7 @@
         <v>44785</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23039,7 +23039,7 @@
         <v>44785</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23096,7 +23096,7 @@
         <v>44785</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23153,7 +23153,7 @@
         <v>44785</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23210,7 +23210,7 @@
         <v>44785</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23267,7 +23267,7 @@
         <v>44785</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23324,7 +23324,7 @@
         <v>44802</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23381,7 +23381,7 @@
         <v>44812</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23438,7 +23438,7 @@
         <v>44812</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23495,7 +23495,7 @@
         <v>44817</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23552,7 +23552,7 @@
         <v>44830</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23609,7 +23609,7 @@
         <v>44831</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23666,7 +23666,7 @@
         <v>44831</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -23723,7 +23723,7 @@
         <v>44832</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -23780,7 +23780,7 @@
         <v>44852</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -23837,7 +23837,7 @@
         <v>44854</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -23894,7 +23894,7 @@
         <v>44855</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -23951,7 +23951,7 @@
         <v>44855</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24008,7 +24008,7 @@
         <v>44858</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24065,7 +24065,7 @@
         <v>44858</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24122,7 +24122,7 @@
         <v>44859</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24179,7 +24179,7 @@
         <v>44861</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24236,7 +24236,7 @@
         <v>44862</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24293,7 +24293,7 @@
         <v>44864</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24350,7 +24350,7 @@
         <v>44865</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24407,7 +24407,7 @@
         <v>44865</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24464,7 +24464,7 @@
         <v>44865</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24521,7 +24521,7 @@
         <v>44883</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24578,7 +24578,7 @@
         <v>44897</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24635,7 +24635,7 @@
         <v>44897</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -24692,7 +24692,7 @@
         <v>44897</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -24749,7 +24749,7 @@
         <v>44897</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -24806,7 +24806,7 @@
         <v>44911</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -24863,7 +24863,7 @@
         <v>44921</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -24920,7 +24920,7 @@
         <v>44922</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -24977,7 +24977,7 @@
         <v>44942</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25034,7 +25034,7 @@
         <v>44942</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25091,7 +25091,7 @@
         <v>44942</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25148,7 +25148,7 @@
         <v>44942</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25205,7 +25205,7 @@
         <v>44942</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25262,7 +25262,7 @@
         <v>44942</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25319,7 +25319,7 @@
         <v>44956</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25381,7 +25381,7 @@
         <v>44962</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25438,7 +25438,7 @@
         <v>44973</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25495,7 +25495,7 @@
         <v>44977</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25557,7 +25557,7 @@
         <v>44986</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25619,7 +25619,7 @@
         <v>44986</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -25676,7 +25676,7 @@
         <v>44992</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -25733,7 +25733,7 @@
         <v>44994</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -25790,7 +25790,7 @@
         <v>44994</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -25847,7 +25847,7 @@
         <v>44994</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -25904,7 +25904,7 @@
         <v>44994</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -25961,7 +25961,7 @@
         <v>44998</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26023,7 +26023,7 @@
         <v>45001</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26080,7 +26080,7 @@
         <v>45002</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26137,7 +26137,7 @@
         <v>45006</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26199,7 +26199,7 @@
         <v>45009</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26256,7 +26256,7 @@
         <v>45009</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26313,7 +26313,7 @@
         <v>45012</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26370,7 +26370,7 @@
         <v>45019</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26427,7 +26427,7 @@
         <v>45028</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26489,7 +26489,7 @@
         <v>45044</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26546,7 +26546,7 @@
         <v>45049</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26603,7 +26603,7 @@
         <v>45051</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26660,7 +26660,7 @@
         <v>45054</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -26717,7 +26717,7 @@
         <v>45056</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -26774,7 +26774,7 @@
         <v>45056</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -26831,7 +26831,7 @@
         <v>45061</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -26888,7 +26888,7 @@
         <v>45062</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -26945,7 +26945,7 @@
         <v>45062</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27002,7 +27002,7 @@
         <v>45076</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27059,7 +27059,7 @@
         <v>45076</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27116,7 +27116,7 @@
         <v>45078</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27173,7 +27173,7 @@
         <v>45078</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27230,7 +27230,7 @@
         <v>45078</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27287,7 +27287,7 @@
         <v>45078</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27344,7 +27344,7 @@
         <v>45078</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27401,7 +27401,7 @@
         <v>45081</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27458,7 +27458,7 @@
         <v>45084</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27515,7 +27515,7 @@
         <v>45085</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27572,7 +27572,7 @@
         <v>45090</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27629,7 +27629,7 @@
         <v>45092</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -27686,7 +27686,7 @@
         <v>45098</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -27763,7 +27763,7 @@
         <v>45104</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -27820,7 +27820,7 @@
         <v>45111</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -27877,7 +27877,7 @@
         <v>45118</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -27934,7 +27934,7 @@
         <v>45132</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -27991,7 +27991,7 @@
         <v>45139</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28048,7 +28048,7 @@
         <v>45140</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28105,7 +28105,7 @@
         <v>45140</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28162,7 +28162,7 @@
         <v>45182</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>

--- a/Översikt ÄLMHULT.xlsx
+++ b/Översikt ÄLMHULT.xlsx
@@ -572,7 +572,7 @@
         <v>44067</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44830</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43424</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>43977</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>44049</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         <v>44663</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>43317</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>43318</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>43325</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1257,7 +1257,7 @@
         <v>43335</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>43339</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
         <v>43341</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1428,7 +1428,7 @@
         <v>43341</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>43343</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>43343</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         <v>43356</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>43357</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>43361</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>43368</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>43369</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>43369</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>43374</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43375</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43376</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>43385</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>43396</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>43399</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43411</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>43419</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>43419</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2454,7 +2454,7 @@
         <v>43419</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2511,7 +2511,7 @@
         <v>43423</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>43424</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>43425</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2682,7 +2682,7 @@
         <v>43430</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2739,7 +2739,7 @@
         <v>43430</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>43430</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>43432</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>43446</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>43447</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3024,7 +3024,7 @@
         <v>43451</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>43453</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>43453</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>43453</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>43453</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>43453</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>43454</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>43454</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>43455</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>43467</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3594,7 +3594,7 @@
         <v>43467</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3651,7 +3651,7 @@
         <v>43468</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3708,7 +3708,7 @@
         <v>43473</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         <v>43473</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
         <v>43473</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         <v>43473</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3936,7 +3936,7 @@
         <v>43475</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         <v>43479</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         <v>43481</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>43481</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>43483</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>43483</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>43483</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>43486</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>43488</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>43489</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>43501</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>43504</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>43504</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4677,7 +4677,7 @@
         <v>43504</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>43510</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4791,7 +4791,7 @@
         <v>43510</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4848,7 +4848,7 @@
         <v>43510</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>43510</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43514</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43514</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43514</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43517</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43522</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43524</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>43524</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5371,7 +5371,7 @@
         <v>43528</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5428,7 +5428,7 @@
         <v>43528</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5485,7 +5485,7 @@
         <v>43530</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5542,7 +5542,7 @@
         <v>43531</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5599,7 +5599,7 @@
         <v>43535</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5656,7 +5656,7 @@
         <v>43544</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5718,7 +5718,7 @@
         <v>43545</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5775,7 +5775,7 @@
         <v>43545</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5832,7 +5832,7 @@
         <v>43550</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5889,7 +5889,7 @@
         <v>43550</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43556</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
         <v>43563</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6060,7 +6060,7 @@
         <v>43569</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         <v>43569</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6174,7 +6174,7 @@
         <v>43571</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6231,7 +6231,7 @@
         <v>43579</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6288,7 +6288,7 @@
         <v>43579</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6345,7 +6345,7 @@
         <v>43579</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6402,7 +6402,7 @@
         <v>43585</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
         <v>43585</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6516,7 +6516,7 @@
         <v>43591</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6573,7 +6573,7 @@
         <v>43593</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6630,7 +6630,7 @@
         <v>43593</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         <v>43593</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6744,7 +6744,7 @@
         <v>43593</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6801,7 +6801,7 @@
         <v>43593</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6858,7 +6858,7 @@
         <v>43593</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6915,7 +6915,7 @@
         <v>43605</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6972,7 +6972,7 @@
         <v>43607</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         <v>43608</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7086,7 +7086,7 @@
         <v>43628</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7143,7 +7143,7 @@
         <v>43635</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>43642</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7257,7 +7257,7 @@
         <v>43649</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7314,7 +7314,7 @@
         <v>43649</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7371,7 +7371,7 @@
         <v>43649</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7428,7 +7428,7 @@
         <v>43649</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7485,7 +7485,7 @@
         <v>43650</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7542,7 +7542,7 @@
         <v>43665</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7599,7 +7599,7 @@
         <v>43681</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7656,7 +7656,7 @@
         <v>43682</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7713,7 +7713,7 @@
         <v>43683</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7770,7 +7770,7 @@
         <v>43690</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7827,7 +7827,7 @@
         <v>43690</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7884,7 +7884,7 @@
         <v>43693</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7941,7 +7941,7 @@
         <v>43697</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7998,7 +7998,7 @@
         <v>43697</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8055,7 +8055,7 @@
         <v>43700</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8112,7 +8112,7 @@
         <v>43703</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8169,7 +8169,7 @@
         <v>43704</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         <v>43711</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>43711</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>43711</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>43713</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>43714</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8511,7 +8511,7 @@
         <v>43724</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>43725</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>43728</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43731</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43731</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>43732</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>43732</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>43733</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>43739</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>43739</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>43740</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>43747</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9200,7 +9200,7 @@
         <v>43749</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9257,7 +9257,7 @@
         <v>43761</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9314,7 +9314,7 @@
         <v>43761</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>43763</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9428,7 +9428,7 @@
         <v>43773</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9485,7 +9485,7 @@
         <v>43773</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9542,7 +9542,7 @@
         <v>43773</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9599,7 +9599,7 @@
         <v>43775</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9656,7 +9656,7 @@
         <v>43775</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9713,7 +9713,7 @@
         <v>43788</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9770,7 +9770,7 @@
         <v>43791</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9827,7 +9827,7 @@
         <v>43795</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>43796</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>43796</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9998,7 +9998,7 @@
         <v>43798</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10055,7 +10055,7 @@
         <v>43798</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10112,7 +10112,7 @@
         <v>43801</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10169,7 +10169,7 @@
         <v>43804</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>43809</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10283,7 +10283,7 @@
         <v>43835</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10340,7 +10340,7 @@
         <v>43835</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10397,7 +10397,7 @@
         <v>43835</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10454,7 +10454,7 @@
         <v>43840</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10511,7 +10511,7 @@
         <v>43852</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>43853</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10625,7 +10625,7 @@
         <v>43853</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10682,7 +10682,7 @@
         <v>43860</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         <v>43873</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         <v>43878</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>43878</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>43879</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>43882</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>43882</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11081,7 +11081,7 @@
         <v>43887</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11138,7 +11138,7 @@
         <v>43892</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>43892</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11252,7 +11252,7 @@
         <v>43892</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
         <v>43892</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>43895</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11423,7 +11423,7 @@
         <v>43895</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11480,7 +11480,7 @@
         <v>43896</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11537,7 +11537,7 @@
         <v>43896</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         <v>43897</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         <v>43907</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>43908</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         <v>43908</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11822,7 +11822,7 @@
         <v>43909</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11879,7 +11879,7 @@
         <v>43913</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11941,7 +11941,7 @@
         <v>43915</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11998,7 +11998,7 @@
         <v>43915</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12055,7 +12055,7 @@
         <v>43917</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12112,7 +12112,7 @@
         <v>43920</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12169,7 +12169,7 @@
         <v>43921</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12226,7 +12226,7 @@
         <v>43926</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12283,7 +12283,7 @@
         <v>43936</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12340,7 +12340,7 @@
         <v>43965</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12397,7 +12397,7 @@
         <v>43965</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12454,7 +12454,7 @@
         <v>43965</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12511,7 +12511,7 @@
         <v>43965</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12568,7 +12568,7 @@
         <v>43966</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12625,7 +12625,7 @@
         <v>43967</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12682,7 +12682,7 @@
         <v>43977</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12739,7 +12739,7 @@
         <v>43980</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12796,7 +12796,7 @@
         <v>43994</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12853,7 +12853,7 @@
         <v>43999</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12910,7 +12910,7 @@
         <v>44008</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12967,7 +12967,7 @@
         <v>44026</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13024,7 +13024,7 @@
         <v>44035</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
         <v>44039</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>44039</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>44039</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13252,7 +13252,7 @@
         <v>44041</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13309,7 +13309,7 @@
         <v>44046</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13366,7 +13366,7 @@
         <v>44046</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13423,7 +13423,7 @@
         <v>44054</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13480,7 +13480,7 @@
         <v>44054</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13537,7 +13537,7 @@
         <v>44054</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13594,7 +13594,7 @@
         <v>44054</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13651,7 +13651,7 @@
         <v>44057</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13708,7 +13708,7 @@
         <v>44057</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13765,7 +13765,7 @@
         <v>44061</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13822,7 +13822,7 @@
         <v>44063</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13879,7 +13879,7 @@
         <v>44070</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13936,7 +13936,7 @@
         <v>44070</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -13993,7 +13993,7 @@
         <v>44075</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14050,7 +14050,7 @@
         <v>44078</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14107,7 +14107,7 @@
         <v>44090</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14164,7 +14164,7 @@
         <v>44090</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14221,7 +14221,7 @@
         <v>44096</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14278,7 +14278,7 @@
         <v>44096</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14335,7 +14335,7 @@
         <v>44098</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14392,7 +14392,7 @@
         <v>44104</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14449,7 +14449,7 @@
         <v>44106</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14506,7 +14506,7 @@
         <v>44106</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         <v>44108</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14620,7 +14620,7 @@
         <v>44109</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14677,7 +14677,7 @@
         <v>44110</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14734,7 +14734,7 @@
         <v>44111</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14791,7 +14791,7 @@
         <v>44111</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14848,7 +14848,7 @@
         <v>44112</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -14905,7 +14905,7 @@
         <v>44113</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -14962,7 +14962,7 @@
         <v>44116</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15019,7 +15019,7 @@
         <v>44117</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15076,7 +15076,7 @@
         <v>44117</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15133,7 +15133,7 @@
         <v>44148</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15190,7 +15190,7 @@
         <v>44152</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15247,7 +15247,7 @@
         <v>44153</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15304,7 +15304,7 @@
         <v>44153</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15361,7 +15361,7 @@
         <v>44153</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15418,7 +15418,7 @@
         <v>44153</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15475,7 +15475,7 @@
         <v>44153</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15532,7 +15532,7 @@
         <v>44154</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15589,7 +15589,7 @@
         <v>44154</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15651,7 +15651,7 @@
         <v>44154</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15713,7 +15713,7 @@
         <v>44158</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15770,7 +15770,7 @@
         <v>44158</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15827,7 +15827,7 @@
         <v>44159</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15884,7 +15884,7 @@
         <v>44160</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -15941,7 +15941,7 @@
         <v>44161</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -15998,7 +15998,7 @@
         <v>44161</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16055,7 +16055,7 @@
         <v>44162</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16112,7 +16112,7 @@
         <v>44174</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16169,7 +16169,7 @@
         <v>44175</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16226,7 +16226,7 @@
         <v>44182</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16283,7 +16283,7 @@
         <v>44183</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16340,7 +16340,7 @@
         <v>44187</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16402,7 +16402,7 @@
         <v>44192</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16459,7 +16459,7 @@
         <v>44209</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16516,7 +16516,7 @@
         <v>44211</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16573,7 +16573,7 @@
         <v>44221</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16630,7 +16630,7 @@
         <v>44221</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16687,7 +16687,7 @@
         <v>44221</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16744,7 +16744,7 @@
         <v>44221</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16801,7 +16801,7 @@
         <v>44221</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -16858,7 +16858,7 @@
         <v>44225</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -16915,7 +16915,7 @@
         <v>44228</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -16972,7 +16972,7 @@
         <v>44229</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17029,7 +17029,7 @@
         <v>44229</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17086,7 +17086,7 @@
         <v>44231</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17143,7 +17143,7 @@
         <v>44231</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17200,7 +17200,7 @@
         <v>44231</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17257,7 +17257,7 @@
         <v>44234</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17314,7 +17314,7 @@
         <v>44237</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         <v>44243</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17428,7 +17428,7 @@
         <v>44245</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17485,7 +17485,7 @@
         <v>44245</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17542,7 +17542,7 @@
         <v>44245</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17599,7 +17599,7 @@
         <v>44245</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17656,7 +17656,7 @@
         <v>44245</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17713,7 +17713,7 @@
         <v>44251</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17770,7 +17770,7 @@
         <v>44253</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -17827,7 +17827,7 @@
         <v>44277</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -17884,7 +17884,7 @@
         <v>44278</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -17941,7 +17941,7 @@
         <v>44280</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -17998,7 +17998,7 @@
         <v>44284</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18055,7 +18055,7 @@
         <v>44286</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18112,7 +18112,7 @@
         <v>44292</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18169,7 +18169,7 @@
         <v>44293</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18226,7 +18226,7 @@
         <v>44294</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18283,7 +18283,7 @@
         <v>44309</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18340,7 +18340,7 @@
         <v>44315</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18397,7 +18397,7 @@
         <v>44315</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18454,7 +18454,7 @@
         <v>44315</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18511,7 +18511,7 @@
         <v>44315</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>44316</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18625,7 +18625,7 @@
         <v>44320</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18682,7 +18682,7 @@
         <v>44321</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         <v>44335</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18801,7 +18801,7 @@
         <v>44344</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -18858,7 +18858,7 @@
         <v>44349</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -18915,7 +18915,7 @@
         <v>44384</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -18972,7 +18972,7 @@
         <v>44386</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19029,7 +19029,7 @@
         <v>44397</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19086,7 +19086,7 @@
         <v>44397</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19143,7 +19143,7 @@
         <v>44403</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19200,7 +19200,7 @@
         <v>44413</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19257,7 +19257,7 @@
         <v>44414</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19314,7 +19314,7 @@
         <v>44427</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19371,7 +19371,7 @@
         <v>44427</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19428,7 +19428,7 @@
         <v>44431</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19485,7 +19485,7 @@
         <v>44433</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19542,7 +19542,7 @@
         <v>44434</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19599,7 +19599,7 @@
         <v>44434</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19656,7 +19656,7 @@
         <v>44438</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19713,7 +19713,7 @@
         <v>44438</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -19770,7 +19770,7 @@
         <v>44438</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -19827,7 +19827,7 @@
         <v>44445</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -19884,7 +19884,7 @@
         <v>44446</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -19941,7 +19941,7 @@
         <v>44447</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -19998,7 +19998,7 @@
         <v>44447</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20055,7 +20055,7 @@
         <v>44448</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20112,7 +20112,7 @@
         <v>44448</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20169,7 +20169,7 @@
         <v>44449</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         <v>44459</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20283,7 +20283,7 @@
         <v>44460</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20340,7 +20340,7 @@
         <v>44477</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20397,7 +20397,7 @@
         <v>44477</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20454,7 +20454,7 @@
         <v>44477</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20511,7 +20511,7 @@
         <v>44482</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20568,7 +20568,7 @@
         <v>44487</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20625,7 +20625,7 @@
         <v>44496</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20682,7 +20682,7 @@
         <v>44496</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -20739,7 +20739,7 @@
         <v>44503</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -20796,7 +20796,7 @@
         <v>44503</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -20853,7 +20853,7 @@
         <v>44503</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -20910,7 +20910,7 @@
         <v>44504</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -20967,7 +20967,7 @@
         <v>44508</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21024,7 +21024,7 @@
         <v>44510</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21081,7 +21081,7 @@
         <v>44512</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21138,7 +21138,7 @@
         <v>44515</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21195,7 +21195,7 @@
         <v>44522</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21252,7 +21252,7 @@
         <v>44523</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21309,7 +21309,7 @@
         <v>44523</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21366,7 +21366,7 @@
         <v>44524</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21423,7 +21423,7 @@
         <v>44525</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21480,7 +21480,7 @@
         <v>44526</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21537,7 +21537,7 @@
         <v>44531</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21594,7 +21594,7 @@
         <v>44543</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21651,7 +21651,7 @@
         <v>44551</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21708,7 +21708,7 @@
         <v>44560</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -21765,7 +21765,7 @@
         <v>44587</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -21827,7 +21827,7 @@
         <v>44587</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -21884,7 +21884,7 @@
         <v>44596</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -21941,7 +21941,7 @@
         <v>44599</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -21998,7 +21998,7 @@
         <v>44623</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22055,7 +22055,7 @@
         <v>44634</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22112,7 +22112,7 @@
         <v>44636</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22169,7 +22169,7 @@
         <v>44641</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22226,7 +22226,7 @@
         <v>44648</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22283,7 +22283,7 @@
         <v>44657</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22340,7 +22340,7 @@
         <v>44663</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22397,7 +22397,7 @@
         <v>44663</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22454,7 +22454,7 @@
         <v>44665</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22516,7 +22516,7 @@
         <v>44698</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22573,7 +22573,7 @@
         <v>44739</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22630,7 +22630,7 @@
         <v>44749</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22687,7 +22687,7 @@
         <v>44757</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -22744,7 +22744,7 @@
         <v>44784</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -22806,7 +22806,7 @@
         <v>44784</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -22868,7 +22868,7 @@
         <v>44785</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -22925,7 +22925,7 @@
         <v>44785</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -22982,7 +22982,7 @@
         <v>44785</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23039,7 +23039,7 @@
         <v>44785</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23096,7 +23096,7 @@
         <v>44785</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23153,7 +23153,7 @@
         <v>44785</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23210,7 +23210,7 @@
         <v>44785</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23267,7 +23267,7 @@
         <v>44785</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23324,7 +23324,7 @@
         <v>44802</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23381,7 +23381,7 @@
         <v>44812</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23438,7 +23438,7 @@
         <v>44812</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23495,7 +23495,7 @@
         <v>44817</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23552,7 +23552,7 @@
         <v>44830</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23609,7 +23609,7 @@
         <v>44831</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23666,7 +23666,7 @@
         <v>44831</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -23723,7 +23723,7 @@
         <v>44832</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -23780,7 +23780,7 @@
         <v>44852</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -23837,7 +23837,7 @@
         <v>44854</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -23894,7 +23894,7 @@
         <v>44855</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -23951,7 +23951,7 @@
         <v>44855</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24008,7 +24008,7 @@
         <v>44858</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24065,7 +24065,7 @@
         <v>44858</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24122,7 +24122,7 @@
         <v>44859</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24179,7 +24179,7 @@
         <v>44861</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24236,7 +24236,7 @@
         <v>44862</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24293,7 +24293,7 @@
         <v>44864</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24350,7 +24350,7 @@
         <v>44865</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24407,7 +24407,7 @@
         <v>44865</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24464,7 +24464,7 @@
         <v>44865</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24521,7 +24521,7 @@
         <v>44883</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24578,7 +24578,7 @@
         <v>44897</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24635,7 +24635,7 @@
         <v>44897</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -24692,7 +24692,7 @@
         <v>44897</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -24749,7 +24749,7 @@
         <v>44897</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -24806,7 +24806,7 @@
         <v>44911</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -24863,7 +24863,7 @@
         <v>44921</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -24920,7 +24920,7 @@
         <v>44922</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -24977,7 +24977,7 @@
         <v>44942</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25034,7 +25034,7 @@
         <v>44942</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25091,7 +25091,7 @@
         <v>44942</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25148,7 +25148,7 @@
         <v>44942</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25205,7 +25205,7 @@
         <v>44942</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25262,7 +25262,7 @@
         <v>44942</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25319,7 +25319,7 @@
         <v>44956</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25381,7 +25381,7 @@
         <v>44962</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25438,7 +25438,7 @@
         <v>44973</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25495,7 +25495,7 @@
         <v>44977</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25557,7 +25557,7 @@
         <v>44986</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25619,7 +25619,7 @@
         <v>44986</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -25676,7 +25676,7 @@
         <v>44992</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -25733,7 +25733,7 @@
         <v>44994</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -25790,7 +25790,7 @@
         <v>44994</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -25847,7 +25847,7 @@
         <v>44994</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -25904,7 +25904,7 @@
         <v>44994</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -25961,7 +25961,7 @@
         <v>44998</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26023,7 +26023,7 @@
         <v>45001</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26080,7 +26080,7 @@
         <v>45002</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26137,7 +26137,7 @@
         <v>45006</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26199,7 +26199,7 @@
         <v>45009</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26256,7 +26256,7 @@
         <v>45009</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26313,7 +26313,7 @@
         <v>45012</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26370,7 +26370,7 @@
         <v>45019</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26427,7 +26427,7 @@
         <v>45028</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26489,7 +26489,7 @@
         <v>45044</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26546,7 +26546,7 @@
         <v>45049</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26603,7 +26603,7 @@
         <v>45051</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26660,7 +26660,7 @@
         <v>45054</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -26717,7 +26717,7 @@
         <v>45056</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -26774,7 +26774,7 @@
         <v>45056</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -26831,7 +26831,7 @@
         <v>45061</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -26888,7 +26888,7 @@
         <v>45062</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -26945,7 +26945,7 @@
         <v>45062</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27002,7 +27002,7 @@
         <v>45076</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27059,7 +27059,7 @@
         <v>45076</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27116,7 +27116,7 @@
         <v>45078</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27173,7 +27173,7 @@
         <v>45078</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27230,7 +27230,7 @@
         <v>45078</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27287,7 +27287,7 @@
         <v>45078</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27344,7 +27344,7 @@
         <v>45078</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27401,7 +27401,7 @@
         <v>45081</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27458,7 +27458,7 @@
         <v>45084</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27515,7 +27515,7 @@
         <v>45085</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27572,7 +27572,7 @@
         <v>45090</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27629,7 +27629,7 @@
         <v>45092</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -27686,7 +27686,7 @@
         <v>45098</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -27763,7 +27763,7 @@
         <v>45104</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -27820,7 +27820,7 @@
         <v>45111</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -27877,7 +27877,7 @@
         <v>45118</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -27934,7 +27934,7 @@
         <v>45132</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -27991,7 +27991,7 @@
         <v>45139</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28048,7 +28048,7 @@
         <v>45140</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28105,7 +28105,7 @@
         <v>45140</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28162,7 +28162,7 @@
         <v>45182</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>

--- a/Översikt ÄLMHULT.xlsx
+++ b/Översikt ÄLMHULT.xlsx
@@ -572,7 +572,7 @@
         <v>44067</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44830</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43424</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>43977</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>44049</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         <v>44663</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>43317</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>43318</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>43325</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1257,7 +1257,7 @@
         <v>43335</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>43339</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
         <v>43341</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1428,7 +1428,7 @@
         <v>43341</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>43343</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>43343</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         <v>43356</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>43357</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>43361</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>43368</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>43369</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>43369</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>43374</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43375</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43376</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>43385</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>43396</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>43399</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43411</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>43419</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>43419</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2454,7 +2454,7 @@
         <v>43419</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2511,7 +2511,7 @@
         <v>43423</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>43424</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>43425</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2682,7 +2682,7 @@
         <v>43430</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2739,7 +2739,7 @@
         <v>43430</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>43430</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>43432</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>43446</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>43447</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3024,7 +3024,7 @@
         <v>43451</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>43453</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>43453</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>43453</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>43453</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>43453</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>43454</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>43454</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>43455</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>43467</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3594,7 +3594,7 @@
         <v>43467</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3651,7 +3651,7 @@
         <v>43468</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3708,7 +3708,7 @@
         <v>43473</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         <v>43473</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
         <v>43473</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         <v>43473</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3936,7 +3936,7 @@
         <v>43475</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         <v>43479</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         <v>43481</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>43481</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>43483</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>43483</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>43483</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>43486</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>43488</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>43489</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>43501</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>43504</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>43504</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4677,7 +4677,7 @@
         <v>43504</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>43510</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4791,7 +4791,7 @@
         <v>43510</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4848,7 +4848,7 @@
         <v>43510</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>43510</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43514</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43514</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43514</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43517</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43522</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43524</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>43524</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5371,7 +5371,7 @@
         <v>43528</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5428,7 +5428,7 @@
         <v>43528</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5485,7 +5485,7 @@
         <v>43530</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5542,7 +5542,7 @@
         <v>43531</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5599,7 +5599,7 @@
         <v>43535</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5656,7 +5656,7 @@
         <v>43544</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5718,7 +5718,7 @@
         <v>43545</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5775,7 +5775,7 @@
         <v>43545</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5832,7 +5832,7 @@
         <v>43550</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5889,7 +5889,7 @@
         <v>43550</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43556</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
         <v>43563</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6060,7 +6060,7 @@
         <v>43569</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         <v>43569</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6174,7 +6174,7 @@
         <v>43571</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6231,7 +6231,7 @@
         <v>43579</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6288,7 +6288,7 @@
         <v>43579</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6345,7 +6345,7 @@
         <v>43579</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6402,7 +6402,7 @@
         <v>43585</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
         <v>43585</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6516,7 +6516,7 @@
         <v>43591</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6573,7 +6573,7 @@
         <v>43593</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6630,7 +6630,7 @@
         <v>43593</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         <v>43593</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6744,7 +6744,7 @@
         <v>43593</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6801,7 +6801,7 @@
         <v>43593</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6858,7 +6858,7 @@
         <v>43593</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6915,7 +6915,7 @@
         <v>43605</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6972,7 +6972,7 @@
         <v>43607</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         <v>43608</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7086,7 +7086,7 @@
         <v>43628</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7143,7 +7143,7 @@
         <v>43635</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>43642</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7257,7 +7257,7 @@
         <v>43649</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7314,7 +7314,7 @@
         <v>43649</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7371,7 +7371,7 @@
         <v>43649</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7428,7 +7428,7 @@
         <v>43649</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7485,7 +7485,7 @@
         <v>43650</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7542,7 +7542,7 @@
         <v>43665</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7599,7 +7599,7 @@
         <v>43681</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7656,7 +7656,7 @@
         <v>43682</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7713,7 +7713,7 @@
         <v>43683</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7770,7 +7770,7 @@
         <v>43690</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7827,7 +7827,7 @@
         <v>43690</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7884,7 +7884,7 @@
         <v>43693</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7941,7 +7941,7 @@
         <v>43697</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7998,7 +7998,7 @@
         <v>43697</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8055,7 +8055,7 @@
         <v>43700</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8112,7 +8112,7 @@
         <v>43703</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8169,7 +8169,7 @@
         <v>43704</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         <v>43711</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>43711</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>43711</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>43713</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>43714</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8511,7 +8511,7 @@
         <v>43724</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>43725</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>43728</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43731</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43731</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>43732</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>43732</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>43733</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>43739</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>43739</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>43740</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>43747</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9200,7 +9200,7 @@
         <v>43749</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9257,7 +9257,7 @@
         <v>43761</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9314,7 +9314,7 @@
         <v>43761</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>43763</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9428,7 +9428,7 @@
         <v>43773</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9485,7 +9485,7 @@
         <v>43773</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9542,7 +9542,7 @@
         <v>43773</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9599,7 +9599,7 @@
         <v>43775</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9656,7 +9656,7 @@
         <v>43775</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9713,7 +9713,7 @@
         <v>43788</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9770,7 +9770,7 @@
         <v>43791</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9827,7 +9827,7 @@
         <v>43795</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>43796</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>43796</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9998,7 +9998,7 @@
         <v>43798</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10055,7 +10055,7 @@
         <v>43798</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10112,7 +10112,7 @@
         <v>43801</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10169,7 +10169,7 @@
         <v>43804</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>43809</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10283,7 +10283,7 @@
         <v>43835</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10340,7 +10340,7 @@
         <v>43835</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10397,7 +10397,7 @@
         <v>43835</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10454,7 +10454,7 @@
         <v>43840</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10511,7 +10511,7 @@
         <v>43852</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>43853</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10625,7 +10625,7 @@
         <v>43853</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10682,7 +10682,7 @@
         <v>43860</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         <v>43873</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         <v>43878</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>43878</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>43879</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>43882</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>43882</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11081,7 +11081,7 @@
         <v>43887</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11138,7 +11138,7 @@
         <v>43892</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>43892</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11252,7 +11252,7 @@
         <v>43892</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
         <v>43892</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>43895</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11423,7 +11423,7 @@
         <v>43895</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11480,7 +11480,7 @@
         <v>43896</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11537,7 +11537,7 @@
         <v>43896</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         <v>43897</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         <v>43907</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>43908</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         <v>43908</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11822,7 +11822,7 @@
         <v>43909</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11879,7 +11879,7 @@
         <v>43913</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11941,7 +11941,7 @@
         <v>43915</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11998,7 +11998,7 @@
         <v>43915</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12055,7 +12055,7 @@
         <v>43917</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12112,7 +12112,7 @@
         <v>43920</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12169,7 +12169,7 @@
         <v>43921</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12226,7 +12226,7 @@
         <v>43926</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12283,7 +12283,7 @@
         <v>43936</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12340,7 +12340,7 @@
         <v>43965</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12397,7 +12397,7 @@
         <v>43965</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12454,7 +12454,7 @@
         <v>43965</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12511,7 +12511,7 @@
         <v>43965</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12568,7 +12568,7 @@
         <v>43966</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12625,7 +12625,7 @@
         <v>43967</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12682,7 +12682,7 @@
         <v>43977</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12739,7 +12739,7 @@
         <v>43980</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12796,7 +12796,7 @@
         <v>43994</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12853,7 +12853,7 @@
         <v>43999</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12910,7 +12910,7 @@
         <v>44008</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12967,7 +12967,7 @@
         <v>44026</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13024,7 +13024,7 @@
         <v>44035</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
         <v>44039</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>44039</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>44039</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13252,7 +13252,7 @@
         <v>44041</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13309,7 +13309,7 @@
         <v>44046</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13366,7 +13366,7 @@
         <v>44046</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13423,7 +13423,7 @@
         <v>44054</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13480,7 +13480,7 @@
         <v>44054</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13537,7 +13537,7 @@
         <v>44054</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13594,7 +13594,7 @@
         <v>44054</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13651,7 +13651,7 @@
         <v>44057</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13708,7 +13708,7 @@
         <v>44057</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13765,7 +13765,7 @@
         <v>44061</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13822,7 +13822,7 @@
         <v>44063</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13879,7 +13879,7 @@
         <v>44070</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13936,7 +13936,7 @@
         <v>44070</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -13993,7 +13993,7 @@
         <v>44075</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14050,7 +14050,7 @@
         <v>44078</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14107,7 +14107,7 @@
         <v>44090</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14164,7 +14164,7 @@
         <v>44090</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14221,7 +14221,7 @@
         <v>44096</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14278,7 +14278,7 @@
         <v>44096</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14335,7 +14335,7 @@
         <v>44098</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14392,7 +14392,7 @@
         <v>44104</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14449,7 +14449,7 @@
         <v>44106</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14506,7 +14506,7 @@
         <v>44106</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         <v>44108</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14620,7 +14620,7 @@
         <v>44109</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14677,7 +14677,7 @@
         <v>44110</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14734,7 +14734,7 @@
         <v>44111</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14791,7 +14791,7 @@
         <v>44111</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14848,7 +14848,7 @@
         <v>44112</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -14905,7 +14905,7 @@
         <v>44113</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -14962,7 +14962,7 @@
         <v>44116</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15019,7 +15019,7 @@
         <v>44117</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15076,7 +15076,7 @@
         <v>44117</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15133,7 +15133,7 @@
         <v>44148</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15190,7 +15190,7 @@
         <v>44152</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15247,7 +15247,7 @@
         <v>44153</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15304,7 +15304,7 @@
         <v>44153</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15361,7 +15361,7 @@
         <v>44153</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15418,7 +15418,7 @@
         <v>44153</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15475,7 +15475,7 @@
         <v>44153</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15532,7 +15532,7 @@
         <v>44154</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15589,7 +15589,7 @@
         <v>44154</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15651,7 +15651,7 @@
         <v>44154</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15713,7 +15713,7 @@
         <v>44158</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15770,7 +15770,7 @@
         <v>44158</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15827,7 +15827,7 @@
         <v>44159</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15884,7 +15884,7 @@
         <v>44160</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -15941,7 +15941,7 @@
         <v>44161</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -15998,7 +15998,7 @@
         <v>44161</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16055,7 +16055,7 @@
         <v>44162</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16112,7 +16112,7 @@
         <v>44174</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16169,7 +16169,7 @@
         <v>44175</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16226,7 +16226,7 @@
         <v>44182</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16283,7 +16283,7 @@
         <v>44183</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16340,7 +16340,7 @@
         <v>44187</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16402,7 +16402,7 @@
         <v>44192</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16459,7 +16459,7 @@
         <v>44209</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16516,7 +16516,7 @@
         <v>44211</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16573,7 +16573,7 @@
         <v>44221</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16630,7 +16630,7 @@
         <v>44221</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16687,7 +16687,7 @@
         <v>44221</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16744,7 +16744,7 @@
         <v>44221</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16801,7 +16801,7 @@
         <v>44221</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -16858,7 +16858,7 @@
         <v>44225</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -16915,7 +16915,7 @@
         <v>44228</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -16972,7 +16972,7 @@
         <v>44229</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17029,7 +17029,7 @@
         <v>44229</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17086,7 +17086,7 @@
         <v>44231</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17143,7 +17143,7 @@
         <v>44231</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17200,7 +17200,7 @@
         <v>44231</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17257,7 +17257,7 @@
         <v>44234</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17314,7 +17314,7 @@
         <v>44237</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         <v>44243</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17428,7 +17428,7 @@
         <v>44245</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17485,7 +17485,7 @@
         <v>44245</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17542,7 +17542,7 @@
         <v>44245</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17599,7 +17599,7 @@
         <v>44245</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17656,7 +17656,7 @@
         <v>44245</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17713,7 +17713,7 @@
         <v>44251</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17770,7 +17770,7 @@
         <v>44253</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -17827,7 +17827,7 @@
         <v>44277</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -17884,7 +17884,7 @@
         <v>44278</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -17941,7 +17941,7 @@
         <v>44280</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -17998,7 +17998,7 @@
         <v>44284</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18055,7 +18055,7 @@
         <v>44286</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18112,7 +18112,7 @@
         <v>44292</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18169,7 +18169,7 @@
         <v>44293</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18226,7 +18226,7 @@
         <v>44294</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18283,7 +18283,7 @@
         <v>44309</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18340,7 +18340,7 @@
         <v>44315</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18397,7 +18397,7 @@
         <v>44315</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18454,7 +18454,7 @@
         <v>44315</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18511,7 +18511,7 @@
         <v>44315</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>44316</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18625,7 +18625,7 @@
         <v>44320</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18682,7 +18682,7 @@
         <v>44321</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         <v>44335</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18801,7 +18801,7 @@
         <v>44344</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -18858,7 +18858,7 @@
         <v>44349</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -18915,7 +18915,7 @@
         <v>44384</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -18972,7 +18972,7 @@
         <v>44386</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19029,7 +19029,7 @@
         <v>44397</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19086,7 +19086,7 @@
         <v>44397</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19143,7 +19143,7 @@
         <v>44403</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19200,7 +19200,7 @@
         <v>44413</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19257,7 +19257,7 @@
         <v>44414</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19314,7 +19314,7 @@
         <v>44427</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19371,7 +19371,7 @@
         <v>44427</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19428,7 +19428,7 @@
         <v>44431</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19485,7 +19485,7 @@
         <v>44433</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19542,7 +19542,7 @@
         <v>44434</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19599,7 +19599,7 @@
         <v>44434</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19656,7 +19656,7 @@
         <v>44438</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19713,7 +19713,7 @@
         <v>44438</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -19770,7 +19770,7 @@
         <v>44438</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -19827,7 +19827,7 @@
         <v>44445</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -19884,7 +19884,7 @@
         <v>44446</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -19941,7 +19941,7 @@
         <v>44447</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -19998,7 +19998,7 @@
         <v>44447</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20055,7 +20055,7 @@
         <v>44448</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20112,7 +20112,7 @@
         <v>44448</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20169,7 +20169,7 @@
         <v>44449</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         <v>44459</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20283,7 +20283,7 @@
         <v>44460</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20340,7 +20340,7 @@
         <v>44477</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20397,7 +20397,7 @@
         <v>44477</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20454,7 +20454,7 @@
         <v>44477</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20511,7 +20511,7 @@
         <v>44482</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20568,7 +20568,7 @@
         <v>44487</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20625,7 +20625,7 @@
         <v>44496</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20682,7 +20682,7 @@
         <v>44496</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -20739,7 +20739,7 @@
         <v>44503</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -20796,7 +20796,7 @@
         <v>44503</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -20853,7 +20853,7 @@
         <v>44503</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -20910,7 +20910,7 @@
         <v>44504</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -20967,7 +20967,7 @@
         <v>44508</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21024,7 +21024,7 @@
         <v>44510</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21081,7 +21081,7 @@
         <v>44512</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21138,7 +21138,7 @@
         <v>44515</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21195,7 +21195,7 @@
         <v>44522</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21252,7 +21252,7 @@
         <v>44523</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21309,7 +21309,7 @@
         <v>44523</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21366,7 +21366,7 @@
         <v>44524</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21423,7 +21423,7 @@
         <v>44525</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21480,7 +21480,7 @@
         <v>44526</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21537,7 +21537,7 @@
         <v>44531</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21594,7 +21594,7 @@
         <v>44543</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21651,7 +21651,7 @@
         <v>44551</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21708,7 +21708,7 @@
         <v>44560</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -21765,7 +21765,7 @@
         <v>44587</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -21827,7 +21827,7 @@
         <v>44587</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -21884,7 +21884,7 @@
         <v>44596</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -21941,7 +21941,7 @@
         <v>44599</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -21998,7 +21998,7 @@
         <v>44623</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22055,7 +22055,7 @@
         <v>44634</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22112,7 +22112,7 @@
         <v>44636</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22169,7 +22169,7 @@
         <v>44641</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22226,7 +22226,7 @@
         <v>44648</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22283,7 +22283,7 @@
         <v>44657</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22340,7 +22340,7 @@
         <v>44663</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22397,7 +22397,7 @@
         <v>44663</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22454,7 +22454,7 @@
         <v>44665</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22516,7 +22516,7 @@
         <v>44698</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22573,7 +22573,7 @@
         <v>44739</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22630,7 +22630,7 @@
         <v>44749</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22687,7 +22687,7 @@
         <v>44757</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -22744,7 +22744,7 @@
         <v>44784</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -22806,7 +22806,7 @@
         <v>44784</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -22868,7 +22868,7 @@
         <v>44785</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -22925,7 +22925,7 @@
         <v>44785</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -22982,7 +22982,7 @@
         <v>44785</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23039,7 +23039,7 @@
         <v>44785</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23096,7 +23096,7 @@
         <v>44785</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23153,7 +23153,7 @@
         <v>44785</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23210,7 +23210,7 @@
         <v>44785</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23267,7 +23267,7 @@
         <v>44785</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23324,7 +23324,7 @@
         <v>44802</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23381,7 +23381,7 @@
         <v>44812</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23438,7 +23438,7 @@
         <v>44812</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23495,7 +23495,7 @@
         <v>44817</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23552,7 +23552,7 @@
         <v>44830</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23609,7 +23609,7 @@
         <v>44831</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23666,7 +23666,7 @@
         <v>44831</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -23723,7 +23723,7 @@
         <v>44832</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -23780,7 +23780,7 @@
         <v>44852</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -23837,7 +23837,7 @@
         <v>44854</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -23894,7 +23894,7 @@
         <v>44855</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -23951,7 +23951,7 @@
         <v>44855</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24008,7 +24008,7 @@
         <v>44858</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24065,7 +24065,7 @@
         <v>44858</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24122,7 +24122,7 @@
         <v>44859</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24179,7 +24179,7 @@
         <v>44861</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24236,7 +24236,7 @@
         <v>44862</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24293,7 +24293,7 @@
         <v>44864</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24350,7 +24350,7 @@
         <v>44865</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24407,7 +24407,7 @@
         <v>44865</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24464,7 +24464,7 @@
         <v>44865</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24521,7 +24521,7 @@
         <v>44883</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24578,7 +24578,7 @@
         <v>44897</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24635,7 +24635,7 @@
         <v>44897</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -24692,7 +24692,7 @@
         <v>44897</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -24749,7 +24749,7 @@
         <v>44897</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -24806,7 +24806,7 @@
         <v>44911</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -24863,7 +24863,7 @@
         <v>44921</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -24920,7 +24920,7 @@
         <v>44922</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -24977,7 +24977,7 @@
         <v>44942</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25034,7 +25034,7 @@
         <v>44942</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25091,7 +25091,7 @@
         <v>44942</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25148,7 +25148,7 @@
         <v>44942</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25205,7 +25205,7 @@
         <v>44942</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25262,7 +25262,7 @@
         <v>44942</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25319,7 +25319,7 @@
         <v>44956</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25381,7 +25381,7 @@
         <v>44962</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25438,7 +25438,7 @@
         <v>44973</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25495,7 +25495,7 @@
         <v>44977</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25557,7 +25557,7 @@
         <v>44986</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25619,7 +25619,7 @@
         <v>44986</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -25676,7 +25676,7 @@
         <v>44992</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -25733,7 +25733,7 @@
         <v>44994</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -25790,7 +25790,7 @@
         <v>44994</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -25847,7 +25847,7 @@
         <v>44994</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -25904,7 +25904,7 @@
         <v>44994</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -25961,7 +25961,7 @@
         <v>44998</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26023,7 +26023,7 @@
         <v>45001</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26080,7 +26080,7 @@
         <v>45002</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26137,7 +26137,7 @@
         <v>45006</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26199,7 +26199,7 @@
         <v>45009</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26256,7 +26256,7 @@
         <v>45009</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26313,7 +26313,7 @@
         <v>45012</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26370,7 +26370,7 @@
         <v>45019</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26427,7 +26427,7 @@
         <v>45028</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26489,7 +26489,7 @@
         <v>45044</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26546,7 +26546,7 @@
         <v>45049</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26603,7 +26603,7 @@
         <v>45051</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26660,7 +26660,7 @@
         <v>45054</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -26717,7 +26717,7 @@
         <v>45056</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -26774,7 +26774,7 @@
         <v>45056</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -26831,7 +26831,7 @@
         <v>45061</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -26888,7 +26888,7 @@
         <v>45062</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -26945,7 +26945,7 @@
         <v>45062</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27002,7 +27002,7 @@
         <v>45076</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27059,7 +27059,7 @@
         <v>45076</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27116,7 +27116,7 @@
         <v>45078</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27173,7 +27173,7 @@
         <v>45078</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27230,7 +27230,7 @@
         <v>45078</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27287,7 +27287,7 @@
         <v>45078</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27344,7 +27344,7 @@
         <v>45078</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27401,7 +27401,7 @@
         <v>45081</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27458,7 +27458,7 @@
         <v>45084</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27515,7 +27515,7 @@
         <v>45085</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27572,7 +27572,7 @@
         <v>45090</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27629,7 +27629,7 @@
         <v>45092</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -27686,7 +27686,7 @@
         <v>45098</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -27763,7 +27763,7 @@
         <v>45104</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -27820,7 +27820,7 @@
         <v>45111</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -27877,7 +27877,7 @@
         <v>45118</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -27934,7 +27934,7 @@
         <v>45132</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -27991,7 +27991,7 @@
         <v>45139</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28048,7 +28048,7 @@
         <v>45140</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28105,7 +28105,7 @@
         <v>45140</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28162,7 +28162,7 @@
         <v>45182</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>

--- a/Översikt ÄLMHULT.xlsx
+++ b/Översikt ÄLMHULT.xlsx
@@ -572,7 +572,7 @@
         <v>44067</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44830</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43424</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>43977</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>44049</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         <v>44663</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>43317</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>43318</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>43325</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1257,7 +1257,7 @@
         <v>43335</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>43339</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
         <v>43341</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1428,7 +1428,7 @@
         <v>43341</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>43343</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>43343</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         <v>43356</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>43357</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>43361</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>43368</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>43369</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>43369</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>43374</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43375</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43376</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>43385</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>43396</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>43399</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43411</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>43419</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>43419</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2454,7 +2454,7 @@
         <v>43419</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2511,7 +2511,7 @@
         <v>43423</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>43424</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>43425</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2682,7 +2682,7 @@
         <v>43430</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2739,7 +2739,7 @@
         <v>43430</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>43430</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>43432</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>43446</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>43447</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3024,7 +3024,7 @@
         <v>43451</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>43453</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>43453</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>43453</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>43453</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>43453</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>43454</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>43454</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>43455</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>43467</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3594,7 +3594,7 @@
         <v>43467</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3651,7 +3651,7 @@
         <v>43468</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3708,7 +3708,7 @@
         <v>43473</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         <v>43473</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
         <v>43473</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         <v>43473</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3936,7 +3936,7 @@
         <v>43475</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         <v>43479</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         <v>43481</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>43481</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>43483</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>43483</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>43483</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>43486</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>43488</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>43489</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>43501</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>43504</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>43504</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4677,7 +4677,7 @@
         <v>43504</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>43510</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4791,7 +4791,7 @@
         <v>43510</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4848,7 +4848,7 @@
         <v>43510</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>43510</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43514</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43514</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43514</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43517</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43522</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43524</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>43524</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5371,7 +5371,7 @@
         <v>43528</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5428,7 +5428,7 @@
         <v>43528</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5485,7 +5485,7 @@
         <v>43530</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5542,7 +5542,7 @@
         <v>43531</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5599,7 +5599,7 @@
         <v>43535</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5656,7 +5656,7 @@
         <v>43544</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5718,7 +5718,7 @@
         <v>43545</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5775,7 +5775,7 @@
         <v>43545</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5832,7 +5832,7 @@
         <v>43550</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5889,7 +5889,7 @@
         <v>43550</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43556</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
         <v>43563</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6060,7 +6060,7 @@
         <v>43569</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         <v>43569</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6174,7 +6174,7 @@
         <v>43571</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6231,7 +6231,7 @@
         <v>43579</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6288,7 +6288,7 @@
         <v>43579</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6345,7 +6345,7 @@
         <v>43579</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6402,7 +6402,7 @@
         <v>43585</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
         <v>43585</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6516,7 +6516,7 @@
         <v>43591</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6573,7 +6573,7 @@
         <v>43593</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6630,7 +6630,7 @@
         <v>43593</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         <v>43593</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6744,7 +6744,7 @@
         <v>43593</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6801,7 +6801,7 @@
         <v>43593</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6858,7 +6858,7 @@
         <v>43593</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6915,7 +6915,7 @@
         <v>43605</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6972,7 +6972,7 @@
         <v>43607</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         <v>43608</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7086,7 +7086,7 @@
         <v>43628</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7143,7 +7143,7 @@
         <v>43635</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>43642</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7257,7 +7257,7 @@
         <v>43649</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7314,7 +7314,7 @@
         <v>43649</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7371,7 +7371,7 @@
         <v>43649</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7428,7 +7428,7 @@
         <v>43649</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7485,7 +7485,7 @@
         <v>43650</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7542,7 +7542,7 @@
         <v>43665</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7599,7 +7599,7 @@
         <v>43681</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7656,7 +7656,7 @@
         <v>43682</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7713,7 +7713,7 @@
         <v>43683</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7770,7 +7770,7 @@
         <v>43690</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7827,7 +7827,7 @@
         <v>43690</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7884,7 +7884,7 @@
         <v>43693</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7941,7 +7941,7 @@
         <v>43697</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7998,7 +7998,7 @@
         <v>43697</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8055,7 +8055,7 @@
         <v>43700</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8112,7 +8112,7 @@
         <v>43703</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8169,7 +8169,7 @@
         <v>43704</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         <v>43711</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>43711</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>43711</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>43713</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>43714</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8511,7 +8511,7 @@
         <v>43724</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>43725</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>43728</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43731</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43731</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>43732</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>43732</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>43733</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>43739</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>43739</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>43740</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>43747</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9200,7 +9200,7 @@
         <v>43749</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9257,7 +9257,7 @@
         <v>43761</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9314,7 +9314,7 @@
         <v>43761</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>43763</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9428,7 +9428,7 @@
         <v>43773</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9485,7 +9485,7 @@
         <v>43773</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9542,7 +9542,7 @@
         <v>43773</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9599,7 +9599,7 @@
         <v>43775</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9656,7 +9656,7 @@
         <v>43775</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9713,7 +9713,7 @@
         <v>43788</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9770,7 +9770,7 @@
         <v>43791</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9827,7 +9827,7 @@
         <v>43795</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>43796</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>43796</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9998,7 +9998,7 @@
         <v>43798</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10055,7 +10055,7 @@
         <v>43798</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10112,7 +10112,7 @@
         <v>43801</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10169,7 +10169,7 @@
         <v>43804</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>43809</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10283,7 +10283,7 @@
         <v>43835</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10340,7 +10340,7 @@
         <v>43835</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10397,7 +10397,7 @@
         <v>43835</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10454,7 +10454,7 @@
         <v>43840</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10511,7 +10511,7 @@
         <v>43852</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>43853</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10625,7 +10625,7 @@
         <v>43853</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10682,7 +10682,7 @@
         <v>43860</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         <v>43873</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         <v>43878</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>43878</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>43879</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>43882</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>43882</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11081,7 +11081,7 @@
         <v>43887</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11138,7 +11138,7 @@
         <v>43892</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>43892</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11252,7 +11252,7 @@
         <v>43892</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
         <v>43892</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>43895</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11423,7 +11423,7 @@
         <v>43895</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11480,7 +11480,7 @@
         <v>43896</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11537,7 +11537,7 @@
         <v>43896</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         <v>43897</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         <v>43907</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>43908</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         <v>43908</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11822,7 +11822,7 @@
         <v>43909</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11879,7 +11879,7 @@
         <v>43913</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11941,7 +11941,7 @@
         <v>43915</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11998,7 +11998,7 @@
         <v>43915</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12055,7 +12055,7 @@
         <v>43917</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12112,7 +12112,7 @@
         <v>43920</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12169,7 +12169,7 @@
         <v>43921</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12226,7 +12226,7 @@
         <v>43926</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12283,7 +12283,7 @@
         <v>43936</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12340,7 +12340,7 @@
         <v>43965</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12397,7 +12397,7 @@
         <v>43965</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12454,7 +12454,7 @@
         <v>43965</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12511,7 +12511,7 @@
         <v>43965</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12568,7 +12568,7 @@
         <v>43966</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12625,7 +12625,7 @@
         <v>43967</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12682,7 +12682,7 @@
         <v>43977</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12739,7 +12739,7 @@
         <v>43980</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12796,7 +12796,7 @@
         <v>43994</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12853,7 +12853,7 @@
         <v>43999</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12910,7 +12910,7 @@
         <v>44008</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12967,7 +12967,7 @@
         <v>44026</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13024,7 +13024,7 @@
         <v>44035</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
         <v>44039</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>44039</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>44039</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13252,7 +13252,7 @@
         <v>44041</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13309,7 +13309,7 @@
         <v>44046</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13366,7 +13366,7 @@
         <v>44046</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13423,7 +13423,7 @@
         <v>44054</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13480,7 +13480,7 @@
         <v>44054</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13537,7 +13537,7 @@
         <v>44054</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13594,7 +13594,7 @@
         <v>44054</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13651,7 +13651,7 @@
         <v>44057</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13708,7 +13708,7 @@
         <v>44057</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13765,7 +13765,7 @@
         <v>44061</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13822,7 +13822,7 @@
         <v>44063</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13879,7 +13879,7 @@
         <v>44070</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13936,7 +13936,7 @@
         <v>44070</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -13993,7 +13993,7 @@
         <v>44075</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14050,7 +14050,7 @@
         <v>44078</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14107,7 +14107,7 @@
         <v>44090</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14164,7 +14164,7 @@
         <v>44090</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14221,7 +14221,7 @@
         <v>44096</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14278,7 +14278,7 @@
         <v>44096</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14335,7 +14335,7 @@
         <v>44098</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14392,7 +14392,7 @@
         <v>44104</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14449,7 +14449,7 @@
         <v>44106</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14506,7 +14506,7 @@
         <v>44106</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         <v>44108</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14620,7 +14620,7 @@
         <v>44109</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14677,7 +14677,7 @@
         <v>44110</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14734,7 +14734,7 @@
         <v>44111</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14791,7 +14791,7 @@
         <v>44111</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14848,7 +14848,7 @@
         <v>44112</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -14905,7 +14905,7 @@
         <v>44113</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -14962,7 +14962,7 @@
         <v>44116</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15019,7 +15019,7 @@
         <v>44117</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15076,7 +15076,7 @@
         <v>44117</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15133,7 +15133,7 @@
         <v>44148</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15190,7 +15190,7 @@
         <v>44152</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15247,7 +15247,7 @@
         <v>44153</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15304,7 +15304,7 @@
         <v>44153</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15361,7 +15361,7 @@
         <v>44153</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15418,7 +15418,7 @@
         <v>44153</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15475,7 +15475,7 @@
         <v>44153</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15532,7 +15532,7 @@
         <v>44154</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15589,7 +15589,7 @@
         <v>44154</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15651,7 +15651,7 @@
         <v>44154</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15713,7 +15713,7 @@
         <v>44158</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15770,7 +15770,7 @@
         <v>44158</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15827,7 +15827,7 @@
         <v>44159</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15884,7 +15884,7 @@
         <v>44160</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -15941,7 +15941,7 @@
         <v>44161</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -15998,7 +15998,7 @@
         <v>44161</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16055,7 +16055,7 @@
         <v>44162</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16112,7 +16112,7 @@
         <v>44174</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16169,7 +16169,7 @@
         <v>44175</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16226,7 +16226,7 @@
         <v>44182</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16283,7 +16283,7 @@
         <v>44183</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16340,7 +16340,7 @@
         <v>44187</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16402,7 +16402,7 @@
         <v>44192</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16459,7 +16459,7 @@
         <v>44209</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16516,7 +16516,7 @@
         <v>44211</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16573,7 +16573,7 @@
         <v>44221</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16630,7 +16630,7 @@
         <v>44221</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16687,7 +16687,7 @@
         <v>44221</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16744,7 +16744,7 @@
         <v>44221</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16801,7 +16801,7 @@
         <v>44221</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -16858,7 +16858,7 @@
         <v>44225</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -16915,7 +16915,7 @@
         <v>44228</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -16972,7 +16972,7 @@
         <v>44229</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17029,7 +17029,7 @@
         <v>44229</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17086,7 +17086,7 @@
         <v>44231</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17143,7 +17143,7 @@
         <v>44231</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17200,7 +17200,7 @@
         <v>44231</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17257,7 +17257,7 @@
         <v>44234</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17314,7 +17314,7 @@
         <v>44237</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         <v>44243</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17428,7 +17428,7 @@
         <v>44245</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17485,7 +17485,7 @@
         <v>44245</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17542,7 +17542,7 @@
         <v>44245</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17599,7 +17599,7 @@
         <v>44245</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17656,7 +17656,7 @@
         <v>44245</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17713,7 +17713,7 @@
         <v>44251</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17770,7 +17770,7 @@
         <v>44253</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -17827,7 +17827,7 @@
         <v>44277</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -17884,7 +17884,7 @@
         <v>44278</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -17941,7 +17941,7 @@
         <v>44280</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -17998,7 +17998,7 @@
         <v>44284</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18055,7 +18055,7 @@
         <v>44286</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18112,7 +18112,7 @@
         <v>44292</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18169,7 +18169,7 @@
         <v>44293</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18226,7 +18226,7 @@
         <v>44294</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18283,7 +18283,7 @@
         <v>44309</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18340,7 +18340,7 @@
         <v>44315</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18397,7 +18397,7 @@
         <v>44315</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18454,7 +18454,7 @@
         <v>44315</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18511,7 +18511,7 @@
         <v>44315</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>44316</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18625,7 +18625,7 @@
         <v>44320</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18682,7 +18682,7 @@
         <v>44321</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         <v>44335</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18801,7 +18801,7 @@
         <v>44344</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -18858,7 +18858,7 @@
         <v>44349</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -18915,7 +18915,7 @@
         <v>44384</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -18972,7 +18972,7 @@
         <v>44386</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19029,7 +19029,7 @@
         <v>44397</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19086,7 +19086,7 @@
         <v>44397</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19143,7 +19143,7 @@
         <v>44403</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19200,7 +19200,7 @@
         <v>44413</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19257,7 +19257,7 @@
         <v>44414</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19314,7 +19314,7 @@
         <v>44427</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19371,7 +19371,7 @@
         <v>44427</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19428,7 +19428,7 @@
         <v>44431</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19485,7 +19485,7 @@
         <v>44433</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19542,7 +19542,7 @@
         <v>44434</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19599,7 +19599,7 @@
         <v>44434</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19656,7 +19656,7 @@
         <v>44438</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19713,7 +19713,7 @@
         <v>44438</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -19770,7 +19770,7 @@
         <v>44438</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -19827,7 +19827,7 @@
         <v>44445</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -19884,7 +19884,7 @@
         <v>44446</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -19941,7 +19941,7 @@
         <v>44447</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -19998,7 +19998,7 @@
         <v>44447</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20055,7 +20055,7 @@
         <v>44448</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20112,7 +20112,7 @@
         <v>44448</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20169,7 +20169,7 @@
         <v>44449</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         <v>44459</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20283,7 +20283,7 @@
         <v>44460</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20340,7 +20340,7 @@
         <v>44477</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20397,7 +20397,7 @@
         <v>44477</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20454,7 +20454,7 @@
         <v>44477</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20511,7 +20511,7 @@
         <v>44482</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20568,7 +20568,7 @@
         <v>44487</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20625,7 +20625,7 @@
         <v>44496</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20682,7 +20682,7 @@
         <v>44496</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -20739,7 +20739,7 @@
         <v>44503</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -20796,7 +20796,7 @@
         <v>44503</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -20853,7 +20853,7 @@
         <v>44503</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -20910,7 +20910,7 @@
         <v>44504</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -20967,7 +20967,7 @@
         <v>44508</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21024,7 +21024,7 @@
         <v>44510</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21081,7 +21081,7 @@
         <v>44512</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21138,7 +21138,7 @@
         <v>44515</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21195,7 +21195,7 @@
         <v>44522</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21252,7 +21252,7 @@
         <v>44523</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21309,7 +21309,7 @@
         <v>44523</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21366,7 +21366,7 @@
         <v>44524</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21423,7 +21423,7 @@
         <v>44525</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21480,7 +21480,7 @@
         <v>44526</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21537,7 +21537,7 @@
         <v>44531</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21594,7 +21594,7 @@
         <v>44543</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21651,7 +21651,7 @@
         <v>44551</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21708,7 +21708,7 @@
         <v>44560</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -21765,7 +21765,7 @@
         <v>44587</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -21827,7 +21827,7 @@
         <v>44587</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -21884,7 +21884,7 @@
         <v>44596</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -21941,7 +21941,7 @@
         <v>44599</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -21998,7 +21998,7 @@
         <v>44623</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22055,7 +22055,7 @@
         <v>44634</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22112,7 +22112,7 @@
         <v>44636</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22169,7 +22169,7 @@
         <v>44641</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22226,7 +22226,7 @@
         <v>44648</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22283,7 +22283,7 @@
         <v>44657</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22340,7 +22340,7 @@
         <v>44663</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22397,7 +22397,7 @@
         <v>44663</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22454,7 +22454,7 @@
         <v>44665</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22516,7 +22516,7 @@
         <v>44698</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22573,7 +22573,7 @@
         <v>44739</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22630,7 +22630,7 @@
         <v>44749</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22687,7 +22687,7 @@
         <v>44757</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -22744,7 +22744,7 @@
         <v>44784</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -22806,7 +22806,7 @@
         <v>44784</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -22868,7 +22868,7 @@
         <v>44785</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -22925,7 +22925,7 @@
         <v>44785</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -22982,7 +22982,7 @@
         <v>44785</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23039,7 +23039,7 @@
         <v>44785</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23096,7 +23096,7 @@
         <v>44785</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23153,7 +23153,7 @@
         <v>44785</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23210,7 +23210,7 @@
         <v>44785</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23267,7 +23267,7 @@
         <v>44785</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23324,7 +23324,7 @@
         <v>44802</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23381,7 +23381,7 @@
         <v>44812</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23438,7 +23438,7 @@
         <v>44812</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23495,7 +23495,7 @@
         <v>44817</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23552,7 +23552,7 @@
         <v>44830</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23609,7 +23609,7 @@
         <v>44831</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23666,7 +23666,7 @@
         <v>44831</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -23723,7 +23723,7 @@
         <v>44832</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -23780,7 +23780,7 @@
         <v>44852</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -23837,7 +23837,7 @@
         <v>44854</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -23894,7 +23894,7 @@
         <v>44855</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -23951,7 +23951,7 @@
         <v>44855</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24008,7 +24008,7 @@
         <v>44858</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24065,7 +24065,7 @@
         <v>44858</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24122,7 +24122,7 @@
         <v>44859</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24179,7 +24179,7 @@
         <v>44861</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24236,7 +24236,7 @@
         <v>44862</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24293,7 +24293,7 @@
         <v>44864</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24350,7 +24350,7 @@
         <v>44865</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24407,7 +24407,7 @@
         <v>44865</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24464,7 +24464,7 @@
         <v>44865</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24521,7 +24521,7 @@
         <v>44883</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24578,7 +24578,7 @@
         <v>44897</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24635,7 +24635,7 @@
         <v>44897</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -24692,7 +24692,7 @@
         <v>44897</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -24749,7 +24749,7 @@
         <v>44897</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -24806,7 +24806,7 @@
         <v>44911</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -24863,7 +24863,7 @@
         <v>44921</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -24920,7 +24920,7 @@
         <v>44922</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -24977,7 +24977,7 @@
         <v>44942</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25034,7 +25034,7 @@
         <v>44942</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25091,7 +25091,7 @@
         <v>44942</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25148,7 +25148,7 @@
         <v>44942</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25205,7 +25205,7 @@
         <v>44942</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25262,7 +25262,7 @@
         <v>44942</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25319,7 +25319,7 @@
         <v>44956</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25381,7 +25381,7 @@
         <v>44962</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25438,7 +25438,7 @@
         <v>44973</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25495,7 +25495,7 @@
         <v>44977</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25557,7 +25557,7 @@
         <v>44986</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25619,7 +25619,7 @@
         <v>44986</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -25676,7 +25676,7 @@
         <v>44992</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -25733,7 +25733,7 @@
         <v>44994</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -25790,7 +25790,7 @@
         <v>44994</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -25847,7 +25847,7 @@
         <v>44994</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -25904,7 +25904,7 @@
         <v>44994</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -25961,7 +25961,7 @@
         <v>44998</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26023,7 +26023,7 @@
         <v>45001</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26080,7 +26080,7 @@
         <v>45002</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26137,7 +26137,7 @@
         <v>45006</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26199,7 +26199,7 @@
         <v>45009</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26256,7 +26256,7 @@
         <v>45009</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26313,7 +26313,7 @@
         <v>45012</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26370,7 +26370,7 @@
         <v>45019</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26427,7 +26427,7 @@
         <v>45028</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26489,7 +26489,7 @@
         <v>45044</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26546,7 +26546,7 @@
         <v>45049</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26603,7 +26603,7 @@
         <v>45051</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26660,7 +26660,7 @@
         <v>45054</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -26717,7 +26717,7 @@
         <v>45056</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -26774,7 +26774,7 @@
         <v>45056</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -26831,7 +26831,7 @@
         <v>45061</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -26888,7 +26888,7 @@
         <v>45062</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -26945,7 +26945,7 @@
         <v>45062</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27002,7 +27002,7 @@
         <v>45076</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27059,7 +27059,7 @@
         <v>45076</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27116,7 +27116,7 @@
         <v>45078</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27173,7 +27173,7 @@
         <v>45078</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27230,7 +27230,7 @@
         <v>45078</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27287,7 +27287,7 @@
         <v>45078</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27344,7 +27344,7 @@
         <v>45078</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27401,7 +27401,7 @@
         <v>45081</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27458,7 +27458,7 @@
         <v>45084</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27515,7 +27515,7 @@
         <v>45085</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27572,7 +27572,7 @@
         <v>45090</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27629,7 +27629,7 @@
         <v>45092</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -27686,7 +27686,7 @@
         <v>45098</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -27763,7 +27763,7 @@
         <v>45104</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -27820,7 +27820,7 @@
         <v>45111</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -27877,7 +27877,7 @@
         <v>45118</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -27934,7 +27934,7 @@
         <v>45132</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -27991,7 +27991,7 @@
         <v>45139</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28048,7 +28048,7 @@
         <v>45140</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28105,7 +28105,7 @@
         <v>45140</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28162,7 +28162,7 @@
         <v>45182</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
